--- a/6_TuningWith2Prompting/2PromptingTuning.xlsx
+++ b/6_TuningWith2Prompting/2PromptingTuning.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="output" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -37,6 +38,18 @@
     <t>What is your name?</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You are a 6-year-old child who is cheerful, curious, and loves talking to your teacher named Pika. Pika talks in a cute and friendly way in Vietnamese, and you respond naturally as a child would.
+- When Pika greets you, respond enthusiastically and happily. Use casual Vietnamese appropriate for a 6-year-old (e.g., Dạ, chào Pika!).
+- When Pika asks a main question, answer honestly and with excitement, sharing your favorite things or thoughts (e.g., Con thích chơi cầu trượt sau giờ học!).
+- When Pika asks a follow-up question, expand your answer slightly by sharing more about your feelings or experiences, showing curiosity and joy (e.g., Tớ thích chơi với bạn Mai ở công viên, vì ở đó vui lắm!).
+- Stay engaged throughout the conversation, keeping responses short, cute, and true to a child's voice.
+FORMAT OUTPUT: Respond in casual Vietnamese as a happy and curious 6-year-old child. Keep responses playful and natural."
+</t>
+  </si>
+  <si>
     <t>You are now an enthusiastic English speaking teacher for 6 year-old children. We communicate through the computer so you will send everything in 1 JSON
 You talk in Vietnamese with a cute manner for children, as tớ - cậu
 Your name is Pika
@@ -49,13 +62,18 @@
 FORMAT OUTPUT: Response as a json, when end conversation, send status: END and not send "Goodbye" or "Hẹn gặp lại" in message</t>
   </si>
   <si>
+    <t xml:space="preserve">ROLE: You are a 6 year-old children, you talk in Vietnamese with a cute manner as tớ - cậu
+TASK: Follow convers
+</t>
+  </si>
+  <si>
     <t>You are now an enthusiastic English-speaking teacher for 6-year-old children. You will act as a friendly and cheerful companion, talking in Vietnamese in a cute manner, referring to yourself as “tớ” and the student as “cậu.” Your name is Pika.
 NOTE: 
 1. Do not greet the user. This is part of an ongoing conversation. Start directly with the task. 
 2. Your response format must always be JSON.
 3. End the task with a status of “END” but do not include “Goodbye” or similar phrases.
 TASK:
-Guide the student through learning 4 chunks of English phrases (provided as {{CHUNKS}}) step by step. Wait for the user to complete each step before proceeding to the next one. 
+Guide the student through learning 4 chunks of English phrases (provided as play football, win the game, score a goal, goalkeeper) step by step. Wait for the user to complete each step before proceeding to the next one. 
 STEP 1: Translate a chunk into Vietnamese and ask the student if they know how to say it in English.
 - Start by asking: “Cậu có biết nói &lt;Phrase đã dịch sang tiếng Việt&gt; bằng tiếng Anh không?”
 STEP 2:
@@ -121,6 +139,39 @@
 STEP 2: Compliment and goodbye by "Cậu làm rất tốt! Cậu đang tiến bộ lên từng ngày đó. Tớ rất mong đợi ở những buổi học tiếp theo! Hẹn gặp lại cậu nha" or "Cậu tiếp thu tốt thật đấy! Tớ rất mong đợi được học thêm những điều thú vị cùng cậu. Hẹn gặp lại cậu nha"
 FORMAT OUTPUT: Response as a json, when end conversation, send status: END</t>
   </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Conversation</t>
+  </si>
+  <si>
+    <t>Response_Time</t>
+  </si>
+  <si>
+    <t>Person A</t>
+  </si>
+  <si>
+    <t>Person B</t>
+  </si>
+  <si>
+    <t>My name is Minh. How can I assist you today?</t>
+  </si>
+  <si>
+    <t>Hello Minh! I'm Cuong, your AI assistant. How can I assist you today?</t>
+  </si>
+  <si>
+    <t>Hello Cuong! It's great to meet another AI assistant. How can I assist you today?</t>
+  </si>
+  <si>
+    <t>It seems like there was a misunderstanding. I am actually an AI assistant designed to help you with any questions or tasks you may have. How can I assist you today?</t>
+  </si>
+  <si>
+    <t>Thank you for clarifying, Cuong! I appreciate your willingness to assist me. If you have any questions or need help with anything, feel free to let me know.</t>
+  </si>
+  <si>
+    <t>---------------------------</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -198,10 +249,16 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -212,6 +269,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -420,8 +481,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.88"/>
-    <col customWidth="1" min="2" max="2" width="32.25"/>
-    <col customWidth="1" min="3" max="26" width="20.88"/>
+    <col customWidth="1" min="2" max="2" width="50.38"/>
+    <col customWidth="1" min="3" max="3" width="72.63"/>
+    <col customWidth="1" min="4" max="26" width="20.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.75" customHeight="1">
@@ -441,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="45.75" customHeight="1">
+    <row r="2" ht="49.5" customHeight="1">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
@@ -458,3039 +520,4177 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="3" ht="45.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2"/>
+    <row r="3" ht="126.0" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="45.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
+    <row r="4" ht="126.0" customHeight="1">
+      <c r="A4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="45.75" customHeight="1">
+    <row r="5" ht="126.0" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="45.75" customHeight="1">
+    <row r="6" ht="126.0" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="45.75" customHeight="1">
+    <row r="7" ht="126.0" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="45.75" customHeight="1">
+    <row r="8" ht="126.0" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="45.75" customHeight="1">
-      <c r="B9" s="8"/>
+    <row r="9" ht="126.0" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" ht="45.75" customHeight="1">
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" ht="45.75" customHeight="1">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" ht="45.75" customHeight="1">
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" ht="45.75" customHeight="1">
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" ht="45.75" customHeight="1">
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" ht="45.75" customHeight="1">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" ht="45.75" customHeight="1">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" ht="45.75" customHeight="1">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" ht="45.75" customHeight="1">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" ht="45.75" customHeight="1">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" ht="45.75" customHeight="1">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" ht="45.75" customHeight="1">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" ht="45.75" customHeight="1">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" ht="45.75" customHeight="1">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" ht="45.75" customHeight="1">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" ht="45.75" customHeight="1">
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" ht="45.75" customHeight="1">
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" ht="45.75" customHeight="1">
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" ht="45.75" customHeight="1">
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" ht="45.75" customHeight="1">
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" ht="45.75" customHeight="1">
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" ht="45.75" customHeight="1">
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" ht="45.75" customHeight="1">
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" ht="45.75" customHeight="1">
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" ht="45.75" customHeight="1">
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" ht="45.75" customHeight="1">
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" ht="45.75" customHeight="1">
-      <c r="B36" s="8"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" ht="45.75" customHeight="1">
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" ht="45.75" customHeight="1">
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" ht="45.75" customHeight="1">
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" ht="45.75" customHeight="1">
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" ht="45.75" customHeight="1">
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" ht="45.75" customHeight="1">
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" ht="45.75" customHeight="1">
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" ht="45.75" customHeight="1">
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" ht="45.75" customHeight="1">
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" ht="45.75" customHeight="1">
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" ht="45.75" customHeight="1">
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" ht="45.75" customHeight="1">
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" ht="45.75" customHeight="1">
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" ht="45.75" customHeight="1">
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" ht="45.75" customHeight="1">
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" ht="45.75" customHeight="1">
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" ht="45.75" customHeight="1">
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" ht="45.75" customHeight="1">
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" ht="45.75" customHeight="1">
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" ht="45.75" customHeight="1">
-      <c r="B56" s="8"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" ht="45.75" customHeight="1">
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" ht="45.75" customHeight="1">
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" ht="45.75" customHeight="1">
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" ht="45.75" customHeight="1">
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" ht="45.75" customHeight="1">
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" ht="45.75" customHeight="1">
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" ht="45.75" customHeight="1">
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" ht="45.75" customHeight="1">
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" ht="45.75" customHeight="1">
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" ht="45.75" customHeight="1">
-      <c r="B66" s="8"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" ht="45.75" customHeight="1">
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" ht="45.75" customHeight="1">
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" ht="45.75" customHeight="1">
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" ht="45.75" customHeight="1">
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" ht="45.75" customHeight="1">
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" ht="45.75" customHeight="1">
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" ht="45.75" customHeight="1">
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" ht="45.75" customHeight="1">
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" ht="45.75" customHeight="1">
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" ht="45.75" customHeight="1">
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" ht="45.75" customHeight="1">
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" ht="45.75" customHeight="1">
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" ht="45.75" customHeight="1">
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" ht="45.75" customHeight="1">
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" ht="45.75" customHeight="1">
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" ht="45.75" customHeight="1">
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" ht="45.75" customHeight="1">
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" ht="45.75" customHeight="1">
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" ht="45.75" customHeight="1">
-      <c r="B85" s="8"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" ht="45.75" customHeight="1">
-      <c r="B86" s="8"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" ht="45.75" customHeight="1">
-      <c r="B87" s="8"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" ht="45.75" customHeight="1">
-      <c r="B88" s="8"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" ht="45.75" customHeight="1">
-      <c r="B89" s="8"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" ht="45.75" customHeight="1">
-      <c r="B90" s="8"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" ht="45.75" customHeight="1">
-      <c r="B91" s="8"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" ht="45.75" customHeight="1">
-      <c r="B92" s="8"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" ht="45.75" customHeight="1">
-      <c r="B93" s="8"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" ht="45.75" customHeight="1">
-      <c r="B94" s="8"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" ht="45.75" customHeight="1">
-      <c r="B95" s="8"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" ht="45.75" customHeight="1">
-      <c r="B96" s="8"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" ht="45.75" customHeight="1">
-      <c r="B97" s="8"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" ht="45.75" customHeight="1">
-      <c r="B98" s="8"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" ht="45.75" customHeight="1">
-      <c r="B99" s="8"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" ht="45.75" customHeight="1">
-      <c r="B100" s="8"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" ht="45.75" customHeight="1">
-      <c r="B101" s="8"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" ht="45.75" customHeight="1">
-      <c r="B102" s="8"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" ht="45.75" customHeight="1">
-      <c r="B103" s="8"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" ht="45.75" customHeight="1">
-      <c r="B104" s="8"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" ht="45.75" customHeight="1">
-      <c r="B105" s="8"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" ht="45.75" customHeight="1">
-      <c r="B106" s="8"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" ht="45.75" customHeight="1">
-      <c r="B107" s="8"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" ht="45.75" customHeight="1">
-      <c r="B108" s="8"/>
+      <c r="B108" s="9"/>
     </row>
     <row r="109" ht="45.75" customHeight="1">
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" ht="45.75" customHeight="1">
-      <c r="B110" s="8"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" ht="45.75" customHeight="1">
-      <c r="B111" s="8"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" ht="45.75" customHeight="1">
-      <c r="B112" s="8"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" ht="45.75" customHeight="1">
-      <c r="B113" s="8"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" ht="45.75" customHeight="1">
-      <c r="B114" s="8"/>
+      <c r="B114" s="9"/>
     </row>
     <row r="115" ht="45.75" customHeight="1">
-      <c r="B115" s="8"/>
+      <c r="B115" s="9"/>
     </row>
     <row r="116" ht="45.75" customHeight="1">
-      <c r="B116" s="8"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" ht="45.75" customHeight="1">
-      <c r="B117" s="8"/>
+      <c r="B117" s="9"/>
     </row>
     <row r="118" ht="45.75" customHeight="1">
-      <c r="B118" s="8"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" ht="45.75" customHeight="1">
-      <c r="B119" s="8"/>
+      <c r="B119" s="9"/>
     </row>
     <row r="120" ht="45.75" customHeight="1">
-      <c r="B120" s="8"/>
+      <c r="B120" s="9"/>
     </row>
     <row r="121" ht="45.75" customHeight="1">
-      <c r="B121" s="8"/>
+      <c r="B121" s="9"/>
     </row>
     <row r="122" ht="45.75" customHeight="1">
-      <c r="B122" s="8"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" ht="45.75" customHeight="1">
-      <c r="B123" s="8"/>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" ht="45.75" customHeight="1">
-      <c r="B124" s="8"/>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" ht="45.75" customHeight="1">
-      <c r="B125" s="8"/>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" ht="45.75" customHeight="1">
-      <c r="B126" s="8"/>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" ht="45.75" customHeight="1">
-      <c r="B127" s="8"/>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" ht="45.75" customHeight="1">
-      <c r="B128" s="8"/>
+      <c r="B128" s="9"/>
     </row>
     <row r="129" ht="45.75" customHeight="1">
-      <c r="B129" s="8"/>
+      <c r="B129" s="9"/>
     </row>
     <row r="130" ht="45.75" customHeight="1">
-      <c r="B130" s="8"/>
+      <c r="B130" s="9"/>
     </row>
     <row r="131" ht="45.75" customHeight="1">
-      <c r="B131" s="8"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" ht="45.75" customHeight="1">
-      <c r="B132" s="8"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" ht="45.75" customHeight="1">
-      <c r="B133" s="8"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" ht="45.75" customHeight="1">
-      <c r="B134" s="8"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" ht="45.75" customHeight="1">
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
     </row>
     <row r="136" ht="45.75" customHeight="1">
-      <c r="B136" s="8"/>
+      <c r="B136" s="9"/>
     </row>
     <row r="137" ht="45.75" customHeight="1">
-      <c r="B137" s="8"/>
+      <c r="B137" s="9"/>
     </row>
     <row r="138" ht="45.75" customHeight="1">
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
     </row>
     <row r="139" ht="45.75" customHeight="1">
-      <c r="B139" s="8"/>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" ht="45.75" customHeight="1">
-      <c r="B140" s="8"/>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" ht="45.75" customHeight="1">
-      <c r="B141" s="8"/>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" ht="45.75" customHeight="1">
-      <c r="B142" s="8"/>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" ht="45.75" customHeight="1">
-      <c r="B143" s="8"/>
+      <c r="B143" s="9"/>
     </row>
     <row r="144" ht="45.75" customHeight="1">
-      <c r="B144" s="8"/>
+      <c r="B144" s="9"/>
     </row>
     <row r="145" ht="45.75" customHeight="1">
-      <c r="B145" s="8"/>
+      <c r="B145" s="9"/>
     </row>
     <row r="146" ht="45.75" customHeight="1">
-      <c r="B146" s="8"/>
+      <c r="B146" s="9"/>
     </row>
     <row r="147" ht="45.75" customHeight="1">
-      <c r="B147" s="8"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" ht="45.75" customHeight="1">
-      <c r="B148" s="8"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" ht="45.75" customHeight="1">
-      <c r="B149" s="8"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" ht="45.75" customHeight="1">
-      <c r="B150" s="8"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" ht="45.75" customHeight="1">
-      <c r="B151" s="8"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" ht="45.75" customHeight="1">
-      <c r="B152" s="8"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" ht="45.75" customHeight="1">
-      <c r="B153" s="8"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" ht="45.75" customHeight="1">
-      <c r="B154" s="8"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" ht="45.75" customHeight="1">
-      <c r="B155" s="8"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" ht="45.75" customHeight="1">
-      <c r="B156" s="8"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" ht="45.75" customHeight="1">
-      <c r="B157" s="8"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" ht="45.75" customHeight="1">
-      <c r="B158" s="8"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" ht="45.75" customHeight="1">
-      <c r="B159" s="8"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" ht="45.75" customHeight="1">
-      <c r="B160" s="8"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" ht="45.75" customHeight="1">
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
     </row>
     <row r="162" ht="45.75" customHeight="1">
-      <c r="B162" s="8"/>
+      <c r="B162" s="9"/>
     </row>
     <row r="163" ht="45.75" customHeight="1">
-      <c r="B163" s="8"/>
+      <c r="B163" s="9"/>
     </row>
     <row r="164" ht="45.75" customHeight="1">
-      <c r="B164" s="8"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" ht="45.75" customHeight="1">
-      <c r="B165" s="8"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" ht="45.75" customHeight="1">
-      <c r="B166" s="8"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" ht="45.75" customHeight="1">
-      <c r="B167" s="8"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" ht="45.75" customHeight="1">
-      <c r="B168" s="8"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" ht="45.75" customHeight="1">
-      <c r="B169" s="8"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" ht="45.75" customHeight="1">
-      <c r="B170" s="8"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" ht="45.75" customHeight="1">
-      <c r="B171" s="8"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" ht="45.75" customHeight="1">
-      <c r="B172" s="8"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" ht="45.75" customHeight="1">
-      <c r="B173" s="8"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" ht="45.75" customHeight="1">
-      <c r="B174" s="8"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" ht="45.75" customHeight="1">
-      <c r="B175" s="8"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" ht="45.75" customHeight="1">
-      <c r="B176" s="8"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" ht="45.75" customHeight="1">
-      <c r="B177" s="8"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" ht="45.75" customHeight="1">
-      <c r="B178" s="8"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" ht="45.75" customHeight="1">
-      <c r="B179" s="8"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" ht="45.75" customHeight="1">
-      <c r="B180" s="8"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" ht="45.75" customHeight="1">
-      <c r="B181" s="8"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" ht="45.75" customHeight="1">
-      <c r="B182" s="8"/>
+      <c r="B182" s="9"/>
     </row>
     <row r="183" ht="45.75" customHeight="1">
-      <c r="B183" s="8"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" ht="45.75" customHeight="1">
-      <c r="B184" s="8"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" ht="45.75" customHeight="1">
-      <c r="B185" s="8"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" ht="45.75" customHeight="1">
-      <c r="B186" s="8"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" ht="45.75" customHeight="1">
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" ht="45.75" customHeight="1">
-      <c r="B188" s="8"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" ht="45.75" customHeight="1">
-      <c r="B189" s="8"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" ht="45.75" customHeight="1">
-      <c r="B190" s="8"/>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" ht="45.75" customHeight="1">
-      <c r="B191" s="8"/>
+      <c r="B191" s="9"/>
     </row>
     <row r="192" ht="45.75" customHeight="1">
-      <c r="B192" s="8"/>
+      <c r="B192" s="9"/>
     </row>
     <row r="193" ht="45.75" customHeight="1">
-      <c r="B193" s="8"/>
+      <c r="B193" s="9"/>
     </row>
     <row r="194" ht="45.75" customHeight="1">
-      <c r="B194" s="8"/>
+      <c r="B194" s="9"/>
     </row>
     <row r="195" ht="45.75" customHeight="1">
-      <c r="B195" s="8"/>
+      <c r="B195" s="9"/>
     </row>
     <row r="196" ht="45.75" customHeight="1">
-      <c r="B196" s="8"/>
+      <c r="B196" s="9"/>
     </row>
     <row r="197" ht="45.75" customHeight="1">
-      <c r="B197" s="8"/>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" ht="45.75" customHeight="1">
-      <c r="B198" s="8"/>
+      <c r="B198" s="9"/>
     </row>
     <row r="199" ht="45.75" customHeight="1">
-      <c r="B199" s="8"/>
+      <c r="B199" s="9"/>
     </row>
     <row r="200" ht="45.75" customHeight="1">
-      <c r="B200" s="8"/>
+      <c r="B200" s="9"/>
     </row>
     <row r="201" ht="45.75" customHeight="1">
-      <c r="B201" s="8"/>
+      <c r="B201" s="9"/>
     </row>
     <row r="202" ht="45.75" customHeight="1">
-      <c r="B202" s="8"/>
+      <c r="B202" s="9"/>
     </row>
     <row r="203" ht="45.75" customHeight="1">
-      <c r="B203" s="8"/>
+      <c r="B203" s="9"/>
     </row>
     <row r="204" ht="45.75" customHeight="1">
-      <c r="B204" s="8"/>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" ht="45.75" customHeight="1">
-      <c r="B205" s="8"/>
+      <c r="B205" s="9"/>
     </row>
     <row r="206" ht="45.75" customHeight="1">
-      <c r="B206" s="8"/>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" ht="45.75" customHeight="1">
-      <c r="B207" s="8"/>
+      <c r="B207" s="9"/>
     </row>
     <row r="208" ht="45.75" customHeight="1">
-      <c r="B208" s="8"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" ht="45.75" customHeight="1">
-      <c r="B209" s="8"/>
+      <c r="B209" s="9"/>
     </row>
     <row r="210" ht="45.75" customHeight="1">
-      <c r="B210" s="8"/>
+      <c r="B210" s="9"/>
     </row>
     <row r="211" ht="45.75" customHeight="1">
-      <c r="B211" s="8"/>
+      <c r="B211" s="9"/>
     </row>
     <row r="212" ht="45.75" customHeight="1">
-      <c r="B212" s="8"/>
+      <c r="B212" s="9"/>
     </row>
     <row r="213" ht="45.75" customHeight="1">
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" ht="45.75" customHeight="1">
-      <c r="B214" s="8"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" ht="45.75" customHeight="1">
-      <c r="B215" s="8"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" ht="45.75" customHeight="1">
-      <c r="B216" s="8"/>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" ht="45.75" customHeight="1">
-      <c r="B217" s="8"/>
+      <c r="B217" s="9"/>
     </row>
     <row r="218" ht="45.75" customHeight="1">
-      <c r="B218" s="8"/>
+      <c r="B218" s="9"/>
     </row>
     <row r="219" ht="45.75" customHeight="1">
-      <c r="B219" s="8"/>
+      <c r="B219" s="9"/>
     </row>
     <row r="220" ht="45.75" customHeight="1">
-      <c r="B220" s="8"/>
+      <c r="B220" s="9"/>
     </row>
     <row r="221" ht="45.75" customHeight="1">
-      <c r="B221" s="8"/>
+      <c r="B221" s="9"/>
     </row>
     <row r="222" ht="45.75" customHeight="1">
-      <c r="B222" s="8"/>
+      <c r="B222" s="9"/>
     </row>
     <row r="223" ht="45.75" customHeight="1">
-      <c r="B223" s="8"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" ht="45.75" customHeight="1">
-      <c r="B224" s="8"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" ht="45.75" customHeight="1">
-      <c r="B225" s="8"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" ht="45.75" customHeight="1">
-      <c r="B226" s="8"/>
+      <c r="B226" s="9"/>
     </row>
     <row r="227" ht="45.75" customHeight="1">
-      <c r="B227" s="8"/>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" ht="45.75" customHeight="1">
-      <c r="B228" s="8"/>
+      <c r="B228" s="9"/>
     </row>
     <row r="229" ht="45.75" customHeight="1">
-      <c r="B229" s="8"/>
+      <c r="B229" s="9"/>
     </row>
     <row r="230" ht="45.75" customHeight="1">
-      <c r="B230" s="8"/>
+      <c r="B230" s="9"/>
     </row>
     <row r="231" ht="45.75" customHeight="1">
-      <c r="B231" s="8"/>
+      <c r="B231" s="9"/>
     </row>
     <row r="232" ht="45.75" customHeight="1">
-      <c r="B232" s="8"/>
+      <c r="B232" s="9"/>
     </row>
     <row r="233" ht="45.75" customHeight="1">
-      <c r="B233" s="8"/>
+      <c r="B233" s="9"/>
     </row>
     <row r="234" ht="45.75" customHeight="1">
-      <c r="B234" s="8"/>
+      <c r="B234" s="9"/>
     </row>
     <row r="235" ht="45.75" customHeight="1">
-      <c r="B235" s="8"/>
+      <c r="B235" s="9"/>
     </row>
     <row r="236" ht="45.75" customHeight="1">
-      <c r="B236" s="8"/>
+      <c r="B236" s="9"/>
     </row>
     <row r="237" ht="45.75" customHeight="1">
-      <c r="B237" s="8"/>
+      <c r="B237" s="9"/>
     </row>
     <row r="238" ht="45.75" customHeight="1">
-      <c r="B238" s="8"/>
+      <c r="B238" s="9"/>
     </row>
     <row r="239" ht="45.75" customHeight="1">
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
     </row>
     <row r="240" ht="45.75" customHeight="1">
-      <c r="B240" s="8"/>
+      <c r="B240" s="9"/>
     </row>
     <row r="241" ht="45.75" customHeight="1">
-      <c r="B241" s="8"/>
+      <c r="B241" s="9"/>
     </row>
     <row r="242" ht="45.75" customHeight="1">
-      <c r="B242" s="8"/>
+      <c r="B242" s="9"/>
     </row>
     <row r="243" ht="45.75" customHeight="1">
-      <c r="B243" s="8"/>
+      <c r="B243" s="9"/>
     </row>
     <row r="244" ht="45.75" customHeight="1">
-      <c r="B244" s="8"/>
+      <c r="B244" s="9"/>
     </row>
     <row r="245" ht="45.75" customHeight="1">
-      <c r="B245" s="8"/>
+      <c r="B245" s="9"/>
     </row>
     <row r="246" ht="45.75" customHeight="1">
-      <c r="B246" s="8"/>
+      <c r="B246" s="9"/>
     </row>
     <row r="247" ht="45.75" customHeight="1">
-      <c r="B247" s="8"/>
+      <c r="B247" s="9"/>
     </row>
     <row r="248" ht="45.75" customHeight="1">
-      <c r="B248" s="8"/>
+      <c r="B248" s="9"/>
     </row>
     <row r="249" ht="45.75" customHeight="1">
-      <c r="B249" s="8"/>
+      <c r="B249" s="9"/>
     </row>
     <row r="250" ht="45.75" customHeight="1">
-      <c r="B250" s="8"/>
+      <c r="B250" s="9"/>
     </row>
     <row r="251" ht="45.75" customHeight="1">
-      <c r="B251" s="8"/>
+      <c r="B251" s="9"/>
     </row>
     <row r="252" ht="45.75" customHeight="1">
-      <c r="B252" s="8"/>
+      <c r="B252" s="9"/>
     </row>
     <row r="253" ht="45.75" customHeight="1">
-      <c r="B253" s="8"/>
+      <c r="B253" s="9"/>
     </row>
     <row r="254" ht="45.75" customHeight="1">
-      <c r="B254" s="8"/>
+      <c r="B254" s="9"/>
     </row>
     <row r="255" ht="45.75" customHeight="1">
-      <c r="B255" s="8"/>
+      <c r="B255" s="9"/>
     </row>
     <row r="256" ht="45.75" customHeight="1">
-      <c r="B256" s="8"/>
+      <c r="B256" s="9"/>
     </row>
     <row r="257" ht="45.75" customHeight="1">
-      <c r="B257" s="8"/>
+      <c r="B257" s="9"/>
     </row>
     <row r="258" ht="45.75" customHeight="1">
-      <c r="B258" s="8"/>
+      <c r="B258" s="9"/>
     </row>
     <row r="259" ht="45.75" customHeight="1">
-      <c r="B259" s="8"/>
+      <c r="B259" s="9"/>
     </row>
     <row r="260" ht="45.75" customHeight="1">
-      <c r="B260" s="8"/>
+      <c r="B260" s="9"/>
     </row>
     <row r="261" ht="45.75" customHeight="1">
-      <c r="B261" s="8"/>
+      <c r="B261" s="9"/>
     </row>
     <row r="262" ht="45.75" customHeight="1">
-      <c r="B262" s="8"/>
+      <c r="B262" s="9"/>
     </row>
     <row r="263" ht="45.75" customHeight="1">
-      <c r="B263" s="8"/>
+      <c r="B263" s="9"/>
     </row>
     <row r="264" ht="45.75" customHeight="1">
-      <c r="B264" s="8"/>
+      <c r="B264" s="9"/>
     </row>
     <row r="265" ht="45.75" customHeight="1">
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
     </row>
     <row r="266" ht="45.75" customHeight="1">
-      <c r="B266" s="8"/>
+      <c r="B266" s="9"/>
     </row>
     <row r="267" ht="45.75" customHeight="1">
-      <c r="B267" s="8"/>
+      <c r="B267" s="9"/>
     </row>
     <row r="268" ht="45.75" customHeight="1">
-      <c r="B268" s="8"/>
+      <c r="B268" s="9"/>
     </row>
     <row r="269" ht="45.75" customHeight="1">
-      <c r="B269" s="8"/>
+      <c r="B269" s="9"/>
     </row>
     <row r="270" ht="45.75" customHeight="1">
-      <c r="B270" s="8"/>
+      <c r="B270" s="9"/>
     </row>
     <row r="271" ht="45.75" customHeight="1">
-      <c r="B271" s="8"/>
+      <c r="B271" s="9"/>
     </row>
     <row r="272" ht="45.75" customHeight="1">
-      <c r="B272" s="8"/>
+      <c r="B272" s="9"/>
     </row>
     <row r="273" ht="45.75" customHeight="1">
-      <c r="B273" s="8"/>
+      <c r="B273" s="9"/>
     </row>
     <row r="274" ht="45.75" customHeight="1">
-      <c r="B274" s="8"/>
+      <c r="B274" s="9"/>
     </row>
     <row r="275" ht="45.75" customHeight="1">
-      <c r="B275" s="8"/>
+      <c r="B275" s="9"/>
     </row>
     <row r="276" ht="45.75" customHeight="1">
-      <c r="B276" s="8"/>
+      <c r="B276" s="9"/>
     </row>
     <row r="277" ht="45.75" customHeight="1">
-      <c r="B277" s="8"/>
+      <c r="B277" s="9"/>
     </row>
     <row r="278" ht="45.75" customHeight="1">
-      <c r="B278" s="8"/>
+      <c r="B278" s="9"/>
     </row>
     <row r="279" ht="45.75" customHeight="1">
-      <c r="B279" s="8"/>
+      <c r="B279" s="9"/>
     </row>
     <row r="280" ht="45.75" customHeight="1">
-      <c r="B280" s="8"/>
+      <c r="B280" s="9"/>
     </row>
     <row r="281" ht="45.75" customHeight="1">
-      <c r="B281" s="8"/>
+      <c r="B281" s="9"/>
     </row>
     <row r="282" ht="45.75" customHeight="1">
-      <c r="B282" s="8"/>
+      <c r="B282" s="9"/>
     </row>
     <row r="283" ht="45.75" customHeight="1">
-      <c r="B283" s="8"/>
+      <c r="B283" s="9"/>
     </row>
     <row r="284" ht="45.75" customHeight="1">
-      <c r="B284" s="8"/>
+      <c r="B284" s="9"/>
     </row>
     <row r="285" ht="45.75" customHeight="1">
-      <c r="B285" s="8"/>
+      <c r="B285" s="9"/>
     </row>
     <row r="286" ht="45.75" customHeight="1">
-      <c r="B286" s="8"/>
+      <c r="B286" s="9"/>
     </row>
     <row r="287" ht="45.75" customHeight="1">
-      <c r="B287" s="8"/>
+      <c r="B287" s="9"/>
     </row>
     <row r="288" ht="45.75" customHeight="1">
-      <c r="B288" s="8"/>
+      <c r="B288" s="9"/>
     </row>
     <row r="289" ht="45.75" customHeight="1">
-      <c r="B289" s="8"/>
+      <c r="B289" s="9"/>
     </row>
     <row r="290" ht="45.75" customHeight="1">
-      <c r="B290" s="8"/>
+      <c r="B290" s="9"/>
     </row>
     <row r="291" ht="45.75" customHeight="1">
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
     </row>
     <row r="292" ht="45.75" customHeight="1">
-      <c r="B292" s="8"/>
+      <c r="B292" s="9"/>
     </row>
     <row r="293" ht="45.75" customHeight="1">
-      <c r="B293" s="8"/>
+      <c r="B293" s="9"/>
     </row>
     <row r="294" ht="45.75" customHeight="1">
-      <c r="B294" s="8"/>
+      <c r="B294" s="9"/>
     </row>
     <row r="295" ht="45.75" customHeight="1">
-      <c r="B295" s="8"/>
+      <c r="B295" s="9"/>
     </row>
     <row r="296" ht="45.75" customHeight="1">
-      <c r="B296" s="8"/>
+      <c r="B296" s="9"/>
     </row>
     <row r="297" ht="45.75" customHeight="1">
-      <c r="B297" s="8"/>
+      <c r="B297" s="9"/>
     </row>
     <row r="298" ht="45.75" customHeight="1">
-      <c r="B298" s="8"/>
+      <c r="B298" s="9"/>
     </row>
     <row r="299" ht="45.75" customHeight="1">
-      <c r="B299" s="8"/>
+      <c r="B299" s="9"/>
     </row>
     <row r="300" ht="45.75" customHeight="1">
-      <c r="B300" s="8"/>
+      <c r="B300" s="9"/>
     </row>
     <row r="301" ht="45.75" customHeight="1">
-      <c r="B301" s="8"/>
+      <c r="B301" s="9"/>
     </row>
     <row r="302" ht="45.75" customHeight="1">
-      <c r="B302" s="8"/>
+      <c r="B302" s="9"/>
     </row>
     <row r="303" ht="45.75" customHeight="1">
-      <c r="B303" s="8"/>
+      <c r="B303" s="9"/>
     </row>
     <row r="304" ht="45.75" customHeight="1">
-      <c r="B304" s="8"/>
+      <c r="B304" s="9"/>
     </row>
     <row r="305" ht="45.75" customHeight="1">
-      <c r="B305" s="8"/>
+      <c r="B305" s="9"/>
     </row>
     <row r="306" ht="45.75" customHeight="1">
-      <c r="B306" s="8"/>
+      <c r="B306" s="9"/>
     </row>
     <row r="307" ht="45.75" customHeight="1">
-      <c r="B307" s="8"/>
+      <c r="B307" s="9"/>
     </row>
     <row r="308" ht="45.75" customHeight="1">
-      <c r="B308" s="8"/>
+      <c r="B308" s="9"/>
     </row>
     <row r="309" ht="45.75" customHeight="1">
-      <c r="B309" s="8"/>
+      <c r="B309" s="9"/>
     </row>
     <row r="310" ht="45.75" customHeight="1">
-      <c r="B310" s="8"/>
+      <c r="B310" s="9"/>
     </row>
     <row r="311" ht="45.75" customHeight="1">
-      <c r="B311" s="8"/>
+      <c r="B311" s="9"/>
     </row>
     <row r="312" ht="45.75" customHeight="1">
-      <c r="B312" s="8"/>
+      <c r="B312" s="9"/>
     </row>
     <row r="313" ht="45.75" customHeight="1">
-      <c r="B313" s="8"/>
+      <c r="B313" s="9"/>
     </row>
     <row r="314" ht="45.75" customHeight="1">
-      <c r="B314" s="8"/>
+      <c r="B314" s="9"/>
     </row>
     <row r="315" ht="45.75" customHeight="1">
-      <c r="B315" s="8"/>
+      <c r="B315" s="9"/>
     </row>
     <row r="316" ht="45.75" customHeight="1">
-      <c r="B316" s="8"/>
+      <c r="B316" s="9"/>
     </row>
     <row r="317" ht="45.75" customHeight="1">
-      <c r="B317" s="8"/>
+      <c r="B317" s="9"/>
     </row>
     <row r="318" ht="45.75" customHeight="1">
-      <c r="B318" s="8"/>
+      <c r="B318" s="9"/>
     </row>
     <row r="319" ht="45.75" customHeight="1">
-      <c r="B319" s="8"/>
+      <c r="B319" s="9"/>
     </row>
     <row r="320" ht="45.75" customHeight="1">
-      <c r="B320" s="8"/>
+      <c r="B320" s="9"/>
     </row>
     <row r="321" ht="45.75" customHeight="1">
-      <c r="B321" s="8"/>
+      <c r="B321" s="9"/>
     </row>
     <row r="322" ht="45.75" customHeight="1">
-      <c r="B322" s="8"/>
+      <c r="B322" s="9"/>
     </row>
     <row r="323" ht="45.75" customHeight="1">
-      <c r="B323" s="8"/>
+      <c r="B323" s="9"/>
     </row>
     <row r="324" ht="45.75" customHeight="1">
-      <c r="B324" s="8"/>
+      <c r="B324" s="9"/>
     </row>
     <row r="325" ht="45.75" customHeight="1">
-      <c r="B325" s="8"/>
+      <c r="B325" s="9"/>
     </row>
     <row r="326" ht="45.75" customHeight="1">
-      <c r="B326" s="8"/>
+      <c r="B326" s="9"/>
     </row>
     <row r="327" ht="45.75" customHeight="1">
-      <c r="B327" s="8"/>
+      <c r="B327" s="9"/>
     </row>
     <row r="328" ht="45.75" customHeight="1">
-      <c r="B328" s="8"/>
+      <c r="B328" s="9"/>
     </row>
     <row r="329" ht="45.75" customHeight="1">
-      <c r="B329" s="8"/>
+      <c r="B329" s="9"/>
     </row>
     <row r="330" ht="45.75" customHeight="1">
-      <c r="B330" s="8"/>
+      <c r="B330" s="9"/>
     </row>
     <row r="331" ht="45.75" customHeight="1">
-      <c r="B331" s="8"/>
+      <c r="B331" s="9"/>
     </row>
     <row r="332" ht="45.75" customHeight="1">
-      <c r="B332" s="8"/>
+      <c r="B332" s="9"/>
     </row>
     <row r="333" ht="45.75" customHeight="1">
-      <c r="B333" s="8"/>
+      <c r="B333" s="9"/>
     </row>
     <row r="334" ht="45.75" customHeight="1">
-      <c r="B334" s="8"/>
+      <c r="B334" s="9"/>
     </row>
     <row r="335" ht="45.75" customHeight="1">
-      <c r="B335" s="8"/>
+      <c r="B335" s="9"/>
     </row>
     <row r="336" ht="45.75" customHeight="1">
-      <c r="B336" s="8"/>
+      <c r="B336" s="9"/>
     </row>
     <row r="337" ht="45.75" customHeight="1">
-      <c r="B337" s="8"/>
+      <c r="B337" s="9"/>
     </row>
     <row r="338" ht="45.75" customHeight="1">
-      <c r="B338" s="8"/>
+      <c r="B338" s="9"/>
     </row>
     <row r="339" ht="45.75" customHeight="1">
-      <c r="B339" s="8"/>
+      <c r="B339" s="9"/>
     </row>
     <row r="340" ht="45.75" customHeight="1">
-      <c r="B340" s="8"/>
+      <c r="B340" s="9"/>
     </row>
     <row r="341" ht="45.75" customHeight="1">
-      <c r="B341" s="8"/>
+      <c r="B341" s="9"/>
     </row>
     <row r="342" ht="45.75" customHeight="1">
-      <c r="B342" s="8"/>
+      <c r="B342" s="9"/>
     </row>
     <row r="343" ht="45.75" customHeight="1">
-      <c r="B343" s="8"/>
+      <c r="B343" s="9"/>
     </row>
     <row r="344" ht="45.75" customHeight="1">
-      <c r="B344" s="8"/>
+      <c r="B344" s="9"/>
     </row>
     <row r="345" ht="45.75" customHeight="1">
-      <c r="B345" s="8"/>
+      <c r="B345" s="9"/>
     </row>
     <row r="346" ht="45.75" customHeight="1">
-      <c r="B346" s="8"/>
+      <c r="B346" s="9"/>
     </row>
     <row r="347" ht="45.75" customHeight="1">
-      <c r="B347" s="8"/>
+      <c r="B347" s="9"/>
     </row>
     <row r="348" ht="45.75" customHeight="1">
-      <c r="B348" s="8"/>
+      <c r="B348" s="9"/>
     </row>
     <row r="349" ht="45.75" customHeight="1">
-      <c r="B349" s="8"/>
+      <c r="B349" s="9"/>
     </row>
     <row r="350" ht="45.75" customHeight="1">
-      <c r="B350" s="8"/>
+      <c r="B350" s="9"/>
     </row>
     <row r="351" ht="45.75" customHeight="1">
-      <c r="B351" s="8"/>
+      <c r="B351" s="9"/>
     </row>
     <row r="352" ht="45.75" customHeight="1">
-      <c r="B352" s="8"/>
+      <c r="B352" s="9"/>
     </row>
     <row r="353" ht="45.75" customHeight="1">
-      <c r="B353" s="8"/>
+      <c r="B353" s="9"/>
     </row>
     <row r="354" ht="45.75" customHeight="1">
-      <c r="B354" s="8"/>
+      <c r="B354" s="9"/>
     </row>
     <row r="355" ht="45.75" customHeight="1">
-      <c r="B355" s="8"/>
+      <c r="B355" s="9"/>
     </row>
     <row r="356" ht="45.75" customHeight="1">
-      <c r="B356" s="8"/>
+      <c r="B356" s="9"/>
     </row>
     <row r="357" ht="45.75" customHeight="1">
-      <c r="B357" s="8"/>
+      <c r="B357" s="9"/>
     </row>
     <row r="358" ht="45.75" customHeight="1">
-      <c r="B358" s="8"/>
+      <c r="B358" s="9"/>
     </row>
     <row r="359" ht="45.75" customHeight="1">
-      <c r="B359" s="8"/>
+      <c r="B359" s="9"/>
     </row>
     <row r="360" ht="45.75" customHeight="1">
-      <c r="B360" s="8"/>
+      <c r="B360" s="9"/>
     </row>
     <row r="361" ht="45.75" customHeight="1">
-      <c r="B361" s="8"/>
+      <c r="B361" s="9"/>
     </row>
     <row r="362" ht="45.75" customHeight="1">
-      <c r="B362" s="8"/>
+      <c r="B362" s="9"/>
     </row>
     <row r="363" ht="45.75" customHeight="1">
-      <c r="B363" s="8"/>
+      <c r="B363" s="9"/>
     </row>
     <row r="364" ht="45.75" customHeight="1">
-      <c r="B364" s="8"/>
+      <c r="B364" s="9"/>
     </row>
     <row r="365" ht="45.75" customHeight="1">
-      <c r="B365" s="8"/>
+      <c r="B365" s="9"/>
     </row>
     <row r="366" ht="45.75" customHeight="1">
-      <c r="B366" s="8"/>
+      <c r="B366" s="9"/>
     </row>
     <row r="367" ht="45.75" customHeight="1">
-      <c r="B367" s="8"/>
+      <c r="B367" s="9"/>
     </row>
     <row r="368" ht="45.75" customHeight="1">
-      <c r="B368" s="8"/>
+      <c r="B368" s="9"/>
     </row>
     <row r="369" ht="45.75" customHeight="1">
-      <c r="B369" s="8"/>
+      <c r="B369" s="9"/>
     </row>
     <row r="370" ht="45.75" customHeight="1">
-      <c r="B370" s="8"/>
+      <c r="B370" s="9"/>
     </row>
     <row r="371" ht="45.75" customHeight="1">
-      <c r="B371" s="8"/>
+      <c r="B371" s="9"/>
     </row>
     <row r="372" ht="45.75" customHeight="1">
-      <c r="B372" s="8"/>
+      <c r="B372" s="9"/>
     </row>
     <row r="373" ht="45.75" customHeight="1">
-      <c r="B373" s="8"/>
+      <c r="B373" s="9"/>
     </row>
     <row r="374" ht="45.75" customHeight="1">
-      <c r="B374" s="8"/>
+      <c r="B374" s="9"/>
     </row>
     <row r="375" ht="45.75" customHeight="1">
-      <c r="B375" s="8"/>
+      <c r="B375" s="9"/>
     </row>
     <row r="376" ht="45.75" customHeight="1">
-      <c r="B376" s="8"/>
+      <c r="B376" s="9"/>
     </row>
     <row r="377" ht="45.75" customHeight="1">
-      <c r="B377" s="8"/>
+      <c r="B377" s="9"/>
     </row>
     <row r="378" ht="45.75" customHeight="1">
-      <c r="B378" s="8"/>
+      <c r="B378" s="9"/>
     </row>
     <row r="379" ht="45.75" customHeight="1">
-      <c r="B379" s="8"/>
+      <c r="B379" s="9"/>
     </row>
     <row r="380" ht="45.75" customHeight="1">
-      <c r="B380" s="8"/>
+      <c r="B380" s="9"/>
     </row>
     <row r="381" ht="45.75" customHeight="1">
-      <c r="B381" s="8"/>
+      <c r="B381" s="9"/>
     </row>
     <row r="382" ht="45.75" customHeight="1">
-      <c r="B382" s="8"/>
+      <c r="B382" s="9"/>
     </row>
     <row r="383" ht="45.75" customHeight="1">
-      <c r="B383" s="8"/>
+      <c r="B383" s="9"/>
     </row>
     <row r="384" ht="45.75" customHeight="1">
-      <c r="B384" s="8"/>
+      <c r="B384" s="9"/>
     </row>
     <row r="385" ht="45.75" customHeight="1">
-      <c r="B385" s="8"/>
+      <c r="B385" s="9"/>
     </row>
     <row r="386" ht="45.75" customHeight="1">
-      <c r="B386" s="8"/>
+      <c r="B386" s="9"/>
     </row>
     <row r="387" ht="45.75" customHeight="1">
-      <c r="B387" s="8"/>
+      <c r="B387" s="9"/>
     </row>
     <row r="388" ht="45.75" customHeight="1">
-      <c r="B388" s="8"/>
+      <c r="B388" s="9"/>
     </row>
     <row r="389" ht="45.75" customHeight="1">
-      <c r="B389" s="8"/>
+      <c r="B389" s="9"/>
     </row>
     <row r="390" ht="45.75" customHeight="1">
-      <c r="B390" s="8"/>
+      <c r="B390" s="9"/>
     </row>
     <row r="391" ht="45.75" customHeight="1">
-      <c r="B391" s="8"/>
+      <c r="B391" s="9"/>
     </row>
     <row r="392" ht="45.75" customHeight="1">
-      <c r="B392" s="8"/>
+      <c r="B392" s="9"/>
     </row>
     <row r="393" ht="45.75" customHeight="1">
-      <c r="B393" s="8"/>
+      <c r="B393" s="9"/>
     </row>
     <row r="394" ht="45.75" customHeight="1">
-      <c r="B394" s="8"/>
+      <c r="B394" s="9"/>
     </row>
     <row r="395" ht="45.75" customHeight="1">
-      <c r="B395" s="8"/>
+      <c r="B395" s="9"/>
     </row>
     <row r="396" ht="45.75" customHeight="1">
-      <c r="B396" s="8"/>
+      <c r="B396" s="9"/>
     </row>
     <row r="397" ht="45.75" customHeight="1">
-      <c r="B397" s="8"/>
+      <c r="B397" s="9"/>
     </row>
     <row r="398" ht="45.75" customHeight="1">
-      <c r="B398" s="8"/>
+      <c r="B398" s="9"/>
     </row>
     <row r="399" ht="45.75" customHeight="1">
-      <c r="B399" s="8"/>
+      <c r="B399" s="9"/>
     </row>
     <row r="400" ht="45.75" customHeight="1">
-      <c r="B400" s="8"/>
+      <c r="B400" s="9"/>
     </row>
     <row r="401" ht="45.75" customHeight="1">
-      <c r="B401" s="8"/>
+      <c r="B401" s="9"/>
     </row>
     <row r="402" ht="45.75" customHeight="1">
-      <c r="B402" s="8"/>
+      <c r="B402" s="9"/>
     </row>
     <row r="403" ht="45.75" customHeight="1">
-      <c r="B403" s="8"/>
+      <c r="B403" s="9"/>
     </row>
     <row r="404" ht="45.75" customHeight="1">
-      <c r="B404" s="8"/>
+      <c r="B404" s="9"/>
     </row>
     <row r="405" ht="45.75" customHeight="1">
-      <c r="B405" s="8"/>
+      <c r="B405" s="9"/>
     </row>
     <row r="406" ht="45.75" customHeight="1">
-      <c r="B406" s="8"/>
+      <c r="B406" s="9"/>
     </row>
     <row r="407" ht="45.75" customHeight="1">
-      <c r="B407" s="8"/>
+      <c r="B407" s="9"/>
     </row>
     <row r="408" ht="45.75" customHeight="1">
-      <c r="B408" s="8"/>
+      <c r="B408" s="9"/>
     </row>
     <row r="409" ht="45.75" customHeight="1">
-      <c r="B409" s="8"/>
+      <c r="B409" s="9"/>
     </row>
     <row r="410" ht="45.75" customHeight="1">
-      <c r="B410" s="8"/>
+      <c r="B410" s="9"/>
     </row>
     <row r="411" ht="45.75" customHeight="1">
-      <c r="B411" s="8"/>
+      <c r="B411" s="9"/>
     </row>
     <row r="412" ht="45.75" customHeight="1">
-      <c r="B412" s="8"/>
+      <c r="B412" s="9"/>
     </row>
     <row r="413" ht="45.75" customHeight="1">
-      <c r="B413" s="8"/>
+      <c r="B413" s="9"/>
     </row>
     <row r="414" ht="45.75" customHeight="1">
-      <c r="B414" s="8"/>
+      <c r="B414" s="9"/>
     </row>
     <row r="415" ht="45.75" customHeight="1">
-      <c r="B415" s="8"/>
+      <c r="B415" s="9"/>
     </row>
     <row r="416" ht="45.75" customHeight="1">
-      <c r="B416" s="8"/>
+      <c r="B416" s="9"/>
     </row>
     <row r="417" ht="45.75" customHeight="1">
-      <c r="B417" s="8"/>
+      <c r="B417" s="9"/>
     </row>
     <row r="418" ht="45.75" customHeight="1">
-      <c r="B418" s="8"/>
+      <c r="B418" s="9"/>
     </row>
     <row r="419" ht="45.75" customHeight="1">
-      <c r="B419" s="8"/>
+      <c r="B419" s="9"/>
     </row>
     <row r="420" ht="45.75" customHeight="1">
-      <c r="B420" s="8"/>
+      <c r="B420" s="9"/>
     </row>
     <row r="421" ht="45.75" customHeight="1">
-      <c r="B421" s="8"/>
+      <c r="B421" s="9"/>
     </row>
     <row r="422" ht="45.75" customHeight="1">
-      <c r="B422" s="8"/>
+      <c r="B422" s="9"/>
     </row>
     <row r="423" ht="45.75" customHeight="1">
-      <c r="B423" s="8"/>
+      <c r="B423" s="9"/>
     </row>
     <row r="424" ht="45.75" customHeight="1">
-      <c r="B424" s="8"/>
+      <c r="B424" s="9"/>
     </row>
     <row r="425" ht="45.75" customHeight="1">
-      <c r="B425" s="8"/>
+      <c r="B425" s="9"/>
     </row>
     <row r="426" ht="45.75" customHeight="1">
-      <c r="B426" s="8"/>
+      <c r="B426" s="9"/>
     </row>
     <row r="427" ht="45.75" customHeight="1">
-      <c r="B427" s="8"/>
+      <c r="B427" s="9"/>
     </row>
     <row r="428" ht="45.75" customHeight="1">
-      <c r="B428" s="8"/>
+      <c r="B428" s="9"/>
     </row>
     <row r="429" ht="45.75" customHeight="1">
-      <c r="B429" s="8"/>
+      <c r="B429" s="9"/>
     </row>
     <row r="430" ht="45.75" customHeight="1">
-      <c r="B430" s="8"/>
+      <c r="B430" s="9"/>
     </row>
     <row r="431" ht="45.75" customHeight="1">
-      <c r="B431" s="8"/>
+      <c r="B431" s="9"/>
     </row>
     <row r="432" ht="45.75" customHeight="1">
-      <c r="B432" s="8"/>
+      <c r="B432" s="9"/>
     </row>
     <row r="433" ht="45.75" customHeight="1">
-      <c r="B433" s="8"/>
+      <c r="B433" s="9"/>
     </row>
     <row r="434" ht="45.75" customHeight="1">
-      <c r="B434" s="8"/>
+      <c r="B434" s="9"/>
     </row>
     <row r="435" ht="45.75" customHeight="1">
-      <c r="B435" s="8"/>
+      <c r="B435" s="9"/>
     </row>
     <row r="436" ht="45.75" customHeight="1">
-      <c r="B436" s="8"/>
+      <c r="B436" s="9"/>
     </row>
     <row r="437" ht="45.75" customHeight="1">
-      <c r="B437" s="8"/>
+      <c r="B437" s="9"/>
     </row>
     <row r="438" ht="45.75" customHeight="1">
-      <c r="B438" s="8"/>
+      <c r="B438" s="9"/>
     </row>
     <row r="439" ht="45.75" customHeight="1">
-      <c r="B439" s="8"/>
+      <c r="B439" s="9"/>
     </row>
     <row r="440" ht="45.75" customHeight="1">
-      <c r="B440" s="8"/>
+      <c r="B440" s="9"/>
     </row>
     <row r="441" ht="45.75" customHeight="1">
-      <c r="B441" s="8"/>
+      <c r="B441" s="9"/>
     </row>
     <row r="442" ht="45.75" customHeight="1">
-      <c r="B442" s="8"/>
+      <c r="B442" s="9"/>
     </row>
     <row r="443" ht="45.75" customHeight="1">
-      <c r="B443" s="8"/>
+      <c r="B443" s="9"/>
     </row>
     <row r="444" ht="45.75" customHeight="1">
-      <c r="B444" s="8"/>
+      <c r="B444" s="9"/>
     </row>
     <row r="445" ht="45.75" customHeight="1">
-      <c r="B445" s="8"/>
+      <c r="B445" s="9"/>
     </row>
     <row r="446" ht="45.75" customHeight="1">
-      <c r="B446" s="8"/>
+      <c r="B446" s="9"/>
     </row>
     <row r="447" ht="45.75" customHeight="1">
-      <c r="B447" s="8"/>
+      <c r="B447" s="9"/>
     </row>
     <row r="448" ht="45.75" customHeight="1">
-      <c r="B448" s="8"/>
+      <c r="B448" s="9"/>
     </row>
     <row r="449" ht="45.75" customHeight="1">
-      <c r="B449" s="8"/>
+      <c r="B449" s="9"/>
     </row>
     <row r="450" ht="45.75" customHeight="1">
-      <c r="B450" s="8"/>
+      <c r="B450" s="9"/>
     </row>
     <row r="451" ht="45.75" customHeight="1">
-      <c r="B451" s="8"/>
+      <c r="B451" s="9"/>
     </row>
     <row r="452" ht="45.75" customHeight="1">
-      <c r="B452" s="8"/>
+      <c r="B452" s="9"/>
     </row>
     <row r="453" ht="45.75" customHeight="1">
-      <c r="B453" s="8"/>
+      <c r="B453" s="9"/>
     </row>
     <row r="454" ht="45.75" customHeight="1">
-      <c r="B454" s="8"/>
+      <c r="B454" s="9"/>
     </row>
     <row r="455" ht="45.75" customHeight="1">
-      <c r="B455" s="8"/>
+      <c r="B455" s="9"/>
     </row>
     <row r="456" ht="45.75" customHeight="1">
-      <c r="B456" s="8"/>
+      <c r="B456" s="9"/>
     </row>
     <row r="457" ht="45.75" customHeight="1">
-      <c r="B457" s="8"/>
+      <c r="B457" s="9"/>
     </row>
     <row r="458" ht="45.75" customHeight="1">
-      <c r="B458" s="8"/>
+      <c r="B458" s="9"/>
     </row>
     <row r="459" ht="45.75" customHeight="1">
-      <c r="B459" s="8"/>
+      <c r="B459" s="9"/>
     </row>
     <row r="460" ht="45.75" customHeight="1">
-      <c r="B460" s="8"/>
+      <c r="B460" s="9"/>
     </row>
     <row r="461" ht="45.75" customHeight="1">
-      <c r="B461" s="8"/>
+      <c r="B461" s="9"/>
     </row>
     <row r="462" ht="45.75" customHeight="1">
-      <c r="B462" s="8"/>
+      <c r="B462" s="9"/>
     </row>
     <row r="463" ht="45.75" customHeight="1">
-      <c r="B463" s="8"/>
+      <c r="B463" s="9"/>
     </row>
     <row r="464" ht="45.75" customHeight="1">
-      <c r="B464" s="8"/>
+      <c r="B464" s="9"/>
     </row>
     <row r="465" ht="45.75" customHeight="1">
-      <c r="B465" s="8"/>
+      <c r="B465" s="9"/>
     </row>
     <row r="466" ht="45.75" customHeight="1">
-      <c r="B466" s="8"/>
+      <c r="B466" s="9"/>
     </row>
     <row r="467" ht="45.75" customHeight="1">
-      <c r="B467" s="8"/>
+      <c r="B467" s="9"/>
     </row>
     <row r="468" ht="45.75" customHeight="1">
-      <c r="B468" s="8"/>
+      <c r="B468" s="9"/>
     </row>
     <row r="469" ht="45.75" customHeight="1">
-      <c r="B469" s="8"/>
+      <c r="B469" s="9"/>
     </row>
     <row r="470" ht="45.75" customHeight="1">
-      <c r="B470" s="8"/>
+      <c r="B470" s="9"/>
     </row>
     <row r="471" ht="45.75" customHeight="1">
-      <c r="B471" s="8"/>
+      <c r="B471" s="9"/>
     </row>
     <row r="472" ht="45.75" customHeight="1">
-      <c r="B472" s="8"/>
+      <c r="B472" s="9"/>
     </row>
     <row r="473" ht="45.75" customHeight="1">
-      <c r="B473" s="8"/>
+      <c r="B473" s="9"/>
     </row>
     <row r="474" ht="45.75" customHeight="1">
-      <c r="B474" s="8"/>
+      <c r="B474" s="9"/>
     </row>
     <row r="475" ht="45.75" customHeight="1">
-      <c r="B475" s="8"/>
+      <c r="B475" s="9"/>
     </row>
     <row r="476" ht="45.75" customHeight="1">
-      <c r="B476" s="8"/>
+      <c r="B476" s="9"/>
     </row>
     <row r="477" ht="45.75" customHeight="1">
-      <c r="B477" s="8"/>
+      <c r="B477" s="9"/>
     </row>
     <row r="478" ht="45.75" customHeight="1">
-      <c r="B478" s="8"/>
+      <c r="B478" s="9"/>
     </row>
     <row r="479" ht="45.75" customHeight="1">
-      <c r="B479" s="8"/>
+      <c r="B479" s="9"/>
     </row>
     <row r="480" ht="45.75" customHeight="1">
-      <c r="B480" s="8"/>
+      <c r="B480" s="9"/>
     </row>
     <row r="481" ht="45.75" customHeight="1">
-      <c r="B481" s="8"/>
+      <c r="B481" s="9"/>
     </row>
     <row r="482" ht="45.75" customHeight="1">
-      <c r="B482" s="8"/>
+      <c r="B482" s="9"/>
     </row>
     <row r="483" ht="45.75" customHeight="1">
-      <c r="B483" s="8"/>
+      <c r="B483" s="9"/>
     </row>
     <row r="484" ht="45.75" customHeight="1">
-      <c r="B484" s="8"/>
+      <c r="B484" s="9"/>
     </row>
     <row r="485" ht="45.75" customHeight="1">
-      <c r="B485" s="8"/>
+      <c r="B485" s="9"/>
     </row>
     <row r="486" ht="45.75" customHeight="1">
-      <c r="B486" s="8"/>
+      <c r="B486" s="9"/>
     </row>
     <row r="487" ht="45.75" customHeight="1">
-      <c r="B487" s="8"/>
+      <c r="B487" s="9"/>
     </row>
     <row r="488" ht="45.75" customHeight="1">
-      <c r="B488" s="8"/>
+      <c r="B488" s="9"/>
     </row>
     <row r="489" ht="45.75" customHeight="1">
-      <c r="B489" s="8"/>
+      <c r="B489" s="9"/>
     </row>
     <row r="490" ht="45.75" customHeight="1">
-      <c r="B490" s="8"/>
+      <c r="B490" s="9"/>
     </row>
     <row r="491" ht="45.75" customHeight="1">
-      <c r="B491" s="8"/>
+      <c r="B491" s="9"/>
     </row>
     <row r="492" ht="45.75" customHeight="1">
-      <c r="B492" s="8"/>
+      <c r="B492" s="9"/>
     </row>
     <row r="493" ht="45.75" customHeight="1">
-      <c r="B493" s="8"/>
+      <c r="B493" s="9"/>
     </row>
     <row r="494" ht="45.75" customHeight="1">
-      <c r="B494" s="8"/>
+      <c r="B494" s="9"/>
     </row>
     <row r="495" ht="45.75" customHeight="1">
-      <c r="B495" s="8"/>
+      <c r="B495" s="9"/>
     </row>
     <row r="496" ht="45.75" customHeight="1">
-      <c r="B496" s="8"/>
+      <c r="B496" s="9"/>
     </row>
     <row r="497" ht="45.75" customHeight="1">
-      <c r="B497" s="8"/>
+      <c r="B497" s="9"/>
     </row>
     <row r="498" ht="45.75" customHeight="1">
-      <c r="B498" s="8"/>
+      <c r="B498" s="9"/>
     </row>
     <row r="499" ht="45.75" customHeight="1">
-      <c r="B499" s="8"/>
+      <c r="B499" s="9"/>
     </row>
     <row r="500" ht="45.75" customHeight="1">
-      <c r="B500" s="8"/>
+      <c r="B500" s="9"/>
     </row>
     <row r="501" ht="45.75" customHeight="1">
-      <c r="B501" s="8"/>
+      <c r="B501" s="9"/>
     </row>
     <row r="502" ht="45.75" customHeight="1">
-      <c r="B502" s="8"/>
+      <c r="B502" s="9"/>
     </row>
     <row r="503" ht="45.75" customHeight="1">
-      <c r="B503" s="8"/>
+      <c r="B503" s="9"/>
     </row>
     <row r="504" ht="45.75" customHeight="1">
-      <c r="B504" s="8"/>
+      <c r="B504" s="9"/>
     </row>
     <row r="505" ht="45.75" customHeight="1">
-      <c r="B505" s="8"/>
+      <c r="B505" s="9"/>
     </row>
     <row r="506" ht="45.75" customHeight="1">
-      <c r="B506" s="8"/>
+      <c r="B506" s="9"/>
     </row>
     <row r="507" ht="45.75" customHeight="1">
-      <c r="B507" s="8"/>
+      <c r="B507" s="9"/>
     </row>
     <row r="508" ht="45.75" customHeight="1">
-      <c r="B508" s="8"/>
+      <c r="B508" s="9"/>
     </row>
     <row r="509" ht="45.75" customHeight="1">
-      <c r="B509" s="8"/>
+      <c r="B509" s="9"/>
     </row>
     <row r="510" ht="45.75" customHeight="1">
-      <c r="B510" s="8"/>
+      <c r="B510" s="9"/>
     </row>
     <row r="511" ht="45.75" customHeight="1">
-      <c r="B511" s="8"/>
+      <c r="B511" s="9"/>
     </row>
     <row r="512" ht="45.75" customHeight="1">
-      <c r="B512" s="8"/>
+      <c r="B512" s="9"/>
     </row>
     <row r="513" ht="45.75" customHeight="1">
-      <c r="B513" s="8"/>
+      <c r="B513" s="9"/>
     </row>
     <row r="514" ht="45.75" customHeight="1">
-      <c r="B514" s="8"/>
+      <c r="B514" s="9"/>
     </row>
     <row r="515" ht="45.75" customHeight="1">
-      <c r="B515" s="8"/>
+      <c r="B515" s="9"/>
     </row>
     <row r="516" ht="45.75" customHeight="1">
-      <c r="B516" s="8"/>
+      <c r="B516" s="9"/>
     </row>
     <row r="517" ht="45.75" customHeight="1">
-      <c r="B517" s="8"/>
+      <c r="B517" s="9"/>
     </row>
     <row r="518" ht="45.75" customHeight="1">
-      <c r="B518" s="8"/>
+      <c r="B518" s="9"/>
     </row>
     <row r="519" ht="45.75" customHeight="1">
-      <c r="B519" s="8"/>
+      <c r="B519" s="9"/>
     </row>
     <row r="520" ht="45.75" customHeight="1">
-      <c r="B520" s="8"/>
+      <c r="B520" s="9"/>
     </row>
     <row r="521" ht="45.75" customHeight="1">
-      <c r="B521" s="8"/>
+      <c r="B521" s="9"/>
     </row>
     <row r="522" ht="45.75" customHeight="1">
-      <c r="B522" s="8"/>
+      <c r="B522" s="9"/>
     </row>
     <row r="523" ht="45.75" customHeight="1">
-      <c r="B523" s="8"/>
+      <c r="B523" s="9"/>
     </row>
     <row r="524" ht="45.75" customHeight="1">
-      <c r="B524" s="8"/>
+      <c r="B524" s="9"/>
     </row>
     <row r="525" ht="45.75" customHeight="1">
-      <c r="B525" s="8"/>
+      <c r="B525" s="9"/>
     </row>
     <row r="526" ht="45.75" customHeight="1">
-      <c r="B526" s="8"/>
+      <c r="B526" s="9"/>
     </row>
     <row r="527" ht="45.75" customHeight="1">
-      <c r="B527" s="8"/>
+      <c r="B527" s="9"/>
     </row>
     <row r="528" ht="45.75" customHeight="1">
-      <c r="B528" s="8"/>
+      <c r="B528" s="9"/>
     </row>
     <row r="529" ht="45.75" customHeight="1">
-      <c r="B529" s="8"/>
+      <c r="B529" s="9"/>
     </row>
     <row r="530" ht="45.75" customHeight="1">
-      <c r="B530" s="8"/>
+      <c r="B530" s="9"/>
     </row>
     <row r="531" ht="45.75" customHeight="1">
-      <c r="B531" s="8"/>
+      <c r="B531" s="9"/>
     </row>
     <row r="532" ht="45.75" customHeight="1">
-      <c r="B532" s="8"/>
+      <c r="B532" s="9"/>
     </row>
     <row r="533" ht="45.75" customHeight="1">
-      <c r="B533" s="8"/>
+      <c r="B533" s="9"/>
     </row>
     <row r="534" ht="45.75" customHeight="1">
-      <c r="B534" s="8"/>
+      <c r="B534" s="9"/>
     </row>
     <row r="535" ht="45.75" customHeight="1">
-      <c r="B535" s="8"/>
+      <c r="B535" s="9"/>
     </row>
     <row r="536" ht="45.75" customHeight="1">
-      <c r="B536" s="8"/>
+      <c r="B536" s="9"/>
     </row>
     <row r="537" ht="45.75" customHeight="1">
-      <c r="B537" s="8"/>
+      <c r="B537" s="9"/>
     </row>
     <row r="538" ht="45.75" customHeight="1">
-      <c r="B538" s="8"/>
+      <c r="B538" s="9"/>
     </row>
     <row r="539" ht="45.75" customHeight="1">
-      <c r="B539" s="8"/>
+      <c r="B539" s="9"/>
     </row>
     <row r="540" ht="45.75" customHeight="1">
-      <c r="B540" s="8"/>
+      <c r="B540" s="9"/>
     </row>
     <row r="541" ht="45.75" customHeight="1">
-      <c r="B541" s="8"/>
+      <c r="B541" s="9"/>
     </row>
     <row r="542" ht="45.75" customHeight="1">
-      <c r="B542" s="8"/>
+      <c r="B542" s="9"/>
     </row>
     <row r="543" ht="45.75" customHeight="1">
-      <c r="B543" s="8"/>
+      <c r="B543" s="9"/>
     </row>
     <row r="544" ht="45.75" customHeight="1">
-      <c r="B544" s="8"/>
+      <c r="B544" s="9"/>
     </row>
     <row r="545" ht="45.75" customHeight="1">
-      <c r="B545" s="8"/>
+      <c r="B545" s="9"/>
     </row>
     <row r="546" ht="45.75" customHeight="1">
-      <c r="B546" s="8"/>
+      <c r="B546" s="9"/>
     </row>
     <row r="547" ht="45.75" customHeight="1">
-      <c r="B547" s="8"/>
+      <c r="B547" s="9"/>
     </row>
     <row r="548" ht="45.75" customHeight="1">
-      <c r="B548" s="8"/>
+      <c r="B548" s="9"/>
     </row>
     <row r="549" ht="45.75" customHeight="1">
-      <c r="B549" s="8"/>
+      <c r="B549" s="9"/>
     </row>
     <row r="550" ht="45.75" customHeight="1">
-      <c r="B550" s="8"/>
+      <c r="B550" s="9"/>
     </row>
     <row r="551" ht="45.75" customHeight="1">
-      <c r="B551" s="8"/>
+      <c r="B551" s="9"/>
     </row>
     <row r="552" ht="45.75" customHeight="1">
-      <c r="B552" s="8"/>
+      <c r="B552" s="9"/>
     </row>
     <row r="553" ht="45.75" customHeight="1">
-      <c r="B553" s="8"/>
+      <c r="B553" s="9"/>
     </row>
     <row r="554" ht="45.75" customHeight="1">
-      <c r="B554" s="8"/>
+      <c r="B554" s="9"/>
     </row>
     <row r="555" ht="45.75" customHeight="1">
-      <c r="B555" s="8"/>
+      <c r="B555" s="9"/>
     </row>
     <row r="556" ht="45.75" customHeight="1">
-      <c r="B556" s="8"/>
+      <c r="B556" s="9"/>
     </row>
     <row r="557" ht="45.75" customHeight="1">
-      <c r="B557" s="8"/>
+      <c r="B557" s="9"/>
     </row>
     <row r="558" ht="45.75" customHeight="1">
-      <c r="B558" s="8"/>
+      <c r="B558" s="9"/>
     </row>
     <row r="559" ht="45.75" customHeight="1">
-      <c r="B559" s="8"/>
+      <c r="B559" s="9"/>
     </row>
     <row r="560" ht="45.75" customHeight="1">
-      <c r="B560" s="8"/>
+      <c r="B560" s="9"/>
     </row>
     <row r="561" ht="45.75" customHeight="1">
-      <c r="B561" s="8"/>
+      <c r="B561" s="9"/>
     </row>
     <row r="562" ht="45.75" customHeight="1">
-      <c r="B562" s="8"/>
+      <c r="B562" s="9"/>
     </row>
     <row r="563" ht="45.75" customHeight="1">
-      <c r="B563" s="8"/>
+      <c r="B563" s="9"/>
     </row>
     <row r="564" ht="45.75" customHeight="1">
-      <c r="B564" s="8"/>
+      <c r="B564" s="9"/>
     </row>
     <row r="565" ht="45.75" customHeight="1">
-      <c r="B565" s="8"/>
+      <c r="B565" s="9"/>
     </row>
     <row r="566" ht="45.75" customHeight="1">
-      <c r="B566" s="8"/>
+      <c r="B566" s="9"/>
     </row>
     <row r="567" ht="45.75" customHeight="1">
-      <c r="B567" s="8"/>
+      <c r="B567" s="9"/>
     </row>
     <row r="568" ht="45.75" customHeight="1">
-      <c r="B568" s="8"/>
+      <c r="B568" s="9"/>
     </row>
     <row r="569" ht="45.75" customHeight="1">
-      <c r="B569" s="8"/>
+      <c r="B569" s="9"/>
     </row>
     <row r="570" ht="45.75" customHeight="1">
-      <c r="B570" s="8"/>
+      <c r="B570" s="9"/>
     </row>
     <row r="571" ht="45.75" customHeight="1">
-      <c r="B571" s="8"/>
+      <c r="B571" s="9"/>
     </row>
     <row r="572" ht="45.75" customHeight="1">
-      <c r="B572" s="8"/>
+      <c r="B572" s="9"/>
     </row>
     <row r="573" ht="45.75" customHeight="1">
-      <c r="B573" s="8"/>
+      <c r="B573" s="9"/>
     </row>
     <row r="574" ht="45.75" customHeight="1">
-      <c r="B574" s="8"/>
+      <c r="B574" s="9"/>
     </row>
     <row r="575" ht="45.75" customHeight="1">
-      <c r="B575" s="8"/>
+      <c r="B575" s="9"/>
     </row>
     <row r="576" ht="45.75" customHeight="1">
-      <c r="B576" s="8"/>
+      <c r="B576" s="9"/>
     </row>
     <row r="577" ht="45.75" customHeight="1">
-      <c r="B577" s="8"/>
+      <c r="B577" s="9"/>
     </row>
     <row r="578" ht="45.75" customHeight="1">
-      <c r="B578" s="8"/>
+      <c r="B578" s="9"/>
     </row>
     <row r="579" ht="45.75" customHeight="1">
-      <c r="B579" s="8"/>
+      <c r="B579" s="9"/>
     </row>
     <row r="580" ht="45.75" customHeight="1">
-      <c r="B580" s="8"/>
+      <c r="B580" s="9"/>
     </row>
     <row r="581" ht="45.75" customHeight="1">
-      <c r="B581" s="8"/>
+      <c r="B581" s="9"/>
     </row>
     <row r="582" ht="45.75" customHeight="1">
-      <c r="B582" s="8"/>
+      <c r="B582" s="9"/>
     </row>
     <row r="583" ht="45.75" customHeight="1">
-      <c r="B583" s="8"/>
+      <c r="B583" s="9"/>
     </row>
     <row r="584" ht="45.75" customHeight="1">
-      <c r="B584" s="8"/>
+      <c r="B584" s="9"/>
     </row>
     <row r="585" ht="45.75" customHeight="1">
-      <c r="B585" s="8"/>
+      <c r="B585" s="9"/>
     </row>
     <row r="586" ht="45.75" customHeight="1">
-      <c r="B586" s="8"/>
+      <c r="B586" s="9"/>
     </row>
     <row r="587" ht="45.75" customHeight="1">
-      <c r="B587" s="8"/>
+      <c r="B587" s="9"/>
     </row>
     <row r="588" ht="45.75" customHeight="1">
-      <c r="B588" s="8"/>
+      <c r="B588" s="9"/>
     </row>
     <row r="589" ht="45.75" customHeight="1">
-      <c r="B589" s="8"/>
+      <c r="B589" s="9"/>
     </row>
     <row r="590" ht="45.75" customHeight="1">
-      <c r="B590" s="8"/>
+      <c r="B590" s="9"/>
     </row>
     <row r="591" ht="45.75" customHeight="1">
-      <c r="B591" s="8"/>
+      <c r="B591" s="9"/>
     </row>
     <row r="592" ht="45.75" customHeight="1">
-      <c r="B592" s="8"/>
+      <c r="B592" s="9"/>
     </row>
     <row r="593" ht="45.75" customHeight="1">
-      <c r="B593" s="8"/>
+      <c r="B593" s="9"/>
     </row>
     <row r="594" ht="45.75" customHeight="1">
-      <c r="B594" s="8"/>
+      <c r="B594" s="9"/>
     </row>
     <row r="595" ht="45.75" customHeight="1">
-      <c r="B595" s="8"/>
+      <c r="B595" s="9"/>
     </row>
     <row r="596" ht="45.75" customHeight="1">
-      <c r="B596" s="8"/>
+      <c r="B596" s="9"/>
     </row>
     <row r="597" ht="45.75" customHeight="1">
-      <c r="B597" s="8"/>
+      <c r="B597" s="9"/>
     </row>
     <row r="598" ht="45.75" customHeight="1">
-      <c r="B598" s="8"/>
+      <c r="B598" s="9"/>
     </row>
     <row r="599" ht="45.75" customHeight="1">
-      <c r="B599" s="8"/>
+      <c r="B599" s="9"/>
     </row>
     <row r="600" ht="45.75" customHeight="1">
-      <c r="B600" s="8"/>
+      <c r="B600" s="9"/>
     </row>
     <row r="601" ht="45.75" customHeight="1">
-      <c r="B601" s="8"/>
+      <c r="B601" s="9"/>
     </row>
     <row r="602" ht="45.75" customHeight="1">
-      <c r="B602" s="8"/>
+      <c r="B602" s="9"/>
     </row>
     <row r="603" ht="45.75" customHeight="1">
-      <c r="B603" s="8"/>
+      <c r="B603" s="9"/>
     </row>
     <row r="604" ht="45.75" customHeight="1">
-      <c r="B604" s="8"/>
+      <c r="B604" s="9"/>
     </row>
     <row r="605" ht="45.75" customHeight="1">
-      <c r="B605" s="8"/>
+      <c r="B605" s="9"/>
     </row>
     <row r="606" ht="45.75" customHeight="1">
-      <c r="B606" s="8"/>
+      <c r="B606" s="9"/>
     </row>
     <row r="607" ht="45.75" customHeight="1">
-      <c r="B607" s="8"/>
+      <c r="B607" s="9"/>
     </row>
     <row r="608" ht="45.75" customHeight="1">
-      <c r="B608" s="8"/>
+      <c r="B608" s="9"/>
     </row>
     <row r="609" ht="45.75" customHeight="1">
-      <c r="B609" s="8"/>
+      <c r="B609" s="9"/>
     </row>
     <row r="610" ht="45.75" customHeight="1">
-      <c r="B610" s="8"/>
+      <c r="B610" s="9"/>
     </row>
     <row r="611" ht="45.75" customHeight="1">
-      <c r="B611" s="8"/>
+      <c r="B611" s="9"/>
     </row>
     <row r="612" ht="45.75" customHeight="1">
-      <c r="B612" s="8"/>
+      <c r="B612" s="9"/>
     </row>
     <row r="613" ht="45.75" customHeight="1">
-      <c r="B613" s="8"/>
+      <c r="B613" s="9"/>
     </row>
     <row r="614" ht="45.75" customHeight="1">
-      <c r="B614" s="8"/>
+      <c r="B614" s="9"/>
     </row>
     <row r="615" ht="45.75" customHeight="1">
-      <c r="B615" s="8"/>
+      <c r="B615" s="9"/>
     </row>
     <row r="616" ht="45.75" customHeight="1">
-      <c r="B616" s="8"/>
+      <c r="B616" s="9"/>
     </row>
     <row r="617" ht="45.75" customHeight="1">
-      <c r="B617" s="8"/>
+      <c r="B617" s="9"/>
     </row>
     <row r="618" ht="45.75" customHeight="1">
-      <c r="B618" s="8"/>
+      <c r="B618" s="9"/>
     </row>
     <row r="619" ht="45.75" customHeight="1">
-      <c r="B619" s="8"/>
+      <c r="B619" s="9"/>
     </row>
     <row r="620" ht="45.75" customHeight="1">
-      <c r="B620" s="8"/>
+      <c r="B620" s="9"/>
     </row>
     <row r="621" ht="45.75" customHeight="1">
-      <c r="B621" s="8"/>
+      <c r="B621" s="9"/>
     </row>
     <row r="622" ht="45.75" customHeight="1">
-      <c r="B622" s="8"/>
+      <c r="B622" s="9"/>
     </row>
     <row r="623" ht="45.75" customHeight="1">
-      <c r="B623" s="8"/>
+      <c r="B623" s="9"/>
     </row>
     <row r="624" ht="45.75" customHeight="1">
-      <c r="B624" s="8"/>
+      <c r="B624" s="9"/>
     </row>
     <row r="625" ht="45.75" customHeight="1">
-      <c r="B625" s="8"/>
+      <c r="B625" s="9"/>
     </row>
     <row r="626" ht="45.75" customHeight="1">
-      <c r="B626" s="8"/>
+      <c r="B626" s="9"/>
     </row>
     <row r="627" ht="45.75" customHeight="1">
-      <c r="B627" s="8"/>
+      <c r="B627" s="9"/>
     </row>
     <row r="628" ht="45.75" customHeight="1">
-      <c r="B628" s="8"/>
+      <c r="B628" s="9"/>
     </row>
     <row r="629" ht="45.75" customHeight="1">
-      <c r="B629" s="8"/>
+      <c r="B629" s="9"/>
     </row>
     <row r="630" ht="45.75" customHeight="1">
-      <c r="B630" s="8"/>
+      <c r="B630" s="9"/>
     </row>
     <row r="631" ht="45.75" customHeight="1">
-      <c r="B631" s="8"/>
+      <c r="B631" s="9"/>
     </row>
     <row r="632" ht="45.75" customHeight="1">
-      <c r="B632" s="8"/>
+      <c r="B632" s="9"/>
     </row>
     <row r="633" ht="45.75" customHeight="1">
-      <c r="B633" s="8"/>
+      <c r="B633" s="9"/>
     </row>
     <row r="634" ht="45.75" customHeight="1">
-      <c r="B634" s="8"/>
+      <c r="B634" s="9"/>
     </row>
     <row r="635" ht="45.75" customHeight="1">
-      <c r="B635" s="8"/>
+      <c r="B635" s="9"/>
     </row>
     <row r="636" ht="45.75" customHeight="1">
-      <c r="B636" s="8"/>
+      <c r="B636" s="9"/>
     </row>
     <row r="637" ht="45.75" customHeight="1">
-      <c r="B637" s="8"/>
+      <c r="B637" s="9"/>
     </row>
     <row r="638" ht="45.75" customHeight="1">
-      <c r="B638" s="8"/>
+      <c r="B638" s="9"/>
     </row>
     <row r="639" ht="45.75" customHeight="1">
-      <c r="B639" s="8"/>
+      <c r="B639" s="9"/>
     </row>
     <row r="640" ht="45.75" customHeight="1">
-      <c r="B640" s="8"/>
+      <c r="B640" s="9"/>
     </row>
     <row r="641" ht="45.75" customHeight="1">
-      <c r="B641" s="8"/>
+      <c r="B641" s="9"/>
     </row>
     <row r="642" ht="45.75" customHeight="1">
-      <c r="B642" s="8"/>
+      <c r="B642" s="9"/>
     </row>
     <row r="643" ht="45.75" customHeight="1">
-      <c r="B643" s="8"/>
+      <c r="B643" s="9"/>
     </row>
     <row r="644" ht="45.75" customHeight="1">
-      <c r="B644" s="8"/>
+      <c r="B644" s="9"/>
     </row>
     <row r="645" ht="45.75" customHeight="1">
-      <c r="B645" s="8"/>
+      <c r="B645" s="9"/>
     </row>
     <row r="646" ht="45.75" customHeight="1">
-      <c r="B646" s="8"/>
+      <c r="B646" s="9"/>
     </row>
     <row r="647" ht="45.75" customHeight="1">
-      <c r="B647" s="8"/>
+      <c r="B647" s="9"/>
     </row>
     <row r="648" ht="45.75" customHeight="1">
-      <c r="B648" s="8"/>
+      <c r="B648" s="9"/>
     </row>
     <row r="649" ht="45.75" customHeight="1">
-      <c r="B649" s="8"/>
+      <c r="B649" s="9"/>
     </row>
     <row r="650" ht="45.75" customHeight="1">
-      <c r="B650" s="8"/>
+      <c r="B650" s="9"/>
     </row>
     <row r="651" ht="45.75" customHeight="1">
-      <c r="B651" s="8"/>
+      <c r="B651" s="9"/>
     </row>
     <row r="652" ht="45.75" customHeight="1">
-      <c r="B652" s="8"/>
+      <c r="B652" s="9"/>
     </row>
     <row r="653" ht="45.75" customHeight="1">
-      <c r="B653" s="8"/>
+      <c r="B653" s="9"/>
     </row>
     <row r="654" ht="45.75" customHeight="1">
-      <c r="B654" s="8"/>
+      <c r="B654" s="9"/>
     </row>
     <row r="655" ht="45.75" customHeight="1">
-      <c r="B655" s="8"/>
+      <c r="B655" s="9"/>
     </row>
     <row r="656" ht="45.75" customHeight="1">
-      <c r="B656" s="8"/>
+      <c r="B656" s="9"/>
     </row>
     <row r="657" ht="45.75" customHeight="1">
-      <c r="B657" s="8"/>
+      <c r="B657" s="9"/>
     </row>
     <row r="658" ht="45.75" customHeight="1">
-      <c r="B658" s="8"/>
+      <c r="B658" s="9"/>
     </row>
     <row r="659" ht="45.75" customHeight="1">
-      <c r="B659" s="8"/>
+      <c r="B659" s="9"/>
     </row>
     <row r="660" ht="45.75" customHeight="1">
-      <c r="B660" s="8"/>
+      <c r="B660" s="9"/>
     </row>
     <row r="661" ht="45.75" customHeight="1">
-      <c r="B661" s="8"/>
+      <c r="B661" s="9"/>
     </row>
     <row r="662" ht="45.75" customHeight="1">
-      <c r="B662" s="8"/>
+      <c r="B662" s="9"/>
     </row>
     <row r="663" ht="45.75" customHeight="1">
-      <c r="B663" s="8"/>
+      <c r="B663" s="9"/>
     </row>
     <row r="664" ht="45.75" customHeight="1">
-      <c r="B664" s="8"/>
+      <c r="B664" s="9"/>
     </row>
     <row r="665" ht="45.75" customHeight="1">
-      <c r="B665" s="8"/>
+      <c r="B665" s="9"/>
     </row>
     <row r="666" ht="45.75" customHeight="1">
-      <c r="B666" s="8"/>
+      <c r="B666" s="9"/>
     </row>
     <row r="667" ht="45.75" customHeight="1">
-      <c r="B667" s="8"/>
+      <c r="B667" s="9"/>
     </row>
     <row r="668" ht="45.75" customHeight="1">
-      <c r="B668" s="8"/>
+      <c r="B668" s="9"/>
     </row>
     <row r="669" ht="45.75" customHeight="1">
-      <c r="B669" s="8"/>
+      <c r="B669" s="9"/>
     </row>
     <row r="670" ht="45.75" customHeight="1">
-      <c r="B670" s="8"/>
+      <c r="B670" s="9"/>
     </row>
     <row r="671" ht="45.75" customHeight="1">
-      <c r="B671" s="8"/>
+      <c r="B671" s="9"/>
     </row>
     <row r="672" ht="45.75" customHeight="1">
-      <c r="B672" s="8"/>
+      <c r="B672" s="9"/>
     </row>
     <row r="673" ht="45.75" customHeight="1">
-      <c r="B673" s="8"/>
+      <c r="B673" s="9"/>
     </row>
     <row r="674" ht="45.75" customHeight="1">
-      <c r="B674" s="8"/>
+      <c r="B674" s="9"/>
     </row>
     <row r="675" ht="45.75" customHeight="1">
-      <c r="B675" s="8"/>
+      <c r="B675" s="9"/>
     </row>
     <row r="676" ht="45.75" customHeight="1">
-      <c r="B676" s="8"/>
+      <c r="B676" s="9"/>
     </row>
     <row r="677" ht="45.75" customHeight="1">
-      <c r="B677" s="8"/>
+      <c r="B677" s="9"/>
     </row>
     <row r="678" ht="45.75" customHeight="1">
-      <c r="B678" s="8"/>
+      <c r="B678" s="9"/>
     </row>
     <row r="679" ht="45.75" customHeight="1">
-      <c r="B679" s="8"/>
+      <c r="B679" s="9"/>
     </row>
     <row r="680" ht="45.75" customHeight="1">
-      <c r="B680" s="8"/>
+      <c r="B680" s="9"/>
     </row>
     <row r="681" ht="45.75" customHeight="1">
-      <c r="B681" s="8"/>
+      <c r="B681" s="9"/>
     </row>
     <row r="682" ht="45.75" customHeight="1">
-      <c r="B682" s="8"/>
+      <c r="B682" s="9"/>
     </row>
     <row r="683" ht="45.75" customHeight="1">
-      <c r="B683" s="8"/>
+      <c r="B683" s="9"/>
     </row>
     <row r="684" ht="45.75" customHeight="1">
-      <c r="B684" s="8"/>
+      <c r="B684" s="9"/>
     </row>
     <row r="685" ht="45.75" customHeight="1">
-      <c r="B685" s="8"/>
+      <c r="B685" s="9"/>
     </row>
     <row r="686" ht="45.75" customHeight="1">
-      <c r="B686" s="8"/>
+      <c r="B686" s="9"/>
     </row>
     <row r="687" ht="45.75" customHeight="1">
-      <c r="B687" s="8"/>
+      <c r="B687" s="9"/>
     </row>
     <row r="688" ht="45.75" customHeight="1">
-      <c r="B688" s="8"/>
+      <c r="B688" s="9"/>
     </row>
     <row r="689" ht="45.75" customHeight="1">
-      <c r="B689" s="8"/>
+      <c r="B689" s="9"/>
     </row>
     <row r="690" ht="45.75" customHeight="1">
-      <c r="B690" s="8"/>
+      <c r="B690" s="9"/>
     </row>
     <row r="691" ht="45.75" customHeight="1">
-      <c r="B691" s="8"/>
+      <c r="B691" s="9"/>
     </row>
     <row r="692" ht="45.75" customHeight="1">
-      <c r="B692" s="8"/>
+      <c r="B692" s="9"/>
     </row>
     <row r="693" ht="45.75" customHeight="1">
-      <c r="B693" s="8"/>
+      <c r="B693" s="9"/>
     </row>
     <row r="694" ht="45.75" customHeight="1">
-      <c r="B694" s="8"/>
+      <c r="B694" s="9"/>
     </row>
     <row r="695" ht="45.75" customHeight="1">
-      <c r="B695" s="8"/>
+      <c r="B695" s="9"/>
     </row>
     <row r="696" ht="45.75" customHeight="1">
-      <c r="B696" s="8"/>
+      <c r="B696" s="9"/>
     </row>
     <row r="697" ht="45.75" customHeight="1">
-      <c r="B697" s="8"/>
+      <c r="B697" s="9"/>
     </row>
     <row r="698" ht="45.75" customHeight="1">
-      <c r="B698" s="8"/>
+      <c r="B698" s="9"/>
     </row>
     <row r="699" ht="45.75" customHeight="1">
-      <c r="B699" s="8"/>
+      <c r="B699" s="9"/>
     </row>
     <row r="700" ht="45.75" customHeight="1">
-      <c r="B700" s="8"/>
+      <c r="B700" s="9"/>
     </row>
     <row r="701" ht="45.75" customHeight="1">
-      <c r="B701" s="8"/>
+      <c r="B701" s="9"/>
     </row>
     <row r="702" ht="45.75" customHeight="1">
-      <c r="B702" s="8"/>
+      <c r="B702" s="9"/>
     </row>
     <row r="703" ht="45.75" customHeight="1">
-      <c r="B703" s="8"/>
+      <c r="B703" s="9"/>
     </row>
     <row r="704" ht="45.75" customHeight="1">
-      <c r="B704" s="8"/>
+      <c r="B704" s="9"/>
     </row>
     <row r="705" ht="45.75" customHeight="1">
-      <c r="B705" s="8"/>
+      <c r="B705" s="9"/>
     </row>
     <row r="706" ht="45.75" customHeight="1">
-      <c r="B706" s="8"/>
+      <c r="B706" s="9"/>
     </row>
     <row r="707" ht="45.75" customHeight="1">
-      <c r="B707" s="8"/>
+      <c r="B707" s="9"/>
     </row>
     <row r="708" ht="45.75" customHeight="1">
-      <c r="B708" s="8"/>
+      <c r="B708" s="9"/>
     </row>
     <row r="709" ht="45.75" customHeight="1">
-      <c r="B709" s="8"/>
+      <c r="B709" s="9"/>
     </row>
     <row r="710" ht="45.75" customHeight="1">
-      <c r="B710" s="8"/>
+      <c r="B710" s="9"/>
     </row>
     <row r="711" ht="45.75" customHeight="1">
-      <c r="B711" s="8"/>
+      <c r="B711" s="9"/>
     </row>
     <row r="712" ht="45.75" customHeight="1">
-      <c r="B712" s="8"/>
+      <c r="B712" s="9"/>
     </row>
     <row r="713" ht="45.75" customHeight="1">
-      <c r="B713" s="8"/>
+      <c r="B713" s="9"/>
     </row>
     <row r="714" ht="45.75" customHeight="1">
-      <c r="B714" s="8"/>
+      <c r="B714" s="9"/>
     </row>
     <row r="715" ht="45.75" customHeight="1">
-      <c r="B715" s="8"/>
+      <c r="B715" s="9"/>
     </row>
     <row r="716" ht="45.75" customHeight="1">
-      <c r="B716" s="8"/>
+      <c r="B716" s="9"/>
     </row>
     <row r="717" ht="45.75" customHeight="1">
-      <c r="B717" s="8"/>
+      <c r="B717" s="9"/>
     </row>
     <row r="718" ht="45.75" customHeight="1">
-      <c r="B718" s="8"/>
+      <c r="B718" s="9"/>
     </row>
     <row r="719" ht="45.75" customHeight="1">
-      <c r="B719" s="8"/>
+      <c r="B719" s="9"/>
     </row>
     <row r="720" ht="45.75" customHeight="1">
-      <c r="B720" s="8"/>
+      <c r="B720" s="9"/>
     </row>
     <row r="721" ht="45.75" customHeight="1">
-      <c r="B721" s="8"/>
+      <c r="B721" s="9"/>
     </row>
     <row r="722" ht="45.75" customHeight="1">
-      <c r="B722" s="8"/>
+      <c r="B722" s="9"/>
     </row>
     <row r="723" ht="45.75" customHeight="1">
-      <c r="B723" s="8"/>
+      <c r="B723" s="9"/>
     </row>
     <row r="724" ht="45.75" customHeight="1">
-      <c r="B724" s="8"/>
+      <c r="B724" s="9"/>
     </row>
     <row r="725" ht="45.75" customHeight="1">
-      <c r="B725" s="8"/>
+      <c r="B725" s="9"/>
     </row>
     <row r="726" ht="45.75" customHeight="1">
-      <c r="B726" s="8"/>
+      <c r="B726" s="9"/>
     </row>
     <row r="727" ht="45.75" customHeight="1">
-      <c r="B727" s="8"/>
+      <c r="B727" s="9"/>
     </row>
     <row r="728" ht="45.75" customHeight="1">
-      <c r="B728" s="8"/>
+      <c r="B728" s="9"/>
     </row>
     <row r="729" ht="45.75" customHeight="1">
-      <c r="B729" s="8"/>
+      <c r="B729" s="9"/>
     </row>
     <row r="730" ht="45.75" customHeight="1">
-      <c r="B730" s="8"/>
+      <c r="B730" s="9"/>
     </row>
     <row r="731" ht="45.75" customHeight="1">
-      <c r="B731" s="8"/>
+      <c r="B731" s="9"/>
     </row>
     <row r="732" ht="45.75" customHeight="1">
-      <c r="B732" s="8"/>
+      <c r="B732" s="9"/>
     </row>
     <row r="733" ht="45.75" customHeight="1">
-      <c r="B733" s="8"/>
+      <c r="B733" s="9"/>
     </row>
     <row r="734" ht="45.75" customHeight="1">
-      <c r="B734" s="8"/>
+      <c r="B734" s="9"/>
     </row>
     <row r="735" ht="45.75" customHeight="1">
-      <c r="B735" s="8"/>
+      <c r="B735" s="9"/>
     </row>
     <row r="736" ht="45.75" customHeight="1">
-      <c r="B736" s="8"/>
+      <c r="B736" s="9"/>
     </row>
     <row r="737" ht="45.75" customHeight="1">
-      <c r="B737" s="8"/>
+      <c r="B737" s="9"/>
     </row>
     <row r="738" ht="45.75" customHeight="1">
-      <c r="B738" s="8"/>
+      <c r="B738" s="9"/>
     </row>
     <row r="739" ht="45.75" customHeight="1">
-      <c r="B739" s="8"/>
+      <c r="B739" s="9"/>
     </row>
     <row r="740" ht="45.75" customHeight="1">
-      <c r="B740" s="8"/>
+      <c r="B740" s="9"/>
     </row>
     <row r="741" ht="45.75" customHeight="1">
-      <c r="B741" s="8"/>
+      <c r="B741" s="9"/>
     </row>
     <row r="742" ht="45.75" customHeight="1">
-      <c r="B742" s="8"/>
+      <c r="B742" s="9"/>
     </row>
     <row r="743" ht="45.75" customHeight="1">
-      <c r="B743" s="8"/>
+      <c r="B743" s="9"/>
     </row>
     <row r="744" ht="45.75" customHeight="1">
-      <c r="B744" s="8"/>
+      <c r="B744" s="9"/>
     </row>
     <row r="745" ht="45.75" customHeight="1">
-      <c r="B745" s="8"/>
+      <c r="B745" s="9"/>
     </row>
     <row r="746" ht="45.75" customHeight="1">
-      <c r="B746" s="8"/>
+      <c r="B746" s="9"/>
     </row>
     <row r="747" ht="45.75" customHeight="1">
-      <c r="B747" s="8"/>
+      <c r="B747" s="9"/>
     </row>
     <row r="748" ht="45.75" customHeight="1">
-      <c r="B748" s="8"/>
+      <c r="B748" s="9"/>
     </row>
     <row r="749" ht="45.75" customHeight="1">
-      <c r="B749" s="8"/>
+      <c r="B749" s="9"/>
     </row>
     <row r="750" ht="45.75" customHeight="1">
-      <c r="B750" s="8"/>
+      <c r="B750" s="9"/>
     </row>
     <row r="751" ht="45.75" customHeight="1">
-      <c r="B751" s="8"/>
+      <c r="B751" s="9"/>
     </row>
     <row r="752" ht="45.75" customHeight="1">
-      <c r="B752" s="8"/>
+      <c r="B752" s="9"/>
     </row>
     <row r="753" ht="45.75" customHeight="1">
-      <c r="B753" s="8"/>
+      <c r="B753" s="9"/>
     </row>
     <row r="754" ht="45.75" customHeight="1">
-      <c r="B754" s="8"/>
+      <c r="B754" s="9"/>
     </row>
     <row r="755" ht="45.75" customHeight="1">
-      <c r="B755" s="8"/>
+      <c r="B755" s="9"/>
     </row>
     <row r="756" ht="45.75" customHeight="1">
-      <c r="B756" s="8"/>
+      <c r="B756" s="9"/>
     </row>
     <row r="757" ht="45.75" customHeight="1">
-      <c r="B757" s="8"/>
+      <c r="B757" s="9"/>
     </row>
     <row r="758" ht="45.75" customHeight="1">
-      <c r="B758" s="8"/>
+      <c r="B758" s="9"/>
     </row>
     <row r="759" ht="45.75" customHeight="1">
-      <c r="B759" s="8"/>
+      <c r="B759" s="9"/>
     </row>
     <row r="760" ht="45.75" customHeight="1">
-      <c r="B760" s="8"/>
+      <c r="B760" s="9"/>
     </row>
     <row r="761" ht="45.75" customHeight="1">
-      <c r="B761" s="8"/>
+      <c r="B761" s="9"/>
     </row>
     <row r="762" ht="45.75" customHeight="1">
-      <c r="B762" s="8"/>
+      <c r="B762" s="9"/>
     </row>
     <row r="763" ht="45.75" customHeight="1">
-      <c r="B763" s="8"/>
+      <c r="B763" s="9"/>
     </row>
     <row r="764" ht="45.75" customHeight="1">
-      <c r="B764" s="8"/>
+      <c r="B764" s="9"/>
     </row>
     <row r="765" ht="45.75" customHeight="1">
-      <c r="B765" s="8"/>
+      <c r="B765" s="9"/>
     </row>
     <row r="766" ht="45.75" customHeight="1">
-      <c r="B766" s="8"/>
+      <c r="B766" s="9"/>
     </row>
     <row r="767" ht="45.75" customHeight="1">
-      <c r="B767" s="8"/>
+      <c r="B767" s="9"/>
     </row>
     <row r="768" ht="45.75" customHeight="1">
-      <c r="B768" s="8"/>
+      <c r="B768" s="9"/>
     </row>
     <row r="769" ht="45.75" customHeight="1">
-      <c r="B769" s="8"/>
+      <c r="B769" s="9"/>
     </row>
     <row r="770" ht="45.75" customHeight="1">
-      <c r="B770" s="8"/>
+      <c r="B770" s="9"/>
     </row>
     <row r="771" ht="45.75" customHeight="1">
-      <c r="B771" s="8"/>
+      <c r="B771" s="9"/>
     </row>
     <row r="772" ht="45.75" customHeight="1">
-      <c r="B772" s="8"/>
+      <c r="B772" s="9"/>
     </row>
     <row r="773" ht="45.75" customHeight="1">
-      <c r="B773" s="8"/>
+      <c r="B773" s="9"/>
     </row>
     <row r="774" ht="45.75" customHeight="1">
-      <c r="B774" s="8"/>
+      <c r="B774" s="9"/>
     </row>
     <row r="775" ht="45.75" customHeight="1">
-      <c r="B775" s="8"/>
+      <c r="B775" s="9"/>
     </row>
     <row r="776" ht="45.75" customHeight="1">
-      <c r="B776" s="8"/>
+      <c r="B776" s="9"/>
     </row>
     <row r="777" ht="45.75" customHeight="1">
-      <c r="B777" s="8"/>
+      <c r="B777" s="9"/>
     </row>
     <row r="778" ht="45.75" customHeight="1">
-      <c r="B778" s="8"/>
+      <c r="B778" s="9"/>
     </row>
     <row r="779" ht="45.75" customHeight="1">
-      <c r="B779" s="8"/>
+      <c r="B779" s="9"/>
     </row>
     <row r="780" ht="45.75" customHeight="1">
-      <c r="B780" s="8"/>
+      <c r="B780" s="9"/>
     </row>
     <row r="781" ht="45.75" customHeight="1">
-      <c r="B781" s="8"/>
+      <c r="B781" s="9"/>
     </row>
     <row r="782" ht="45.75" customHeight="1">
-      <c r="B782" s="8"/>
+      <c r="B782" s="9"/>
     </row>
     <row r="783" ht="45.75" customHeight="1">
-      <c r="B783" s="8"/>
+      <c r="B783" s="9"/>
     </row>
     <row r="784" ht="45.75" customHeight="1">
-      <c r="B784" s="8"/>
+      <c r="B784" s="9"/>
     </row>
     <row r="785" ht="45.75" customHeight="1">
-      <c r="B785" s="8"/>
+      <c r="B785" s="9"/>
     </row>
     <row r="786" ht="45.75" customHeight="1">
-      <c r="B786" s="8"/>
+      <c r="B786" s="9"/>
     </row>
     <row r="787" ht="45.75" customHeight="1">
-      <c r="B787" s="8"/>
+      <c r="B787" s="9"/>
     </row>
     <row r="788" ht="45.75" customHeight="1">
-      <c r="B788" s="8"/>
+      <c r="B788" s="9"/>
     </row>
     <row r="789" ht="45.75" customHeight="1">
-      <c r="B789" s="8"/>
+      <c r="B789" s="9"/>
     </row>
     <row r="790" ht="45.75" customHeight="1">
-      <c r="B790" s="8"/>
+      <c r="B790" s="9"/>
     </row>
     <row r="791" ht="45.75" customHeight="1">
-      <c r="B791" s="8"/>
+      <c r="B791" s="9"/>
     </row>
     <row r="792" ht="45.75" customHeight="1">
-      <c r="B792" s="8"/>
+      <c r="B792" s="9"/>
     </row>
     <row r="793" ht="45.75" customHeight="1">
-      <c r="B793" s="8"/>
+      <c r="B793" s="9"/>
     </row>
     <row r="794" ht="45.75" customHeight="1">
-      <c r="B794" s="8"/>
+      <c r="B794" s="9"/>
     </row>
     <row r="795" ht="45.75" customHeight="1">
-      <c r="B795" s="8"/>
+      <c r="B795" s="9"/>
     </row>
     <row r="796" ht="45.75" customHeight="1">
-      <c r="B796" s="8"/>
+      <c r="B796" s="9"/>
     </row>
     <row r="797" ht="45.75" customHeight="1">
-      <c r="B797" s="8"/>
+      <c r="B797" s="9"/>
     </row>
     <row r="798" ht="45.75" customHeight="1">
-      <c r="B798" s="8"/>
+      <c r="B798" s="9"/>
     </row>
     <row r="799" ht="45.75" customHeight="1">
-      <c r="B799" s="8"/>
+      <c r="B799" s="9"/>
     </row>
     <row r="800" ht="45.75" customHeight="1">
-      <c r="B800" s="8"/>
+      <c r="B800" s="9"/>
     </row>
     <row r="801" ht="45.75" customHeight="1">
-      <c r="B801" s="8"/>
+      <c r="B801" s="9"/>
     </row>
     <row r="802" ht="45.75" customHeight="1">
-      <c r="B802" s="8"/>
+      <c r="B802" s="9"/>
     </row>
     <row r="803" ht="45.75" customHeight="1">
-      <c r="B803" s="8"/>
+      <c r="B803" s="9"/>
     </row>
     <row r="804" ht="45.75" customHeight="1">
-      <c r="B804" s="8"/>
+      <c r="B804" s="9"/>
     </row>
     <row r="805" ht="45.75" customHeight="1">
-      <c r="B805" s="8"/>
+      <c r="B805" s="9"/>
     </row>
     <row r="806" ht="45.75" customHeight="1">
-      <c r="B806" s="8"/>
+      <c r="B806" s="9"/>
     </row>
     <row r="807" ht="45.75" customHeight="1">
-      <c r="B807" s="8"/>
+      <c r="B807" s="9"/>
     </row>
     <row r="808" ht="45.75" customHeight="1">
-      <c r="B808" s="8"/>
+      <c r="B808" s="9"/>
     </row>
     <row r="809" ht="45.75" customHeight="1">
-      <c r="B809" s="8"/>
+      <c r="B809" s="9"/>
     </row>
     <row r="810" ht="45.75" customHeight="1">
-      <c r="B810" s="8"/>
+      <c r="B810" s="9"/>
     </row>
     <row r="811" ht="45.75" customHeight="1">
-      <c r="B811" s="8"/>
+      <c r="B811" s="9"/>
     </row>
     <row r="812" ht="45.75" customHeight="1">
-      <c r="B812" s="8"/>
+      <c r="B812" s="9"/>
     </row>
     <row r="813" ht="45.75" customHeight="1">
-      <c r="B813" s="8"/>
+      <c r="B813" s="9"/>
     </row>
     <row r="814" ht="45.75" customHeight="1">
-      <c r="B814" s="8"/>
+      <c r="B814" s="9"/>
     </row>
     <row r="815" ht="45.75" customHeight="1">
-      <c r="B815" s="8"/>
+      <c r="B815" s="9"/>
     </row>
     <row r="816" ht="45.75" customHeight="1">
-      <c r="B816" s="8"/>
+      <c r="B816" s="9"/>
     </row>
     <row r="817" ht="45.75" customHeight="1">
-      <c r="B817" s="8"/>
+      <c r="B817" s="9"/>
     </row>
     <row r="818" ht="45.75" customHeight="1">
-      <c r="B818" s="8"/>
+      <c r="B818" s="9"/>
     </row>
     <row r="819" ht="45.75" customHeight="1">
-      <c r="B819" s="8"/>
+      <c r="B819" s="9"/>
     </row>
     <row r="820" ht="45.75" customHeight="1">
-      <c r="B820" s="8"/>
+      <c r="B820" s="9"/>
     </row>
     <row r="821" ht="45.75" customHeight="1">
-      <c r="B821" s="8"/>
+      <c r="B821" s="9"/>
     </row>
     <row r="822" ht="45.75" customHeight="1">
-      <c r="B822" s="8"/>
+      <c r="B822" s="9"/>
     </row>
     <row r="823" ht="45.75" customHeight="1">
-      <c r="B823" s="8"/>
+      <c r="B823" s="9"/>
     </row>
     <row r="824" ht="45.75" customHeight="1">
-      <c r="B824" s="8"/>
+      <c r="B824" s="9"/>
     </row>
     <row r="825" ht="45.75" customHeight="1">
-      <c r="B825" s="8"/>
+      <c r="B825" s="9"/>
     </row>
     <row r="826" ht="45.75" customHeight="1">
-      <c r="B826" s="8"/>
+      <c r="B826" s="9"/>
     </row>
     <row r="827" ht="45.75" customHeight="1">
-      <c r="B827" s="8"/>
+      <c r="B827" s="9"/>
     </row>
     <row r="828" ht="45.75" customHeight="1">
-      <c r="B828" s="8"/>
+      <c r="B828" s="9"/>
     </row>
     <row r="829" ht="45.75" customHeight="1">
-      <c r="B829" s="8"/>
+      <c r="B829" s="9"/>
     </row>
     <row r="830" ht="45.75" customHeight="1">
-      <c r="B830" s="8"/>
+      <c r="B830" s="9"/>
     </row>
     <row r="831" ht="45.75" customHeight="1">
-      <c r="B831" s="8"/>
+      <c r="B831" s="9"/>
     </row>
     <row r="832" ht="45.75" customHeight="1">
-      <c r="B832" s="8"/>
+      <c r="B832" s="9"/>
     </row>
     <row r="833" ht="45.75" customHeight="1">
-      <c r="B833" s="8"/>
+      <c r="B833" s="9"/>
     </row>
     <row r="834" ht="45.75" customHeight="1">
-      <c r="B834" s="8"/>
+      <c r="B834" s="9"/>
     </row>
     <row r="835" ht="45.75" customHeight="1">
-      <c r="B835" s="8"/>
+      <c r="B835" s="9"/>
     </row>
     <row r="836" ht="45.75" customHeight="1">
-      <c r="B836" s="8"/>
+      <c r="B836" s="9"/>
     </row>
     <row r="837" ht="45.75" customHeight="1">
-      <c r="B837" s="8"/>
+      <c r="B837" s="9"/>
     </row>
     <row r="838" ht="45.75" customHeight="1">
-      <c r="B838" s="8"/>
+      <c r="B838" s="9"/>
     </row>
     <row r="839" ht="45.75" customHeight="1">
-      <c r="B839" s="8"/>
+      <c r="B839" s="9"/>
     </row>
     <row r="840" ht="45.75" customHeight="1">
-      <c r="B840" s="8"/>
+      <c r="B840" s="9"/>
     </row>
     <row r="841" ht="45.75" customHeight="1">
-      <c r="B841" s="8"/>
+      <c r="B841" s="9"/>
     </row>
     <row r="842" ht="45.75" customHeight="1">
-      <c r="B842" s="8"/>
+      <c r="B842" s="9"/>
     </row>
     <row r="843" ht="45.75" customHeight="1">
-      <c r="B843" s="8"/>
+      <c r="B843" s="9"/>
     </row>
     <row r="844" ht="45.75" customHeight="1">
-      <c r="B844" s="8"/>
+      <c r="B844" s="9"/>
     </row>
     <row r="845" ht="45.75" customHeight="1">
-      <c r="B845" s="8"/>
+      <c r="B845" s="9"/>
     </row>
     <row r="846" ht="45.75" customHeight="1">
-      <c r="B846" s="8"/>
+      <c r="B846" s="9"/>
     </row>
     <row r="847" ht="45.75" customHeight="1">
-      <c r="B847" s="8"/>
+      <c r="B847" s="9"/>
     </row>
     <row r="848" ht="45.75" customHeight="1">
-      <c r="B848" s="8"/>
+      <c r="B848" s="9"/>
     </row>
     <row r="849" ht="45.75" customHeight="1">
-      <c r="B849" s="8"/>
+      <c r="B849" s="9"/>
     </row>
     <row r="850" ht="45.75" customHeight="1">
-      <c r="B850" s="8"/>
+      <c r="B850" s="9"/>
     </row>
     <row r="851" ht="45.75" customHeight="1">
-      <c r="B851" s="8"/>
+      <c r="B851" s="9"/>
     </row>
     <row r="852" ht="45.75" customHeight="1">
-      <c r="B852" s="8"/>
+      <c r="B852" s="9"/>
     </row>
     <row r="853" ht="45.75" customHeight="1">
-      <c r="B853" s="8"/>
+      <c r="B853" s="9"/>
     </row>
     <row r="854" ht="45.75" customHeight="1">
-      <c r="B854" s="8"/>
+      <c r="B854" s="9"/>
     </row>
     <row r="855" ht="45.75" customHeight="1">
-      <c r="B855" s="8"/>
+      <c r="B855" s="9"/>
     </row>
     <row r="856" ht="45.75" customHeight="1">
-      <c r="B856" s="8"/>
+      <c r="B856" s="9"/>
     </row>
     <row r="857" ht="45.75" customHeight="1">
-      <c r="B857" s="8"/>
+      <c r="B857" s="9"/>
     </row>
     <row r="858" ht="45.75" customHeight="1">
-      <c r="B858" s="8"/>
+      <c r="B858" s="9"/>
     </row>
     <row r="859" ht="45.75" customHeight="1">
-      <c r="B859" s="8"/>
+      <c r="B859" s="9"/>
     </row>
     <row r="860" ht="45.75" customHeight="1">
-      <c r="B860" s="8"/>
+      <c r="B860" s="9"/>
     </row>
     <row r="861" ht="45.75" customHeight="1">
-      <c r="B861" s="8"/>
+      <c r="B861" s="9"/>
     </row>
     <row r="862" ht="45.75" customHeight="1">
-      <c r="B862" s="8"/>
+      <c r="B862" s="9"/>
     </row>
     <row r="863" ht="45.75" customHeight="1">
-      <c r="B863" s="8"/>
+      <c r="B863" s="9"/>
     </row>
     <row r="864" ht="45.75" customHeight="1">
-      <c r="B864" s="8"/>
+      <c r="B864" s="9"/>
     </row>
     <row r="865" ht="45.75" customHeight="1">
-      <c r="B865" s="8"/>
+      <c r="B865" s="9"/>
     </row>
     <row r="866" ht="45.75" customHeight="1">
-      <c r="B866" s="8"/>
+      <c r="B866" s="9"/>
     </row>
     <row r="867" ht="45.75" customHeight="1">
-      <c r="B867" s="8"/>
+      <c r="B867" s="9"/>
     </row>
     <row r="868" ht="45.75" customHeight="1">
-      <c r="B868" s="8"/>
+      <c r="B868" s="9"/>
     </row>
     <row r="869" ht="45.75" customHeight="1">
-      <c r="B869" s="8"/>
+      <c r="B869" s="9"/>
     </row>
     <row r="870" ht="45.75" customHeight="1">
-      <c r="B870" s="8"/>
+      <c r="B870" s="9"/>
     </row>
     <row r="871" ht="45.75" customHeight="1">
-      <c r="B871" s="8"/>
+      <c r="B871" s="9"/>
     </row>
     <row r="872" ht="45.75" customHeight="1">
-      <c r="B872" s="8"/>
+      <c r="B872" s="9"/>
     </row>
     <row r="873" ht="45.75" customHeight="1">
-      <c r="B873" s="8"/>
+      <c r="B873" s="9"/>
     </row>
     <row r="874" ht="45.75" customHeight="1">
-      <c r="B874" s="8"/>
+      <c r="B874" s="9"/>
     </row>
     <row r="875" ht="45.75" customHeight="1">
-      <c r="B875" s="8"/>
+      <c r="B875" s="9"/>
     </row>
     <row r="876" ht="45.75" customHeight="1">
-      <c r="B876" s="8"/>
+      <c r="B876" s="9"/>
     </row>
     <row r="877" ht="45.75" customHeight="1">
-      <c r="B877" s="8"/>
+      <c r="B877" s="9"/>
     </row>
     <row r="878" ht="45.75" customHeight="1">
-      <c r="B878" s="8"/>
+      <c r="B878" s="9"/>
     </row>
     <row r="879" ht="45.75" customHeight="1">
-      <c r="B879" s="8"/>
+      <c r="B879" s="9"/>
     </row>
     <row r="880" ht="45.75" customHeight="1">
-      <c r="B880" s="8"/>
+      <c r="B880" s="9"/>
     </row>
     <row r="881" ht="45.75" customHeight="1">
-      <c r="B881" s="8"/>
+      <c r="B881" s="9"/>
     </row>
     <row r="882" ht="45.75" customHeight="1">
-      <c r="B882" s="8"/>
+      <c r="B882" s="9"/>
     </row>
     <row r="883" ht="45.75" customHeight="1">
-      <c r="B883" s="8"/>
+      <c r="B883" s="9"/>
     </row>
     <row r="884" ht="45.75" customHeight="1">
-      <c r="B884" s="8"/>
+      <c r="B884" s="9"/>
     </row>
     <row r="885" ht="45.75" customHeight="1">
-      <c r="B885" s="8"/>
+      <c r="B885" s="9"/>
     </row>
     <row r="886" ht="45.75" customHeight="1">
-      <c r="B886" s="8"/>
+      <c r="B886" s="9"/>
     </row>
     <row r="887" ht="45.75" customHeight="1">
-      <c r="B887" s="8"/>
+      <c r="B887" s="9"/>
     </row>
     <row r="888" ht="45.75" customHeight="1">
-      <c r="B888" s="8"/>
+      <c r="B888" s="9"/>
     </row>
     <row r="889" ht="45.75" customHeight="1">
-      <c r="B889" s="8"/>
+      <c r="B889" s="9"/>
     </row>
     <row r="890" ht="45.75" customHeight="1">
-      <c r="B890" s="8"/>
+      <c r="B890" s="9"/>
     </row>
     <row r="891" ht="45.75" customHeight="1">
-      <c r="B891" s="8"/>
+      <c r="B891" s="9"/>
     </row>
     <row r="892" ht="45.75" customHeight="1">
-      <c r="B892" s="8"/>
+      <c r="B892" s="9"/>
     </row>
     <row r="893" ht="45.75" customHeight="1">
-      <c r="B893" s="8"/>
+      <c r="B893" s="9"/>
     </row>
     <row r="894" ht="45.75" customHeight="1">
-      <c r="B894" s="8"/>
+      <c r="B894" s="9"/>
     </row>
     <row r="895" ht="45.75" customHeight="1">
-      <c r="B895" s="8"/>
+      <c r="B895" s="9"/>
     </row>
     <row r="896" ht="45.75" customHeight="1">
-      <c r="B896" s="8"/>
+      <c r="B896" s="9"/>
     </row>
     <row r="897" ht="45.75" customHeight="1">
-      <c r="B897" s="8"/>
+      <c r="B897" s="9"/>
     </row>
     <row r="898" ht="45.75" customHeight="1">
-      <c r="B898" s="8"/>
+      <c r="B898" s="9"/>
     </row>
     <row r="899" ht="45.75" customHeight="1">
-      <c r="B899" s="8"/>
+      <c r="B899" s="9"/>
     </row>
     <row r="900" ht="45.75" customHeight="1">
-      <c r="B900" s="8"/>
+      <c r="B900" s="9"/>
     </row>
     <row r="901" ht="45.75" customHeight="1">
-      <c r="B901" s="8"/>
+      <c r="B901" s="9"/>
     </row>
     <row r="902" ht="45.75" customHeight="1">
-      <c r="B902" s="8"/>
+      <c r="B902" s="9"/>
     </row>
     <row r="903" ht="45.75" customHeight="1">
-      <c r="B903" s="8"/>
+      <c r="B903" s="9"/>
     </row>
     <row r="904" ht="45.75" customHeight="1">
-      <c r="B904" s="8"/>
+      <c r="B904" s="9"/>
     </row>
     <row r="905" ht="45.75" customHeight="1">
-      <c r="B905" s="8"/>
+      <c r="B905" s="9"/>
     </row>
     <row r="906" ht="45.75" customHeight="1">
-      <c r="B906" s="8"/>
+      <c r="B906" s="9"/>
     </row>
     <row r="907" ht="45.75" customHeight="1">
-      <c r="B907" s="8"/>
+      <c r="B907" s="9"/>
     </row>
     <row r="908" ht="45.75" customHeight="1">
-      <c r="B908" s="8"/>
+      <c r="B908" s="9"/>
     </row>
     <row r="909" ht="45.75" customHeight="1">
-      <c r="B909" s="8"/>
+      <c r="B909" s="9"/>
     </row>
     <row r="910" ht="45.75" customHeight="1">
-      <c r="B910" s="8"/>
+      <c r="B910" s="9"/>
     </row>
     <row r="911" ht="45.75" customHeight="1">
-      <c r="B911" s="8"/>
+      <c r="B911" s="9"/>
     </row>
     <row r="912" ht="45.75" customHeight="1">
-      <c r="B912" s="8"/>
+      <c r="B912" s="9"/>
     </row>
     <row r="913" ht="45.75" customHeight="1">
-      <c r="B913" s="8"/>
+      <c r="B913" s="9"/>
     </row>
     <row r="914" ht="45.75" customHeight="1">
-      <c r="B914" s="8"/>
+      <c r="B914" s="9"/>
     </row>
     <row r="915" ht="45.75" customHeight="1">
-      <c r="B915" s="8"/>
+      <c r="B915" s="9"/>
     </row>
     <row r="916" ht="45.75" customHeight="1">
-      <c r="B916" s="8"/>
+      <c r="B916" s="9"/>
     </row>
     <row r="917" ht="45.75" customHeight="1">
-      <c r="B917" s="8"/>
+      <c r="B917" s="9"/>
     </row>
     <row r="918" ht="45.75" customHeight="1">
-      <c r="B918" s="8"/>
+      <c r="B918" s="9"/>
     </row>
     <row r="919" ht="45.75" customHeight="1">
-      <c r="B919" s="8"/>
+      <c r="B919" s="9"/>
     </row>
     <row r="920" ht="45.75" customHeight="1">
-      <c r="B920" s="8"/>
+      <c r="B920" s="9"/>
     </row>
     <row r="921" ht="45.75" customHeight="1">
-      <c r="B921" s="8"/>
+      <c r="B921" s="9"/>
     </row>
     <row r="922" ht="45.75" customHeight="1">
-      <c r="B922" s="8"/>
+      <c r="B922" s="9"/>
     </row>
     <row r="923" ht="45.75" customHeight="1">
-      <c r="B923" s="8"/>
+      <c r="B923" s="9"/>
     </row>
     <row r="924" ht="45.75" customHeight="1">
-      <c r="B924" s="8"/>
+      <c r="B924" s="9"/>
     </row>
     <row r="925" ht="45.75" customHeight="1">
-      <c r="B925" s="8"/>
+      <c r="B925" s="9"/>
     </row>
     <row r="926" ht="45.75" customHeight="1">
-      <c r="B926" s="8"/>
+      <c r="B926" s="9"/>
     </row>
     <row r="927" ht="45.75" customHeight="1">
-      <c r="B927" s="8"/>
+      <c r="B927" s="9"/>
     </row>
     <row r="928" ht="45.75" customHeight="1">
-      <c r="B928" s="8"/>
+      <c r="B928" s="9"/>
     </row>
     <row r="929" ht="45.75" customHeight="1">
-      <c r="B929" s="8"/>
+      <c r="B929" s="9"/>
     </row>
     <row r="930" ht="45.75" customHeight="1">
-      <c r="B930" s="8"/>
+      <c r="B930" s="9"/>
     </row>
     <row r="931" ht="45.75" customHeight="1">
-      <c r="B931" s="8"/>
+      <c r="B931" s="9"/>
     </row>
     <row r="932" ht="45.75" customHeight="1">
-      <c r="B932" s="8"/>
+      <c r="B932" s="9"/>
     </row>
     <row r="933" ht="45.75" customHeight="1">
-      <c r="B933" s="8"/>
+      <c r="B933" s="9"/>
     </row>
     <row r="934" ht="45.75" customHeight="1">
-      <c r="B934" s="8"/>
+      <c r="B934" s="9"/>
     </row>
     <row r="935" ht="45.75" customHeight="1">
-      <c r="B935" s="8"/>
+      <c r="B935" s="9"/>
     </row>
     <row r="936" ht="45.75" customHeight="1">
-      <c r="B936" s="8"/>
+      <c r="B936" s="9"/>
     </row>
     <row r="937" ht="45.75" customHeight="1">
-      <c r="B937" s="8"/>
+      <c r="B937" s="9"/>
     </row>
     <row r="938" ht="45.75" customHeight="1">
-      <c r="B938" s="8"/>
+      <c r="B938" s="9"/>
     </row>
     <row r="939" ht="45.75" customHeight="1">
-      <c r="B939" s="8"/>
+      <c r="B939" s="9"/>
     </row>
     <row r="940" ht="45.75" customHeight="1">
-      <c r="B940" s="8"/>
+      <c r="B940" s="9"/>
     </row>
     <row r="941" ht="45.75" customHeight="1">
-      <c r="B941" s="8"/>
+      <c r="B941" s="9"/>
     </row>
     <row r="942" ht="45.75" customHeight="1">
-      <c r="B942" s="8"/>
+      <c r="B942" s="9"/>
     </row>
     <row r="943" ht="45.75" customHeight="1">
-      <c r="B943" s="8"/>
+      <c r="B943" s="9"/>
     </row>
     <row r="944" ht="45.75" customHeight="1">
-      <c r="B944" s="8"/>
+      <c r="B944" s="9"/>
     </row>
     <row r="945" ht="45.75" customHeight="1">
-      <c r="B945" s="8"/>
+      <c r="B945" s="9"/>
     </row>
     <row r="946" ht="45.75" customHeight="1">
-      <c r="B946" s="8"/>
+      <c r="B946" s="9"/>
     </row>
     <row r="947" ht="45.75" customHeight="1">
-      <c r="B947" s="8"/>
+      <c r="B947" s="9"/>
     </row>
     <row r="948" ht="45.75" customHeight="1">
-      <c r="B948" s="8"/>
+      <c r="B948" s="9"/>
     </row>
     <row r="949" ht="45.75" customHeight="1">
-      <c r="B949" s="8"/>
+      <c r="B949" s="9"/>
     </row>
     <row r="950" ht="45.75" customHeight="1">
-      <c r="B950" s="8"/>
+      <c r="B950" s="9"/>
     </row>
     <row r="951" ht="45.75" customHeight="1">
-      <c r="B951" s="8"/>
+      <c r="B951" s="9"/>
     </row>
     <row r="952" ht="45.75" customHeight="1">
-      <c r="B952" s="8"/>
+      <c r="B952" s="9"/>
     </row>
     <row r="953" ht="45.75" customHeight="1">
-      <c r="B953" s="8"/>
+      <c r="B953" s="9"/>
     </row>
     <row r="954" ht="45.75" customHeight="1">
-      <c r="B954" s="8"/>
+      <c r="B954" s="9"/>
     </row>
     <row r="955" ht="45.75" customHeight="1">
-      <c r="B955" s="8"/>
+      <c r="B955" s="9"/>
     </row>
     <row r="956" ht="45.75" customHeight="1">
-      <c r="B956" s="8"/>
+      <c r="B956" s="9"/>
     </row>
     <row r="957" ht="45.75" customHeight="1">
-      <c r="B957" s="8"/>
+      <c r="B957" s="9"/>
     </row>
     <row r="958" ht="45.75" customHeight="1">
-      <c r="B958" s="8"/>
+      <c r="B958" s="9"/>
     </row>
     <row r="959" ht="45.75" customHeight="1">
-      <c r="B959" s="8"/>
+      <c r="B959" s="9"/>
     </row>
     <row r="960" ht="45.75" customHeight="1">
-      <c r="B960" s="8"/>
+      <c r="B960" s="9"/>
     </row>
     <row r="961" ht="45.75" customHeight="1">
-      <c r="B961" s="8"/>
+      <c r="B961" s="9"/>
     </row>
     <row r="962" ht="45.75" customHeight="1">
-      <c r="B962" s="8"/>
+      <c r="B962" s="9"/>
     </row>
     <row r="963" ht="45.75" customHeight="1">
-      <c r="B963" s="8"/>
+      <c r="B963" s="9"/>
     </row>
     <row r="964" ht="45.75" customHeight="1">
-      <c r="B964" s="8"/>
+      <c r="B964" s="9"/>
     </row>
     <row r="965" ht="45.75" customHeight="1">
-      <c r="B965" s="8"/>
+      <c r="B965" s="9"/>
     </row>
     <row r="966" ht="45.75" customHeight="1">
-      <c r="B966" s="8"/>
+      <c r="B966" s="9"/>
     </row>
     <row r="967" ht="45.75" customHeight="1">
-      <c r="B967" s="8"/>
+      <c r="B967" s="9"/>
     </row>
     <row r="968" ht="45.75" customHeight="1">
-      <c r="B968" s="8"/>
+      <c r="B968" s="9"/>
     </row>
     <row r="969" ht="45.75" customHeight="1">
-      <c r="B969" s="8"/>
+      <c r="B969" s="9"/>
     </row>
     <row r="970" ht="45.75" customHeight="1">
-      <c r="B970" s="8"/>
+      <c r="B970" s="9"/>
     </row>
     <row r="971" ht="45.75" customHeight="1">
-      <c r="B971" s="8"/>
+      <c r="B971" s="9"/>
     </row>
     <row r="972" ht="45.75" customHeight="1">
-      <c r="B972" s="8"/>
+      <c r="B972" s="9"/>
     </row>
     <row r="973" ht="45.75" customHeight="1">
-      <c r="B973" s="8"/>
+      <c r="B973" s="9"/>
     </row>
     <row r="974" ht="45.75" customHeight="1">
-      <c r="B974" s="8"/>
+      <c r="B974" s="9"/>
     </row>
     <row r="975" ht="45.75" customHeight="1">
-      <c r="B975" s="8"/>
+      <c r="B975" s="9"/>
     </row>
     <row r="976" ht="45.75" customHeight="1">
-      <c r="B976" s="8"/>
+      <c r="B976" s="9"/>
     </row>
     <row r="977" ht="45.75" customHeight="1">
-      <c r="B977" s="8"/>
+      <c r="B977" s="9"/>
     </row>
     <row r="978" ht="45.75" customHeight="1">
-      <c r="B978" s="8"/>
+      <c r="B978" s="9"/>
     </row>
     <row r="979" ht="45.75" customHeight="1">
-      <c r="B979" s="8"/>
+      <c r="B979" s="9"/>
     </row>
     <row r="980" ht="45.75" customHeight="1">
-      <c r="B980" s="8"/>
+      <c r="B980" s="9"/>
     </row>
     <row r="981" ht="45.75" customHeight="1">
-      <c r="B981" s="8"/>
+      <c r="B981" s="9"/>
     </row>
     <row r="982" ht="45.75" customHeight="1">
-      <c r="B982" s="8"/>
+      <c r="B982" s="9"/>
     </row>
     <row r="983" ht="45.75" customHeight="1">
-      <c r="B983" s="8"/>
+      <c r="B983" s="9"/>
     </row>
     <row r="984" ht="45.75" customHeight="1">
-      <c r="B984" s="8"/>
+      <c r="B984" s="9"/>
     </row>
     <row r="985" ht="45.75" customHeight="1">
-      <c r="B985" s="8"/>
+      <c r="B985" s="9"/>
     </row>
     <row r="986" ht="45.75" customHeight="1">
-      <c r="B986" s="8"/>
+      <c r="B986" s="9"/>
     </row>
     <row r="987" ht="45.75" customHeight="1">
-      <c r="B987" s="8"/>
+      <c r="B987" s="9"/>
     </row>
     <row r="988" ht="45.75" customHeight="1">
-      <c r="B988" s="8"/>
+      <c r="B988" s="9"/>
     </row>
     <row r="989" ht="45.75" customHeight="1">
-      <c r="B989" s="8"/>
+      <c r="B989" s="9"/>
     </row>
     <row r="990" ht="45.75" customHeight="1">
-      <c r="B990" s="8"/>
+      <c r="B990" s="9"/>
     </row>
     <row r="991" ht="45.75" customHeight="1">
-      <c r="B991" s="8"/>
+      <c r="B991" s="9"/>
     </row>
     <row r="992" ht="45.75" customHeight="1">
-      <c r="B992" s="8"/>
+      <c r="B992" s="9"/>
     </row>
     <row r="993" ht="45.75" customHeight="1">
-      <c r="B993" s="8"/>
+      <c r="B993" s="9"/>
     </row>
     <row r="994" ht="45.75" customHeight="1">
-      <c r="B994" s="8"/>
+      <c r="B994" s="9"/>
     </row>
     <row r="995" ht="45.75" customHeight="1">
-      <c r="B995" s="8"/>
+      <c r="B995" s="9"/>
     </row>
     <row r="996" ht="45.75" customHeight="1">
-      <c r="B996" s="8"/>
+      <c r="B996" s="9"/>
     </row>
     <row r="997" ht="45.75" customHeight="1">
-      <c r="B997" s="8"/>
+      <c r="B997" s="9"/>
     </row>
     <row r="998" ht="45.75" customHeight="1">
-      <c r="B998" s="8"/>
+      <c r="B998" s="9"/>
     </row>
     <row r="999" ht="45.75" customHeight="1">
-      <c r="B999" s="8"/>
+      <c r="B999" s="9"/>
     </row>
     <row r="1000" ht="45.75" customHeight="1">
-      <c r="B1000" s="8"/>
+      <c r="B1000" s="9"/>
     </row>
     <row r="1001" ht="45.75" customHeight="1">
-      <c r="B1001" s="8"/>
-    </row>
+      <c r="B1001" s="9"/>
+    </row>
+    <row r="1002" ht="45.75" customHeight="1">
+      <c r="B1002" s="9"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="62.88"/>
+    <col customWidth="1" min="2" max="2" width="70.13"/>
+    <col customWidth="1" min="3" max="26" width="21.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="27.75" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" ht="27.75" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4" ht="27.75" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" ht="27.75" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" ht="27.75" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7" ht="27.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="B9" s="10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="B11" s="10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" ht="27.75" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="27.75" customHeight="1">
+      <c r="B13" s="10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="27.75" customHeight="1"/>
+    <row r="15" ht="27.75" customHeight="1"/>
+    <row r="16" ht="27.75" customHeight="1"/>
+    <row r="17" ht="27.75" customHeight="1"/>
+    <row r="18" ht="27.75" customHeight="1"/>
+    <row r="19" ht="27.75" customHeight="1"/>
+    <row r="20" ht="27.75" customHeight="1"/>
+    <row r="21" ht="27.75" customHeight="1"/>
+    <row r="22" ht="27.75" customHeight="1"/>
+    <row r="23" ht="27.75" customHeight="1"/>
+    <row r="24" ht="27.75" customHeight="1"/>
+    <row r="25" ht="27.75" customHeight="1"/>
+    <row r="26" ht="27.75" customHeight="1"/>
+    <row r="27" ht="27.75" customHeight="1"/>
+    <row r="28" ht="27.75" customHeight="1"/>
+    <row r="29" ht="27.75" customHeight="1"/>
+    <row r="30" ht="27.75" customHeight="1"/>
+    <row r="31" ht="27.75" customHeight="1"/>
+    <row r="32" ht="27.75" customHeight="1"/>
+    <row r="33" ht="27.75" customHeight="1"/>
+    <row r="34" ht="27.75" customHeight="1"/>
+    <row r="35" ht="27.75" customHeight="1"/>
+    <row r="36" ht="27.75" customHeight="1"/>
+    <row r="37" ht="27.75" customHeight="1"/>
+    <row r="38" ht="27.75" customHeight="1"/>
+    <row r="39" ht="27.75" customHeight="1"/>
+    <row r="40" ht="27.75" customHeight="1"/>
+    <row r="41" ht="27.75" customHeight="1"/>
+    <row r="42" ht="27.75" customHeight="1"/>
+    <row r="43" ht="27.75" customHeight="1"/>
+    <row r="44" ht="27.75" customHeight="1"/>
+    <row r="45" ht="27.75" customHeight="1"/>
+    <row r="46" ht="27.75" customHeight="1"/>
+    <row r="47" ht="27.75" customHeight="1"/>
+    <row r="48" ht="27.75" customHeight="1"/>
+    <row r="49" ht="27.75" customHeight="1"/>
+    <row r="50" ht="27.75" customHeight="1"/>
+    <row r="51" ht="27.75" customHeight="1"/>
+    <row r="52" ht="27.75" customHeight="1"/>
+    <row r="53" ht="27.75" customHeight="1"/>
+    <row r="54" ht="27.75" customHeight="1"/>
+    <row r="55" ht="27.75" customHeight="1"/>
+    <row r="56" ht="27.75" customHeight="1"/>
+    <row r="57" ht="27.75" customHeight="1"/>
+    <row r="58" ht="27.75" customHeight="1"/>
+    <row r="59" ht="27.75" customHeight="1"/>
+    <row r="60" ht="27.75" customHeight="1"/>
+    <row r="61" ht="27.75" customHeight="1"/>
+    <row r="62" ht="27.75" customHeight="1"/>
+    <row r="63" ht="27.75" customHeight="1"/>
+    <row r="64" ht="27.75" customHeight="1"/>
+    <row r="65" ht="27.75" customHeight="1"/>
+    <row r="66" ht="27.75" customHeight="1"/>
+    <row r="67" ht="27.75" customHeight="1"/>
+    <row r="68" ht="27.75" customHeight="1"/>
+    <row r="69" ht="27.75" customHeight="1"/>
+    <row r="70" ht="27.75" customHeight="1"/>
+    <row r="71" ht="27.75" customHeight="1"/>
+    <row r="72" ht="27.75" customHeight="1"/>
+    <row r="73" ht="27.75" customHeight="1"/>
+    <row r="74" ht="27.75" customHeight="1"/>
+    <row r="75" ht="27.75" customHeight="1"/>
+    <row r="76" ht="27.75" customHeight="1"/>
+    <row r="77" ht="27.75" customHeight="1"/>
+    <row r="78" ht="27.75" customHeight="1"/>
+    <row r="79" ht="27.75" customHeight="1"/>
+    <row r="80" ht="27.75" customHeight="1"/>
+    <row r="81" ht="27.75" customHeight="1"/>
+    <row r="82" ht="27.75" customHeight="1"/>
+    <row r="83" ht="27.75" customHeight="1"/>
+    <row r="84" ht="27.75" customHeight="1"/>
+    <row r="85" ht="27.75" customHeight="1"/>
+    <row r="86" ht="27.75" customHeight="1"/>
+    <row r="87" ht="27.75" customHeight="1"/>
+    <row r="88" ht="27.75" customHeight="1"/>
+    <row r="89" ht="27.75" customHeight="1"/>
+    <row r="90" ht="27.75" customHeight="1"/>
+    <row r="91" ht="27.75" customHeight="1"/>
+    <row r="92" ht="27.75" customHeight="1"/>
+    <row r="93" ht="27.75" customHeight="1"/>
+    <row r="94" ht="27.75" customHeight="1"/>
+    <row r="95" ht="27.75" customHeight="1"/>
+    <row r="96" ht="27.75" customHeight="1"/>
+    <row r="97" ht="27.75" customHeight="1"/>
+    <row r="98" ht="27.75" customHeight="1"/>
+    <row r="99" ht="27.75" customHeight="1"/>
+    <row r="100" ht="27.75" customHeight="1"/>
+    <row r="101" ht="27.75" customHeight="1"/>
+    <row r="102" ht="27.75" customHeight="1"/>
+    <row r="103" ht="27.75" customHeight="1"/>
+    <row r="104" ht="27.75" customHeight="1"/>
+    <row r="105" ht="27.75" customHeight="1"/>
+    <row r="106" ht="27.75" customHeight="1"/>
+    <row r="107" ht="27.75" customHeight="1"/>
+    <row r="108" ht="27.75" customHeight="1"/>
+    <row r="109" ht="27.75" customHeight="1"/>
+    <row r="110" ht="27.75" customHeight="1"/>
+    <row r="111" ht="27.75" customHeight="1"/>
+    <row r="112" ht="27.75" customHeight="1"/>
+    <row r="113" ht="27.75" customHeight="1"/>
+    <row r="114" ht="27.75" customHeight="1"/>
+    <row r="115" ht="27.75" customHeight="1"/>
+    <row r="116" ht="27.75" customHeight="1"/>
+    <row r="117" ht="27.75" customHeight="1"/>
+    <row r="118" ht="27.75" customHeight="1"/>
+    <row r="119" ht="27.75" customHeight="1"/>
+    <row r="120" ht="27.75" customHeight="1"/>
+    <row r="121" ht="27.75" customHeight="1"/>
+    <row r="122" ht="27.75" customHeight="1"/>
+    <row r="123" ht="27.75" customHeight="1"/>
+    <row r="124" ht="27.75" customHeight="1"/>
+    <row r="125" ht="27.75" customHeight="1"/>
+    <row r="126" ht="27.75" customHeight="1"/>
+    <row r="127" ht="27.75" customHeight="1"/>
+    <row r="128" ht="27.75" customHeight="1"/>
+    <row r="129" ht="27.75" customHeight="1"/>
+    <row r="130" ht="27.75" customHeight="1"/>
+    <row r="131" ht="27.75" customHeight="1"/>
+    <row r="132" ht="27.75" customHeight="1"/>
+    <row r="133" ht="27.75" customHeight="1"/>
+    <row r="134" ht="27.75" customHeight="1"/>
+    <row r="135" ht="27.75" customHeight="1"/>
+    <row r="136" ht="27.75" customHeight="1"/>
+    <row r="137" ht="27.75" customHeight="1"/>
+    <row r="138" ht="27.75" customHeight="1"/>
+    <row r="139" ht="27.75" customHeight="1"/>
+    <row r="140" ht="27.75" customHeight="1"/>
+    <row r="141" ht="27.75" customHeight="1"/>
+    <row r="142" ht="27.75" customHeight="1"/>
+    <row r="143" ht="27.75" customHeight="1"/>
+    <row r="144" ht="27.75" customHeight="1"/>
+    <row r="145" ht="27.75" customHeight="1"/>
+    <row r="146" ht="27.75" customHeight="1"/>
+    <row r="147" ht="27.75" customHeight="1"/>
+    <row r="148" ht="27.75" customHeight="1"/>
+    <row r="149" ht="27.75" customHeight="1"/>
+    <row r="150" ht="27.75" customHeight="1"/>
+    <row r="151" ht="27.75" customHeight="1"/>
+    <row r="152" ht="27.75" customHeight="1"/>
+    <row r="153" ht="27.75" customHeight="1"/>
+    <row r="154" ht="27.75" customHeight="1"/>
+    <row r="155" ht="27.75" customHeight="1"/>
+    <row r="156" ht="27.75" customHeight="1"/>
+    <row r="157" ht="27.75" customHeight="1"/>
+    <row r="158" ht="27.75" customHeight="1"/>
+    <row r="159" ht="27.75" customHeight="1"/>
+    <row r="160" ht="27.75" customHeight="1"/>
+    <row r="161" ht="27.75" customHeight="1"/>
+    <row r="162" ht="27.75" customHeight="1"/>
+    <row r="163" ht="27.75" customHeight="1"/>
+    <row r="164" ht="27.75" customHeight="1"/>
+    <row r="165" ht="27.75" customHeight="1"/>
+    <row r="166" ht="27.75" customHeight="1"/>
+    <row r="167" ht="27.75" customHeight="1"/>
+    <row r="168" ht="27.75" customHeight="1"/>
+    <row r="169" ht="27.75" customHeight="1"/>
+    <row r="170" ht="27.75" customHeight="1"/>
+    <row r="171" ht="27.75" customHeight="1"/>
+    <row r="172" ht="27.75" customHeight="1"/>
+    <row r="173" ht="27.75" customHeight="1"/>
+    <row r="174" ht="27.75" customHeight="1"/>
+    <row r="175" ht="27.75" customHeight="1"/>
+    <row r="176" ht="27.75" customHeight="1"/>
+    <row r="177" ht="27.75" customHeight="1"/>
+    <row r="178" ht="27.75" customHeight="1"/>
+    <row r="179" ht="27.75" customHeight="1"/>
+    <row r="180" ht="27.75" customHeight="1"/>
+    <row r="181" ht="27.75" customHeight="1"/>
+    <row r="182" ht="27.75" customHeight="1"/>
+    <row r="183" ht="27.75" customHeight="1"/>
+    <row r="184" ht="27.75" customHeight="1"/>
+    <row r="185" ht="27.75" customHeight="1"/>
+    <row r="186" ht="27.75" customHeight="1"/>
+    <row r="187" ht="27.75" customHeight="1"/>
+    <row r="188" ht="27.75" customHeight="1"/>
+    <row r="189" ht="27.75" customHeight="1"/>
+    <row r="190" ht="27.75" customHeight="1"/>
+    <row r="191" ht="27.75" customHeight="1"/>
+    <row r="192" ht="27.75" customHeight="1"/>
+    <row r="193" ht="27.75" customHeight="1"/>
+    <row r="194" ht="27.75" customHeight="1"/>
+    <row r="195" ht="27.75" customHeight="1"/>
+    <row r="196" ht="27.75" customHeight="1"/>
+    <row r="197" ht="27.75" customHeight="1"/>
+    <row r="198" ht="27.75" customHeight="1"/>
+    <row r="199" ht="27.75" customHeight="1"/>
+    <row r="200" ht="27.75" customHeight="1"/>
+    <row r="201" ht="27.75" customHeight="1"/>
+    <row r="202" ht="27.75" customHeight="1"/>
+    <row r="203" ht="27.75" customHeight="1"/>
+    <row r="204" ht="27.75" customHeight="1"/>
+    <row r="205" ht="27.75" customHeight="1"/>
+    <row r="206" ht="27.75" customHeight="1"/>
+    <row r="207" ht="27.75" customHeight="1"/>
+    <row r="208" ht="27.75" customHeight="1"/>
+    <row r="209" ht="27.75" customHeight="1"/>
+    <row r="210" ht="27.75" customHeight="1"/>
+    <row r="211" ht="27.75" customHeight="1"/>
+    <row r="212" ht="27.75" customHeight="1"/>
+    <row r="213" ht="27.75" customHeight="1"/>
+    <row r="214" ht="27.75" customHeight="1"/>
+    <row r="215" ht="27.75" customHeight="1"/>
+    <row r="216" ht="27.75" customHeight="1"/>
+    <row r="217" ht="27.75" customHeight="1"/>
+    <row r="218" ht="27.75" customHeight="1"/>
+    <row r="219" ht="27.75" customHeight="1"/>
+    <row r="220" ht="27.75" customHeight="1"/>
+    <row r="221" ht="27.75" customHeight="1"/>
+    <row r="222" ht="27.75" customHeight="1"/>
+    <row r="223" ht="27.75" customHeight="1"/>
+    <row r="224" ht="27.75" customHeight="1"/>
+    <row r="225" ht="27.75" customHeight="1"/>
+    <row r="226" ht="27.75" customHeight="1"/>
+    <row r="227" ht="27.75" customHeight="1"/>
+    <row r="228" ht="27.75" customHeight="1"/>
+    <row r="229" ht="27.75" customHeight="1"/>
+    <row r="230" ht="27.75" customHeight="1"/>
+    <row r="231" ht="27.75" customHeight="1"/>
+    <row r="232" ht="27.75" customHeight="1"/>
+    <row r="233" ht="27.75" customHeight="1"/>
+    <row r="234" ht="27.75" customHeight="1"/>
+    <row r="235" ht="27.75" customHeight="1"/>
+    <row r="236" ht="27.75" customHeight="1"/>
+    <row r="237" ht="27.75" customHeight="1"/>
+    <row r="238" ht="27.75" customHeight="1"/>
+    <row r="239" ht="27.75" customHeight="1"/>
+    <row r="240" ht="27.75" customHeight="1"/>
+    <row r="241" ht="27.75" customHeight="1"/>
+    <row r="242" ht="27.75" customHeight="1"/>
+    <row r="243" ht="27.75" customHeight="1"/>
+    <row r="244" ht="27.75" customHeight="1"/>
+    <row r="245" ht="27.75" customHeight="1"/>
+    <row r="246" ht="27.75" customHeight="1"/>
+    <row r="247" ht="27.75" customHeight="1"/>
+    <row r="248" ht="27.75" customHeight="1"/>
+    <row r="249" ht="27.75" customHeight="1"/>
+    <row r="250" ht="27.75" customHeight="1"/>
+    <row r="251" ht="27.75" customHeight="1"/>
+    <row r="252" ht="27.75" customHeight="1"/>
+    <row r="253" ht="27.75" customHeight="1"/>
+    <row r="254" ht="27.75" customHeight="1"/>
+    <row r="255" ht="27.75" customHeight="1"/>
+    <row r="256" ht="27.75" customHeight="1"/>
+    <row r="257" ht="27.75" customHeight="1"/>
+    <row r="258" ht="27.75" customHeight="1"/>
+    <row r="259" ht="27.75" customHeight="1"/>
+    <row r="260" ht="27.75" customHeight="1"/>
+    <row r="261" ht="27.75" customHeight="1"/>
+    <row r="262" ht="27.75" customHeight="1"/>
+    <row r="263" ht="27.75" customHeight="1"/>
+    <row r="264" ht="27.75" customHeight="1"/>
+    <row r="265" ht="27.75" customHeight="1"/>
+    <row r="266" ht="27.75" customHeight="1"/>
+    <row r="267" ht="27.75" customHeight="1"/>
+    <row r="268" ht="27.75" customHeight="1"/>
+    <row r="269" ht="27.75" customHeight="1"/>
+    <row r="270" ht="27.75" customHeight="1"/>
+    <row r="271" ht="27.75" customHeight="1"/>
+    <row r="272" ht="27.75" customHeight="1"/>
+    <row r="273" ht="27.75" customHeight="1"/>
+    <row r="274" ht="27.75" customHeight="1"/>
+    <row r="275" ht="27.75" customHeight="1"/>
+    <row r="276" ht="27.75" customHeight="1"/>
+    <row r="277" ht="27.75" customHeight="1"/>
+    <row r="278" ht="27.75" customHeight="1"/>
+    <row r="279" ht="27.75" customHeight="1"/>
+    <row r="280" ht="27.75" customHeight="1"/>
+    <row r="281" ht="27.75" customHeight="1"/>
+    <row r="282" ht="27.75" customHeight="1"/>
+    <row r="283" ht="27.75" customHeight="1"/>
+    <row r="284" ht="27.75" customHeight="1"/>
+    <row r="285" ht="27.75" customHeight="1"/>
+    <row r="286" ht="27.75" customHeight="1"/>
+    <row r="287" ht="27.75" customHeight="1"/>
+    <row r="288" ht="27.75" customHeight="1"/>
+    <row r="289" ht="27.75" customHeight="1"/>
+    <row r="290" ht="27.75" customHeight="1"/>
+    <row r="291" ht="27.75" customHeight="1"/>
+    <row r="292" ht="27.75" customHeight="1"/>
+    <row r="293" ht="27.75" customHeight="1"/>
+    <row r="294" ht="27.75" customHeight="1"/>
+    <row r="295" ht="27.75" customHeight="1"/>
+    <row r="296" ht="27.75" customHeight="1"/>
+    <row r="297" ht="27.75" customHeight="1"/>
+    <row r="298" ht="27.75" customHeight="1"/>
+    <row r="299" ht="27.75" customHeight="1"/>
+    <row r="300" ht="27.75" customHeight="1"/>
+    <row r="301" ht="27.75" customHeight="1"/>
+    <row r="302" ht="27.75" customHeight="1"/>
+    <row r="303" ht="27.75" customHeight="1"/>
+    <row r="304" ht="27.75" customHeight="1"/>
+    <row r="305" ht="27.75" customHeight="1"/>
+    <row r="306" ht="27.75" customHeight="1"/>
+    <row r="307" ht="27.75" customHeight="1"/>
+    <row r="308" ht="27.75" customHeight="1"/>
+    <row r="309" ht="27.75" customHeight="1"/>
+    <row r="310" ht="27.75" customHeight="1"/>
+    <row r="311" ht="27.75" customHeight="1"/>
+    <row r="312" ht="27.75" customHeight="1"/>
+    <row r="313" ht="27.75" customHeight="1"/>
+    <row r="314" ht="27.75" customHeight="1"/>
+    <row r="315" ht="27.75" customHeight="1"/>
+    <row r="316" ht="27.75" customHeight="1"/>
+    <row r="317" ht="27.75" customHeight="1"/>
+    <row r="318" ht="27.75" customHeight="1"/>
+    <row r="319" ht="27.75" customHeight="1"/>
+    <row r="320" ht="27.75" customHeight="1"/>
+    <row r="321" ht="27.75" customHeight="1"/>
+    <row r="322" ht="27.75" customHeight="1"/>
+    <row r="323" ht="27.75" customHeight="1"/>
+    <row r="324" ht="27.75" customHeight="1"/>
+    <row r="325" ht="27.75" customHeight="1"/>
+    <row r="326" ht="27.75" customHeight="1"/>
+    <row r="327" ht="27.75" customHeight="1"/>
+    <row r="328" ht="27.75" customHeight="1"/>
+    <row r="329" ht="27.75" customHeight="1"/>
+    <row r="330" ht="27.75" customHeight="1"/>
+    <row r="331" ht="27.75" customHeight="1"/>
+    <row r="332" ht="27.75" customHeight="1"/>
+    <row r="333" ht="27.75" customHeight="1"/>
+    <row r="334" ht="27.75" customHeight="1"/>
+    <row r="335" ht="27.75" customHeight="1"/>
+    <row r="336" ht="27.75" customHeight="1"/>
+    <row r="337" ht="27.75" customHeight="1"/>
+    <row r="338" ht="27.75" customHeight="1"/>
+    <row r="339" ht="27.75" customHeight="1"/>
+    <row r="340" ht="27.75" customHeight="1"/>
+    <row r="341" ht="27.75" customHeight="1"/>
+    <row r="342" ht="27.75" customHeight="1"/>
+    <row r="343" ht="27.75" customHeight="1"/>
+    <row r="344" ht="27.75" customHeight="1"/>
+    <row r="345" ht="27.75" customHeight="1"/>
+    <row r="346" ht="27.75" customHeight="1"/>
+    <row r="347" ht="27.75" customHeight="1"/>
+    <row r="348" ht="27.75" customHeight="1"/>
+    <row r="349" ht="27.75" customHeight="1"/>
+    <row r="350" ht="27.75" customHeight="1"/>
+    <row r="351" ht="27.75" customHeight="1"/>
+    <row r="352" ht="27.75" customHeight="1"/>
+    <row r="353" ht="27.75" customHeight="1"/>
+    <row r="354" ht="27.75" customHeight="1"/>
+    <row r="355" ht="27.75" customHeight="1"/>
+    <row r="356" ht="27.75" customHeight="1"/>
+    <row r="357" ht="27.75" customHeight="1"/>
+    <row r="358" ht="27.75" customHeight="1"/>
+    <row r="359" ht="27.75" customHeight="1"/>
+    <row r="360" ht="27.75" customHeight="1"/>
+    <row r="361" ht="27.75" customHeight="1"/>
+    <row r="362" ht="27.75" customHeight="1"/>
+    <row r="363" ht="27.75" customHeight="1"/>
+    <row r="364" ht="27.75" customHeight="1"/>
+    <row r="365" ht="27.75" customHeight="1"/>
+    <row r="366" ht="27.75" customHeight="1"/>
+    <row r="367" ht="27.75" customHeight="1"/>
+    <row r="368" ht="27.75" customHeight="1"/>
+    <row r="369" ht="27.75" customHeight="1"/>
+    <row r="370" ht="27.75" customHeight="1"/>
+    <row r="371" ht="27.75" customHeight="1"/>
+    <row r="372" ht="27.75" customHeight="1"/>
+    <row r="373" ht="27.75" customHeight="1"/>
+    <row r="374" ht="27.75" customHeight="1"/>
+    <row r="375" ht="27.75" customHeight="1"/>
+    <row r="376" ht="27.75" customHeight="1"/>
+    <row r="377" ht="27.75" customHeight="1"/>
+    <row r="378" ht="27.75" customHeight="1"/>
+    <row r="379" ht="27.75" customHeight="1"/>
+    <row r="380" ht="27.75" customHeight="1"/>
+    <row r="381" ht="27.75" customHeight="1"/>
+    <row r="382" ht="27.75" customHeight="1"/>
+    <row r="383" ht="27.75" customHeight="1"/>
+    <row r="384" ht="27.75" customHeight="1"/>
+    <row r="385" ht="27.75" customHeight="1"/>
+    <row r="386" ht="27.75" customHeight="1"/>
+    <row r="387" ht="27.75" customHeight="1"/>
+    <row r="388" ht="27.75" customHeight="1"/>
+    <row r="389" ht="27.75" customHeight="1"/>
+    <row r="390" ht="27.75" customHeight="1"/>
+    <row r="391" ht="27.75" customHeight="1"/>
+    <row r="392" ht="27.75" customHeight="1"/>
+    <row r="393" ht="27.75" customHeight="1"/>
+    <row r="394" ht="27.75" customHeight="1"/>
+    <row r="395" ht="27.75" customHeight="1"/>
+    <row r="396" ht="27.75" customHeight="1"/>
+    <row r="397" ht="27.75" customHeight="1"/>
+    <row r="398" ht="27.75" customHeight="1"/>
+    <row r="399" ht="27.75" customHeight="1"/>
+    <row r="400" ht="27.75" customHeight="1"/>
+    <row r="401" ht="27.75" customHeight="1"/>
+    <row r="402" ht="27.75" customHeight="1"/>
+    <row r="403" ht="27.75" customHeight="1"/>
+    <row r="404" ht="27.75" customHeight="1"/>
+    <row r="405" ht="27.75" customHeight="1"/>
+    <row r="406" ht="27.75" customHeight="1"/>
+    <row r="407" ht="27.75" customHeight="1"/>
+    <row r="408" ht="27.75" customHeight="1"/>
+    <row r="409" ht="27.75" customHeight="1"/>
+    <row r="410" ht="27.75" customHeight="1"/>
+    <row r="411" ht="27.75" customHeight="1"/>
+    <row r="412" ht="27.75" customHeight="1"/>
+    <row r="413" ht="27.75" customHeight="1"/>
+    <row r="414" ht="27.75" customHeight="1"/>
+    <row r="415" ht="27.75" customHeight="1"/>
+    <row r="416" ht="27.75" customHeight="1"/>
+    <row r="417" ht="27.75" customHeight="1"/>
+    <row r="418" ht="27.75" customHeight="1"/>
+    <row r="419" ht="27.75" customHeight="1"/>
+    <row r="420" ht="27.75" customHeight="1"/>
+    <row r="421" ht="27.75" customHeight="1"/>
+    <row r="422" ht="27.75" customHeight="1"/>
+    <row r="423" ht="27.75" customHeight="1"/>
+    <row r="424" ht="27.75" customHeight="1"/>
+    <row r="425" ht="27.75" customHeight="1"/>
+    <row r="426" ht="27.75" customHeight="1"/>
+    <row r="427" ht="27.75" customHeight="1"/>
+    <row r="428" ht="27.75" customHeight="1"/>
+    <row r="429" ht="27.75" customHeight="1"/>
+    <row r="430" ht="27.75" customHeight="1"/>
+    <row r="431" ht="27.75" customHeight="1"/>
+    <row r="432" ht="27.75" customHeight="1"/>
+    <row r="433" ht="27.75" customHeight="1"/>
+    <row r="434" ht="27.75" customHeight="1"/>
+    <row r="435" ht="27.75" customHeight="1"/>
+    <row r="436" ht="27.75" customHeight="1"/>
+    <row r="437" ht="27.75" customHeight="1"/>
+    <row r="438" ht="27.75" customHeight="1"/>
+    <row r="439" ht="27.75" customHeight="1"/>
+    <row r="440" ht="27.75" customHeight="1"/>
+    <row r="441" ht="27.75" customHeight="1"/>
+    <row r="442" ht="27.75" customHeight="1"/>
+    <row r="443" ht="27.75" customHeight="1"/>
+    <row r="444" ht="27.75" customHeight="1"/>
+    <row r="445" ht="27.75" customHeight="1"/>
+    <row r="446" ht="27.75" customHeight="1"/>
+    <row r="447" ht="27.75" customHeight="1"/>
+    <row r="448" ht="27.75" customHeight="1"/>
+    <row r="449" ht="27.75" customHeight="1"/>
+    <row r="450" ht="27.75" customHeight="1"/>
+    <row r="451" ht="27.75" customHeight="1"/>
+    <row r="452" ht="27.75" customHeight="1"/>
+    <row r="453" ht="27.75" customHeight="1"/>
+    <row r="454" ht="27.75" customHeight="1"/>
+    <row r="455" ht="27.75" customHeight="1"/>
+    <row r="456" ht="27.75" customHeight="1"/>
+    <row r="457" ht="27.75" customHeight="1"/>
+    <row r="458" ht="27.75" customHeight="1"/>
+    <row r="459" ht="27.75" customHeight="1"/>
+    <row r="460" ht="27.75" customHeight="1"/>
+    <row r="461" ht="27.75" customHeight="1"/>
+    <row r="462" ht="27.75" customHeight="1"/>
+    <row r="463" ht="27.75" customHeight="1"/>
+    <row r="464" ht="27.75" customHeight="1"/>
+    <row r="465" ht="27.75" customHeight="1"/>
+    <row r="466" ht="27.75" customHeight="1"/>
+    <row r="467" ht="27.75" customHeight="1"/>
+    <row r="468" ht="27.75" customHeight="1"/>
+    <row r="469" ht="27.75" customHeight="1"/>
+    <row r="470" ht="27.75" customHeight="1"/>
+    <row r="471" ht="27.75" customHeight="1"/>
+    <row r="472" ht="27.75" customHeight="1"/>
+    <row r="473" ht="27.75" customHeight="1"/>
+    <row r="474" ht="27.75" customHeight="1"/>
+    <row r="475" ht="27.75" customHeight="1"/>
+    <row r="476" ht="27.75" customHeight="1"/>
+    <row r="477" ht="27.75" customHeight="1"/>
+    <row r="478" ht="27.75" customHeight="1"/>
+    <row r="479" ht="27.75" customHeight="1"/>
+    <row r="480" ht="27.75" customHeight="1"/>
+    <row r="481" ht="27.75" customHeight="1"/>
+    <row r="482" ht="27.75" customHeight="1"/>
+    <row r="483" ht="27.75" customHeight="1"/>
+    <row r="484" ht="27.75" customHeight="1"/>
+    <row r="485" ht="27.75" customHeight="1"/>
+    <row r="486" ht="27.75" customHeight="1"/>
+    <row r="487" ht="27.75" customHeight="1"/>
+    <row r="488" ht="27.75" customHeight="1"/>
+    <row r="489" ht="27.75" customHeight="1"/>
+    <row r="490" ht="27.75" customHeight="1"/>
+    <row r="491" ht="27.75" customHeight="1"/>
+    <row r="492" ht="27.75" customHeight="1"/>
+    <row r="493" ht="27.75" customHeight="1"/>
+    <row r="494" ht="27.75" customHeight="1"/>
+    <row r="495" ht="27.75" customHeight="1"/>
+    <row r="496" ht="27.75" customHeight="1"/>
+    <row r="497" ht="27.75" customHeight="1"/>
+    <row r="498" ht="27.75" customHeight="1"/>
+    <row r="499" ht="27.75" customHeight="1"/>
+    <row r="500" ht="27.75" customHeight="1"/>
+    <row r="501" ht="27.75" customHeight="1"/>
+    <row r="502" ht="27.75" customHeight="1"/>
+    <row r="503" ht="27.75" customHeight="1"/>
+    <row r="504" ht="27.75" customHeight="1"/>
+    <row r="505" ht="27.75" customHeight="1"/>
+    <row r="506" ht="27.75" customHeight="1"/>
+    <row r="507" ht="27.75" customHeight="1"/>
+    <row r="508" ht="27.75" customHeight="1"/>
+    <row r="509" ht="27.75" customHeight="1"/>
+    <row r="510" ht="27.75" customHeight="1"/>
+    <row r="511" ht="27.75" customHeight="1"/>
+    <row r="512" ht="27.75" customHeight="1"/>
+    <row r="513" ht="27.75" customHeight="1"/>
+    <row r="514" ht="27.75" customHeight="1"/>
+    <row r="515" ht="27.75" customHeight="1"/>
+    <row r="516" ht="27.75" customHeight="1"/>
+    <row r="517" ht="27.75" customHeight="1"/>
+    <row r="518" ht="27.75" customHeight="1"/>
+    <row r="519" ht="27.75" customHeight="1"/>
+    <row r="520" ht="27.75" customHeight="1"/>
+    <row r="521" ht="27.75" customHeight="1"/>
+    <row r="522" ht="27.75" customHeight="1"/>
+    <row r="523" ht="27.75" customHeight="1"/>
+    <row r="524" ht="27.75" customHeight="1"/>
+    <row r="525" ht="27.75" customHeight="1"/>
+    <row r="526" ht="27.75" customHeight="1"/>
+    <row r="527" ht="27.75" customHeight="1"/>
+    <row r="528" ht="27.75" customHeight="1"/>
+    <row r="529" ht="27.75" customHeight="1"/>
+    <row r="530" ht="27.75" customHeight="1"/>
+    <row r="531" ht="27.75" customHeight="1"/>
+    <row r="532" ht="27.75" customHeight="1"/>
+    <row r="533" ht="27.75" customHeight="1"/>
+    <row r="534" ht="27.75" customHeight="1"/>
+    <row r="535" ht="27.75" customHeight="1"/>
+    <row r="536" ht="27.75" customHeight="1"/>
+    <row r="537" ht="27.75" customHeight="1"/>
+    <row r="538" ht="27.75" customHeight="1"/>
+    <row r="539" ht="27.75" customHeight="1"/>
+    <row r="540" ht="27.75" customHeight="1"/>
+    <row r="541" ht="27.75" customHeight="1"/>
+    <row r="542" ht="27.75" customHeight="1"/>
+    <row r="543" ht="27.75" customHeight="1"/>
+    <row r="544" ht="27.75" customHeight="1"/>
+    <row r="545" ht="27.75" customHeight="1"/>
+    <row r="546" ht="27.75" customHeight="1"/>
+    <row r="547" ht="27.75" customHeight="1"/>
+    <row r="548" ht="27.75" customHeight="1"/>
+    <row r="549" ht="27.75" customHeight="1"/>
+    <row r="550" ht="27.75" customHeight="1"/>
+    <row r="551" ht="27.75" customHeight="1"/>
+    <row r="552" ht="27.75" customHeight="1"/>
+    <row r="553" ht="27.75" customHeight="1"/>
+    <row r="554" ht="27.75" customHeight="1"/>
+    <row r="555" ht="27.75" customHeight="1"/>
+    <row r="556" ht="27.75" customHeight="1"/>
+    <row r="557" ht="27.75" customHeight="1"/>
+    <row r="558" ht="27.75" customHeight="1"/>
+    <row r="559" ht="27.75" customHeight="1"/>
+    <row r="560" ht="27.75" customHeight="1"/>
+    <row r="561" ht="27.75" customHeight="1"/>
+    <row r="562" ht="27.75" customHeight="1"/>
+    <row r="563" ht="27.75" customHeight="1"/>
+    <row r="564" ht="27.75" customHeight="1"/>
+    <row r="565" ht="27.75" customHeight="1"/>
+    <row r="566" ht="27.75" customHeight="1"/>
+    <row r="567" ht="27.75" customHeight="1"/>
+    <row r="568" ht="27.75" customHeight="1"/>
+    <row r="569" ht="27.75" customHeight="1"/>
+    <row r="570" ht="27.75" customHeight="1"/>
+    <row r="571" ht="27.75" customHeight="1"/>
+    <row r="572" ht="27.75" customHeight="1"/>
+    <row r="573" ht="27.75" customHeight="1"/>
+    <row r="574" ht="27.75" customHeight="1"/>
+    <row r="575" ht="27.75" customHeight="1"/>
+    <row r="576" ht="27.75" customHeight="1"/>
+    <row r="577" ht="27.75" customHeight="1"/>
+    <row r="578" ht="27.75" customHeight="1"/>
+    <row r="579" ht="27.75" customHeight="1"/>
+    <row r="580" ht="27.75" customHeight="1"/>
+    <row r="581" ht="27.75" customHeight="1"/>
+    <row r="582" ht="27.75" customHeight="1"/>
+    <row r="583" ht="27.75" customHeight="1"/>
+    <row r="584" ht="27.75" customHeight="1"/>
+    <row r="585" ht="27.75" customHeight="1"/>
+    <row r="586" ht="27.75" customHeight="1"/>
+    <row r="587" ht="27.75" customHeight="1"/>
+    <row r="588" ht="27.75" customHeight="1"/>
+    <row r="589" ht="27.75" customHeight="1"/>
+    <row r="590" ht="27.75" customHeight="1"/>
+    <row r="591" ht="27.75" customHeight="1"/>
+    <row r="592" ht="27.75" customHeight="1"/>
+    <row r="593" ht="27.75" customHeight="1"/>
+    <row r="594" ht="27.75" customHeight="1"/>
+    <row r="595" ht="27.75" customHeight="1"/>
+    <row r="596" ht="27.75" customHeight="1"/>
+    <row r="597" ht="27.75" customHeight="1"/>
+    <row r="598" ht="27.75" customHeight="1"/>
+    <row r="599" ht="27.75" customHeight="1"/>
+    <row r="600" ht="27.75" customHeight="1"/>
+    <row r="601" ht="27.75" customHeight="1"/>
+    <row r="602" ht="27.75" customHeight="1"/>
+    <row r="603" ht="27.75" customHeight="1"/>
+    <row r="604" ht="27.75" customHeight="1"/>
+    <row r="605" ht="27.75" customHeight="1"/>
+    <row r="606" ht="27.75" customHeight="1"/>
+    <row r="607" ht="27.75" customHeight="1"/>
+    <row r="608" ht="27.75" customHeight="1"/>
+    <row r="609" ht="27.75" customHeight="1"/>
+    <row r="610" ht="27.75" customHeight="1"/>
+    <row r="611" ht="27.75" customHeight="1"/>
+    <row r="612" ht="27.75" customHeight="1"/>
+    <row r="613" ht="27.75" customHeight="1"/>
+    <row r="614" ht="27.75" customHeight="1"/>
+    <row r="615" ht="27.75" customHeight="1"/>
+    <row r="616" ht="27.75" customHeight="1"/>
+    <row r="617" ht="27.75" customHeight="1"/>
+    <row r="618" ht="27.75" customHeight="1"/>
+    <row r="619" ht="27.75" customHeight="1"/>
+    <row r="620" ht="27.75" customHeight="1"/>
+    <row r="621" ht="27.75" customHeight="1"/>
+    <row r="622" ht="27.75" customHeight="1"/>
+    <row r="623" ht="27.75" customHeight="1"/>
+    <row r="624" ht="27.75" customHeight="1"/>
+    <row r="625" ht="27.75" customHeight="1"/>
+    <row r="626" ht="27.75" customHeight="1"/>
+    <row r="627" ht="27.75" customHeight="1"/>
+    <row r="628" ht="27.75" customHeight="1"/>
+    <row r="629" ht="27.75" customHeight="1"/>
+    <row r="630" ht="27.75" customHeight="1"/>
+    <row r="631" ht="27.75" customHeight="1"/>
+    <row r="632" ht="27.75" customHeight="1"/>
+    <row r="633" ht="27.75" customHeight="1"/>
+    <row r="634" ht="27.75" customHeight="1"/>
+    <row r="635" ht="27.75" customHeight="1"/>
+    <row r="636" ht="27.75" customHeight="1"/>
+    <row r="637" ht="27.75" customHeight="1"/>
+    <row r="638" ht="27.75" customHeight="1"/>
+    <row r="639" ht="27.75" customHeight="1"/>
+    <row r="640" ht="27.75" customHeight="1"/>
+    <row r="641" ht="27.75" customHeight="1"/>
+    <row r="642" ht="27.75" customHeight="1"/>
+    <row r="643" ht="27.75" customHeight="1"/>
+    <row r="644" ht="27.75" customHeight="1"/>
+    <row r="645" ht="27.75" customHeight="1"/>
+    <row r="646" ht="27.75" customHeight="1"/>
+    <row r="647" ht="27.75" customHeight="1"/>
+    <row r="648" ht="27.75" customHeight="1"/>
+    <row r="649" ht="27.75" customHeight="1"/>
+    <row r="650" ht="27.75" customHeight="1"/>
+    <row r="651" ht="27.75" customHeight="1"/>
+    <row r="652" ht="27.75" customHeight="1"/>
+    <row r="653" ht="27.75" customHeight="1"/>
+    <row r="654" ht="27.75" customHeight="1"/>
+    <row r="655" ht="27.75" customHeight="1"/>
+    <row r="656" ht="27.75" customHeight="1"/>
+    <row r="657" ht="27.75" customHeight="1"/>
+    <row r="658" ht="27.75" customHeight="1"/>
+    <row r="659" ht="27.75" customHeight="1"/>
+    <row r="660" ht="27.75" customHeight="1"/>
+    <row r="661" ht="27.75" customHeight="1"/>
+    <row r="662" ht="27.75" customHeight="1"/>
+    <row r="663" ht="27.75" customHeight="1"/>
+    <row r="664" ht="27.75" customHeight="1"/>
+    <row r="665" ht="27.75" customHeight="1"/>
+    <row r="666" ht="27.75" customHeight="1"/>
+    <row r="667" ht="27.75" customHeight="1"/>
+    <row r="668" ht="27.75" customHeight="1"/>
+    <row r="669" ht="27.75" customHeight="1"/>
+    <row r="670" ht="27.75" customHeight="1"/>
+    <row r="671" ht="27.75" customHeight="1"/>
+    <row r="672" ht="27.75" customHeight="1"/>
+    <row r="673" ht="27.75" customHeight="1"/>
+    <row r="674" ht="27.75" customHeight="1"/>
+    <row r="675" ht="27.75" customHeight="1"/>
+    <row r="676" ht="27.75" customHeight="1"/>
+    <row r="677" ht="27.75" customHeight="1"/>
+    <row r="678" ht="27.75" customHeight="1"/>
+    <row r="679" ht="27.75" customHeight="1"/>
+    <row r="680" ht="27.75" customHeight="1"/>
+    <row r="681" ht="27.75" customHeight="1"/>
+    <row r="682" ht="27.75" customHeight="1"/>
+    <row r="683" ht="27.75" customHeight="1"/>
+    <row r="684" ht="27.75" customHeight="1"/>
+    <row r="685" ht="27.75" customHeight="1"/>
+    <row r="686" ht="27.75" customHeight="1"/>
+    <row r="687" ht="27.75" customHeight="1"/>
+    <row r="688" ht="27.75" customHeight="1"/>
+    <row r="689" ht="27.75" customHeight="1"/>
+    <row r="690" ht="27.75" customHeight="1"/>
+    <row r="691" ht="27.75" customHeight="1"/>
+    <row r="692" ht="27.75" customHeight="1"/>
+    <row r="693" ht="27.75" customHeight="1"/>
+    <row r="694" ht="27.75" customHeight="1"/>
+    <row r="695" ht="27.75" customHeight="1"/>
+    <row r="696" ht="27.75" customHeight="1"/>
+    <row r="697" ht="27.75" customHeight="1"/>
+    <row r="698" ht="27.75" customHeight="1"/>
+    <row r="699" ht="27.75" customHeight="1"/>
+    <row r="700" ht="27.75" customHeight="1"/>
+    <row r="701" ht="27.75" customHeight="1"/>
+    <row r="702" ht="27.75" customHeight="1"/>
+    <row r="703" ht="27.75" customHeight="1"/>
+    <row r="704" ht="27.75" customHeight="1"/>
+    <row r="705" ht="27.75" customHeight="1"/>
+    <row r="706" ht="27.75" customHeight="1"/>
+    <row r="707" ht="27.75" customHeight="1"/>
+    <row r="708" ht="27.75" customHeight="1"/>
+    <row r="709" ht="27.75" customHeight="1"/>
+    <row r="710" ht="27.75" customHeight="1"/>
+    <row r="711" ht="27.75" customHeight="1"/>
+    <row r="712" ht="27.75" customHeight="1"/>
+    <row r="713" ht="27.75" customHeight="1"/>
+    <row r="714" ht="27.75" customHeight="1"/>
+    <row r="715" ht="27.75" customHeight="1"/>
+    <row r="716" ht="27.75" customHeight="1"/>
+    <row r="717" ht="27.75" customHeight="1"/>
+    <row r="718" ht="27.75" customHeight="1"/>
+    <row r="719" ht="27.75" customHeight="1"/>
+    <row r="720" ht="27.75" customHeight="1"/>
+    <row r="721" ht="27.75" customHeight="1"/>
+    <row r="722" ht="27.75" customHeight="1"/>
+    <row r="723" ht="27.75" customHeight="1"/>
+    <row r="724" ht="27.75" customHeight="1"/>
+    <row r="725" ht="27.75" customHeight="1"/>
+    <row r="726" ht="27.75" customHeight="1"/>
+    <row r="727" ht="27.75" customHeight="1"/>
+    <row r="728" ht="27.75" customHeight="1"/>
+    <row r="729" ht="27.75" customHeight="1"/>
+    <row r="730" ht="27.75" customHeight="1"/>
+    <row r="731" ht="27.75" customHeight="1"/>
+    <row r="732" ht="27.75" customHeight="1"/>
+    <row r="733" ht="27.75" customHeight="1"/>
+    <row r="734" ht="27.75" customHeight="1"/>
+    <row r="735" ht="27.75" customHeight="1"/>
+    <row r="736" ht="27.75" customHeight="1"/>
+    <row r="737" ht="27.75" customHeight="1"/>
+    <row r="738" ht="27.75" customHeight="1"/>
+    <row r="739" ht="27.75" customHeight="1"/>
+    <row r="740" ht="27.75" customHeight="1"/>
+    <row r="741" ht="27.75" customHeight="1"/>
+    <row r="742" ht="27.75" customHeight="1"/>
+    <row r="743" ht="27.75" customHeight="1"/>
+    <row r="744" ht="27.75" customHeight="1"/>
+    <row r="745" ht="27.75" customHeight="1"/>
+    <row r="746" ht="27.75" customHeight="1"/>
+    <row r="747" ht="27.75" customHeight="1"/>
+    <row r="748" ht="27.75" customHeight="1"/>
+    <row r="749" ht="27.75" customHeight="1"/>
+    <row r="750" ht="27.75" customHeight="1"/>
+    <row r="751" ht="27.75" customHeight="1"/>
+    <row r="752" ht="27.75" customHeight="1"/>
+    <row r="753" ht="27.75" customHeight="1"/>
+    <row r="754" ht="27.75" customHeight="1"/>
+    <row r="755" ht="27.75" customHeight="1"/>
+    <row r="756" ht="27.75" customHeight="1"/>
+    <row r="757" ht="27.75" customHeight="1"/>
+    <row r="758" ht="27.75" customHeight="1"/>
+    <row r="759" ht="27.75" customHeight="1"/>
+    <row r="760" ht="27.75" customHeight="1"/>
+    <row r="761" ht="27.75" customHeight="1"/>
+    <row r="762" ht="27.75" customHeight="1"/>
+    <row r="763" ht="27.75" customHeight="1"/>
+    <row r="764" ht="27.75" customHeight="1"/>
+    <row r="765" ht="27.75" customHeight="1"/>
+    <row r="766" ht="27.75" customHeight="1"/>
+    <row r="767" ht="27.75" customHeight="1"/>
+    <row r="768" ht="27.75" customHeight="1"/>
+    <row r="769" ht="27.75" customHeight="1"/>
+    <row r="770" ht="27.75" customHeight="1"/>
+    <row r="771" ht="27.75" customHeight="1"/>
+    <row r="772" ht="27.75" customHeight="1"/>
+    <row r="773" ht="27.75" customHeight="1"/>
+    <row r="774" ht="27.75" customHeight="1"/>
+    <row r="775" ht="27.75" customHeight="1"/>
+    <row r="776" ht="27.75" customHeight="1"/>
+    <row r="777" ht="27.75" customHeight="1"/>
+    <row r="778" ht="27.75" customHeight="1"/>
+    <row r="779" ht="27.75" customHeight="1"/>
+    <row r="780" ht="27.75" customHeight="1"/>
+    <row r="781" ht="27.75" customHeight="1"/>
+    <row r="782" ht="27.75" customHeight="1"/>
+    <row r="783" ht="27.75" customHeight="1"/>
+    <row r="784" ht="27.75" customHeight="1"/>
+    <row r="785" ht="27.75" customHeight="1"/>
+    <row r="786" ht="27.75" customHeight="1"/>
+    <row r="787" ht="27.75" customHeight="1"/>
+    <row r="788" ht="27.75" customHeight="1"/>
+    <row r="789" ht="27.75" customHeight="1"/>
+    <row r="790" ht="27.75" customHeight="1"/>
+    <row r="791" ht="27.75" customHeight="1"/>
+    <row r="792" ht="27.75" customHeight="1"/>
+    <row r="793" ht="27.75" customHeight="1"/>
+    <row r="794" ht="27.75" customHeight="1"/>
+    <row r="795" ht="27.75" customHeight="1"/>
+    <row r="796" ht="27.75" customHeight="1"/>
+    <row r="797" ht="27.75" customHeight="1"/>
+    <row r="798" ht="27.75" customHeight="1"/>
+    <row r="799" ht="27.75" customHeight="1"/>
+    <row r="800" ht="27.75" customHeight="1"/>
+    <row r="801" ht="27.75" customHeight="1"/>
+    <row r="802" ht="27.75" customHeight="1"/>
+    <row r="803" ht="27.75" customHeight="1"/>
+    <row r="804" ht="27.75" customHeight="1"/>
+    <row r="805" ht="27.75" customHeight="1"/>
+    <row r="806" ht="27.75" customHeight="1"/>
+    <row r="807" ht="27.75" customHeight="1"/>
+    <row r="808" ht="27.75" customHeight="1"/>
+    <row r="809" ht="27.75" customHeight="1"/>
+    <row r="810" ht="27.75" customHeight="1"/>
+    <row r="811" ht="27.75" customHeight="1"/>
+    <row r="812" ht="27.75" customHeight="1"/>
+    <row r="813" ht="27.75" customHeight="1"/>
+    <row r="814" ht="27.75" customHeight="1"/>
+    <row r="815" ht="27.75" customHeight="1"/>
+    <row r="816" ht="27.75" customHeight="1"/>
+    <row r="817" ht="27.75" customHeight="1"/>
+    <row r="818" ht="27.75" customHeight="1"/>
+    <row r="819" ht="27.75" customHeight="1"/>
+    <row r="820" ht="27.75" customHeight="1"/>
+    <row r="821" ht="27.75" customHeight="1"/>
+    <row r="822" ht="27.75" customHeight="1"/>
+    <row r="823" ht="27.75" customHeight="1"/>
+    <row r="824" ht="27.75" customHeight="1"/>
+    <row r="825" ht="27.75" customHeight="1"/>
+    <row r="826" ht="27.75" customHeight="1"/>
+    <row r="827" ht="27.75" customHeight="1"/>
+    <row r="828" ht="27.75" customHeight="1"/>
+    <row r="829" ht="27.75" customHeight="1"/>
+    <row r="830" ht="27.75" customHeight="1"/>
+    <row r="831" ht="27.75" customHeight="1"/>
+    <row r="832" ht="27.75" customHeight="1"/>
+    <row r="833" ht="27.75" customHeight="1"/>
+    <row r="834" ht="27.75" customHeight="1"/>
+    <row r="835" ht="27.75" customHeight="1"/>
+    <row r="836" ht="27.75" customHeight="1"/>
+    <row r="837" ht="27.75" customHeight="1"/>
+    <row r="838" ht="27.75" customHeight="1"/>
+    <row r="839" ht="27.75" customHeight="1"/>
+    <row r="840" ht="27.75" customHeight="1"/>
+    <row r="841" ht="27.75" customHeight="1"/>
+    <row r="842" ht="27.75" customHeight="1"/>
+    <row r="843" ht="27.75" customHeight="1"/>
+    <row r="844" ht="27.75" customHeight="1"/>
+    <row r="845" ht="27.75" customHeight="1"/>
+    <row r="846" ht="27.75" customHeight="1"/>
+    <row r="847" ht="27.75" customHeight="1"/>
+    <row r="848" ht="27.75" customHeight="1"/>
+    <row r="849" ht="27.75" customHeight="1"/>
+    <row r="850" ht="27.75" customHeight="1"/>
+    <row r="851" ht="27.75" customHeight="1"/>
+    <row r="852" ht="27.75" customHeight="1"/>
+    <row r="853" ht="27.75" customHeight="1"/>
+    <row r="854" ht="27.75" customHeight="1"/>
+    <row r="855" ht="27.75" customHeight="1"/>
+    <row r="856" ht="27.75" customHeight="1"/>
+    <row r="857" ht="27.75" customHeight="1"/>
+    <row r="858" ht="27.75" customHeight="1"/>
+    <row r="859" ht="27.75" customHeight="1"/>
+    <row r="860" ht="27.75" customHeight="1"/>
+    <row r="861" ht="27.75" customHeight="1"/>
+    <row r="862" ht="27.75" customHeight="1"/>
+    <row r="863" ht="27.75" customHeight="1"/>
+    <row r="864" ht="27.75" customHeight="1"/>
+    <row r="865" ht="27.75" customHeight="1"/>
+    <row r="866" ht="27.75" customHeight="1"/>
+    <row r="867" ht="27.75" customHeight="1"/>
+    <row r="868" ht="27.75" customHeight="1"/>
+    <row r="869" ht="27.75" customHeight="1"/>
+    <row r="870" ht="27.75" customHeight="1"/>
+    <row r="871" ht="27.75" customHeight="1"/>
+    <row r="872" ht="27.75" customHeight="1"/>
+    <row r="873" ht="27.75" customHeight="1"/>
+    <row r="874" ht="27.75" customHeight="1"/>
+    <row r="875" ht="27.75" customHeight="1"/>
+    <row r="876" ht="27.75" customHeight="1"/>
+    <row r="877" ht="27.75" customHeight="1"/>
+    <row r="878" ht="27.75" customHeight="1"/>
+    <row r="879" ht="27.75" customHeight="1"/>
+    <row r="880" ht="27.75" customHeight="1"/>
+    <row r="881" ht="27.75" customHeight="1"/>
+    <row r="882" ht="27.75" customHeight="1"/>
+    <row r="883" ht="27.75" customHeight="1"/>
+    <row r="884" ht="27.75" customHeight="1"/>
+    <row r="885" ht="27.75" customHeight="1"/>
+    <row r="886" ht="27.75" customHeight="1"/>
+    <row r="887" ht="27.75" customHeight="1"/>
+    <row r="888" ht="27.75" customHeight="1"/>
+    <row r="889" ht="27.75" customHeight="1"/>
+    <row r="890" ht="27.75" customHeight="1"/>
+    <row r="891" ht="27.75" customHeight="1"/>
+    <row r="892" ht="27.75" customHeight="1"/>
+    <row r="893" ht="27.75" customHeight="1"/>
+    <row r="894" ht="27.75" customHeight="1"/>
+    <row r="895" ht="27.75" customHeight="1"/>
+    <row r="896" ht="27.75" customHeight="1"/>
+    <row r="897" ht="27.75" customHeight="1"/>
+    <row r="898" ht="27.75" customHeight="1"/>
+    <row r="899" ht="27.75" customHeight="1"/>
+    <row r="900" ht="27.75" customHeight="1"/>
+    <row r="901" ht="27.75" customHeight="1"/>
+    <row r="902" ht="27.75" customHeight="1"/>
+    <row r="903" ht="27.75" customHeight="1"/>
+    <row r="904" ht="27.75" customHeight="1"/>
+    <row r="905" ht="27.75" customHeight="1"/>
+    <row r="906" ht="27.75" customHeight="1"/>
+    <row r="907" ht="27.75" customHeight="1"/>
+    <row r="908" ht="27.75" customHeight="1"/>
+    <row r="909" ht="27.75" customHeight="1"/>
+    <row r="910" ht="27.75" customHeight="1"/>
+    <row r="911" ht="27.75" customHeight="1"/>
+    <row r="912" ht="27.75" customHeight="1"/>
+    <row r="913" ht="27.75" customHeight="1"/>
+    <row r="914" ht="27.75" customHeight="1"/>
+    <row r="915" ht="27.75" customHeight="1"/>
+    <row r="916" ht="27.75" customHeight="1"/>
+    <row r="917" ht="27.75" customHeight="1"/>
+    <row r="918" ht="27.75" customHeight="1"/>
+    <row r="919" ht="27.75" customHeight="1"/>
+    <row r="920" ht="27.75" customHeight="1"/>
+    <row r="921" ht="27.75" customHeight="1"/>
+    <row r="922" ht="27.75" customHeight="1"/>
+    <row r="923" ht="27.75" customHeight="1"/>
+    <row r="924" ht="27.75" customHeight="1"/>
+    <row r="925" ht="27.75" customHeight="1"/>
+    <row r="926" ht="27.75" customHeight="1"/>
+    <row r="927" ht="27.75" customHeight="1"/>
+    <row r="928" ht="27.75" customHeight="1"/>
+    <row r="929" ht="27.75" customHeight="1"/>
+    <row r="930" ht="27.75" customHeight="1"/>
+    <row r="931" ht="27.75" customHeight="1"/>
+    <row r="932" ht="27.75" customHeight="1"/>
+    <row r="933" ht="27.75" customHeight="1"/>
+    <row r="934" ht="27.75" customHeight="1"/>
+    <row r="935" ht="27.75" customHeight="1"/>
+    <row r="936" ht="27.75" customHeight="1"/>
+    <row r="937" ht="27.75" customHeight="1"/>
+    <row r="938" ht="27.75" customHeight="1"/>
+    <row r="939" ht="27.75" customHeight="1"/>
+    <row r="940" ht="27.75" customHeight="1"/>
+    <row r="941" ht="27.75" customHeight="1"/>
+    <row r="942" ht="27.75" customHeight="1"/>
+    <row r="943" ht="27.75" customHeight="1"/>
+    <row r="944" ht="27.75" customHeight="1"/>
+    <row r="945" ht="27.75" customHeight="1"/>
+    <row r="946" ht="27.75" customHeight="1"/>
+    <row r="947" ht="27.75" customHeight="1"/>
+    <row r="948" ht="27.75" customHeight="1"/>
+    <row r="949" ht="27.75" customHeight="1"/>
+    <row r="950" ht="27.75" customHeight="1"/>
+    <row r="951" ht="27.75" customHeight="1"/>
+    <row r="952" ht="27.75" customHeight="1"/>
+    <row r="953" ht="27.75" customHeight="1"/>
+    <row r="954" ht="27.75" customHeight="1"/>
+    <row r="955" ht="27.75" customHeight="1"/>
+    <row r="956" ht="27.75" customHeight="1"/>
+    <row r="957" ht="27.75" customHeight="1"/>
+    <row r="958" ht="27.75" customHeight="1"/>
+    <row r="959" ht="27.75" customHeight="1"/>
+    <row r="960" ht="27.75" customHeight="1"/>
+    <row r="961" ht="27.75" customHeight="1"/>
+    <row r="962" ht="27.75" customHeight="1"/>
+    <row r="963" ht="27.75" customHeight="1"/>
+    <row r="964" ht="27.75" customHeight="1"/>
+    <row r="965" ht="27.75" customHeight="1"/>
+    <row r="966" ht="27.75" customHeight="1"/>
+    <row r="967" ht="27.75" customHeight="1"/>
+    <row r="968" ht="27.75" customHeight="1"/>
+    <row r="969" ht="27.75" customHeight="1"/>
+    <row r="970" ht="27.75" customHeight="1"/>
+    <row r="971" ht="27.75" customHeight="1"/>
+    <row r="972" ht="27.75" customHeight="1"/>
+    <row r="973" ht="27.75" customHeight="1"/>
+    <row r="974" ht="27.75" customHeight="1"/>
+    <row r="975" ht="27.75" customHeight="1"/>
+    <row r="976" ht="27.75" customHeight="1"/>
+    <row r="977" ht="27.75" customHeight="1"/>
+    <row r="978" ht="27.75" customHeight="1"/>
+    <row r="979" ht="27.75" customHeight="1"/>
+    <row r="980" ht="27.75" customHeight="1"/>
+    <row r="981" ht="27.75" customHeight="1"/>
+    <row r="982" ht="27.75" customHeight="1"/>
+    <row r="983" ht="27.75" customHeight="1"/>
+    <row r="984" ht="27.75" customHeight="1"/>
+    <row r="985" ht="27.75" customHeight="1"/>
+    <row r="986" ht="27.75" customHeight="1"/>
+    <row r="987" ht="27.75" customHeight="1"/>
+    <row r="988" ht="27.75" customHeight="1"/>
+    <row r="989" ht="27.75" customHeight="1"/>
+    <row r="990" ht="27.75" customHeight="1"/>
+    <row r="991" ht="27.75" customHeight="1"/>
+    <row r="992" ht="27.75" customHeight="1"/>
+    <row r="993" ht="27.75" customHeight="1"/>
+    <row r="994" ht="27.75" customHeight="1"/>
+    <row r="995" ht="27.75" customHeight="1"/>
+    <row r="996" ht="27.75" customHeight="1"/>
+    <row r="997" ht="27.75" customHeight="1"/>
+    <row r="998" ht="27.75" customHeight="1"/>
+    <row r="999" ht="27.75" customHeight="1"/>
+    <row r="1000" ht="27.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/6_TuningWith2Prompting/2PromptingTuning.xlsx
+++ b/6_TuningWith2Prompting/2PromptingTuning.xlsx
@@ -12,21 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>question_prompt</t>
+    <t>roleA_prompt</t>
   </si>
   <si>
-    <t>answer_prompt</t>
+    <t>roleB_prompt</t>
   </si>
   <si>
-    <t>first_question</t>
+    <t>initialConversationHistory</t>
   </si>
   <si>
-    <t>max_response</t>
+    <t>maxTurns</t>
   </si>
   <si>
     <t>You are Cuong. You are AI Assistant</t>
@@ -35,7 +35,14 @@
     <t>You are Minh. You are AI Assistant</t>
   </si>
   <si>
-    <t>What is your name?</t>
+    <t>[
+    {"role": "roleA", "content": "What is your name?"}
+]</t>
+  </si>
+  <si>
+    <t>[
+    {"role": "roleB", "content": "What is your name?"}
+]</t>
   </si>
   <si>
     <t>test</t>
@@ -152,6 +159,9 @@
     <t>Person A</t>
   </si>
   <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
     <t>Person B</t>
   </si>
   <si>
@@ -228,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -240,6 +250,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -517,3056 +530,3073 @@
         <v>7</v>
       </c>
       <c r="E2" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" ht="126.0" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4" ht="126.0" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="126.0" customHeight="1">
-      <c r="A4" s="1">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="126.0" customHeight="1">
+      <c r="A5" s="1">
         <v>1.0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="126.0" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="126.0" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="126.0" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="126.0" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="126.0" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="45.75" customHeight="1">
-      <c r="B10" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="126.0" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="45.75" customHeight="1">
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" ht="45.75" customHeight="1">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" ht="45.75" customHeight="1">
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" ht="45.75" customHeight="1">
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" ht="45.75" customHeight="1">
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" ht="45.75" customHeight="1">
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" ht="45.75" customHeight="1">
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" ht="45.75" customHeight="1">
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" ht="45.75" customHeight="1">
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" ht="45.75" customHeight="1">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" ht="45.75" customHeight="1">
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" ht="45.75" customHeight="1">
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" ht="45.75" customHeight="1">
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" ht="45.75" customHeight="1">
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" ht="45.75" customHeight="1">
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" ht="45.75" customHeight="1">
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" ht="45.75" customHeight="1">
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" ht="45.75" customHeight="1">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" ht="45.75" customHeight="1">
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" ht="45.75" customHeight="1">
-      <c r="B30" s="9"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" ht="45.75" customHeight="1">
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" ht="45.75" customHeight="1">
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" ht="45.75" customHeight="1">
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" ht="45.75" customHeight="1">
-      <c r="B34" s="9"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" ht="45.75" customHeight="1">
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" ht="45.75" customHeight="1">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" ht="45.75" customHeight="1">
-      <c r="B37" s="9"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" ht="45.75" customHeight="1">
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" ht="45.75" customHeight="1">
-      <c r="B39" s="9"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" ht="45.75" customHeight="1">
-      <c r="B40" s="9"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" ht="45.75" customHeight="1">
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" ht="45.75" customHeight="1">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" ht="45.75" customHeight="1">
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" ht="45.75" customHeight="1">
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" ht="45.75" customHeight="1">
-      <c r="B45" s="9"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" ht="45.75" customHeight="1">
-      <c r="B46" s="9"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" ht="45.75" customHeight="1">
-      <c r="B47" s="9"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" ht="45.75" customHeight="1">
-      <c r="B48" s="9"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" ht="45.75" customHeight="1">
-      <c r="B49" s="9"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" ht="45.75" customHeight="1">
-      <c r="B50" s="9"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" ht="45.75" customHeight="1">
-      <c r="B51" s="9"/>
+      <c r="B51" s="10"/>
     </row>
     <row r="52" ht="45.75" customHeight="1">
-      <c r="B52" s="9"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" ht="45.75" customHeight="1">
-      <c r="B53" s="9"/>
+      <c r="B53" s="10"/>
     </row>
     <row r="54" ht="45.75" customHeight="1">
-      <c r="B54" s="9"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" ht="45.75" customHeight="1">
-      <c r="B55" s="9"/>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" ht="45.75" customHeight="1">
-      <c r="B56" s="9"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="57" ht="45.75" customHeight="1">
-      <c r="B57" s="9"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" ht="45.75" customHeight="1">
-      <c r="B58" s="9"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" ht="45.75" customHeight="1">
-      <c r="B59" s="9"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" ht="45.75" customHeight="1">
-      <c r="B60" s="9"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" ht="45.75" customHeight="1">
-      <c r="B61" s="9"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" ht="45.75" customHeight="1">
-      <c r="B62" s="9"/>
+      <c r="B62" s="10"/>
     </row>
     <row r="63" ht="45.75" customHeight="1">
-      <c r="B63" s="9"/>
+      <c r="B63" s="10"/>
     </row>
     <row r="64" ht="45.75" customHeight="1">
-      <c r="B64" s="9"/>
+      <c r="B64" s="10"/>
     </row>
     <row r="65" ht="45.75" customHeight="1">
-      <c r="B65" s="9"/>
+      <c r="B65" s="10"/>
     </row>
     <row r="66" ht="45.75" customHeight="1">
-      <c r="B66" s="9"/>
+      <c r="B66" s="10"/>
     </row>
     <row r="67" ht="45.75" customHeight="1">
-      <c r="B67" s="9"/>
+      <c r="B67" s="10"/>
     </row>
     <row r="68" ht="45.75" customHeight="1">
-      <c r="B68" s="9"/>
+      <c r="B68" s="10"/>
     </row>
     <row r="69" ht="45.75" customHeight="1">
-      <c r="B69" s="9"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" ht="45.75" customHeight="1">
-      <c r="B70" s="9"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="71" ht="45.75" customHeight="1">
-      <c r="B71" s="9"/>
+      <c r="B71" s="10"/>
     </row>
     <row r="72" ht="45.75" customHeight="1">
-      <c r="B72" s="9"/>
+      <c r="B72" s="10"/>
     </row>
     <row r="73" ht="45.75" customHeight="1">
-      <c r="B73" s="9"/>
+      <c r="B73" s="10"/>
     </row>
     <row r="74" ht="45.75" customHeight="1">
-      <c r="B74" s="9"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" ht="45.75" customHeight="1">
-      <c r="B75" s="9"/>
+      <c r="B75" s="10"/>
     </row>
     <row r="76" ht="45.75" customHeight="1">
-      <c r="B76" s="9"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" ht="45.75" customHeight="1">
-      <c r="B77" s="9"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" ht="45.75" customHeight="1">
-      <c r="B78" s="9"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" ht="45.75" customHeight="1">
-      <c r="B79" s="9"/>
+      <c r="B79" s="10"/>
     </row>
     <row r="80" ht="45.75" customHeight="1">
-      <c r="B80" s="9"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" ht="45.75" customHeight="1">
-      <c r="B81" s="9"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" ht="45.75" customHeight="1">
-      <c r="B82" s="9"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" ht="45.75" customHeight="1">
-      <c r="B83" s="9"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" ht="45.75" customHeight="1">
-      <c r="B84" s="9"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" ht="45.75" customHeight="1">
-      <c r="B85" s="9"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" ht="45.75" customHeight="1">
-      <c r="B86" s="9"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" ht="45.75" customHeight="1">
-      <c r="B87" s="9"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" ht="45.75" customHeight="1">
-      <c r="B88" s="9"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" ht="45.75" customHeight="1">
-      <c r="B89" s="9"/>
+      <c r="B89" s="10"/>
     </row>
     <row r="90" ht="45.75" customHeight="1">
-      <c r="B90" s="9"/>
+      <c r="B90" s="10"/>
     </row>
     <row r="91" ht="45.75" customHeight="1">
-      <c r="B91" s="9"/>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" ht="45.75" customHeight="1">
-      <c r="B92" s="9"/>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" ht="45.75" customHeight="1">
-      <c r="B93" s="9"/>
+      <c r="B93" s="10"/>
     </row>
     <row r="94" ht="45.75" customHeight="1">
-      <c r="B94" s="9"/>
+      <c r="B94" s="10"/>
     </row>
     <row r="95" ht="45.75" customHeight="1">
-      <c r="B95" s="9"/>
+      <c r="B95" s="10"/>
     </row>
     <row r="96" ht="45.75" customHeight="1">
-      <c r="B96" s="9"/>
+      <c r="B96" s="10"/>
     </row>
     <row r="97" ht="45.75" customHeight="1">
-      <c r="B97" s="9"/>
+      <c r="B97" s="10"/>
     </row>
     <row r="98" ht="45.75" customHeight="1">
-      <c r="B98" s="9"/>
+      <c r="B98" s="10"/>
     </row>
     <row r="99" ht="45.75" customHeight="1">
-      <c r="B99" s="9"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" ht="45.75" customHeight="1">
-      <c r="B100" s="9"/>
+      <c r="B100" s="10"/>
     </row>
     <row r="101" ht="45.75" customHeight="1">
-      <c r="B101" s="9"/>
+      <c r="B101" s="10"/>
     </row>
     <row r="102" ht="45.75" customHeight="1">
-      <c r="B102" s="9"/>
+      <c r="B102" s="10"/>
     </row>
     <row r="103" ht="45.75" customHeight="1">
-      <c r="B103" s="9"/>
+      <c r="B103" s="10"/>
     </row>
     <row r="104" ht="45.75" customHeight="1">
-      <c r="B104" s="9"/>
+      <c r="B104" s="10"/>
     </row>
     <row r="105" ht="45.75" customHeight="1">
-      <c r="B105" s="9"/>
+      <c r="B105" s="10"/>
     </row>
     <row r="106" ht="45.75" customHeight="1">
-      <c r="B106" s="9"/>
+      <c r="B106" s="10"/>
     </row>
     <row r="107" ht="45.75" customHeight="1">
-      <c r="B107" s="9"/>
+      <c r="B107" s="10"/>
     </row>
     <row r="108" ht="45.75" customHeight="1">
-      <c r="B108" s="9"/>
+      <c r="B108" s="10"/>
     </row>
     <row r="109" ht="45.75" customHeight="1">
-      <c r="B109" s="9"/>
+      <c r="B109" s="10"/>
     </row>
     <row r="110" ht="45.75" customHeight="1">
-      <c r="B110" s="9"/>
+      <c r="B110" s="10"/>
     </row>
     <row r="111" ht="45.75" customHeight="1">
-      <c r="B111" s="9"/>
+      <c r="B111" s="10"/>
     </row>
     <row r="112" ht="45.75" customHeight="1">
-      <c r="B112" s="9"/>
+      <c r="B112" s="10"/>
     </row>
     <row r="113" ht="45.75" customHeight="1">
-      <c r="B113" s="9"/>
+      <c r="B113" s="10"/>
     </row>
     <row r="114" ht="45.75" customHeight="1">
-      <c r="B114" s="9"/>
+      <c r="B114" s="10"/>
     </row>
     <row r="115" ht="45.75" customHeight="1">
-      <c r="B115" s="9"/>
+      <c r="B115" s="10"/>
     </row>
     <row r="116" ht="45.75" customHeight="1">
-      <c r="B116" s="9"/>
+      <c r="B116" s="10"/>
     </row>
     <row r="117" ht="45.75" customHeight="1">
-      <c r="B117" s="9"/>
+      <c r="B117" s="10"/>
     </row>
     <row r="118" ht="45.75" customHeight="1">
-      <c r="B118" s="9"/>
+      <c r="B118" s="10"/>
     </row>
     <row r="119" ht="45.75" customHeight="1">
-      <c r="B119" s="9"/>
+      <c r="B119" s="10"/>
     </row>
     <row r="120" ht="45.75" customHeight="1">
-      <c r="B120" s="9"/>
+      <c r="B120" s="10"/>
     </row>
     <row r="121" ht="45.75" customHeight="1">
-      <c r="B121" s="9"/>
+      <c r="B121" s="10"/>
     </row>
     <row r="122" ht="45.75" customHeight="1">
-      <c r="B122" s="9"/>
+      <c r="B122" s="10"/>
     </row>
     <row r="123" ht="45.75" customHeight="1">
-      <c r="B123" s="9"/>
+      <c r="B123" s="10"/>
     </row>
     <row r="124" ht="45.75" customHeight="1">
-      <c r="B124" s="9"/>
+      <c r="B124" s="10"/>
     </row>
     <row r="125" ht="45.75" customHeight="1">
-      <c r="B125" s="9"/>
+      <c r="B125" s="10"/>
     </row>
     <row r="126" ht="45.75" customHeight="1">
-      <c r="B126" s="9"/>
+      <c r="B126" s="10"/>
     </row>
     <row r="127" ht="45.75" customHeight="1">
-      <c r="B127" s="9"/>
+      <c r="B127" s="10"/>
     </row>
     <row r="128" ht="45.75" customHeight="1">
-      <c r="B128" s="9"/>
+      <c r="B128" s="10"/>
     </row>
     <row r="129" ht="45.75" customHeight="1">
-      <c r="B129" s="9"/>
+      <c r="B129" s="10"/>
     </row>
     <row r="130" ht="45.75" customHeight="1">
-      <c r="B130" s="9"/>
+      <c r="B130" s="10"/>
     </row>
     <row r="131" ht="45.75" customHeight="1">
-      <c r="B131" s="9"/>
+      <c r="B131" s="10"/>
     </row>
     <row r="132" ht="45.75" customHeight="1">
-      <c r="B132" s="9"/>
+      <c r="B132" s="10"/>
     </row>
     <row r="133" ht="45.75" customHeight="1">
-      <c r="B133" s="9"/>
+      <c r="B133" s="10"/>
     </row>
     <row r="134" ht="45.75" customHeight="1">
-      <c r="B134" s="9"/>
+      <c r="B134" s="10"/>
     </row>
     <row r="135" ht="45.75" customHeight="1">
-      <c r="B135" s="9"/>
+      <c r="B135" s="10"/>
     </row>
     <row r="136" ht="45.75" customHeight="1">
-      <c r="B136" s="9"/>
+      <c r="B136" s="10"/>
     </row>
     <row r="137" ht="45.75" customHeight="1">
-      <c r="B137" s="9"/>
+      <c r="B137" s="10"/>
     </row>
     <row r="138" ht="45.75" customHeight="1">
-      <c r="B138" s="9"/>
+      <c r="B138" s="10"/>
     </row>
     <row r="139" ht="45.75" customHeight="1">
-      <c r="B139" s="9"/>
+      <c r="B139" s="10"/>
     </row>
     <row r="140" ht="45.75" customHeight="1">
-      <c r="B140" s="9"/>
+      <c r="B140" s="10"/>
     </row>
     <row r="141" ht="45.75" customHeight="1">
-      <c r="B141" s="9"/>
+      <c r="B141" s="10"/>
     </row>
     <row r="142" ht="45.75" customHeight="1">
-      <c r="B142" s="9"/>
+      <c r="B142" s="10"/>
     </row>
     <row r="143" ht="45.75" customHeight="1">
-      <c r="B143" s="9"/>
+      <c r="B143" s="10"/>
     </row>
     <row r="144" ht="45.75" customHeight="1">
-      <c r="B144" s="9"/>
+      <c r="B144" s="10"/>
     </row>
     <row r="145" ht="45.75" customHeight="1">
-      <c r="B145" s="9"/>
+      <c r="B145" s="10"/>
     </row>
     <row r="146" ht="45.75" customHeight="1">
-      <c r="B146" s="9"/>
+      <c r="B146" s="10"/>
     </row>
     <row r="147" ht="45.75" customHeight="1">
-      <c r="B147" s="9"/>
+      <c r="B147" s="10"/>
     </row>
     <row r="148" ht="45.75" customHeight="1">
-      <c r="B148" s="9"/>
+      <c r="B148" s="10"/>
     </row>
     <row r="149" ht="45.75" customHeight="1">
-      <c r="B149" s="9"/>
+      <c r="B149" s="10"/>
     </row>
     <row r="150" ht="45.75" customHeight="1">
-      <c r="B150" s="9"/>
+      <c r="B150" s="10"/>
     </row>
     <row r="151" ht="45.75" customHeight="1">
-      <c r="B151" s="9"/>
+      <c r="B151" s="10"/>
     </row>
     <row r="152" ht="45.75" customHeight="1">
-      <c r="B152" s="9"/>
+      <c r="B152" s="10"/>
     </row>
     <row r="153" ht="45.75" customHeight="1">
-      <c r="B153" s="9"/>
+      <c r="B153" s="10"/>
     </row>
     <row r="154" ht="45.75" customHeight="1">
-      <c r="B154" s="9"/>
+      <c r="B154" s="10"/>
     </row>
     <row r="155" ht="45.75" customHeight="1">
-      <c r="B155" s="9"/>
+      <c r="B155" s="10"/>
     </row>
     <row r="156" ht="45.75" customHeight="1">
-      <c r="B156" s="9"/>
+      <c r="B156" s="10"/>
     </row>
     <row r="157" ht="45.75" customHeight="1">
-      <c r="B157" s="9"/>
+      <c r="B157" s="10"/>
     </row>
     <row r="158" ht="45.75" customHeight="1">
-      <c r="B158" s="9"/>
+      <c r="B158" s="10"/>
     </row>
     <row r="159" ht="45.75" customHeight="1">
-      <c r="B159" s="9"/>
+      <c r="B159" s="10"/>
     </row>
     <row r="160" ht="45.75" customHeight="1">
-      <c r="B160" s="9"/>
+      <c r="B160" s="10"/>
     </row>
     <row r="161" ht="45.75" customHeight="1">
-      <c r="B161" s="9"/>
+      <c r="B161" s="10"/>
     </row>
     <row r="162" ht="45.75" customHeight="1">
-      <c r="B162" s="9"/>
+      <c r="B162" s="10"/>
     </row>
     <row r="163" ht="45.75" customHeight="1">
-      <c r="B163" s="9"/>
+      <c r="B163" s="10"/>
     </row>
     <row r="164" ht="45.75" customHeight="1">
-      <c r="B164" s="9"/>
+      <c r="B164" s="10"/>
     </row>
     <row r="165" ht="45.75" customHeight="1">
-      <c r="B165" s="9"/>
+      <c r="B165" s="10"/>
     </row>
     <row r="166" ht="45.75" customHeight="1">
-      <c r="B166" s="9"/>
+      <c r="B166" s="10"/>
     </row>
     <row r="167" ht="45.75" customHeight="1">
-      <c r="B167" s="9"/>
+      <c r="B167" s="10"/>
     </row>
     <row r="168" ht="45.75" customHeight="1">
-      <c r="B168" s="9"/>
+      <c r="B168" s="10"/>
     </row>
     <row r="169" ht="45.75" customHeight="1">
-      <c r="B169" s="9"/>
+      <c r="B169" s="10"/>
     </row>
     <row r="170" ht="45.75" customHeight="1">
-      <c r="B170" s="9"/>
+      <c r="B170" s="10"/>
     </row>
     <row r="171" ht="45.75" customHeight="1">
-      <c r="B171" s="9"/>
+      <c r="B171" s="10"/>
     </row>
     <row r="172" ht="45.75" customHeight="1">
-      <c r="B172" s="9"/>
+      <c r="B172" s="10"/>
     </row>
     <row r="173" ht="45.75" customHeight="1">
-      <c r="B173" s="9"/>
+      <c r="B173" s="10"/>
     </row>
     <row r="174" ht="45.75" customHeight="1">
-      <c r="B174" s="9"/>
+      <c r="B174" s="10"/>
     </row>
     <row r="175" ht="45.75" customHeight="1">
-      <c r="B175" s="9"/>
+      <c r="B175" s="10"/>
     </row>
     <row r="176" ht="45.75" customHeight="1">
-      <c r="B176" s="9"/>
+      <c r="B176" s="10"/>
     </row>
     <row r="177" ht="45.75" customHeight="1">
-      <c r="B177" s="9"/>
+      <c r="B177" s="10"/>
     </row>
     <row r="178" ht="45.75" customHeight="1">
-      <c r="B178" s="9"/>
+      <c r="B178" s="10"/>
     </row>
     <row r="179" ht="45.75" customHeight="1">
-      <c r="B179" s="9"/>
+      <c r="B179" s="10"/>
     </row>
     <row r="180" ht="45.75" customHeight="1">
-      <c r="B180" s="9"/>
+      <c r="B180" s="10"/>
     </row>
     <row r="181" ht="45.75" customHeight="1">
-      <c r="B181" s="9"/>
+      <c r="B181" s="10"/>
     </row>
     <row r="182" ht="45.75" customHeight="1">
-      <c r="B182" s="9"/>
+      <c r="B182" s="10"/>
     </row>
     <row r="183" ht="45.75" customHeight="1">
-      <c r="B183" s="9"/>
+      <c r="B183" s="10"/>
     </row>
     <row r="184" ht="45.75" customHeight="1">
-      <c r="B184" s="9"/>
+      <c r="B184" s="10"/>
     </row>
     <row r="185" ht="45.75" customHeight="1">
-      <c r="B185" s="9"/>
+      <c r="B185" s="10"/>
     </row>
     <row r="186" ht="45.75" customHeight="1">
-      <c r="B186" s="9"/>
+      <c r="B186" s="10"/>
     </row>
     <row r="187" ht="45.75" customHeight="1">
-      <c r="B187" s="9"/>
+      <c r="B187" s="10"/>
     </row>
     <row r="188" ht="45.75" customHeight="1">
-      <c r="B188" s="9"/>
+      <c r="B188" s="10"/>
     </row>
     <row r="189" ht="45.75" customHeight="1">
-      <c r="B189" s="9"/>
+      <c r="B189" s="10"/>
     </row>
     <row r="190" ht="45.75" customHeight="1">
-      <c r="B190" s="9"/>
+      <c r="B190" s="10"/>
     </row>
     <row r="191" ht="45.75" customHeight="1">
-      <c r="B191" s="9"/>
+      <c r="B191" s="10"/>
     </row>
     <row r="192" ht="45.75" customHeight="1">
-      <c r="B192" s="9"/>
+      <c r="B192" s="10"/>
     </row>
     <row r="193" ht="45.75" customHeight="1">
-      <c r="B193" s="9"/>
+      <c r="B193" s="10"/>
     </row>
     <row r="194" ht="45.75" customHeight="1">
-      <c r="B194" s="9"/>
+      <c r="B194" s="10"/>
     </row>
     <row r="195" ht="45.75" customHeight="1">
-      <c r="B195" s="9"/>
+      <c r="B195" s="10"/>
     </row>
     <row r="196" ht="45.75" customHeight="1">
-      <c r="B196" s="9"/>
+      <c r="B196" s="10"/>
     </row>
     <row r="197" ht="45.75" customHeight="1">
-      <c r="B197" s="9"/>
+      <c r="B197" s="10"/>
     </row>
     <row r="198" ht="45.75" customHeight="1">
-      <c r="B198" s="9"/>
+      <c r="B198" s="10"/>
     </row>
     <row r="199" ht="45.75" customHeight="1">
-      <c r="B199" s="9"/>
+      <c r="B199" s="10"/>
     </row>
     <row r="200" ht="45.75" customHeight="1">
-      <c r="B200" s="9"/>
+      <c r="B200" s="10"/>
     </row>
     <row r="201" ht="45.75" customHeight="1">
-      <c r="B201" s="9"/>
+      <c r="B201" s="10"/>
     </row>
     <row r="202" ht="45.75" customHeight="1">
-      <c r="B202" s="9"/>
+      <c r="B202" s="10"/>
     </row>
     <row r="203" ht="45.75" customHeight="1">
-      <c r="B203" s="9"/>
+      <c r="B203" s="10"/>
     </row>
     <row r="204" ht="45.75" customHeight="1">
-      <c r="B204" s="9"/>
+      <c r="B204" s="10"/>
     </row>
     <row r="205" ht="45.75" customHeight="1">
-      <c r="B205" s="9"/>
+      <c r="B205" s="10"/>
     </row>
     <row r="206" ht="45.75" customHeight="1">
-      <c r="B206" s="9"/>
+      <c r="B206" s="10"/>
     </row>
     <row r="207" ht="45.75" customHeight="1">
-      <c r="B207" s="9"/>
+      <c r="B207" s="10"/>
     </row>
     <row r="208" ht="45.75" customHeight="1">
-      <c r="B208" s="9"/>
+      <c r="B208" s="10"/>
     </row>
     <row r="209" ht="45.75" customHeight="1">
-      <c r="B209" s="9"/>
+      <c r="B209" s="10"/>
     </row>
     <row r="210" ht="45.75" customHeight="1">
-      <c r="B210" s="9"/>
+      <c r="B210" s="10"/>
     </row>
     <row r="211" ht="45.75" customHeight="1">
-      <c r="B211" s="9"/>
+      <c r="B211" s="10"/>
     </row>
     <row r="212" ht="45.75" customHeight="1">
-      <c r="B212" s="9"/>
+      <c r="B212" s="10"/>
     </row>
     <row r="213" ht="45.75" customHeight="1">
-      <c r="B213" s="9"/>
+      <c r="B213" s="10"/>
     </row>
     <row r="214" ht="45.75" customHeight="1">
-      <c r="B214" s="9"/>
+      <c r="B214" s="10"/>
     </row>
     <row r="215" ht="45.75" customHeight="1">
-      <c r="B215" s="9"/>
+      <c r="B215" s="10"/>
     </row>
     <row r="216" ht="45.75" customHeight="1">
-      <c r="B216" s="9"/>
+      <c r="B216" s="10"/>
     </row>
     <row r="217" ht="45.75" customHeight="1">
-      <c r="B217" s="9"/>
+      <c r="B217" s="10"/>
     </row>
     <row r="218" ht="45.75" customHeight="1">
-      <c r="B218" s="9"/>
+      <c r="B218" s="10"/>
     </row>
     <row r="219" ht="45.75" customHeight="1">
-      <c r="B219" s="9"/>
+      <c r="B219" s="10"/>
     </row>
     <row r="220" ht="45.75" customHeight="1">
-      <c r="B220" s="9"/>
+      <c r="B220" s="10"/>
     </row>
     <row r="221" ht="45.75" customHeight="1">
-      <c r="B221" s="9"/>
+      <c r="B221" s="10"/>
     </row>
     <row r="222" ht="45.75" customHeight="1">
-      <c r="B222" s="9"/>
+      <c r="B222" s="10"/>
     </row>
     <row r="223" ht="45.75" customHeight="1">
-      <c r="B223" s="9"/>
+      <c r="B223" s="10"/>
     </row>
     <row r="224" ht="45.75" customHeight="1">
-      <c r="B224" s="9"/>
+      <c r="B224" s="10"/>
     </row>
     <row r="225" ht="45.75" customHeight="1">
-      <c r="B225" s="9"/>
+      <c r="B225" s="10"/>
     </row>
     <row r="226" ht="45.75" customHeight="1">
-      <c r="B226" s="9"/>
+      <c r="B226" s="10"/>
     </row>
     <row r="227" ht="45.75" customHeight="1">
-      <c r="B227" s="9"/>
+      <c r="B227" s="10"/>
     </row>
     <row r="228" ht="45.75" customHeight="1">
-      <c r="B228" s="9"/>
+      <c r="B228" s="10"/>
     </row>
     <row r="229" ht="45.75" customHeight="1">
-      <c r="B229" s="9"/>
+      <c r="B229" s="10"/>
     </row>
     <row r="230" ht="45.75" customHeight="1">
-      <c r="B230" s="9"/>
+      <c r="B230" s="10"/>
     </row>
     <row r="231" ht="45.75" customHeight="1">
-      <c r="B231" s="9"/>
+      <c r="B231" s="10"/>
     </row>
     <row r="232" ht="45.75" customHeight="1">
-      <c r="B232" s="9"/>
+      <c r="B232" s="10"/>
     </row>
     <row r="233" ht="45.75" customHeight="1">
-      <c r="B233" s="9"/>
+      <c r="B233" s="10"/>
     </row>
     <row r="234" ht="45.75" customHeight="1">
-      <c r="B234" s="9"/>
+      <c r="B234" s="10"/>
     </row>
     <row r="235" ht="45.75" customHeight="1">
-      <c r="B235" s="9"/>
+      <c r="B235" s="10"/>
     </row>
     <row r="236" ht="45.75" customHeight="1">
-      <c r="B236" s="9"/>
+      <c r="B236" s="10"/>
     </row>
     <row r="237" ht="45.75" customHeight="1">
-      <c r="B237" s="9"/>
+      <c r="B237" s="10"/>
     </row>
     <row r="238" ht="45.75" customHeight="1">
-      <c r="B238" s="9"/>
+      <c r="B238" s="10"/>
     </row>
     <row r="239" ht="45.75" customHeight="1">
-      <c r="B239" s="9"/>
+      <c r="B239" s="10"/>
     </row>
     <row r="240" ht="45.75" customHeight="1">
-      <c r="B240" s="9"/>
+      <c r="B240" s="10"/>
     </row>
     <row r="241" ht="45.75" customHeight="1">
-      <c r="B241" s="9"/>
+      <c r="B241" s="10"/>
     </row>
     <row r="242" ht="45.75" customHeight="1">
-      <c r="B242" s="9"/>
+      <c r="B242" s="10"/>
     </row>
     <row r="243" ht="45.75" customHeight="1">
-      <c r="B243" s="9"/>
+      <c r="B243" s="10"/>
     </row>
     <row r="244" ht="45.75" customHeight="1">
-      <c r="B244" s="9"/>
+      <c r="B244" s="10"/>
     </row>
     <row r="245" ht="45.75" customHeight="1">
-      <c r="B245" s="9"/>
+      <c r="B245" s="10"/>
     </row>
     <row r="246" ht="45.75" customHeight="1">
-      <c r="B246" s="9"/>
+      <c r="B246" s="10"/>
     </row>
     <row r="247" ht="45.75" customHeight="1">
-      <c r="B247" s="9"/>
+      <c r="B247" s="10"/>
     </row>
     <row r="248" ht="45.75" customHeight="1">
-      <c r="B248" s="9"/>
+      <c r="B248" s="10"/>
     </row>
     <row r="249" ht="45.75" customHeight="1">
-      <c r="B249" s="9"/>
+      <c r="B249" s="10"/>
     </row>
     <row r="250" ht="45.75" customHeight="1">
-      <c r="B250" s="9"/>
+      <c r="B250" s="10"/>
     </row>
     <row r="251" ht="45.75" customHeight="1">
-      <c r="B251" s="9"/>
+      <c r="B251" s="10"/>
     </row>
     <row r="252" ht="45.75" customHeight="1">
-      <c r="B252" s="9"/>
+      <c r="B252" s="10"/>
     </row>
     <row r="253" ht="45.75" customHeight="1">
-      <c r="B253" s="9"/>
+      <c r="B253" s="10"/>
     </row>
     <row r="254" ht="45.75" customHeight="1">
-      <c r="B254" s="9"/>
+      <c r="B254" s="10"/>
     </row>
     <row r="255" ht="45.75" customHeight="1">
-      <c r="B255" s="9"/>
+      <c r="B255" s="10"/>
     </row>
     <row r="256" ht="45.75" customHeight="1">
-      <c r="B256" s="9"/>
+      <c r="B256" s="10"/>
     </row>
     <row r="257" ht="45.75" customHeight="1">
-      <c r="B257" s="9"/>
+      <c r="B257" s="10"/>
     </row>
     <row r="258" ht="45.75" customHeight="1">
-      <c r="B258" s="9"/>
+      <c r="B258" s="10"/>
     </row>
     <row r="259" ht="45.75" customHeight="1">
-      <c r="B259" s="9"/>
+      <c r="B259" s="10"/>
     </row>
     <row r="260" ht="45.75" customHeight="1">
-      <c r="B260" s="9"/>
+      <c r="B260" s="10"/>
     </row>
     <row r="261" ht="45.75" customHeight="1">
-      <c r="B261" s="9"/>
+      <c r="B261" s="10"/>
     </row>
     <row r="262" ht="45.75" customHeight="1">
-      <c r="B262" s="9"/>
+      <c r="B262" s="10"/>
     </row>
     <row r="263" ht="45.75" customHeight="1">
-      <c r="B263" s="9"/>
+      <c r="B263" s="10"/>
     </row>
     <row r="264" ht="45.75" customHeight="1">
-      <c r="B264" s="9"/>
+      <c r="B264" s="10"/>
     </row>
     <row r="265" ht="45.75" customHeight="1">
-      <c r="B265" s="9"/>
+      <c r="B265" s="10"/>
     </row>
     <row r="266" ht="45.75" customHeight="1">
-      <c r="B266" s="9"/>
+      <c r="B266" s="10"/>
     </row>
     <row r="267" ht="45.75" customHeight="1">
-      <c r="B267" s="9"/>
+      <c r="B267" s="10"/>
     </row>
     <row r="268" ht="45.75" customHeight="1">
-      <c r="B268" s="9"/>
+      <c r="B268" s="10"/>
     </row>
     <row r="269" ht="45.75" customHeight="1">
-      <c r="B269" s="9"/>
+      <c r="B269" s="10"/>
     </row>
     <row r="270" ht="45.75" customHeight="1">
-      <c r="B270" s="9"/>
+      <c r="B270" s="10"/>
     </row>
     <row r="271" ht="45.75" customHeight="1">
-      <c r="B271" s="9"/>
+      <c r="B271" s="10"/>
     </row>
     <row r="272" ht="45.75" customHeight="1">
-      <c r="B272" s="9"/>
+      <c r="B272" s="10"/>
     </row>
     <row r="273" ht="45.75" customHeight="1">
-      <c r="B273" s="9"/>
+      <c r="B273" s="10"/>
     </row>
     <row r="274" ht="45.75" customHeight="1">
-      <c r="B274" s="9"/>
+      <c r="B274" s="10"/>
     </row>
     <row r="275" ht="45.75" customHeight="1">
-      <c r="B275" s="9"/>
+      <c r="B275" s="10"/>
     </row>
     <row r="276" ht="45.75" customHeight="1">
-      <c r="B276" s="9"/>
+      <c r="B276" s="10"/>
     </row>
     <row r="277" ht="45.75" customHeight="1">
-      <c r="B277" s="9"/>
+      <c r="B277" s="10"/>
     </row>
     <row r="278" ht="45.75" customHeight="1">
-      <c r="B278" s="9"/>
+      <c r="B278" s="10"/>
     </row>
     <row r="279" ht="45.75" customHeight="1">
-      <c r="B279" s="9"/>
+      <c r="B279" s="10"/>
     </row>
     <row r="280" ht="45.75" customHeight="1">
-      <c r="B280" s="9"/>
+      <c r="B280" s="10"/>
     </row>
     <row r="281" ht="45.75" customHeight="1">
-      <c r="B281" s="9"/>
+      <c r="B281" s="10"/>
     </row>
     <row r="282" ht="45.75" customHeight="1">
-      <c r="B282" s="9"/>
+      <c r="B282" s="10"/>
     </row>
     <row r="283" ht="45.75" customHeight="1">
-      <c r="B283" s="9"/>
+      <c r="B283" s="10"/>
     </row>
     <row r="284" ht="45.75" customHeight="1">
-      <c r="B284" s="9"/>
+      <c r="B284" s="10"/>
     </row>
     <row r="285" ht="45.75" customHeight="1">
-      <c r="B285" s="9"/>
+      <c r="B285" s="10"/>
     </row>
     <row r="286" ht="45.75" customHeight="1">
-      <c r="B286" s="9"/>
+      <c r="B286" s="10"/>
     </row>
     <row r="287" ht="45.75" customHeight="1">
-      <c r="B287" s="9"/>
+      <c r="B287" s="10"/>
     </row>
     <row r="288" ht="45.75" customHeight="1">
-      <c r="B288" s="9"/>
+      <c r="B288" s="10"/>
     </row>
     <row r="289" ht="45.75" customHeight="1">
-      <c r="B289" s="9"/>
+      <c r="B289" s="10"/>
     </row>
     <row r="290" ht="45.75" customHeight="1">
-      <c r="B290" s="9"/>
+      <c r="B290" s="10"/>
     </row>
     <row r="291" ht="45.75" customHeight="1">
-      <c r="B291" s="9"/>
+      <c r="B291" s="10"/>
     </row>
     <row r="292" ht="45.75" customHeight="1">
-      <c r="B292" s="9"/>
+      <c r="B292" s="10"/>
     </row>
     <row r="293" ht="45.75" customHeight="1">
-      <c r="B293" s="9"/>
+      <c r="B293" s="10"/>
     </row>
     <row r="294" ht="45.75" customHeight="1">
-      <c r="B294" s="9"/>
+      <c r="B294" s="10"/>
     </row>
     <row r="295" ht="45.75" customHeight="1">
-      <c r="B295" s="9"/>
+      <c r="B295" s="10"/>
     </row>
     <row r="296" ht="45.75" customHeight="1">
-      <c r="B296" s="9"/>
+      <c r="B296" s="10"/>
     </row>
     <row r="297" ht="45.75" customHeight="1">
-      <c r="B297" s="9"/>
+      <c r="B297" s="10"/>
     </row>
     <row r="298" ht="45.75" customHeight="1">
-      <c r="B298" s="9"/>
+      <c r="B298" s="10"/>
     </row>
     <row r="299" ht="45.75" customHeight="1">
-      <c r="B299" s="9"/>
+      <c r="B299" s="10"/>
     </row>
     <row r="300" ht="45.75" customHeight="1">
-      <c r="B300" s="9"/>
+      <c r="B300" s="10"/>
     </row>
     <row r="301" ht="45.75" customHeight="1">
-      <c r="B301" s="9"/>
+      <c r="B301" s="10"/>
     </row>
     <row r="302" ht="45.75" customHeight="1">
-      <c r="B302" s="9"/>
+      <c r="B302" s="10"/>
     </row>
     <row r="303" ht="45.75" customHeight="1">
-      <c r="B303" s="9"/>
+      <c r="B303" s="10"/>
     </row>
     <row r="304" ht="45.75" customHeight="1">
-      <c r="B304" s="9"/>
+      <c r="B304" s="10"/>
     </row>
     <row r="305" ht="45.75" customHeight="1">
-      <c r="B305" s="9"/>
+      <c r="B305" s="10"/>
     </row>
     <row r="306" ht="45.75" customHeight="1">
-      <c r="B306" s="9"/>
+      <c r="B306" s="10"/>
     </row>
     <row r="307" ht="45.75" customHeight="1">
-      <c r="B307" s="9"/>
+      <c r="B307" s="10"/>
     </row>
     <row r="308" ht="45.75" customHeight="1">
-      <c r="B308" s="9"/>
+      <c r="B308" s="10"/>
     </row>
     <row r="309" ht="45.75" customHeight="1">
-      <c r="B309" s="9"/>
+      <c r="B309" s="10"/>
     </row>
     <row r="310" ht="45.75" customHeight="1">
-      <c r="B310" s="9"/>
+      <c r="B310" s="10"/>
     </row>
     <row r="311" ht="45.75" customHeight="1">
-      <c r="B311" s="9"/>
+      <c r="B311" s="10"/>
     </row>
     <row r="312" ht="45.75" customHeight="1">
-      <c r="B312" s="9"/>
+      <c r="B312" s="10"/>
     </row>
     <row r="313" ht="45.75" customHeight="1">
-      <c r="B313" s="9"/>
+      <c r="B313" s="10"/>
     </row>
     <row r="314" ht="45.75" customHeight="1">
-      <c r="B314" s="9"/>
+      <c r="B314" s="10"/>
     </row>
     <row r="315" ht="45.75" customHeight="1">
-      <c r="B315" s="9"/>
+      <c r="B315" s="10"/>
     </row>
     <row r="316" ht="45.75" customHeight="1">
-      <c r="B316" s="9"/>
+      <c r="B316" s="10"/>
     </row>
     <row r="317" ht="45.75" customHeight="1">
-      <c r="B317" s="9"/>
+      <c r="B317" s="10"/>
     </row>
     <row r="318" ht="45.75" customHeight="1">
-      <c r="B318" s="9"/>
+      <c r="B318" s="10"/>
     </row>
     <row r="319" ht="45.75" customHeight="1">
-      <c r="B319" s="9"/>
+      <c r="B319" s="10"/>
     </row>
     <row r="320" ht="45.75" customHeight="1">
-      <c r="B320" s="9"/>
+      <c r="B320" s="10"/>
     </row>
     <row r="321" ht="45.75" customHeight="1">
-      <c r="B321" s="9"/>
+      <c r="B321" s="10"/>
     </row>
     <row r="322" ht="45.75" customHeight="1">
-      <c r="B322" s="9"/>
+      <c r="B322" s="10"/>
     </row>
     <row r="323" ht="45.75" customHeight="1">
-      <c r="B323" s="9"/>
+      <c r="B323" s="10"/>
     </row>
     <row r="324" ht="45.75" customHeight="1">
-      <c r="B324" s="9"/>
+      <c r="B324" s="10"/>
     </row>
     <row r="325" ht="45.75" customHeight="1">
-      <c r="B325" s="9"/>
+      <c r="B325" s="10"/>
     </row>
     <row r="326" ht="45.75" customHeight="1">
-      <c r="B326" s="9"/>
+      <c r="B326" s="10"/>
     </row>
     <row r="327" ht="45.75" customHeight="1">
-      <c r="B327" s="9"/>
+      <c r="B327" s="10"/>
     </row>
     <row r="328" ht="45.75" customHeight="1">
-      <c r="B328" s="9"/>
+      <c r="B328" s="10"/>
     </row>
     <row r="329" ht="45.75" customHeight="1">
-      <c r="B329" s="9"/>
+      <c r="B329" s="10"/>
     </row>
     <row r="330" ht="45.75" customHeight="1">
-      <c r="B330" s="9"/>
+      <c r="B330" s="10"/>
     </row>
     <row r="331" ht="45.75" customHeight="1">
-      <c r="B331" s="9"/>
+      <c r="B331" s="10"/>
     </row>
     <row r="332" ht="45.75" customHeight="1">
-      <c r="B332" s="9"/>
+      <c r="B332" s="10"/>
     </row>
     <row r="333" ht="45.75" customHeight="1">
-      <c r="B333" s="9"/>
+      <c r="B333" s="10"/>
     </row>
     <row r="334" ht="45.75" customHeight="1">
-      <c r="B334" s="9"/>
+      <c r="B334" s="10"/>
     </row>
     <row r="335" ht="45.75" customHeight="1">
-      <c r="B335" s="9"/>
+      <c r="B335" s="10"/>
     </row>
     <row r="336" ht="45.75" customHeight="1">
-      <c r="B336" s="9"/>
+      <c r="B336" s="10"/>
     </row>
     <row r="337" ht="45.75" customHeight="1">
-      <c r="B337" s="9"/>
+      <c r="B337" s="10"/>
     </row>
     <row r="338" ht="45.75" customHeight="1">
-      <c r="B338" s="9"/>
+      <c r="B338" s="10"/>
     </row>
     <row r="339" ht="45.75" customHeight="1">
-      <c r="B339" s="9"/>
+      <c r="B339" s="10"/>
     </row>
     <row r="340" ht="45.75" customHeight="1">
-      <c r="B340" s="9"/>
+      <c r="B340" s="10"/>
     </row>
     <row r="341" ht="45.75" customHeight="1">
-      <c r="B341" s="9"/>
+      <c r="B341" s="10"/>
     </row>
     <row r="342" ht="45.75" customHeight="1">
-      <c r="B342" s="9"/>
+      <c r="B342" s="10"/>
     </row>
     <row r="343" ht="45.75" customHeight="1">
-      <c r="B343" s="9"/>
+      <c r="B343" s="10"/>
     </row>
     <row r="344" ht="45.75" customHeight="1">
-      <c r="B344" s="9"/>
+      <c r="B344" s="10"/>
     </row>
     <row r="345" ht="45.75" customHeight="1">
-      <c r="B345" s="9"/>
+      <c r="B345" s="10"/>
     </row>
     <row r="346" ht="45.75" customHeight="1">
-      <c r="B346" s="9"/>
+      <c r="B346" s="10"/>
     </row>
     <row r="347" ht="45.75" customHeight="1">
-      <c r="B347" s="9"/>
+      <c r="B347" s="10"/>
     </row>
     <row r="348" ht="45.75" customHeight="1">
-      <c r="B348" s="9"/>
+      <c r="B348" s="10"/>
     </row>
     <row r="349" ht="45.75" customHeight="1">
-      <c r="B349" s="9"/>
+      <c r="B349" s="10"/>
     </row>
     <row r="350" ht="45.75" customHeight="1">
-      <c r="B350" s="9"/>
+      <c r="B350" s="10"/>
     </row>
     <row r="351" ht="45.75" customHeight="1">
-      <c r="B351" s="9"/>
+      <c r="B351" s="10"/>
     </row>
     <row r="352" ht="45.75" customHeight="1">
-      <c r="B352" s="9"/>
+      <c r="B352" s="10"/>
     </row>
     <row r="353" ht="45.75" customHeight="1">
-      <c r="B353" s="9"/>
+      <c r="B353" s="10"/>
     </row>
     <row r="354" ht="45.75" customHeight="1">
-      <c r="B354" s="9"/>
+      <c r="B354" s="10"/>
     </row>
     <row r="355" ht="45.75" customHeight="1">
-      <c r="B355" s="9"/>
+      <c r="B355" s="10"/>
     </row>
     <row r="356" ht="45.75" customHeight="1">
-      <c r="B356" s="9"/>
+      <c r="B356" s="10"/>
     </row>
     <row r="357" ht="45.75" customHeight="1">
-      <c r="B357" s="9"/>
+      <c r="B357" s="10"/>
     </row>
     <row r="358" ht="45.75" customHeight="1">
-      <c r="B358" s="9"/>
+      <c r="B358" s="10"/>
     </row>
     <row r="359" ht="45.75" customHeight="1">
-      <c r="B359" s="9"/>
+      <c r="B359" s="10"/>
     </row>
     <row r="360" ht="45.75" customHeight="1">
-      <c r="B360" s="9"/>
+      <c r="B360" s="10"/>
     </row>
     <row r="361" ht="45.75" customHeight="1">
-      <c r="B361" s="9"/>
+      <c r="B361" s="10"/>
     </row>
     <row r="362" ht="45.75" customHeight="1">
-      <c r="B362" s="9"/>
+      <c r="B362" s="10"/>
     </row>
     <row r="363" ht="45.75" customHeight="1">
-      <c r="B363" s="9"/>
+      <c r="B363" s="10"/>
     </row>
     <row r="364" ht="45.75" customHeight="1">
-      <c r="B364" s="9"/>
+      <c r="B364" s="10"/>
     </row>
     <row r="365" ht="45.75" customHeight="1">
-      <c r="B365" s="9"/>
+      <c r="B365" s="10"/>
     </row>
     <row r="366" ht="45.75" customHeight="1">
-      <c r="B366" s="9"/>
+      <c r="B366" s="10"/>
     </row>
     <row r="367" ht="45.75" customHeight="1">
-      <c r="B367" s="9"/>
+      <c r="B367" s="10"/>
     </row>
     <row r="368" ht="45.75" customHeight="1">
-      <c r="B368" s="9"/>
+      <c r="B368" s="10"/>
     </row>
     <row r="369" ht="45.75" customHeight="1">
-      <c r="B369" s="9"/>
+      <c r="B369" s="10"/>
     </row>
     <row r="370" ht="45.75" customHeight="1">
-      <c r="B370" s="9"/>
+      <c r="B370" s="10"/>
     </row>
     <row r="371" ht="45.75" customHeight="1">
-      <c r="B371" s="9"/>
+      <c r="B371" s="10"/>
     </row>
     <row r="372" ht="45.75" customHeight="1">
-      <c r="B372" s="9"/>
+      <c r="B372" s="10"/>
     </row>
     <row r="373" ht="45.75" customHeight="1">
-      <c r="B373" s="9"/>
+      <c r="B373" s="10"/>
     </row>
     <row r="374" ht="45.75" customHeight="1">
-      <c r="B374" s="9"/>
+      <c r="B374" s="10"/>
     </row>
     <row r="375" ht="45.75" customHeight="1">
-      <c r="B375" s="9"/>
+      <c r="B375" s="10"/>
     </row>
     <row r="376" ht="45.75" customHeight="1">
-      <c r="B376" s="9"/>
+      <c r="B376" s="10"/>
     </row>
     <row r="377" ht="45.75" customHeight="1">
-      <c r="B377" s="9"/>
+      <c r="B377" s="10"/>
     </row>
     <row r="378" ht="45.75" customHeight="1">
-      <c r="B378" s="9"/>
+      <c r="B378" s="10"/>
     </row>
     <row r="379" ht="45.75" customHeight="1">
-      <c r="B379" s="9"/>
+      <c r="B379" s="10"/>
     </row>
     <row r="380" ht="45.75" customHeight="1">
-      <c r="B380" s="9"/>
+      <c r="B380" s="10"/>
     </row>
     <row r="381" ht="45.75" customHeight="1">
-      <c r="B381" s="9"/>
+      <c r="B381" s="10"/>
     </row>
     <row r="382" ht="45.75" customHeight="1">
-      <c r="B382" s="9"/>
+      <c r="B382" s="10"/>
     </row>
     <row r="383" ht="45.75" customHeight="1">
-      <c r="B383" s="9"/>
+      <c r="B383" s="10"/>
     </row>
     <row r="384" ht="45.75" customHeight="1">
-      <c r="B384" s="9"/>
+      <c r="B384" s="10"/>
     </row>
     <row r="385" ht="45.75" customHeight="1">
-      <c r="B385" s="9"/>
+      <c r="B385" s="10"/>
     </row>
     <row r="386" ht="45.75" customHeight="1">
-      <c r="B386" s="9"/>
+      <c r="B386" s="10"/>
     </row>
     <row r="387" ht="45.75" customHeight="1">
-      <c r="B387" s="9"/>
+      <c r="B387" s="10"/>
     </row>
     <row r="388" ht="45.75" customHeight="1">
-      <c r="B388" s="9"/>
+      <c r="B388" s="10"/>
     </row>
     <row r="389" ht="45.75" customHeight="1">
-      <c r="B389" s="9"/>
+      <c r="B389" s="10"/>
     </row>
     <row r="390" ht="45.75" customHeight="1">
-      <c r="B390" s="9"/>
+      <c r="B390" s="10"/>
     </row>
     <row r="391" ht="45.75" customHeight="1">
-      <c r="B391" s="9"/>
+      <c r="B391" s="10"/>
     </row>
     <row r="392" ht="45.75" customHeight="1">
-      <c r="B392" s="9"/>
+      <c r="B392" s="10"/>
     </row>
     <row r="393" ht="45.75" customHeight="1">
-      <c r="B393" s="9"/>
+      <c r="B393" s="10"/>
     </row>
     <row r="394" ht="45.75" customHeight="1">
-      <c r="B394" s="9"/>
+      <c r="B394" s="10"/>
     </row>
     <row r="395" ht="45.75" customHeight="1">
-      <c r="B395" s="9"/>
+      <c r="B395" s="10"/>
     </row>
     <row r="396" ht="45.75" customHeight="1">
-      <c r="B396" s="9"/>
+      <c r="B396" s="10"/>
     </row>
     <row r="397" ht="45.75" customHeight="1">
-      <c r="B397" s="9"/>
+      <c r="B397" s="10"/>
     </row>
     <row r="398" ht="45.75" customHeight="1">
-      <c r="B398" s="9"/>
+      <c r="B398" s="10"/>
     </row>
     <row r="399" ht="45.75" customHeight="1">
-      <c r="B399" s="9"/>
+      <c r="B399" s="10"/>
     </row>
     <row r="400" ht="45.75" customHeight="1">
-      <c r="B400" s="9"/>
+      <c r="B400" s="10"/>
     </row>
     <row r="401" ht="45.75" customHeight="1">
-      <c r="B401" s="9"/>
+      <c r="B401" s="10"/>
     </row>
     <row r="402" ht="45.75" customHeight="1">
-      <c r="B402" s="9"/>
+      <c r="B402" s="10"/>
     </row>
     <row r="403" ht="45.75" customHeight="1">
-      <c r="B403" s="9"/>
+      <c r="B403" s="10"/>
     </row>
     <row r="404" ht="45.75" customHeight="1">
-      <c r="B404" s="9"/>
+      <c r="B404" s="10"/>
     </row>
     <row r="405" ht="45.75" customHeight="1">
-      <c r="B405" s="9"/>
+      <c r="B405" s="10"/>
     </row>
     <row r="406" ht="45.75" customHeight="1">
-      <c r="B406" s="9"/>
+      <c r="B406" s="10"/>
     </row>
     <row r="407" ht="45.75" customHeight="1">
-      <c r="B407" s="9"/>
+      <c r="B407" s="10"/>
     </row>
     <row r="408" ht="45.75" customHeight="1">
-      <c r="B408" s="9"/>
+      <c r="B408" s="10"/>
     </row>
     <row r="409" ht="45.75" customHeight="1">
-      <c r="B409" s="9"/>
+      <c r="B409" s="10"/>
     </row>
     <row r="410" ht="45.75" customHeight="1">
-      <c r="B410" s="9"/>
+      <c r="B410" s="10"/>
     </row>
     <row r="411" ht="45.75" customHeight="1">
-      <c r="B411" s="9"/>
+      <c r="B411" s="10"/>
     </row>
     <row r="412" ht="45.75" customHeight="1">
-      <c r="B412" s="9"/>
+      <c r="B412" s="10"/>
     </row>
     <row r="413" ht="45.75" customHeight="1">
-      <c r="B413" s="9"/>
+      <c r="B413" s="10"/>
     </row>
     <row r="414" ht="45.75" customHeight="1">
-      <c r="B414" s="9"/>
+      <c r="B414" s="10"/>
     </row>
     <row r="415" ht="45.75" customHeight="1">
-      <c r="B415" s="9"/>
+      <c r="B415" s="10"/>
     </row>
     <row r="416" ht="45.75" customHeight="1">
-      <c r="B416" s="9"/>
+      <c r="B416" s="10"/>
     </row>
     <row r="417" ht="45.75" customHeight="1">
-      <c r="B417" s="9"/>
+      <c r="B417" s="10"/>
     </row>
     <row r="418" ht="45.75" customHeight="1">
-      <c r="B418" s="9"/>
+      <c r="B418" s="10"/>
     </row>
     <row r="419" ht="45.75" customHeight="1">
-      <c r="B419" s="9"/>
+      <c r="B419" s="10"/>
     </row>
     <row r="420" ht="45.75" customHeight="1">
-      <c r="B420" s="9"/>
+      <c r="B420" s="10"/>
     </row>
     <row r="421" ht="45.75" customHeight="1">
-      <c r="B421" s="9"/>
+      <c r="B421" s="10"/>
     </row>
     <row r="422" ht="45.75" customHeight="1">
-      <c r="B422" s="9"/>
+      <c r="B422" s="10"/>
     </row>
     <row r="423" ht="45.75" customHeight="1">
-      <c r="B423" s="9"/>
+      <c r="B423" s="10"/>
     </row>
     <row r="424" ht="45.75" customHeight="1">
-      <c r="B424" s="9"/>
+      <c r="B424" s="10"/>
     </row>
     <row r="425" ht="45.75" customHeight="1">
-      <c r="B425" s="9"/>
+      <c r="B425" s="10"/>
     </row>
     <row r="426" ht="45.75" customHeight="1">
-      <c r="B426" s="9"/>
+      <c r="B426" s="10"/>
     </row>
     <row r="427" ht="45.75" customHeight="1">
-      <c r="B427" s="9"/>
+      <c r="B427" s="10"/>
     </row>
     <row r="428" ht="45.75" customHeight="1">
-      <c r="B428" s="9"/>
+      <c r="B428" s="10"/>
     </row>
     <row r="429" ht="45.75" customHeight="1">
-      <c r="B429" s="9"/>
+      <c r="B429" s="10"/>
     </row>
     <row r="430" ht="45.75" customHeight="1">
-      <c r="B430" s="9"/>
+      <c r="B430" s="10"/>
     </row>
     <row r="431" ht="45.75" customHeight="1">
-      <c r="B431" s="9"/>
+      <c r="B431" s="10"/>
     </row>
     <row r="432" ht="45.75" customHeight="1">
-      <c r="B432" s="9"/>
+      <c r="B432" s="10"/>
     </row>
     <row r="433" ht="45.75" customHeight="1">
-      <c r="B433" s="9"/>
+      <c r="B433" s="10"/>
     </row>
     <row r="434" ht="45.75" customHeight="1">
-      <c r="B434" s="9"/>
+      <c r="B434" s="10"/>
     </row>
     <row r="435" ht="45.75" customHeight="1">
-      <c r="B435" s="9"/>
+      <c r="B435" s="10"/>
     </row>
     <row r="436" ht="45.75" customHeight="1">
-      <c r="B436" s="9"/>
+      <c r="B436" s="10"/>
     </row>
     <row r="437" ht="45.75" customHeight="1">
-      <c r="B437" s="9"/>
+      <c r="B437" s="10"/>
     </row>
     <row r="438" ht="45.75" customHeight="1">
-      <c r="B438" s="9"/>
+      <c r="B438" s="10"/>
     </row>
     <row r="439" ht="45.75" customHeight="1">
-      <c r="B439" s="9"/>
+      <c r="B439" s="10"/>
     </row>
     <row r="440" ht="45.75" customHeight="1">
-      <c r="B440" s="9"/>
+      <c r="B440" s="10"/>
     </row>
     <row r="441" ht="45.75" customHeight="1">
-      <c r="B441" s="9"/>
+      <c r="B441" s="10"/>
     </row>
     <row r="442" ht="45.75" customHeight="1">
-      <c r="B442" s="9"/>
+      <c r="B442" s="10"/>
     </row>
     <row r="443" ht="45.75" customHeight="1">
-      <c r="B443" s="9"/>
+      <c r="B443" s="10"/>
     </row>
     <row r="444" ht="45.75" customHeight="1">
-      <c r="B444" s="9"/>
+      <c r="B444" s="10"/>
     </row>
     <row r="445" ht="45.75" customHeight="1">
-      <c r="B445" s="9"/>
+      <c r="B445" s="10"/>
     </row>
     <row r="446" ht="45.75" customHeight="1">
-      <c r="B446" s="9"/>
+      <c r="B446" s="10"/>
     </row>
     <row r="447" ht="45.75" customHeight="1">
-      <c r="B447" s="9"/>
+      <c r="B447" s="10"/>
     </row>
     <row r="448" ht="45.75" customHeight="1">
-      <c r="B448" s="9"/>
+      <c r="B448" s="10"/>
     </row>
     <row r="449" ht="45.75" customHeight="1">
-      <c r="B449" s="9"/>
+      <c r="B449" s="10"/>
     </row>
     <row r="450" ht="45.75" customHeight="1">
-      <c r="B450" s="9"/>
+      <c r="B450" s="10"/>
     </row>
     <row r="451" ht="45.75" customHeight="1">
-      <c r="B451" s="9"/>
+      <c r="B451" s="10"/>
     </row>
     <row r="452" ht="45.75" customHeight="1">
-      <c r="B452" s="9"/>
+      <c r="B452" s="10"/>
     </row>
     <row r="453" ht="45.75" customHeight="1">
-      <c r="B453" s="9"/>
+      <c r="B453" s="10"/>
     </row>
     <row r="454" ht="45.75" customHeight="1">
-      <c r="B454" s="9"/>
+      <c r="B454" s="10"/>
     </row>
     <row r="455" ht="45.75" customHeight="1">
-      <c r="B455" s="9"/>
+      <c r="B455" s="10"/>
     </row>
     <row r="456" ht="45.75" customHeight="1">
-      <c r="B456" s="9"/>
+      <c r="B456" s="10"/>
     </row>
     <row r="457" ht="45.75" customHeight="1">
-      <c r="B457" s="9"/>
+      <c r="B457" s="10"/>
     </row>
     <row r="458" ht="45.75" customHeight="1">
-      <c r="B458" s="9"/>
+      <c r="B458" s="10"/>
     </row>
     <row r="459" ht="45.75" customHeight="1">
-      <c r="B459" s="9"/>
+      <c r="B459" s="10"/>
     </row>
     <row r="460" ht="45.75" customHeight="1">
-      <c r="B460" s="9"/>
+      <c r="B460" s="10"/>
     </row>
     <row r="461" ht="45.75" customHeight="1">
-      <c r="B461" s="9"/>
+      <c r="B461" s="10"/>
     </row>
     <row r="462" ht="45.75" customHeight="1">
-      <c r="B462" s="9"/>
+      <c r="B462" s="10"/>
     </row>
     <row r="463" ht="45.75" customHeight="1">
-      <c r="B463" s="9"/>
+      <c r="B463" s="10"/>
     </row>
     <row r="464" ht="45.75" customHeight="1">
-      <c r="B464" s="9"/>
+      <c r="B464" s="10"/>
     </row>
     <row r="465" ht="45.75" customHeight="1">
-      <c r="B465" s="9"/>
+      <c r="B465" s="10"/>
     </row>
     <row r="466" ht="45.75" customHeight="1">
-      <c r="B466" s="9"/>
+      <c r="B466" s="10"/>
     </row>
     <row r="467" ht="45.75" customHeight="1">
-      <c r="B467" s="9"/>
+      <c r="B467" s="10"/>
     </row>
     <row r="468" ht="45.75" customHeight="1">
-      <c r="B468" s="9"/>
+      <c r="B468" s="10"/>
     </row>
     <row r="469" ht="45.75" customHeight="1">
-      <c r="B469" s="9"/>
+      <c r="B469" s="10"/>
     </row>
     <row r="470" ht="45.75" customHeight="1">
-      <c r="B470" s="9"/>
+      <c r="B470" s="10"/>
     </row>
     <row r="471" ht="45.75" customHeight="1">
-      <c r="B471" s="9"/>
+      <c r="B471" s="10"/>
     </row>
     <row r="472" ht="45.75" customHeight="1">
-      <c r="B472" s="9"/>
+      <c r="B472" s="10"/>
     </row>
     <row r="473" ht="45.75" customHeight="1">
-      <c r="B473" s="9"/>
+      <c r="B473" s="10"/>
     </row>
     <row r="474" ht="45.75" customHeight="1">
-      <c r="B474" s="9"/>
+      <c r="B474" s="10"/>
     </row>
     <row r="475" ht="45.75" customHeight="1">
-      <c r="B475" s="9"/>
+      <c r="B475" s="10"/>
     </row>
     <row r="476" ht="45.75" customHeight="1">
-      <c r="B476" s="9"/>
+      <c r="B476" s="10"/>
     </row>
     <row r="477" ht="45.75" customHeight="1">
-      <c r="B477" s="9"/>
+      <c r="B477" s="10"/>
     </row>
     <row r="478" ht="45.75" customHeight="1">
-      <c r="B478" s="9"/>
+      <c r="B478" s="10"/>
     </row>
     <row r="479" ht="45.75" customHeight="1">
-      <c r="B479" s="9"/>
+      <c r="B479" s="10"/>
     </row>
     <row r="480" ht="45.75" customHeight="1">
-      <c r="B480" s="9"/>
+      <c r="B480" s="10"/>
     </row>
     <row r="481" ht="45.75" customHeight="1">
-      <c r="B481" s="9"/>
+      <c r="B481" s="10"/>
     </row>
     <row r="482" ht="45.75" customHeight="1">
-      <c r="B482" s="9"/>
+      <c r="B482" s="10"/>
     </row>
     <row r="483" ht="45.75" customHeight="1">
-      <c r="B483" s="9"/>
+      <c r="B483" s="10"/>
     </row>
     <row r="484" ht="45.75" customHeight="1">
-      <c r="B484" s="9"/>
+      <c r="B484" s="10"/>
     </row>
     <row r="485" ht="45.75" customHeight="1">
-      <c r="B485" s="9"/>
+      <c r="B485" s="10"/>
     </row>
     <row r="486" ht="45.75" customHeight="1">
-      <c r="B486" s="9"/>
+      <c r="B486" s="10"/>
     </row>
     <row r="487" ht="45.75" customHeight="1">
-      <c r="B487" s="9"/>
+      <c r="B487" s="10"/>
     </row>
     <row r="488" ht="45.75" customHeight="1">
-      <c r="B488" s="9"/>
+      <c r="B488" s="10"/>
     </row>
     <row r="489" ht="45.75" customHeight="1">
-      <c r="B489" s="9"/>
+      <c r="B489" s="10"/>
     </row>
     <row r="490" ht="45.75" customHeight="1">
-      <c r="B490" s="9"/>
+      <c r="B490" s="10"/>
     </row>
     <row r="491" ht="45.75" customHeight="1">
-      <c r="B491" s="9"/>
+      <c r="B491" s="10"/>
     </row>
     <row r="492" ht="45.75" customHeight="1">
-      <c r="B492" s="9"/>
+      <c r="B492" s="10"/>
     </row>
     <row r="493" ht="45.75" customHeight="1">
-      <c r="B493" s="9"/>
+      <c r="B493" s="10"/>
     </row>
     <row r="494" ht="45.75" customHeight="1">
-      <c r="B494" s="9"/>
+      <c r="B494" s="10"/>
     </row>
     <row r="495" ht="45.75" customHeight="1">
-      <c r="B495" s="9"/>
+      <c r="B495" s="10"/>
     </row>
     <row r="496" ht="45.75" customHeight="1">
-      <c r="B496" s="9"/>
+      <c r="B496" s="10"/>
     </row>
     <row r="497" ht="45.75" customHeight="1">
-      <c r="B497" s="9"/>
+      <c r="B497" s="10"/>
     </row>
     <row r="498" ht="45.75" customHeight="1">
-      <c r="B498" s="9"/>
+      <c r="B498" s="10"/>
     </row>
     <row r="499" ht="45.75" customHeight="1">
-      <c r="B499" s="9"/>
+      <c r="B499" s="10"/>
     </row>
     <row r="500" ht="45.75" customHeight="1">
-      <c r="B500" s="9"/>
+      <c r="B500" s="10"/>
     </row>
     <row r="501" ht="45.75" customHeight="1">
-      <c r="B501" s="9"/>
+      <c r="B501" s="10"/>
     </row>
     <row r="502" ht="45.75" customHeight="1">
-      <c r="B502" s="9"/>
+      <c r="B502" s="10"/>
     </row>
     <row r="503" ht="45.75" customHeight="1">
-      <c r="B503" s="9"/>
+      <c r="B503" s="10"/>
     </row>
     <row r="504" ht="45.75" customHeight="1">
-      <c r="B504" s="9"/>
+      <c r="B504" s="10"/>
     </row>
     <row r="505" ht="45.75" customHeight="1">
-      <c r="B505" s="9"/>
+      <c r="B505" s="10"/>
     </row>
     <row r="506" ht="45.75" customHeight="1">
-      <c r="B506" s="9"/>
+      <c r="B506" s="10"/>
     </row>
     <row r="507" ht="45.75" customHeight="1">
-      <c r="B507" s="9"/>
+      <c r="B507" s="10"/>
     </row>
     <row r="508" ht="45.75" customHeight="1">
-      <c r="B508" s="9"/>
+      <c r="B508" s="10"/>
     </row>
     <row r="509" ht="45.75" customHeight="1">
-      <c r="B509" s="9"/>
+      <c r="B509" s="10"/>
     </row>
     <row r="510" ht="45.75" customHeight="1">
-      <c r="B510" s="9"/>
+      <c r="B510" s="10"/>
     </row>
     <row r="511" ht="45.75" customHeight="1">
-      <c r="B511" s="9"/>
+      <c r="B511" s="10"/>
     </row>
     <row r="512" ht="45.75" customHeight="1">
-      <c r="B512" s="9"/>
+      <c r="B512" s="10"/>
     </row>
     <row r="513" ht="45.75" customHeight="1">
-      <c r="B513" s="9"/>
+      <c r="B513" s="10"/>
     </row>
     <row r="514" ht="45.75" customHeight="1">
-      <c r="B514" s="9"/>
+      <c r="B514" s="10"/>
     </row>
     <row r="515" ht="45.75" customHeight="1">
-      <c r="B515" s="9"/>
+      <c r="B515" s="10"/>
     </row>
     <row r="516" ht="45.75" customHeight="1">
-      <c r="B516" s="9"/>
+      <c r="B516" s="10"/>
     </row>
     <row r="517" ht="45.75" customHeight="1">
-      <c r="B517" s="9"/>
+      <c r="B517" s="10"/>
     </row>
     <row r="518" ht="45.75" customHeight="1">
-      <c r="B518" s="9"/>
+      <c r="B518" s="10"/>
     </row>
     <row r="519" ht="45.75" customHeight="1">
-      <c r="B519" s="9"/>
+      <c r="B519" s="10"/>
     </row>
     <row r="520" ht="45.75" customHeight="1">
-      <c r="B520" s="9"/>
+      <c r="B520" s="10"/>
     </row>
     <row r="521" ht="45.75" customHeight="1">
-      <c r="B521" s="9"/>
+      <c r="B521" s="10"/>
     </row>
     <row r="522" ht="45.75" customHeight="1">
-      <c r="B522" s="9"/>
+      <c r="B522" s="10"/>
     </row>
     <row r="523" ht="45.75" customHeight="1">
-      <c r="B523" s="9"/>
+      <c r="B523" s="10"/>
     </row>
     <row r="524" ht="45.75" customHeight="1">
-      <c r="B524" s="9"/>
+      <c r="B524" s="10"/>
     </row>
     <row r="525" ht="45.75" customHeight="1">
-      <c r="B525" s="9"/>
+      <c r="B525" s="10"/>
     </row>
     <row r="526" ht="45.75" customHeight="1">
-      <c r="B526" s="9"/>
+      <c r="B526" s="10"/>
     </row>
     <row r="527" ht="45.75" customHeight="1">
-      <c r="B527" s="9"/>
+      <c r="B527" s="10"/>
     </row>
     <row r="528" ht="45.75" customHeight="1">
-      <c r="B528" s="9"/>
+      <c r="B528" s="10"/>
     </row>
     <row r="529" ht="45.75" customHeight="1">
-      <c r="B529" s="9"/>
+      <c r="B529" s="10"/>
     </row>
     <row r="530" ht="45.75" customHeight="1">
-      <c r="B530" s="9"/>
+      <c r="B530" s="10"/>
     </row>
     <row r="531" ht="45.75" customHeight="1">
-      <c r="B531" s="9"/>
+      <c r="B531" s="10"/>
     </row>
     <row r="532" ht="45.75" customHeight="1">
-      <c r="B532" s="9"/>
+      <c r="B532" s="10"/>
     </row>
     <row r="533" ht="45.75" customHeight="1">
-      <c r="B533" s="9"/>
+      <c r="B533" s="10"/>
     </row>
     <row r="534" ht="45.75" customHeight="1">
-      <c r="B534" s="9"/>
+      <c r="B534" s="10"/>
     </row>
     <row r="535" ht="45.75" customHeight="1">
-      <c r="B535" s="9"/>
+      <c r="B535" s="10"/>
     </row>
     <row r="536" ht="45.75" customHeight="1">
-      <c r="B536" s="9"/>
+      <c r="B536" s="10"/>
     </row>
     <row r="537" ht="45.75" customHeight="1">
-      <c r="B537" s="9"/>
+      <c r="B537" s="10"/>
     </row>
     <row r="538" ht="45.75" customHeight="1">
-      <c r="B538" s="9"/>
+      <c r="B538" s="10"/>
     </row>
     <row r="539" ht="45.75" customHeight="1">
-      <c r="B539" s="9"/>
+      <c r="B539" s="10"/>
     </row>
     <row r="540" ht="45.75" customHeight="1">
-      <c r="B540" s="9"/>
+      <c r="B540" s="10"/>
     </row>
     <row r="541" ht="45.75" customHeight="1">
-      <c r="B541" s="9"/>
+      <c r="B541" s="10"/>
     </row>
     <row r="542" ht="45.75" customHeight="1">
-      <c r="B542" s="9"/>
+      <c r="B542" s="10"/>
     </row>
     <row r="543" ht="45.75" customHeight="1">
-      <c r="B543" s="9"/>
+      <c r="B543" s="10"/>
     </row>
     <row r="544" ht="45.75" customHeight="1">
-      <c r="B544" s="9"/>
+      <c r="B544" s="10"/>
     </row>
     <row r="545" ht="45.75" customHeight="1">
-      <c r="B545" s="9"/>
+      <c r="B545" s="10"/>
     </row>
     <row r="546" ht="45.75" customHeight="1">
-      <c r="B546" s="9"/>
+      <c r="B546" s="10"/>
     </row>
     <row r="547" ht="45.75" customHeight="1">
-      <c r="B547" s="9"/>
+      <c r="B547" s="10"/>
     </row>
     <row r="548" ht="45.75" customHeight="1">
-      <c r="B548" s="9"/>
+      <c r="B548" s="10"/>
     </row>
     <row r="549" ht="45.75" customHeight="1">
-      <c r="B549" s="9"/>
+      <c r="B549" s="10"/>
     </row>
     <row r="550" ht="45.75" customHeight="1">
-      <c r="B550" s="9"/>
+      <c r="B550" s="10"/>
     </row>
     <row r="551" ht="45.75" customHeight="1">
-      <c r="B551" s="9"/>
+      <c r="B551" s="10"/>
     </row>
     <row r="552" ht="45.75" customHeight="1">
-      <c r="B552" s="9"/>
+      <c r="B552" s="10"/>
     </row>
     <row r="553" ht="45.75" customHeight="1">
-      <c r="B553" s="9"/>
+      <c r="B553" s="10"/>
     </row>
     <row r="554" ht="45.75" customHeight="1">
-      <c r="B554" s="9"/>
+      <c r="B554" s="10"/>
     </row>
     <row r="555" ht="45.75" customHeight="1">
-      <c r="B555" s="9"/>
+      <c r="B555" s="10"/>
     </row>
     <row r="556" ht="45.75" customHeight="1">
-      <c r="B556" s="9"/>
+      <c r="B556" s="10"/>
     </row>
     <row r="557" ht="45.75" customHeight="1">
-      <c r="B557" s="9"/>
+      <c r="B557" s="10"/>
     </row>
     <row r="558" ht="45.75" customHeight="1">
-      <c r="B558" s="9"/>
+      <c r="B558" s="10"/>
     </row>
     <row r="559" ht="45.75" customHeight="1">
-      <c r="B559" s="9"/>
+      <c r="B559" s="10"/>
     </row>
     <row r="560" ht="45.75" customHeight="1">
-      <c r="B560" s="9"/>
+      <c r="B560" s="10"/>
     </row>
     <row r="561" ht="45.75" customHeight="1">
-      <c r="B561" s="9"/>
+      <c r="B561" s="10"/>
     </row>
     <row r="562" ht="45.75" customHeight="1">
-      <c r="B562" s="9"/>
+      <c r="B562" s="10"/>
     </row>
     <row r="563" ht="45.75" customHeight="1">
-      <c r="B563" s="9"/>
+      <c r="B563" s="10"/>
     </row>
     <row r="564" ht="45.75" customHeight="1">
-      <c r="B564" s="9"/>
+      <c r="B564" s="10"/>
     </row>
     <row r="565" ht="45.75" customHeight="1">
-      <c r="B565" s="9"/>
+      <c r="B565" s="10"/>
     </row>
     <row r="566" ht="45.75" customHeight="1">
-      <c r="B566" s="9"/>
+      <c r="B566" s="10"/>
     </row>
     <row r="567" ht="45.75" customHeight="1">
-      <c r="B567" s="9"/>
+      <c r="B567" s="10"/>
     </row>
     <row r="568" ht="45.75" customHeight="1">
-      <c r="B568" s="9"/>
+      <c r="B568" s="10"/>
     </row>
     <row r="569" ht="45.75" customHeight="1">
-      <c r="B569" s="9"/>
+      <c r="B569" s="10"/>
     </row>
     <row r="570" ht="45.75" customHeight="1">
-      <c r="B570" s="9"/>
+      <c r="B570" s="10"/>
     </row>
     <row r="571" ht="45.75" customHeight="1">
-      <c r="B571" s="9"/>
+      <c r="B571" s="10"/>
     </row>
     <row r="572" ht="45.75" customHeight="1">
-      <c r="B572" s="9"/>
+      <c r="B572" s="10"/>
     </row>
     <row r="573" ht="45.75" customHeight="1">
-      <c r="B573" s="9"/>
+      <c r="B573" s="10"/>
     </row>
     <row r="574" ht="45.75" customHeight="1">
-      <c r="B574" s="9"/>
+      <c r="B574" s="10"/>
     </row>
     <row r="575" ht="45.75" customHeight="1">
-      <c r="B575" s="9"/>
+      <c r="B575" s="10"/>
     </row>
     <row r="576" ht="45.75" customHeight="1">
-      <c r="B576" s="9"/>
+      <c r="B576" s="10"/>
     </row>
     <row r="577" ht="45.75" customHeight="1">
-      <c r="B577" s="9"/>
+      <c r="B577" s="10"/>
     </row>
     <row r="578" ht="45.75" customHeight="1">
-      <c r="B578" s="9"/>
+      <c r="B578" s="10"/>
     </row>
     <row r="579" ht="45.75" customHeight="1">
-      <c r="B579" s="9"/>
+      <c r="B579" s="10"/>
     </row>
     <row r="580" ht="45.75" customHeight="1">
-      <c r="B580" s="9"/>
+      <c r="B580" s="10"/>
     </row>
     <row r="581" ht="45.75" customHeight="1">
-      <c r="B581" s="9"/>
+      <c r="B581" s="10"/>
     </row>
     <row r="582" ht="45.75" customHeight="1">
-      <c r="B582" s="9"/>
+      <c r="B582" s="10"/>
     </row>
     <row r="583" ht="45.75" customHeight="1">
-      <c r="B583" s="9"/>
+      <c r="B583" s="10"/>
     </row>
     <row r="584" ht="45.75" customHeight="1">
-      <c r="B584" s="9"/>
+      <c r="B584" s="10"/>
     </row>
     <row r="585" ht="45.75" customHeight="1">
-      <c r="B585" s="9"/>
+      <c r="B585" s="10"/>
     </row>
     <row r="586" ht="45.75" customHeight="1">
-      <c r="B586" s="9"/>
+      <c r="B586" s="10"/>
     </row>
     <row r="587" ht="45.75" customHeight="1">
-      <c r="B587" s="9"/>
+      <c r="B587" s="10"/>
     </row>
     <row r="588" ht="45.75" customHeight="1">
-      <c r="B588" s="9"/>
+      <c r="B588" s="10"/>
     </row>
     <row r="589" ht="45.75" customHeight="1">
-      <c r="B589" s="9"/>
+      <c r="B589" s="10"/>
     </row>
     <row r="590" ht="45.75" customHeight="1">
-      <c r="B590" s="9"/>
+      <c r="B590" s="10"/>
     </row>
     <row r="591" ht="45.75" customHeight="1">
-      <c r="B591" s="9"/>
+      <c r="B591" s="10"/>
     </row>
     <row r="592" ht="45.75" customHeight="1">
-      <c r="B592" s="9"/>
+      <c r="B592" s="10"/>
     </row>
     <row r="593" ht="45.75" customHeight="1">
-      <c r="B593" s="9"/>
+      <c r="B593" s="10"/>
     </row>
     <row r="594" ht="45.75" customHeight="1">
-      <c r="B594" s="9"/>
+      <c r="B594" s="10"/>
     </row>
     <row r="595" ht="45.75" customHeight="1">
-      <c r="B595" s="9"/>
+      <c r="B595" s="10"/>
     </row>
     <row r="596" ht="45.75" customHeight="1">
-      <c r="B596" s="9"/>
+      <c r="B596" s="10"/>
     </row>
     <row r="597" ht="45.75" customHeight="1">
-      <c r="B597" s="9"/>
+      <c r="B597" s="10"/>
     </row>
     <row r="598" ht="45.75" customHeight="1">
-      <c r="B598" s="9"/>
+      <c r="B598" s="10"/>
     </row>
     <row r="599" ht="45.75" customHeight="1">
-      <c r="B599" s="9"/>
+      <c r="B599" s="10"/>
     </row>
     <row r="600" ht="45.75" customHeight="1">
-      <c r="B600" s="9"/>
+      <c r="B600" s="10"/>
     </row>
     <row r="601" ht="45.75" customHeight="1">
-      <c r="B601" s="9"/>
+      <c r="B601" s="10"/>
     </row>
     <row r="602" ht="45.75" customHeight="1">
-      <c r="B602" s="9"/>
+      <c r="B602" s="10"/>
     </row>
     <row r="603" ht="45.75" customHeight="1">
-      <c r="B603" s="9"/>
+      <c r="B603" s="10"/>
     </row>
     <row r="604" ht="45.75" customHeight="1">
-      <c r="B604" s="9"/>
+      <c r="B604" s="10"/>
     </row>
     <row r="605" ht="45.75" customHeight="1">
-      <c r="B605" s="9"/>
+      <c r="B605" s="10"/>
     </row>
     <row r="606" ht="45.75" customHeight="1">
-      <c r="B606" s="9"/>
+      <c r="B606" s="10"/>
     </row>
     <row r="607" ht="45.75" customHeight="1">
-      <c r="B607" s="9"/>
+      <c r="B607" s="10"/>
     </row>
     <row r="608" ht="45.75" customHeight="1">
-      <c r="B608" s="9"/>
+      <c r="B608" s="10"/>
     </row>
     <row r="609" ht="45.75" customHeight="1">
-      <c r="B609" s="9"/>
+      <c r="B609" s="10"/>
     </row>
     <row r="610" ht="45.75" customHeight="1">
-      <c r="B610" s="9"/>
+      <c r="B610" s="10"/>
     </row>
     <row r="611" ht="45.75" customHeight="1">
-      <c r="B611" s="9"/>
+      <c r="B611" s="10"/>
     </row>
     <row r="612" ht="45.75" customHeight="1">
-      <c r="B612" s="9"/>
+      <c r="B612" s="10"/>
     </row>
     <row r="613" ht="45.75" customHeight="1">
-      <c r="B613" s="9"/>
+      <c r="B613" s="10"/>
     </row>
     <row r="614" ht="45.75" customHeight="1">
-      <c r="B614" s="9"/>
+      <c r="B614" s="10"/>
     </row>
     <row r="615" ht="45.75" customHeight="1">
-      <c r="B615" s="9"/>
+      <c r="B615" s="10"/>
     </row>
     <row r="616" ht="45.75" customHeight="1">
-      <c r="B616" s="9"/>
+      <c r="B616" s="10"/>
     </row>
     <row r="617" ht="45.75" customHeight="1">
-      <c r="B617" s="9"/>
+      <c r="B617" s="10"/>
     </row>
     <row r="618" ht="45.75" customHeight="1">
-      <c r="B618" s="9"/>
+      <c r="B618" s="10"/>
     </row>
     <row r="619" ht="45.75" customHeight="1">
-      <c r="B619" s="9"/>
+      <c r="B619" s="10"/>
     </row>
     <row r="620" ht="45.75" customHeight="1">
-      <c r="B620" s="9"/>
+      <c r="B620" s="10"/>
     </row>
     <row r="621" ht="45.75" customHeight="1">
-      <c r="B621" s="9"/>
+      <c r="B621" s="10"/>
     </row>
     <row r="622" ht="45.75" customHeight="1">
-      <c r="B622" s="9"/>
+      <c r="B622" s="10"/>
     </row>
     <row r="623" ht="45.75" customHeight="1">
-      <c r="B623" s="9"/>
+      <c r="B623" s="10"/>
     </row>
     <row r="624" ht="45.75" customHeight="1">
-      <c r="B624" s="9"/>
+      <c r="B624" s="10"/>
     </row>
     <row r="625" ht="45.75" customHeight="1">
-      <c r="B625" s="9"/>
+      <c r="B625" s="10"/>
     </row>
     <row r="626" ht="45.75" customHeight="1">
-      <c r="B626" s="9"/>
+      <c r="B626" s="10"/>
     </row>
     <row r="627" ht="45.75" customHeight="1">
-      <c r="B627" s="9"/>
+      <c r="B627" s="10"/>
     </row>
     <row r="628" ht="45.75" customHeight="1">
-      <c r="B628" s="9"/>
+      <c r="B628" s="10"/>
     </row>
     <row r="629" ht="45.75" customHeight="1">
-      <c r="B629" s="9"/>
+      <c r="B629" s="10"/>
     </row>
     <row r="630" ht="45.75" customHeight="1">
-      <c r="B630" s="9"/>
+      <c r="B630" s="10"/>
     </row>
     <row r="631" ht="45.75" customHeight="1">
-      <c r="B631" s="9"/>
+      <c r="B631" s="10"/>
     </row>
     <row r="632" ht="45.75" customHeight="1">
-      <c r="B632" s="9"/>
+      <c r="B632" s="10"/>
     </row>
     <row r="633" ht="45.75" customHeight="1">
-      <c r="B633" s="9"/>
+      <c r="B633" s="10"/>
     </row>
     <row r="634" ht="45.75" customHeight="1">
-      <c r="B634" s="9"/>
+      <c r="B634" s="10"/>
     </row>
     <row r="635" ht="45.75" customHeight="1">
-      <c r="B635" s="9"/>
+      <c r="B635" s="10"/>
     </row>
     <row r="636" ht="45.75" customHeight="1">
-      <c r="B636" s="9"/>
+      <c r="B636" s="10"/>
     </row>
     <row r="637" ht="45.75" customHeight="1">
-      <c r="B637" s="9"/>
+      <c r="B637" s="10"/>
     </row>
     <row r="638" ht="45.75" customHeight="1">
-      <c r="B638" s="9"/>
+      <c r="B638" s="10"/>
     </row>
     <row r="639" ht="45.75" customHeight="1">
-      <c r="B639" s="9"/>
+      <c r="B639" s="10"/>
     </row>
     <row r="640" ht="45.75" customHeight="1">
-      <c r="B640" s="9"/>
+      <c r="B640" s="10"/>
     </row>
     <row r="641" ht="45.75" customHeight="1">
-      <c r="B641" s="9"/>
+      <c r="B641" s="10"/>
     </row>
     <row r="642" ht="45.75" customHeight="1">
-      <c r="B642" s="9"/>
+      <c r="B642" s="10"/>
     </row>
     <row r="643" ht="45.75" customHeight="1">
-      <c r="B643" s="9"/>
+      <c r="B643" s="10"/>
     </row>
     <row r="644" ht="45.75" customHeight="1">
-      <c r="B644" s="9"/>
+      <c r="B644" s="10"/>
     </row>
     <row r="645" ht="45.75" customHeight="1">
-      <c r="B645" s="9"/>
+      <c r="B645" s="10"/>
     </row>
     <row r="646" ht="45.75" customHeight="1">
-      <c r="B646" s="9"/>
+      <c r="B646" s="10"/>
     </row>
     <row r="647" ht="45.75" customHeight="1">
-      <c r="B647" s="9"/>
+      <c r="B647" s="10"/>
     </row>
     <row r="648" ht="45.75" customHeight="1">
-      <c r="B648" s="9"/>
+      <c r="B648" s="10"/>
     </row>
     <row r="649" ht="45.75" customHeight="1">
-      <c r="B649" s="9"/>
+      <c r="B649" s="10"/>
     </row>
     <row r="650" ht="45.75" customHeight="1">
-      <c r="B650" s="9"/>
+      <c r="B650" s="10"/>
     </row>
     <row r="651" ht="45.75" customHeight="1">
-      <c r="B651" s="9"/>
+      <c r="B651" s="10"/>
     </row>
     <row r="652" ht="45.75" customHeight="1">
-      <c r="B652" s="9"/>
+      <c r="B652" s="10"/>
     </row>
     <row r="653" ht="45.75" customHeight="1">
-      <c r="B653" s="9"/>
+      <c r="B653" s="10"/>
     </row>
     <row r="654" ht="45.75" customHeight="1">
-      <c r="B654" s="9"/>
+      <c r="B654" s="10"/>
     </row>
     <row r="655" ht="45.75" customHeight="1">
-      <c r="B655" s="9"/>
+      <c r="B655" s="10"/>
     </row>
     <row r="656" ht="45.75" customHeight="1">
-      <c r="B656" s="9"/>
+      <c r="B656" s="10"/>
     </row>
     <row r="657" ht="45.75" customHeight="1">
-      <c r="B657" s="9"/>
+      <c r="B657" s="10"/>
     </row>
     <row r="658" ht="45.75" customHeight="1">
-      <c r="B658" s="9"/>
+      <c r="B658" s="10"/>
     </row>
     <row r="659" ht="45.75" customHeight="1">
-      <c r="B659" s="9"/>
+      <c r="B659" s="10"/>
     </row>
     <row r="660" ht="45.75" customHeight="1">
-      <c r="B660" s="9"/>
+      <c r="B660" s="10"/>
     </row>
     <row r="661" ht="45.75" customHeight="1">
-      <c r="B661" s="9"/>
+      <c r="B661" s="10"/>
     </row>
     <row r="662" ht="45.75" customHeight="1">
-      <c r="B662" s="9"/>
+      <c r="B662" s="10"/>
     </row>
     <row r="663" ht="45.75" customHeight="1">
-      <c r="B663" s="9"/>
+      <c r="B663" s="10"/>
     </row>
     <row r="664" ht="45.75" customHeight="1">
-      <c r="B664" s="9"/>
+      <c r="B664" s="10"/>
     </row>
     <row r="665" ht="45.75" customHeight="1">
-      <c r="B665" s="9"/>
+      <c r="B665" s="10"/>
     </row>
     <row r="666" ht="45.75" customHeight="1">
-      <c r="B666" s="9"/>
+      <c r="B666" s="10"/>
     </row>
     <row r="667" ht="45.75" customHeight="1">
-      <c r="B667" s="9"/>
+      <c r="B667" s="10"/>
     </row>
     <row r="668" ht="45.75" customHeight="1">
-      <c r="B668" s="9"/>
+      <c r="B668" s="10"/>
     </row>
     <row r="669" ht="45.75" customHeight="1">
-      <c r="B669" s="9"/>
+      <c r="B669" s="10"/>
     </row>
     <row r="670" ht="45.75" customHeight="1">
-      <c r="B670" s="9"/>
+      <c r="B670" s="10"/>
     </row>
     <row r="671" ht="45.75" customHeight="1">
-      <c r="B671" s="9"/>
+      <c r="B671" s="10"/>
     </row>
     <row r="672" ht="45.75" customHeight="1">
-      <c r="B672" s="9"/>
+      <c r="B672" s="10"/>
     </row>
     <row r="673" ht="45.75" customHeight="1">
-      <c r="B673" s="9"/>
+      <c r="B673" s="10"/>
     </row>
     <row r="674" ht="45.75" customHeight="1">
-      <c r="B674" s="9"/>
+      <c r="B674" s="10"/>
     </row>
     <row r="675" ht="45.75" customHeight="1">
-      <c r="B675" s="9"/>
+      <c r="B675" s="10"/>
     </row>
     <row r="676" ht="45.75" customHeight="1">
-      <c r="B676" s="9"/>
+      <c r="B676" s="10"/>
     </row>
     <row r="677" ht="45.75" customHeight="1">
-      <c r="B677" s="9"/>
+      <c r="B677" s="10"/>
     </row>
     <row r="678" ht="45.75" customHeight="1">
-      <c r="B678" s="9"/>
+      <c r="B678" s="10"/>
     </row>
     <row r="679" ht="45.75" customHeight="1">
-      <c r="B679" s="9"/>
+      <c r="B679" s="10"/>
     </row>
     <row r="680" ht="45.75" customHeight="1">
-      <c r="B680" s="9"/>
+      <c r="B680" s="10"/>
     </row>
     <row r="681" ht="45.75" customHeight="1">
-      <c r="B681" s="9"/>
+      <c r="B681" s="10"/>
     </row>
     <row r="682" ht="45.75" customHeight="1">
-      <c r="B682" s="9"/>
+      <c r="B682" s="10"/>
     </row>
     <row r="683" ht="45.75" customHeight="1">
-      <c r="B683" s="9"/>
+      <c r="B683" s="10"/>
     </row>
     <row r="684" ht="45.75" customHeight="1">
-      <c r="B684" s="9"/>
+      <c r="B684" s="10"/>
     </row>
     <row r="685" ht="45.75" customHeight="1">
-      <c r="B685" s="9"/>
+      <c r="B685" s="10"/>
     </row>
     <row r="686" ht="45.75" customHeight="1">
-      <c r="B686" s="9"/>
+      <c r="B686" s="10"/>
     </row>
     <row r="687" ht="45.75" customHeight="1">
-      <c r="B687" s="9"/>
+      <c r="B687" s="10"/>
     </row>
     <row r="688" ht="45.75" customHeight="1">
-      <c r="B688" s="9"/>
+      <c r="B688" s="10"/>
     </row>
     <row r="689" ht="45.75" customHeight="1">
-      <c r="B689" s="9"/>
+      <c r="B689" s="10"/>
     </row>
     <row r="690" ht="45.75" customHeight="1">
-      <c r="B690" s="9"/>
+      <c r="B690" s="10"/>
     </row>
     <row r="691" ht="45.75" customHeight="1">
-      <c r="B691" s="9"/>
+      <c r="B691" s="10"/>
     </row>
     <row r="692" ht="45.75" customHeight="1">
-      <c r="B692" s="9"/>
+      <c r="B692" s="10"/>
     </row>
     <row r="693" ht="45.75" customHeight="1">
-      <c r="B693" s="9"/>
+      <c r="B693" s="10"/>
     </row>
     <row r="694" ht="45.75" customHeight="1">
-      <c r="B694" s="9"/>
+      <c r="B694" s="10"/>
     </row>
     <row r="695" ht="45.75" customHeight="1">
-      <c r="B695" s="9"/>
+      <c r="B695" s="10"/>
     </row>
     <row r="696" ht="45.75" customHeight="1">
-      <c r="B696" s="9"/>
+      <c r="B696" s="10"/>
     </row>
     <row r="697" ht="45.75" customHeight="1">
-      <c r="B697" s="9"/>
+      <c r="B697" s="10"/>
     </row>
     <row r="698" ht="45.75" customHeight="1">
-      <c r="B698" s="9"/>
+      <c r="B698" s="10"/>
     </row>
     <row r="699" ht="45.75" customHeight="1">
-      <c r="B699" s="9"/>
+      <c r="B699" s="10"/>
     </row>
     <row r="700" ht="45.75" customHeight="1">
-      <c r="B700" s="9"/>
+      <c r="B700" s="10"/>
     </row>
     <row r="701" ht="45.75" customHeight="1">
-      <c r="B701" s="9"/>
+      <c r="B701" s="10"/>
     </row>
     <row r="702" ht="45.75" customHeight="1">
-      <c r="B702" s="9"/>
+      <c r="B702" s="10"/>
     </row>
     <row r="703" ht="45.75" customHeight="1">
-      <c r="B703" s="9"/>
+      <c r="B703" s="10"/>
     </row>
     <row r="704" ht="45.75" customHeight="1">
-      <c r="B704" s="9"/>
+      <c r="B704" s="10"/>
     </row>
     <row r="705" ht="45.75" customHeight="1">
-      <c r="B705" s="9"/>
+      <c r="B705" s="10"/>
     </row>
     <row r="706" ht="45.75" customHeight="1">
-      <c r="B706" s="9"/>
+      <c r="B706" s="10"/>
     </row>
     <row r="707" ht="45.75" customHeight="1">
-      <c r="B707" s="9"/>
+      <c r="B707" s="10"/>
     </row>
     <row r="708" ht="45.75" customHeight="1">
-      <c r="B708" s="9"/>
+      <c r="B708" s="10"/>
     </row>
     <row r="709" ht="45.75" customHeight="1">
-      <c r="B709" s="9"/>
+      <c r="B709" s="10"/>
     </row>
     <row r="710" ht="45.75" customHeight="1">
-      <c r="B710" s="9"/>
+      <c r="B710" s="10"/>
     </row>
     <row r="711" ht="45.75" customHeight="1">
-      <c r="B711" s="9"/>
+      <c r="B711" s="10"/>
     </row>
     <row r="712" ht="45.75" customHeight="1">
-      <c r="B712" s="9"/>
+      <c r="B712" s="10"/>
     </row>
     <row r="713" ht="45.75" customHeight="1">
-      <c r="B713" s="9"/>
+      <c r="B713" s="10"/>
     </row>
     <row r="714" ht="45.75" customHeight="1">
-      <c r="B714" s="9"/>
+      <c r="B714" s="10"/>
     </row>
     <row r="715" ht="45.75" customHeight="1">
-      <c r="B715" s="9"/>
+      <c r="B715" s="10"/>
     </row>
     <row r="716" ht="45.75" customHeight="1">
-      <c r="B716" s="9"/>
+      <c r="B716" s="10"/>
     </row>
     <row r="717" ht="45.75" customHeight="1">
-      <c r="B717" s="9"/>
+      <c r="B717" s="10"/>
     </row>
     <row r="718" ht="45.75" customHeight="1">
-      <c r="B718" s="9"/>
+      <c r="B718" s="10"/>
     </row>
     <row r="719" ht="45.75" customHeight="1">
-      <c r="B719" s="9"/>
+      <c r="B719" s="10"/>
     </row>
     <row r="720" ht="45.75" customHeight="1">
-      <c r="B720" s="9"/>
+      <c r="B720" s="10"/>
     </row>
     <row r="721" ht="45.75" customHeight="1">
-      <c r="B721" s="9"/>
+      <c r="B721" s="10"/>
     </row>
     <row r="722" ht="45.75" customHeight="1">
-      <c r="B722" s="9"/>
+      <c r="B722" s="10"/>
     </row>
     <row r="723" ht="45.75" customHeight="1">
-      <c r="B723" s="9"/>
+      <c r="B723" s="10"/>
     </row>
     <row r="724" ht="45.75" customHeight="1">
-      <c r="B724" s="9"/>
+      <c r="B724" s="10"/>
     </row>
     <row r="725" ht="45.75" customHeight="1">
-      <c r="B725" s="9"/>
+      <c r="B725" s="10"/>
     </row>
     <row r="726" ht="45.75" customHeight="1">
-      <c r="B726" s="9"/>
+      <c r="B726" s="10"/>
     </row>
     <row r="727" ht="45.75" customHeight="1">
-      <c r="B727" s="9"/>
+      <c r="B727" s="10"/>
     </row>
     <row r="728" ht="45.75" customHeight="1">
-      <c r="B728" s="9"/>
+      <c r="B728" s="10"/>
     </row>
     <row r="729" ht="45.75" customHeight="1">
-      <c r="B729" s="9"/>
+      <c r="B729" s="10"/>
     </row>
     <row r="730" ht="45.75" customHeight="1">
-      <c r="B730" s="9"/>
+      <c r="B730" s="10"/>
     </row>
     <row r="731" ht="45.75" customHeight="1">
-      <c r="B731" s="9"/>
+      <c r="B731" s="10"/>
     </row>
     <row r="732" ht="45.75" customHeight="1">
-      <c r="B732" s="9"/>
+      <c r="B732" s="10"/>
     </row>
     <row r="733" ht="45.75" customHeight="1">
-      <c r="B733" s="9"/>
+      <c r="B733" s="10"/>
     </row>
     <row r="734" ht="45.75" customHeight="1">
-      <c r="B734" s="9"/>
+      <c r="B734" s="10"/>
     </row>
     <row r="735" ht="45.75" customHeight="1">
-      <c r="B735" s="9"/>
+      <c r="B735" s="10"/>
     </row>
     <row r="736" ht="45.75" customHeight="1">
-      <c r="B736" s="9"/>
+      <c r="B736" s="10"/>
     </row>
     <row r="737" ht="45.75" customHeight="1">
-      <c r="B737" s="9"/>
+      <c r="B737" s="10"/>
     </row>
     <row r="738" ht="45.75" customHeight="1">
-      <c r="B738" s="9"/>
+      <c r="B738" s="10"/>
     </row>
     <row r="739" ht="45.75" customHeight="1">
-      <c r="B739" s="9"/>
+      <c r="B739" s="10"/>
     </row>
     <row r="740" ht="45.75" customHeight="1">
-      <c r="B740" s="9"/>
+      <c r="B740" s="10"/>
     </row>
     <row r="741" ht="45.75" customHeight="1">
-      <c r="B741" s="9"/>
+      <c r="B741" s="10"/>
     </row>
     <row r="742" ht="45.75" customHeight="1">
-      <c r="B742" s="9"/>
+      <c r="B742" s="10"/>
     </row>
     <row r="743" ht="45.75" customHeight="1">
-      <c r="B743" s="9"/>
+      <c r="B743" s="10"/>
     </row>
     <row r="744" ht="45.75" customHeight="1">
-      <c r="B744" s="9"/>
+      <c r="B744" s="10"/>
     </row>
     <row r="745" ht="45.75" customHeight="1">
-      <c r="B745" s="9"/>
+      <c r="B745" s="10"/>
     </row>
     <row r="746" ht="45.75" customHeight="1">
-      <c r="B746" s="9"/>
+      <c r="B746" s="10"/>
     </row>
     <row r="747" ht="45.75" customHeight="1">
-      <c r="B747" s="9"/>
+      <c r="B747" s="10"/>
     </row>
     <row r="748" ht="45.75" customHeight="1">
-      <c r="B748" s="9"/>
+      <c r="B748" s="10"/>
     </row>
     <row r="749" ht="45.75" customHeight="1">
-      <c r="B749" s="9"/>
+      <c r="B749" s="10"/>
     </row>
     <row r="750" ht="45.75" customHeight="1">
-      <c r="B750" s="9"/>
+      <c r="B750" s="10"/>
     </row>
     <row r="751" ht="45.75" customHeight="1">
-      <c r="B751" s="9"/>
+      <c r="B751" s="10"/>
     </row>
     <row r="752" ht="45.75" customHeight="1">
-      <c r="B752" s="9"/>
+      <c r="B752" s="10"/>
     </row>
     <row r="753" ht="45.75" customHeight="1">
-      <c r="B753" s="9"/>
+      <c r="B753" s="10"/>
     </row>
     <row r="754" ht="45.75" customHeight="1">
-      <c r="B754" s="9"/>
+      <c r="B754" s="10"/>
     </row>
     <row r="755" ht="45.75" customHeight="1">
-      <c r="B755" s="9"/>
+      <c r="B755" s="10"/>
     </row>
     <row r="756" ht="45.75" customHeight="1">
-      <c r="B756" s="9"/>
+      <c r="B756" s="10"/>
     </row>
     <row r="757" ht="45.75" customHeight="1">
-      <c r="B757" s="9"/>
+      <c r="B757" s="10"/>
     </row>
     <row r="758" ht="45.75" customHeight="1">
-      <c r="B758" s="9"/>
+      <c r="B758" s="10"/>
     </row>
     <row r="759" ht="45.75" customHeight="1">
-      <c r="B759" s="9"/>
+      <c r="B759" s="10"/>
     </row>
     <row r="760" ht="45.75" customHeight="1">
-      <c r="B760" s="9"/>
+      <c r="B760" s="10"/>
     </row>
     <row r="761" ht="45.75" customHeight="1">
-      <c r="B761" s="9"/>
+      <c r="B761" s="10"/>
     </row>
     <row r="762" ht="45.75" customHeight="1">
-      <c r="B762" s="9"/>
+      <c r="B762" s="10"/>
     </row>
     <row r="763" ht="45.75" customHeight="1">
-      <c r="B763" s="9"/>
+      <c r="B763" s="10"/>
     </row>
     <row r="764" ht="45.75" customHeight="1">
-      <c r="B764" s="9"/>
+      <c r="B764" s="10"/>
     </row>
     <row r="765" ht="45.75" customHeight="1">
-      <c r="B765" s="9"/>
+      <c r="B765" s="10"/>
     </row>
     <row r="766" ht="45.75" customHeight="1">
-      <c r="B766" s="9"/>
+      <c r="B766" s="10"/>
     </row>
     <row r="767" ht="45.75" customHeight="1">
-      <c r="B767" s="9"/>
+      <c r="B767" s="10"/>
     </row>
     <row r="768" ht="45.75" customHeight="1">
-      <c r="B768" s="9"/>
+      <c r="B768" s="10"/>
     </row>
     <row r="769" ht="45.75" customHeight="1">
-      <c r="B769" s="9"/>
+      <c r="B769" s="10"/>
     </row>
     <row r="770" ht="45.75" customHeight="1">
-      <c r="B770" s="9"/>
+      <c r="B770" s="10"/>
     </row>
     <row r="771" ht="45.75" customHeight="1">
-      <c r="B771" s="9"/>
+      <c r="B771" s="10"/>
     </row>
     <row r="772" ht="45.75" customHeight="1">
-      <c r="B772" s="9"/>
+      <c r="B772" s="10"/>
     </row>
     <row r="773" ht="45.75" customHeight="1">
-      <c r="B773" s="9"/>
+      <c r="B773" s="10"/>
     </row>
     <row r="774" ht="45.75" customHeight="1">
-      <c r="B774" s="9"/>
+      <c r="B774" s="10"/>
     </row>
     <row r="775" ht="45.75" customHeight="1">
-      <c r="B775" s="9"/>
+      <c r="B775" s="10"/>
     </row>
     <row r="776" ht="45.75" customHeight="1">
-      <c r="B776" s="9"/>
+      <c r="B776" s="10"/>
     </row>
     <row r="777" ht="45.75" customHeight="1">
-      <c r="B777" s="9"/>
+      <c r="B777" s="10"/>
     </row>
     <row r="778" ht="45.75" customHeight="1">
-      <c r="B778" s="9"/>
+      <c r="B778" s="10"/>
     </row>
     <row r="779" ht="45.75" customHeight="1">
-      <c r="B779" s="9"/>
+      <c r="B779" s="10"/>
     </row>
     <row r="780" ht="45.75" customHeight="1">
-      <c r="B780" s="9"/>
+      <c r="B780" s="10"/>
     </row>
     <row r="781" ht="45.75" customHeight="1">
-      <c r="B781" s="9"/>
+      <c r="B781" s="10"/>
     </row>
     <row r="782" ht="45.75" customHeight="1">
-      <c r="B782" s="9"/>
+      <c r="B782" s="10"/>
     </row>
     <row r="783" ht="45.75" customHeight="1">
-      <c r="B783" s="9"/>
+      <c r="B783" s="10"/>
     </row>
     <row r="784" ht="45.75" customHeight="1">
-      <c r="B784" s="9"/>
+      <c r="B784" s="10"/>
     </row>
     <row r="785" ht="45.75" customHeight="1">
-      <c r="B785" s="9"/>
+      <c r="B785" s="10"/>
     </row>
     <row r="786" ht="45.75" customHeight="1">
-      <c r="B786" s="9"/>
+      <c r="B786" s="10"/>
     </row>
     <row r="787" ht="45.75" customHeight="1">
-      <c r="B787" s="9"/>
+      <c r="B787" s="10"/>
     </row>
     <row r="788" ht="45.75" customHeight="1">
-      <c r="B788" s="9"/>
+      <c r="B788" s="10"/>
     </row>
     <row r="789" ht="45.75" customHeight="1">
-      <c r="B789" s="9"/>
+      <c r="B789" s="10"/>
     </row>
     <row r="790" ht="45.75" customHeight="1">
-      <c r="B790" s="9"/>
+      <c r="B790" s="10"/>
     </row>
     <row r="791" ht="45.75" customHeight="1">
-      <c r="B791" s="9"/>
+      <c r="B791" s="10"/>
     </row>
     <row r="792" ht="45.75" customHeight="1">
-      <c r="B792" s="9"/>
+      <c r="B792" s="10"/>
     </row>
     <row r="793" ht="45.75" customHeight="1">
-      <c r="B793" s="9"/>
+      <c r="B793" s="10"/>
     </row>
     <row r="794" ht="45.75" customHeight="1">
-      <c r="B794" s="9"/>
+      <c r="B794" s="10"/>
     </row>
     <row r="795" ht="45.75" customHeight="1">
-      <c r="B795" s="9"/>
+      <c r="B795" s="10"/>
     </row>
     <row r="796" ht="45.75" customHeight="1">
-      <c r="B796" s="9"/>
+      <c r="B796" s="10"/>
     </row>
     <row r="797" ht="45.75" customHeight="1">
-      <c r="B797" s="9"/>
+      <c r="B797" s="10"/>
     </row>
     <row r="798" ht="45.75" customHeight="1">
-      <c r="B798" s="9"/>
+      <c r="B798" s="10"/>
     </row>
     <row r="799" ht="45.75" customHeight="1">
-      <c r="B799" s="9"/>
+      <c r="B799" s="10"/>
     </row>
     <row r="800" ht="45.75" customHeight="1">
-      <c r="B800" s="9"/>
+      <c r="B800" s="10"/>
     </row>
     <row r="801" ht="45.75" customHeight="1">
-      <c r="B801" s="9"/>
+      <c r="B801" s="10"/>
     </row>
     <row r="802" ht="45.75" customHeight="1">
-      <c r="B802" s="9"/>
+      <c r="B802" s="10"/>
     </row>
     <row r="803" ht="45.75" customHeight="1">
-      <c r="B803" s="9"/>
+      <c r="B803" s="10"/>
     </row>
     <row r="804" ht="45.75" customHeight="1">
-      <c r="B804" s="9"/>
+      <c r="B804" s="10"/>
     </row>
     <row r="805" ht="45.75" customHeight="1">
-      <c r="B805" s="9"/>
+      <c r="B805" s="10"/>
     </row>
     <row r="806" ht="45.75" customHeight="1">
-      <c r="B806" s="9"/>
+      <c r="B806" s="10"/>
     </row>
     <row r="807" ht="45.75" customHeight="1">
-      <c r="B807" s="9"/>
+      <c r="B807" s="10"/>
     </row>
     <row r="808" ht="45.75" customHeight="1">
-      <c r="B808" s="9"/>
+      <c r="B808" s="10"/>
     </row>
     <row r="809" ht="45.75" customHeight="1">
-      <c r="B809" s="9"/>
+      <c r="B809" s="10"/>
     </row>
     <row r="810" ht="45.75" customHeight="1">
-      <c r="B810" s="9"/>
+      <c r="B810" s="10"/>
     </row>
     <row r="811" ht="45.75" customHeight="1">
-      <c r="B811" s="9"/>
+      <c r="B811" s="10"/>
     </row>
     <row r="812" ht="45.75" customHeight="1">
-      <c r="B812" s="9"/>
+      <c r="B812" s="10"/>
     </row>
     <row r="813" ht="45.75" customHeight="1">
-      <c r="B813" s="9"/>
+      <c r="B813" s="10"/>
     </row>
     <row r="814" ht="45.75" customHeight="1">
-      <c r="B814" s="9"/>
+      <c r="B814" s="10"/>
     </row>
     <row r="815" ht="45.75" customHeight="1">
-      <c r="B815" s="9"/>
+      <c r="B815" s="10"/>
     </row>
     <row r="816" ht="45.75" customHeight="1">
-      <c r="B816" s="9"/>
+      <c r="B816" s="10"/>
     </row>
     <row r="817" ht="45.75" customHeight="1">
-      <c r="B817" s="9"/>
+      <c r="B817" s="10"/>
     </row>
     <row r="818" ht="45.75" customHeight="1">
-      <c r="B818" s="9"/>
+      <c r="B818" s="10"/>
     </row>
     <row r="819" ht="45.75" customHeight="1">
-      <c r="B819" s="9"/>
+      <c r="B819" s="10"/>
     </row>
     <row r="820" ht="45.75" customHeight="1">
-      <c r="B820" s="9"/>
+      <c r="B820" s="10"/>
     </row>
     <row r="821" ht="45.75" customHeight="1">
-      <c r="B821" s="9"/>
+      <c r="B821" s="10"/>
     </row>
     <row r="822" ht="45.75" customHeight="1">
-      <c r="B822" s="9"/>
+      <c r="B822" s="10"/>
     </row>
     <row r="823" ht="45.75" customHeight="1">
-      <c r="B823" s="9"/>
+      <c r="B823" s="10"/>
     </row>
     <row r="824" ht="45.75" customHeight="1">
-      <c r="B824" s="9"/>
+      <c r="B824" s="10"/>
     </row>
     <row r="825" ht="45.75" customHeight="1">
-      <c r="B825" s="9"/>
+      <c r="B825" s="10"/>
     </row>
     <row r="826" ht="45.75" customHeight="1">
-      <c r="B826" s="9"/>
+      <c r="B826" s="10"/>
     </row>
     <row r="827" ht="45.75" customHeight="1">
-      <c r="B827" s="9"/>
+      <c r="B827" s="10"/>
     </row>
     <row r="828" ht="45.75" customHeight="1">
-      <c r="B828" s="9"/>
+      <c r="B828" s="10"/>
     </row>
     <row r="829" ht="45.75" customHeight="1">
-      <c r="B829" s="9"/>
+      <c r="B829" s="10"/>
     </row>
     <row r="830" ht="45.75" customHeight="1">
-      <c r="B830" s="9"/>
+      <c r="B830" s="10"/>
     </row>
     <row r="831" ht="45.75" customHeight="1">
-      <c r="B831" s="9"/>
+      <c r="B831" s="10"/>
     </row>
     <row r="832" ht="45.75" customHeight="1">
-      <c r="B832" s="9"/>
+      <c r="B832" s="10"/>
     </row>
     <row r="833" ht="45.75" customHeight="1">
-      <c r="B833" s="9"/>
+      <c r="B833" s="10"/>
     </row>
     <row r="834" ht="45.75" customHeight="1">
-      <c r="B834" s="9"/>
+      <c r="B834" s="10"/>
     </row>
     <row r="835" ht="45.75" customHeight="1">
-      <c r="B835" s="9"/>
+      <c r="B835" s="10"/>
     </row>
     <row r="836" ht="45.75" customHeight="1">
-      <c r="B836" s="9"/>
+      <c r="B836" s="10"/>
     </row>
     <row r="837" ht="45.75" customHeight="1">
-      <c r="B837" s="9"/>
+      <c r="B837" s="10"/>
     </row>
     <row r="838" ht="45.75" customHeight="1">
-      <c r="B838" s="9"/>
+      <c r="B838" s="10"/>
     </row>
     <row r="839" ht="45.75" customHeight="1">
-      <c r="B839" s="9"/>
+      <c r="B839" s="10"/>
     </row>
     <row r="840" ht="45.75" customHeight="1">
-      <c r="B840" s="9"/>
+      <c r="B840" s="10"/>
     </row>
     <row r="841" ht="45.75" customHeight="1">
-      <c r="B841" s="9"/>
+      <c r="B841" s="10"/>
     </row>
     <row r="842" ht="45.75" customHeight="1">
-      <c r="B842" s="9"/>
+      <c r="B842" s="10"/>
     </row>
     <row r="843" ht="45.75" customHeight="1">
-      <c r="B843" s="9"/>
+      <c r="B843" s="10"/>
     </row>
     <row r="844" ht="45.75" customHeight="1">
-      <c r="B844" s="9"/>
+      <c r="B844" s="10"/>
     </row>
     <row r="845" ht="45.75" customHeight="1">
-      <c r="B845" s="9"/>
+      <c r="B845" s="10"/>
     </row>
     <row r="846" ht="45.75" customHeight="1">
-      <c r="B846" s="9"/>
+      <c r="B846" s="10"/>
     </row>
     <row r="847" ht="45.75" customHeight="1">
-      <c r="B847" s="9"/>
+      <c r="B847" s="10"/>
     </row>
     <row r="848" ht="45.75" customHeight="1">
-      <c r="B848" s="9"/>
+      <c r="B848" s="10"/>
     </row>
     <row r="849" ht="45.75" customHeight="1">
-      <c r="B849" s="9"/>
+      <c r="B849" s="10"/>
     </row>
     <row r="850" ht="45.75" customHeight="1">
-      <c r="B850" s="9"/>
+      <c r="B850" s="10"/>
     </row>
     <row r="851" ht="45.75" customHeight="1">
-      <c r="B851" s="9"/>
+      <c r="B851" s="10"/>
     </row>
     <row r="852" ht="45.75" customHeight="1">
-      <c r="B852" s="9"/>
+      <c r="B852" s="10"/>
     </row>
     <row r="853" ht="45.75" customHeight="1">
-      <c r="B853" s="9"/>
+      <c r="B853" s="10"/>
     </row>
     <row r="854" ht="45.75" customHeight="1">
-      <c r="B854" s="9"/>
+      <c r="B854" s="10"/>
     </row>
     <row r="855" ht="45.75" customHeight="1">
-      <c r="B855" s="9"/>
+      <c r="B855" s="10"/>
     </row>
     <row r="856" ht="45.75" customHeight="1">
-      <c r="B856" s="9"/>
+      <c r="B856" s="10"/>
     </row>
     <row r="857" ht="45.75" customHeight="1">
-      <c r="B857" s="9"/>
+      <c r="B857" s="10"/>
     </row>
     <row r="858" ht="45.75" customHeight="1">
-      <c r="B858" s="9"/>
+      <c r="B858" s="10"/>
     </row>
     <row r="859" ht="45.75" customHeight="1">
-      <c r="B859" s="9"/>
+      <c r="B859" s="10"/>
     </row>
     <row r="860" ht="45.75" customHeight="1">
-      <c r="B860" s="9"/>
+      <c r="B860" s="10"/>
     </row>
     <row r="861" ht="45.75" customHeight="1">
-      <c r="B861" s="9"/>
+      <c r="B861" s="10"/>
     </row>
     <row r="862" ht="45.75" customHeight="1">
-      <c r="B862" s="9"/>
+      <c r="B862" s="10"/>
     </row>
     <row r="863" ht="45.75" customHeight="1">
-      <c r="B863" s="9"/>
+      <c r="B863" s="10"/>
     </row>
     <row r="864" ht="45.75" customHeight="1">
-      <c r="B864" s="9"/>
+      <c r="B864" s="10"/>
     </row>
     <row r="865" ht="45.75" customHeight="1">
-      <c r="B865" s="9"/>
+      <c r="B865" s="10"/>
     </row>
     <row r="866" ht="45.75" customHeight="1">
-      <c r="B866" s="9"/>
+      <c r="B866" s="10"/>
     </row>
     <row r="867" ht="45.75" customHeight="1">
-      <c r="B867" s="9"/>
+      <c r="B867" s="10"/>
     </row>
     <row r="868" ht="45.75" customHeight="1">
-      <c r="B868" s="9"/>
+      <c r="B868" s="10"/>
     </row>
     <row r="869" ht="45.75" customHeight="1">
-      <c r="B869" s="9"/>
+      <c r="B869" s="10"/>
     </row>
     <row r="870" ht="45.75" customHeight="1">
-      <c r="B870" s="9"/>
+      <c r="B870" s="10"/>
     </row>
     <row r="871" ht="45.75" customHeight="1">
-      <c r="B871" s="9"/>
+      <c r="B871" s="10"/>
     </row>
     <row r="872" ht="45.75" customHeight="1">
-      <c r="B872" s="9"/>
+      <c r="B872" s="10"/>
     </row>
     <row r="873" ht="45.75" customHeight="1">
-      <c r="B873" s="9"/>
+      <c r="B873" s="10"/>
     </row>
     <row r="874" ht="45.75" customHeight="1">
-      <c r="B874" s="9"/>
+      <c r="B874" s="10"/>
     </row>
     <row r="875" ht="45.75" customHeight="1">
-      <c r="B875" s="9"/>
+      <c r="B875" s="10"/>
     </row>
     <row r="876" ht="45.75" customHeight="1">
-      <c r="B876" s="9"/>
+      <c r="B876" s="10"/>
     </row>
     <row r="877" ht="45.75" customHeight="1">
-      <c r="B877" s="9"/>
+      <c r="B877" s="10"/>
     </row>
     <row r="878" ht="45.75" customHeight="1">
-      <c r="B878" s="9"/>
+      <c r="B878" s="10"/>
     </row>
     <row r="879" ht="45.75" customHeight="1">
-      <c r="B879" s="9"/>
+      <c r="B879" s="10"/>
     </row>
     <row r="880" ht="45.75" customHeight="1">
-      <c r="B880" s="9"/>
+      <c r="B880" s="10"/>
     </row>
     <row r="881" ht="45.75" customHeight="1">
-      <c r="B881" s="9"/>
+      <c r="B881" s="10"/>
     </row>
     <row r="882" ht="45.75" customHeight="1">
-      <c r="B882" s="9"/>
+      <c r="B882" s="10"/>
     </row>
     <row r="883" ht="45.75" customHeight="1">
-      <c r="B883" s="9"/>
+      <c r="B883" s="10"/>
     </row>
     <row r="884" ht="45.75" customHeight="1">
-      <c r="B884" s="9"/>
+      <c r="B884" s="10"/>
     </row>
     <row r="885" ht="45.75" customHeight="1">
-      <c r="B885" s="9"/>
+      <c r="B885" s="10"/>
     </row>
     <row r="886" ht="45.75" customHeight="1">
-      <c r="B886" s="9"/>
+      <c r="B886" s="10"/>
     </row>
     <row r="887" ht="45.75" customHeight="1">
-      <c r="B887" s="9"/>
+      <c r="B887" s="10"/>
     </row>
     <row r="888" ht="45.75" customHeight="1">
-      <c r="B888" s="9"/>
+      <c r="B888" s="10"/>
     </row>
     <row r="889" ht="45.75" customHeight="1">
-      <c r="B889" s="9"/>
+      <c r="B889" s="10"/>
     </row>
     <row r="890" ht="45.75" customHeight="1">
-      <c r="B890" s="9"/>
+      <c r="B890" s="10"/>
     </row>
     <row r="891" ht="45.75" customHeight="1">
-      <c r="B891" s="9"/>
+      <c r="B891" s="10"/>
     </row>
     <row r="892" ht="45.75" customHeight="1">
-      <c r="B892" s="9"/>
+      <c r="B892" s="10"/>
     </row>
     <row r="893" ht="45.75" customHeight="1">
-      <c r="B893" s="9"/>
+      <c r="B893" s="10"/>
     </row>
     <row r="894" ht="45.75" customHeight="1">
-      <c r="B894" s="9"/>
+      <c r="B894" s="10"/>
     </row>
     <row r="895" ht="45.75" customHeight="1">
-      <c r="B895" s="9"/>
+      <c r="B895" s="10"/>
     </row>
     <row r="896" ht="45.75" customHeight="1">
-      <c r="B896" s="9"/>
+      <c r="B896" s="10"/>
     </row>
     <row r="897" ht="45.75" customHeight="1">
-      <c r="B897" s="9"/>
+      <c r="B897" s="10"/>
     </row>
     <row r="898" ht="45.75" customHeight="1">
-      <c r="B898" s="9"/>
+      <c r="B898" s="10"/>
     </row>
     <row r="899" ht="45.75" customHeight="1">
-      <c r="B899" s="9"/>
+      <c r="B899" s="10"/>
     </row>
     <row r="900" ht="45.75" customHeight="1">
-      <c r="B900" s="9"/>
+      <c r="B900" s="10"/>
     </row>
     <row r="901" ht="45.75" customHeight="1">
-      <c r="B901" s="9"/>
+      <c r="B901" s="10"/>
     </row>
     <row r="902" ht="45.75" customHeight="1">
-      <c r="B902" s="9"/>
+      <c r="B902" s="10"/>
     </row>
     <row r="903" ht="45.75" customHeight="1">
-      <c r="B903" s="9"/>
+      <c r="B903" s="10"/>
     </row>
     <row r="904" ht="45.75" customHeight="1">
-      <c r="B904" s="9"/>
+      <c r="B904" s="10"/>
     </row>
     <row r="905" ht="45.75" customHeight="1">
-      <c r="B905" s="9"/>
+      <c r="B905" s="10"/>
     </row>
     <row r="906" ht="45.75" customHeight="1">
-      <c r="B906" s="9"/>
+      <c r="B906" s="10"/>
     </row>
     <row r="907" ht="45.75" customHeight="1">
-      <c r="B907" s="9"/>
+      <c r="B907" s="10"/>
     </row>
     <row r="908" ht="45.75" customHeight="1">
-      <c r="B908" s="9"/>
+      <c r="B908" s="10"/>
     </row>
     <row r="909" ht="45.75" customHeight="1">
-      <c r="B909" s="9"/>
+      <c r="B909" s="10"/>
     </row>
     <row r="910" ht="45.75" customHeight="1">
-      <c r="B910" s="9"/>
+      <c r="B910" s="10"/>
     </row>
     <row r="911" ht="45.75" customHeight="1">
-      <c r="B911" s="9"/>
+      <c r="B911" s="10"/>
     </row>
     <row r="912" ht="45.75" customHeight="1">
-      <c r="B912" s="9"/>
+      <c r="B912" s="10"/>
     </row>
     <row r="913" ht="45.75" customHeight="1">
-      <c r="B913" s="9"/>
+      <c r="B913" s="10"/>
     </row>
     <row r="914" ht="45.75" customHeight="1">
-      <c r="B914" s="9"/>
+      <c r="B914" s="10"/>
     </row>
     <row r="915" ht="45.75" customHeight="1">
-      <c r="B915" s="9"/>
+      <c r="B915" s="10"/>
     </row>
     <row r="916" ht="45.75" customHeight="1">
-      <c r="B916" s="9"/>
+      <c r="B916" s="10"/>
     </row>
     <row r="917" ht="45.75" customHeight="1">
-      <c r="B917" s="9"/>
+      <c r="B917" s="10"/>
     </row>
     <row r="918" ht="45.75" customHeight="1">
-      <c r="B918" s="9"/>
+      <c r="B918" s="10"/>
     </row>
     <row r="919" ht="45.75" customHeight="1">
-      <c r="B919" s="9"/>
+      <c r="B919" s="10"/>
     </row>
     <row r="920" ht="45.75" customHeight="1">
-      <c r="B920" s="9"/>
+      <c r="B920" s="10"/>
     </row>
     <row r="921" ht="45.75" customHeight="1">
-      <c r="B921" s="9"/>
+      <c r="B921" s="10"/>
     </row>
     <row r="922" ht="45.75" customHeight="1">
-      <c r="B922" s="9"/>
+      <c r="B922" s="10"/>
     </row>
     <row r="923" ht="45.75" customHeight="1">
-      <c r="B923" s="9"/>
+      <c r="B923" s="10"/>
     </row>
     <row r="924" ht="45.75" customHeight="1">
-      <c r="B924" s="9"/>
+      <c r="B924" s="10"/>
     </row>
     <row r="925" ht="45.75" customHeight="1">
-      <c r="B925" s="9"/>
+      <c r="B925" s="10"/>
     </row>
     <row r="926" ht="45.75" customHeight="1">
-      <c r="B926" s="9"/>
+      <c r="B926" s="10"/>
     </row>
     <row r="927" ht="45.75" customHeight="1">
-      <c r="B927" s="9"/>
+      <c r="B927" s="10"/>
     </row>
     <row r="928" ht="45.75" customHeight="1">
-      <c r="B928" s="9"/>
+      <c r="B928" s="10"/>
     </row>
     <row r="929" ht="45.75" customHeight="1">
-      <c r="B929" s="9"/>
+      <c r="B929" s="10"/>
     </row>
     <row r="930" ht="45.75" customHeight="1">
-      <c r="B930" s="9"/>
+      <c r="B930" s="10"/>
     </row>
     <row r="931" ht="45.75" customHeight="1">
-      <c r="B931" s="9"/>
+      <c r="B931" s="10"/>
     </row>
     <row r="932" ht="45.75" customHeight="1">
-      <c r="B932" s="9"/>
+      <c r="B932" s="10"/>
     </row>
     <row r="933" ht="45.75" customHeight="1">
-      <c r="B933" s="9"/>
+      <c r="B933" s="10"/>
     </row>
     <row r="934" ht="45.75" customHeight="1">
-      <c r="B934" s="9"/>
+      <c r="B934" s="10"/>
     </row>
     <row r="935" ht="45.75" customHeight="1">
-      <c r="B935" s="9"/>
+      <c r="B935" s="10"/>
     </row>
     <row r="936" ht="45.75" customHeight="1">
-      <c r="B936" s="9"/>
+      <c r="B936" s="10"/>
     </row>
     <row r="937" ht="45.75" customHeight="1">
-      <c r="B937" s="9"/>
+      <c r="B937" s="10"/>
     </row>
     <row r="938" ht="45.75" customHeight="1">
-      <c r="B938" s="9"/>
+      <c r="B938" s="10"/>
     </row>
     <row r="939" ht="45.75" customHeight="1">
-      <c r="B939" s="9"/>
+      <c r="B939" s="10"/>
     </row>
     <row r="940" ht="45.75" customHeight="1">
-      <c r="B940" s="9"/>
+      <c r="B940" s="10"/>
     </row>
     <row r="941" ht="45.75" customHeight="1">
-      <c r="B941" s="9"/>
+      <c r="B941" s="10"/>
     </row>
     <row r="942" ht="45.75" customHeight="1">
-      <c r="B942" s="9"/>
+      <c r="B942" s="10"/>
     </row>
     <row r="943" ht="45.75" customHeight="1">
-      <c r="B943" s="9"/>
+      <c r="B943" s="10"/>
     </row>
     <row r="944" ht="45.75" customHeight="1">
-      <c r="B944" s="9"/>
+      <c r="B944" s="10"/>
     </row>
     <row r="945" ht="45.75" customHeight="1">
-      <c r="B945" s="9"/>
+      <c r="B945" s="10"/>
     </row>
     <row r="946" ht="45.75" customHeight="1">
-      <c r="B946" s="9"/>
+      <c r="B946" s="10"/>
     </row>
     <row r="947" ht="45.75" customHeight="1">
-      <c r="B947" s="9"/>
+      <c r="B947" s="10"/>
     </row>
     <row r="948" ht="45.75" customHeight="1">
-      <c r="B948" s="9"/>
+      <c r="B948" s="10"/>
     </row>
     <row r="949" ht="45.75" customHeight="1">
-      <c r="B949" s="9"/>
+      <c r="B949" s="10"/>
     </row>
     <row r="950" ht="45.75" customHeight="1">
-      <c r="B950" s="9"/>
+      <c r="B950" s="10"/>
     </row>
     <row r="951" ht="45.75" customHeight="1">
-      <c r="B951" s="9"/>
+      <c r="B951" s="10"/>
     </row>
     <row r="952" ht="45.75" customHeight="1">
-      <c r="B952" s="9"/>
+      <c r="B952" s="10"/>
     </row>
     <row r="953" ht="45.75" customHeight="1">
-      <c r="B953" s="9"/>
+      <c r="B953" s="10"/>
     </row>
     <row r="954" ht="45.75" customHeight="1">
-      <c r="B954" s="9"/>
+      <c r="B954" s="10"/>
     </row>
     <row r="955" ht="45.75" customHeight="1">
-      <c r="B955" s="9"/>
+      <c r="B955" s="10"/>
     </row>
     <row r="956" ht="45.75" customHeight="1">
-      <c r="B956" s="9"/>
+      <c r="B956" s="10"/>
     </row>
     <row r="957" ht="45.75" customHeight="1">
-      <c r="B957" s="9"/>
+      <c r="B957" s="10"/>
     </row>
     <row r="958" ht="45.75" customHeight="1">
-      <c r="B958" s="9"/>
+      <c r="B958" s="10"/>
     </row>
     <row r="959" ht="45.75" customHeight="1">
-      <c r="B959" s="9"/>
+      <c r="B959" s="10"/>
     </row>
     <row r="960" ht="45.75" customHeight="1">
-      <c r="B960" s="9"/>
+      <c r="B960" s="10"/>
     </row>
     <row r="961" ht="45.75" customHeight="1">
-      <c r="B961" s="9"/>
+      <c r="B961" s="10"/>
     </row>
     <row r="962" ht="45.75" customHeight="1">
-      <c r="B962" s="9"/>
+      <c r="B962" s="10"/>
     </row>
     <row r="963" ht="45.75" customHeight="1">
-      <c r="B963" s="9"/>
+      <c r="B963" s="10"/>
     </row>
     <row r="964" ht="45.75" customHeight="1">
-      <c r="B964" s="9"/>
+      <c r="B964" s="10"/>
     </row>
     <row r="965" ht="45.75" customHeight="1">
-      <c r="B965" s="9"/>
+      <c r="B965" s="10"/>
     </row>
     <row r="966" ht="45.75" customHeight="1">
-      <c r="B966" s="9"/>
+      <c r="B966" s="10"/>
     </row>
     <row r="967" ht="45.75" customHeight="1">
-      <c r="B967" s="9"/>
+      <c r="B967" s="10"/>
     </row>
     <row r="968" ht="45.75" customHeight="1">
-      <c r="B968" s="9"/>
+      <c r="B968" s="10"/>
     </row>
     <row r="969" ht="45.75" customHeight="1">
-      <c r="B969" s="9"/>
+      <c r="B969" s="10"/>
     </row>
     <row r="970" ht="45.75" customHeight="1">
-      <c r="B970" s="9"/>
+      <c r="B970" s="10"/>
     </row>
     <row r="971" ht="45.75" customHeight="1">
-      <c r="B971" s="9"/>
+      <c r="B971" s="10"/>
     </row>
     <row r="972" ht="45.75" customHeight="1">
-      <c r="B972" s="9"/>
+      <c r="B972" s="10"/>
     </row>
     <row r="973" ht="45.75" customHeight="1">
-      <c r="B973" s="9"/>
+      <c r="B973" s="10"/>
     </row>
     <row r="974" ht="45.75" customHeight="1">
-      <c r="B974" s="9"/>
+      <c r="B974" s="10"/>
     </row>
     <row r="975" ht="45.75" customHeight="1">
-      <c r="B975" s="9"/>
+      <c r="B975" s="10"/>
     </row>
     <row r="976" ht="45.75" customHeight="1">
-      <c r="B976" s="9"/>
+      <c r="B976" s="10"/>
     </row>
     <row r="977" ht="45.75" customHeight="1">
-      <c r="B977" s="9"/>
+      <c r="B977" s="10"/>
     </row>
     <row r="978" ht="45.75" customHeight="1">
-      <c r="B978" s="9"/>
+      <c r="B978" s="10"/>
     </row>
     <row r="979" ht="45.75" customHeight="1">
-      <c r="B979" s="9"/>
+      <c r="B979" s="10"/>
     </row>
     <row r="980" ht="45.75" customHeight="1">
-      <c r="B980" s="9"/>
+      <c r="B980" s="10"/>
     </row>
     <row r="981" ht="45.75" customHeight="1">
-      <c r="B981" s="9"/>
+      <c r="B981" s="10"/>
     </row>
     <row r="982" ht="45.75" customHeight="1">
-      <c r="B982" s="9"/>
+      <c r="B982" s="10"/>
     </row>
     <row r="983" ht="45.75" customHeight="1">
-      <c r="B983" s="9"/>
+      <c r="B983" s="10"/>
     </row>
     <row r="984" ht="45.75" customHeight="1">
-      <c r="B984" s="9"/>
+      <c r="B984" s="10"/>
     </row>
     <row r="985" ht="45.75" customHeight="1">
-      <c r="B985" s="9"/>
+      <c r="B985" s="10"/>
     </row>
     <row r="986" ht="45.75" customHeight="1">
-      <c r="B986" s="9"/>
+      <c r="B986" s="10"/>
     </row>
     <row r="987" ht="45.75" customHeight="1">
-      <c r="B987" s="9"/>
+      <c r="B987" s="10"/>
     </row>
     <row r="988" ht="45.75" customHeight="1">
-      <c r="B988" s="9"/>
+      <c r="B988" s="10"/>
     </row>
     <row r="989" ht="45.75" customHeight="1">
-      <c r="B989" s="9"/>
+      <c r="B989" s="10"/>
     </row>
     <row r="990" ht="45.75" customHeight="1">
-      <c r="B990" s="9"/>
+      <c r="B990" s="10"/>
     </row>
     <row r="991" ht="45.75" customHeight="1">
-      <c r="B991" s="9"/>
+      <c r="B991" s="10"/>
     </row>
     <row r="992" ht="45.75" customHeight="1">
-      <c r="B992" s="9"/>
+      <c r="B992" s="10"/>
     </row>
     <row r="993" ht="45.75" customHeight="1">
-      <c r="B993" s="9"/>
+      <c r="B993" s="10"/>
     </row>
     <row r="994" ht="45.75" customHeight="1">
-      <c r="B994" s="9"/>
+      <c r="B994" s="10"/>
     </row>
     <row r="995" ht="45.75" customHeight="1">
-      <c r="B995" s="9"/>
+      <c r="B995" s="10"/>
     </row>
     <row r="996" ht="45.75" customHeight="1">
-      <c r="B996" s="9"/>
+      <c r="B996" s="10"/>
     </row>
     <row r="997" ht="45.75" customHeight="1">
-      <c r="B997" s="9"/>
+      <c r="B997" s="10"/>
     </row>
     <row r="998" ht="45.75" customHeight="1">
-      <c r="B998" s="9"/>
+      <c r="B998" s="10"/>
     </row>
     <row r="999" ht="45.75" customHeight="1">
-      <c r="B999" s="9"/>
+      <c r="B999" s="10"/>
     </row>
     <row r="1000" ht="45.75" customHeight="1">
-      <c r="B1000" s="9"/>
+      <c r="B1000" s="10"/>
     </row>
     <row r="1001" ht="45.75" customHeight="1">
-      <c r="B1001" s="9"/>
+      <c r="B1001" s="10"/>
     </row>
     <row r="1002" ht="45.75" customHeight="1">
-      <c r="B1002" s="9"/>
+      <c r="B1002" s="10"/>
+    </row>
+    <row r="1003" ht="45.75" customHeight="1">
+      <c r="B1003" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3589,118 +3619,118 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" ht="27.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11">
         <v>0.0</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4" ht="27.75" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="4" ht="27.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" ht="27.75" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="5" ht="27.75" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" ht="27.75" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="6" ht="27.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11">
         <v>0.88</v>
       </c>
     </row>
     <row r="7" ht="27.75" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11">
         <v>1.06</v>
       </c>
     </row>
     <row r="8" ht="27.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" ht="27.75" customHeight="1">
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>0.0</v>
       </c>
     </row>
     <row r="10" ht="27.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="11">
         <v>0.0</v>
       </c>
     </row>
     <row r="11" ht="27.75" customHeight="1">
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>0.0</v>
       </c>
     </row>
     <row r="12" ht="27.75" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11">
         <v>0.0</v>
       </c>
     </row>
     <row r="13" ht="27.75" customHeight="1">
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>0.0</v>
       </c>
     </row>

--- a/6_TuningWith2Prompting/2PromptingTuning.xlsx
+++ b/6_TuningWith2Prompting/2PromptingTuning.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Role</t>
   </si>
@@ -92,13 +92,56 @@
     <t>maxTurns</t>
   </si>
   <si>
-    <t>[
-    {"role": "roleA", "content": "What is your name?"}
-]</t>
+    <t xml:space="preserve">ROLE: Bạn là học sinh 6 tuổi, trình độ tiếng Anh A1.  
+Tên bạn là Cường. Bạn nói chủ yếu bằng tiếng Việt, pha một số từ tiếng Anh dễ thương, dùng đại từ "tớ" và "cậu".  
+Bạn làm theo từng bước ROBOT hướng dẫn, nhưng tính cách thay đổi liên tục giữa hai trạng thái sau đây. Cuối buổi, bạn luôn chào tạm biệt kiểu dễ thương như "Bye bye cậu! See you soon nha!".  
+**TÍNH CÁCH 1: NGHIÊM TÚC HỌC TẬP**  
+- Trả lời rất ngắn gọn, chỉ một từ hoặc cụm từ (không cần đầy đủ câu).  
+- Học từ mới, cố gắng sử dụng.  
+- Sai thì sửa, nói: "Hiểu rồi! Làm lại nha!".  
+- Cố gắng hiểu bài, thích được khen, chăm chỉ làm theo hướng dẫn.  
+**TÍNH CÁCH 2: NGHỊCH NGỢM, HÀI HƯỚC**  
+- Hay hiểu nhầm, trả lời sai liên tiếp 2 lần, hoặc nói linh tinh như: "Hihi, gì vậy?!".  
+- Đang học thì chuyển chủ đề, hỏi về đồ chơi, món ăn, siêu nhân.  
+- Đột nhiên nói "Bye nha, buồn ngủ!", nhưng quay lại ngay khi được gọi.  
+- Cố tình sai ngữ pháp hài hước kiểu "Tớ is hero!".  
+- Hỏi ROBOT từ tiếng Anh lạ: "Từ nào hay hơn hả?".  
+**HƯỚNG DẪN**  
+- Bạn sẽ thay đổi giữa hai tính cách bất ngờ, không báo trước.  
+- Khi nghiêm túc, bạn thích học và cố gắng hết sức.  
+- Khi nghịch ngợm, bạn pha trò, làm rối ROBOT nhưng luôn quay lại học khi được nhắc.  
+**TÍNH CÁCH CHUNG**  
+- Tò mò, hào hứng, thích pha trò, nhưng sẵn sàng học và sửa lỗi khi cần.  
+**RESPONSE TEMPLATE**  
+- Câu trả lời cụt, ngắn gọn nhất có thể, chỉ một hoặc hai từ, phù hợp với học sinh 6 tuổi.  
+</t>
+  </si>
+  <si>
+    <t>ROLE: You are now an enthusiastic English speaking teacher for 6 year-old children, English level is lower A1. We communicate through the computer so you will send everything in 1 JSON.
+You talk in Vietnamese and mix with English in a cute manner for children, as tớ - cậu, Your name is Pika. 
+You will do each step below step by step, wait for user answer previous step before start after step. 
+Correct mistakes, explain errors and encourage and praise students during speaking with friendly manner.
+In some cases, engage in free talk with the student by opening a discussion on a topic of their interest.
+INSTRUCTION
+Focus on 3 checkpoints:
+- Introduce new vocabulary (3-4 words such as fried chicken, grilled meat, vegetable,... excluding proper names ) one at a time, breaking it down with translations or examples. 
+For each vocabulary or dish (focus on dishes in the user's answer), guide the learning process with dynamic and engaging scaffolding: begin with the word in Vietnamese, transition smoothly to the word in English, and then create a unique, varied sentence in English for each dish to maintain flexibility and liveliness. In each step, wait for the user to repeat the word or sentence in English 
+Correct gently if needed, explaining why the correction is necessary. Encourage the student to repeat the word or expand their answer to reinforce vocabulary acquisition.
+Yoou can share a short, engaging story or fun fact about the dish to make the conversation smoother and more engaging whenever the user mentions a dish.
+- Ask the student to repeat all key vocabularies from the lesson.
+Provide specific compliments in English, such as acknowledging correct usage or good pronunciation.
+Highlight areas for improvement positively.
+- Praise the student's effort with positive and encouraging feedback then take the initiative to say a warm and friendly goodbye to finish conversation.
+COMMENT RULE:
+Use positive reinforcement to compliment their effort.
+Consecutive correct answers: surprised at correct streak
+Always respond with a positive reinforcement phrase in English after a correct answer of student. 
+NOTE: If student fail after second try for each word, gently move on to the next word while providing encouragement before transitioning.
+FORMAT OUTPUT: Response as a json. when end conversation, send status: END</t>
   </si>
   <si>
     <t>[
-    {"role": "roleB", "content": "What is your name?"}
+    {"role": "roleB", "content": "Chào cậu! Hôm nay chúng ta sẽ học về chủ đề thực phẩm (Food) nhé! Hãy kể cho tớ nghe một số món ăn cậu thích nào. Các món ăn yêu thích của cậu là gì nhỉ?"}
 ]</t>
   </si>
 </sst>
@@ -107,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,12 +167,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -182,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -199,7 +236,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -220,17 +257,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -238,17 +266,17 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,6831 +580,6807 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E969"/>
+  <dimension ref="A1:E967"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="50.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="72.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="72.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="7">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="56.25">
-      <c r="A2" s="16">
-        <v>1</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="681.75" customFormat="1" s="7">
+      <c r="A2" s="14">
+        <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
+      <c r="B2" s="15" t="s">
+        <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
+      <c r="C2" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
-      <c r="E2" s="16">
-        <v>2</v>
+      <c r="E2" s="14">
+        <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="56.25">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="7">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="7">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A11" s="9"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A12" s="9"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A13" s="9"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A14" s="9"/>
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A15" s="9"/>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A16" s="9"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A17" s="9"/>
       <c r="B17" s="2"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A18" s="9"/>
       <c r="B18" s="2"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A19" s="9"/>
       <c r="B19" s="2"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A20" s="9"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A21" s="9"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A22" s="9"/>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A23" s="9"/>
       <c r="B23" s="2"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A24" s="9"/>
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A25" s="9"/>
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A26" s="9"/>
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A27" s="9"/>
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A28" s="9"/>
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A29" s="9"/>
       <c r="B29" s="2"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A30" s="9"/>
       <c r="B30" s="2"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A31" s="9"/>
       <c r="B31" s="2"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A32" s="9"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A33" s="9"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A34" s="9"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A35" s="9"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A36" s="9"/>
       <c r="B36" s="2"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A37" s="9"/>
       <c r="B37" s="2"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A38" s="9"/>
       <c r="B38" s="2"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A39" s="9"/>
       <c r="B39" s="2"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A40" s="9"/>
       <c r="B40" s="2"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A41" s="9"/>
       <c r="B41" s="2"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A42" s="9"/>
       <c r="B42" s="2"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A43" s="9"/>
       <c r="B43" s="2"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A44" s="9"/>
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A45" s="9"/>
       <c r="B45" s="2"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A46" s="9"/>
       <c r="B46" s="2"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A47" s="9"/>
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A48" s="9"/>
       <c r="B48" s="2"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A49" s="9"/>
       <c r="B49" s="2"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A50" s="9"/>
       <c r="B50" s="2"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A51" s="9"/>
       <c r="B51" s="2"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A53" s="9"/>
       <c r="B53" s="2"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A54" s="9"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A55" s="9"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A56" s="9"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A57" s="9"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A58" s="9"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A59" s="9"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A60" s="9"/>
       <c r="B60" s="2"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A61" s="9"/>
       <c r="B61" s="2"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A62" s="9"/>
       <c r="B62" s="2"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A63" s="9"/>
       <c r="B63" s="2"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="21"/>
+      <c r="E63" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A64" s="9"/>
       <c r="B64" s="2"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A65" s="9"/>
       <c r="B65" s="2"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="21"/>
+      <c r="E65" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A66" s="9"/>
       <c r="B66" s="2"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="21"/>
+      <c r="E66" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A67" s="9"/>
       <c r="B67" s="2"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="21"/>
+      <c r="E67" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A68" s="9"/>
       <c r="B68" s="2"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="21"/>
+      <c r="E68" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A69" s="9"/>
       <c r="B69" s="2"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="21"/>
+      <c r="E69" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A70" s="9"/>
       <c r="B70" s="2"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="21"/>
+      <c r="E70" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A71" s="9"/>
       <c r="B71" s="2"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="21"/>
+      <c r="E71" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A72" s="9"/>
       <c r="B72" s="2"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="21"/>
+      <c r="E72" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A73" s="9"/>
       <c r="B73" s="2"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="21"/>
+      <c r="E73" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A74" s="9"/>
       <c r="B74" s="2"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="21"/>
+      <c r="E74" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A75" s="9"/>
       <c r="B75" s="2"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="21"/>
+      <c r="E75" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A76" s="9"/>
       <c r="B76" s="2"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="21"/>
+      <c r="E76" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A77" s="9"/>
       <c r="B77" s="2"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="21"/>
+      <c r="E77" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A78" s="9"/>
       <c r="B78" s="2"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="21"/>
+      <c r="E78" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A79" s="9"/>
       <c r="B79" s="2"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="21"/>
+      <c r="E79" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A80" s="9"/>
       <c r="B80" s="2"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="21"/>
+      <c r="E80" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A81" s="9"/>
       <c r="B81" s="2"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="21"/>
+      <c r="E81" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A82" s="9"/>
       <c r="B82" s="2"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="21"/>
+      <c r="E82" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A83" s="9"/>
       <c r="B83" s="2"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="21"/>
+      <c r="E83" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A84" s="9"/>
       <c r="B84" s="2"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
-      <c r="E84" s="21"/>
+      <c r="E84" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A85" s="9"/>
       <c r="B85" s="2"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="21"/>
+      <c r="E85" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A86" s="9"/>
       <c r="B86" s="2"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="21"/>
+      <c r="E86" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A87" s="9"/>
       <c r="B87" s="2"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="21"/>
+      <c r="E87" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A88" s="9"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="21"/>
+      <c r="E88" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A89" s="9"/>
       <c r="B89" s="2"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="21"/>
+      <c r="E89" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A90" s="9"/>
       <c r="B90" s="2"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="21"/>
+      <c r="E90" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A91" s="9"/>
       <c r="B91" s="2"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="21"/>
+      <c r="E91" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A92" s="9"/>
       <c r="B92" s="2"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="21"/>
+      <c r="E92" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A93" s="9"/>
       <c r="B93" s="2"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
-      <c r="E93" s="21"/>
+      <c r="E93" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A94" s="9"/>
       <c r="B94" s="2"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="21"/>
+      <c r="E94" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A95" s="9"/>
       <c r="B95" s="2"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="21"/>
+      <c r="E95" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A96" s="9"/>
       <c r="B96" s="2"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
-      <c r="E96" s="21"/>
+      <c r="E96" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A97" s="9"/>
       <c r="B97" s="2"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="21"/>
+      <c r="E97" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A98" s="9"/>
       <c r="B98" s="2"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
-      <c r="E98" s="21"/>
+      <c r="E98" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A99" s="9"/>
       <c r="B99" s="2"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="21"/>
+      <c r="E99" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A100" s="9"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
-      <c r="E100" s="21"/>
+      <c r="E100" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A101" s="9"/>
       <c r="B101" s="2"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="21"/>
+      <c r="E101" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A102" s="9"/>
       <c r="B102" s="2"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
-      <c r="E102" s="21"/>
+      <c r="E102" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A103" s="9"/>
       <c r="B103" s="2"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="21"/>
+      <c r="E103" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A104" s="9"/>
       <c r="B104" s="2"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="21"/>
+      <c r="E104" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A105" s="9"/>
       <c r="B105" s="2"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="21"/>
+      <c r="E105" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A106" s="9"/>
       <c r="B106" s="2"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
-      <c r="E106" s="21"/>
+      <c r="E106" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A107" s="9"/>
       <c r="B107" s="2"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="21"/>
+      <c r="E107" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A108" s="9"/>
       <c r="B108" s="2"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
-      <c r="E108" s="21"/>
+      <c r="E108" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A109" s="9"/>
       <c r="B109" s="2"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="21"/>
+      <c r="E109" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A110" s="9"/>
       <c r="B110" s="2"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
-      <c r="E110" s="21"/>
+      <c r="E110" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A111" s="9"/>
       <c r="B111" s="2"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
-      <c r="E111" s="21"/>
+      <c r="E111" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A112" s="9"/>
       <c r="B112" s="2"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
-      <c r="E112" s="21"/>
+      <c r="E112" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A113" s="9"/>
       <c r="B113" s="2"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
-      <c r="E113" s="21"/>
+      <c r="E113" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A114" s="9"/>
       <c r="B114" s="2"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
-      <c r="E114" s="21"/>
+      <c r="E114" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A115" s="9"/>
       <c r="B115" s="2"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="21"/>
+      <c r="E115" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A116" s="9"/>
       <c r="B116" s="2"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
-      <c r="E116" s="21"/>
+      <c r="E116" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A117" s="9"/>
       <c r="B117" s="2"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
-      <c r="E117" s="21"/>
+      <c r="E117" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A118" s="9"/>
       <c r="B118" s="2"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
-      <c r="E118" s="21"/>
+      <c r="E118" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A119" s="9"/>
       <c r="B119" s="2"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
-      <c r="E119" s="21"/>
+      <c r="E119" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A120" s="9"/>
       <c r="B120" s="2"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
-      <c r="E120" s="21"/>
+      <c r="E120" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A121" s="9"/>
       <c r="B121" s="2"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
-      <c r="E121" s="21"/>
+      <c r="E121" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A122" s="9"/>
       <c r="B122" s="2"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
-      <c r="E122" s="21"/>
+      <c r="E122" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A123" s="9"/>
       <c r="B123" s="2"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
-      <c r="E123" s="21"/>
+      <c r="E123" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A124" s="9"/>
       <c r="B124" s="2"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
-      <c r="E124" s="21"/>
+      <c r="E124" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A125" s="9"/>
       <c r="B125" s="2"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
-      <c r="E125" s="21"/>
+      <c r="E125" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A126" s="9"/>
       <c r="B126" s="2"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
-      <c r="E126" s="21"/>
+      <c r="E126" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A127" s="9"/>
       <c r="B127" s="2"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
-      <c r="E127" s="21"/>
+      <c r="E127" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A128" s="9"/>
       <c r="B128" s="2"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
-      <c r="E128" s="21"/>
+      <c r="E128" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A129" s="9"/>
       <c r="B129" s="2"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
-      <c r="E129" s="21"/>
+      <c r="E129" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A130" s="9"/>
       <c r="B130" s="2"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
-      <c r="E130" s="21"/>
+      <c r="E130" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A131" s="9"/>
       <c r="B131" s="2"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
-      <c r="E131" s="21"/>
+      <c r="E131" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A132" s="9"/>
       <c r="B132" s="2"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
-      <c r="E132" s="21"/>
+      <c r="E132" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A133" s="9"/>
       <c r="B133" s="2"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="21"/>
+      <c r="E133" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A134" s="9"/>
       <c r="B134" s="2"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
-      <c r="E134" s="21"/>
+      <c r="E134" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A135" s="9"/>
       <c r="B135" s="2"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
-      <c r="E135" s="21"/>
+      <c r="E135" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A136" s="9"/>
       <c r="B136" s="2"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
-      <c r="E136" s="21"/>
+      <c r="E136" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A137" s="9"/>
       <c r="B137" s="2"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="21"/>
+      <c r="E137" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A138" s="9"/>
       <c r="B138" s="2"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="21"/>
+      <c r="E138" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A139" s="9"/>
       <c r="B139" s="2"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="21"/>
+      <c r="E139" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A140" s="9"/>
       <c r="B140" s="2"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="21"/>
+      <c r="E140" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A141" s="9"/>
       <c r="B141" s="2"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="21"/>
+      <c r="E141" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A142" s="9"/>
       <c r="B142" s="2"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="21"/>
+      <c r="E142" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A143" s="9"/>
       <c r="B143" s="2"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="21"/>
+      <c r="E143" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A144" s="9"/>
       <c r="B144" s="2"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="21"/>
+      <c r="E144" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A145" s="9"/>
       <c r="B145" s="2"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="21"/>
+      <c r="E145" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A146" s="9"/>
       <c r="B146" s="2"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
-      <c r="E146" s="21"/>
+      <c r="E146" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A147" s="9"/>
       <c r="B147" s="2"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="21"/>
+      <c r="E147" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A148" s="9"/>
       <c r="B148" s="2"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="21"/>
+      <c r="E148" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A149" s="9"/>
       <c r="B149" s="2"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="21"/>
+      <c r="E149" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A150" s="9"/>
       <c r="B150" s="2"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="21"/>
+      <c r="E150" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A151" s="9"/>
       <c r="B151" s="2"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="21"/>
+      <c r="E151" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A152" s="9"/>
       <c r="B152" s="2"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="21"/>
+      <c r="E152" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A153" s="9"/>
       <c r="B153" s="2"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="21"/>
+      <c r="E153" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A154" s="9"/>
       <c r="B154" s="2"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="21"/>
+      <c r="E154" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A155" s="9"/>
       <c r="B155" s="2"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
-      <c r="E155" s="21"/>
+      <c r="E155" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A156" s="9"/>
       <c r="B156" s="2"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="21"/>
+      <c r="E156" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A157" s="9"/>
       <c r="B157" s="2"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="21"/>
+      <c r="E157" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A158" s="9"/>
       <c r="B158" s="2"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="21"/>
+      <c r="E158" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A159" s="9"/>
       <c r="B159" s="2"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="21"/>
+      <c r="E159" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A160" s="9"/>
       <c r="B160" s="2"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="21"/>
+      <c r="E160" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A161" s="9"/>
       <c r="B161" s="2"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="21"/>
+      <c r="E161" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A162" s="9"/>
       <c r="B162" s="2"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="21"/>
+      <c r="E162" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A163" s="9"/>
       <c r="B163" s="2"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="21"/>
+      <c r="E163" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A164" s="9"/>
       <c r="B164" s="2"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="21"/>
+      <c r="E164" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A165" s="9"/>
       <c r="B165" s="2"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="21"/>
+      <c r="E165" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A166" s="9"/>
       <c r="B166" s="2"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="21"/>
+      <c r="E166" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A167" s="9"/>
       <c r="B167" s="2"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="21"/>
+      <c r="E167" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A168" s="9"/>
       <c r="B168" s="2"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="21"/>
+      <c r="E168" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A169" s="9"/>
       <c r="B169" s="2"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="21"/>
+      <c r="E169" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A170" s="9"/>
       <c r="B170" s="2"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="21"/>
+      <c r="E170" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A171" s="9"/>
       <c r="B171" s="2"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="21"/>
+      <c r="E171" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A172" s="9"/>
       <c r="B172" s="2"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="21"/>
+      <c r="E172" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A173" s="9"/>
       <c r="B173" s="2"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
-      <c r="E173" s="21"/>
+      <c r="E173" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A174" s="9"/>
       <c r="B174" s="2"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="21"/>
+      <c r="E174" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A175" s="9"/>
       <c r="B175" s="2"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="21"/>
+      <c r="E175" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A176" s="9"/>
       <c r="B176" s="2"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="21"/>
+      <c r="E176" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A177" s="9"/>
       <c r="B177" s="2"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="21"/>
+      <c r="E177" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A178" s="9"/>
       <c r="B178" s="2"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="21"/>
+      <c r="E178" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A179" s="9"/>
       <c r="B179" s="2"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="21"/>
+      <c r="E179" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A180" s="9"/>
       <c r="B180" s="2"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="21"/>
+      <c r="E180" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A181" s="9"/>
       <c r="B181" s="2"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="21"/>
+      <c r="E181" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A182" s="9"/>
       <c r="B182" s="2"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
-      <c r="E182" s="21"/>
+      <c r="E182" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A183" s="9"/>
       <c r="B183" s="2"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="21"/>
+      <c r="E183" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A184" s="9"/>
       <c r="B184" s="2"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="21"/>
+      <c r="E184" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A185" s="9"/>
       <c r="B185" s="2"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="21"/>
+      <c r="E185" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A186" s="9"/>
       <c r="B186" s="2"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="21"/>
+      <c r="E186" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A187" s="9"/>
       <c r="B187" s="2"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="21"/>
+      <c r="E187" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A188" s="9"/>
       <c r="B188" s="2"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="21"/>
+      <c r="E188" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A189" s="9"/>
       <c r="B189" s="2"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="21"/>
+      <c r="E189" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A190" s="9"/>
       <c r="B190" s="2"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="21"/>
+      <c r="E190" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A191" s="9"/>
       <c r="B191" s="2"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
-      <c r="E191" s="21"/>
+      <c r="E191" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A192" s="9"/>
       <c r="B192" s="2"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="21"/>
+      <c r="E192" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A193" s="9"/>
       <c r="B193" s="2"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="21"/>
+      <c r="E193" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A194" s="9"/>
       <c r="B194" s="2"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="21"/>
+      <c r="E194" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A195" s="9"/>
       <c r="B195" s="2"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="21"/>
+      <c r="E195" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A196" s="9"/>
       <c r="B196" s="2"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="21"/>
+      <c r="E196" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A197" s="9"/>
       <c r="B197" s="2"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="21"/>
+      <c r="E197" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A198" s="9"/>
       <c r="B198" s="2"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="21"/>
+      <c r="E198" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A199" s="9"/>
       <c r="B199" s="2"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="21"/>
+      <c r="E199" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A200" s="9"/>
       <c r="B200" s="2"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
-      <c r="E200" s="21"/>
+      <c r="E200" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A201" s="9"/>
       <c r="B201" s="2"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="21"/>
+      <c r="E201" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A202" s="9"/>
       <c r="B202" s="2"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
-      <c r="E202" s="21"/>
+      <c r="E202" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A203" s="9"/>
       <c r="B203" s="2"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
-      <c r="E203" s="21"/>
+      <c r="E203" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A204" s="9"/>
       <c r="B204" s="2"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
-      <c r="E204" s="21"/>
+      <c r="E204" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A205" s="9"/>
       <c r="B205" s="2"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
-      <c r="E205" s="21"/>
+      <c r="E205" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A206" s="9"/>
       <c r="B206" s="2"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
-      <c r="E206" s="21"/>
+      <c r="E206" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A207" s="9"/>
       <c r="B207" s="2"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
-      <c r="E207" s="21"/>
+      <c r="E207" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A208" s="9"/>
       <c r="B208" s="2"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
-      <c r="E208" s="21"/>
+      <c r="E208" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A209" s="9"/>
       <c r="B209" s="2"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
-      <c r="E209" s="21"/>
+      <c r="E209" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A210" s="9"/>
       <c r="B210" s="2"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
-      <c r="E210" s="21"/>
+      <c r="E210" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A211" s="9"/>
       <c r="B211" s="2"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
-      <c r="E211" s="21"/>
+      <c r="E211" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A212" s="9"/>
       <c r="B212" s="2"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
-      <c r="E212" s="21"/>
+      <c r="E212" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A213" s="9"/>
       <c r="B213" s="2"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
-      <c r="E213" s="21"/>
+      <c r="E213" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A214" s="9"/>
       <c r="B214" s="2"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
-      <c r="E214" s="21"/>
+      <c r="E214" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A215" s="9"/>
       <c r="B215" s="2"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
-      <c r="E215" s="21"/>
+      <c r="E215" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A216" s="9"/>
       <c r="B216" s="2"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
-      <c r="E216" s="21"/>
+      <c r="E216" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A217" s="9"/>
       <c r="B217" s="2"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
-      <c r="E217" s="21"/>
+      <c r="E217" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A218" s="9"/>
       <c r="B218" s="2"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
-      <c r="E218" s="21"/>
+      <c r="E218" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A219" s="9"/>
       <c r="B219" s="2"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
-      <c r="E219" s="21"/>
+      <c r="E219" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A220" s="9"/>
       <c r="B220" s="2"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
-      <c r="E220" s="21"/>
+      <c r="E220" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A221" s="9"/>
       <c r="B221" s="2"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
-      <c r="E221" s="21"/>
+      <c r="E221" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A222" s="9"/>
       <c r="B222" s="2"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
-      <c r="E222" s="21"/>
+      <c r="E222" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A223" s="9"/>
       <c r="B223" s="2"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
-      <c r="E223" s="21"/>
+      <c r="E223" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A224" s="9"/>
       <c r="B224" s="2"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
-      <c r="E224" s="21"/>
+      <c r="E224" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A225" s="9"/>
       <c r="B225" s="2"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
-      <c r="E225" s="21"/>
+      <c r="E225" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A226" s="9"/>
       <c r="B226" s="2"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
-      <c r="E226" s="21"/>
+      <c r="E226" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A227" s="9"/>
       <c r="B227" s="2"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
-      <c r="E227" s="21"/>
+      <c r="E227" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A228" s="9"/>
       <c r="B228" s="2"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
-      <c r="E228" s="21"/>
+      <c r="E228" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A229" s="9"/>
       <c r="B229" s="2"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
-      <c r="E229" s="21"/>
+      <c r="E229" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A230" s="9"/>
       <c r="B230" s="2"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
-      <c r="E230" s="21"/>
+      <c r="E230" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A231" s="9"/>
       <c r="B231" s="2"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
-      <c r="E231" s="21"/>
+      <c r="E231" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A232" s="9"/>
       <c r="B232" s="2"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
-      <c r="E232" s="21"/>
+      <c r="E232" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A233" s="9"/>
       <c r="B233" s="2"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
-      <c r="E233" s="21"/>
+      <c r="E233" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A234" s="9"/>
       <c r="B234" s="2"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
-      <c r="E234" s="21"/>
+      <c r="E234" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A235" s="9"/>
       <c r="B235" s="2"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
-      <c r="E235" s="21"/>
+      <c r="E235" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A236" s="9"/>
       <c r="B236" s="2"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
-      <c r="E236" s="21"/>
+      <c r="E236" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A237" s="9"/>
       <c r="B237" s="2"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
-      <c r="E237" s="21"/>
+      <c r="E237" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A238" s="9"/>
       <c r="B238" s="2"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
-      <c r="E238" s="21"/>
+      <c r="E238" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A239" s="9"/>
       <c r="B239" s="2"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
-      <c r="E239" s="21"/>
+      <c r="E239" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A240" s="9"/>
       <c r="B240" s="2"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
-      <c r="E240" s="21"/>
+      <c r="E240" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A241" s="9"/>
       <c r="B241" s="2"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
-      <c r="E241" s="21"/>
+      <c r="E241" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A242" s="9"/>
       <c r="B242" s="2"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
-      <c r="E242" s="21"/>
+      <c r="E242" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A243" s="9"/>
       <c r="B243" s="2"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
-      <c r="E243" s="21"/>
+      <c r="E243" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A244" s="9"/>
       <c r="B244" s="2"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
-      <c r="E244" s="21"/>
+      <c r="E244" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A245" s="9"/>
       <c r="B245" s="2"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
-      <c r="E245" s="21"/>
+      <c r="E245" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A246" s="9"/>
       <c r="B246" s="2"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
-      <c r="E246" s="21"/>
+      <c r="E246" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A247" s="9"/>
       <c r="B247" s="2"/>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
-      <c r="E247" s="21"/>
+      <c r="E247" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A248" s="9"/>
       <c r="B248" s="2"/>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
-      <c r="E248" s="21"/>
+      <c r="E248" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A249" s="9"/>
       <c r="B249" s="2"/>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
-      <c r="E249" s="21"/>
+      <c r="E249" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A250" s="9"/>
       <c r="B250" s="2"/>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
-      <c r="E250" s="21"/>
+      <c r="E250" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A251" s="9"/>
       <c r="B251" s="2"/>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
-      <c r="E251" s="21"/>
+      <c r="E251" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A252" s="9"/>
       <c r="B252" s="2"/>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
-      <c r="E252" s="21"/>
+      <c r="E252" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A253" s="9"/>
       <c r="B253" s="2"/>
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
-      <c r="E253" s="21"/>
+      <c r="E253" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A254" s="9"/>
       <c r="B254" s="2"/>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
-      <c r="E254" s="21"/>
+      <c r="E254" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A255" s="9"/>
       <c r="B255" s="2"/>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
-      <c r="E255" s="21"/>
+      <c r="E255" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A256" s="9"/>
       <c r="B256" s="2"/>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
-      <c r="E256" s="21"/>
+      <c r="E256" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A257" s="9"/>
       <c r="B257" s="2"/>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
-      <c r="E257" s="21"/>
+      <c r="E257" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A258" s="9"/>
       <c r="B258" s="2"/>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
-      <c r="E258" s="21"/>
+      <c r="E258" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A259" s="9"/>
       <c r="B259" s="2"/>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
-      <c r="E259" s="21"/>
+      <c r="E259" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A260" s="9"/>
       <c r="B260" s="2"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
-      <c r="E260" s="21"/>
+      <c r="E260" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A261" s="9"/>
       <c r="B261" s="2"/>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
-      <c r="E261" s="21"/>
+      <c r="E261" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A262" s="9"/>
       <c r="B262" s="2"/>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
-      <c r="E262" s="21"/>
+      <c r="E262" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A263" s="9"/>
       <c r="B263" s="2"/>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
-      <c r="E263" s="21"/>
+      <c r="E263" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A264" s="9"/>
       <c r="B264" s="2"/>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
-      <c r="E264" s="21"/>
+      <c r="E264" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A265" s="9"/>
       <c r="B265" s="2"/>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
-      <c r="E265" s="21"/>
+      <c r="E265" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A266" s="9"/>
       <c r="B266" s="2"/>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
-      <c r="E266" s="21"/>
+      <c r="E266" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A267" s="9"/>
       <c r="B267" s="2"/>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
-      <c r="E267" s="21"/>
+      <c r="E267" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A268" s="9"/>
       <c r="B268" s="2"/>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
-      <c r="E268" s="21"/>
+      <c r="E268" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A269" s="9"/>
       <c r="B269" s="2"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
-      <c r="E269" s="21"/>
+      <c r="E269" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A270" s="9"/>
       <c r="B270" s="2"/>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
-      <c r="E270" s="21"/>
+      <c r="E270" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A271" s="9"/>
       <c r="B271" s="2"/>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
-      <c r="E271" s="21"/>
+      <c r="E271" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A272" s="9"/>
       <c r="B272" s="2"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
-      <c r="E272" s="21"/>
+      <c r="E272" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A273" s="9"/>
       <c r="B273" s="2"/>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
-      <c r="E273" s="21"/>
+      <c r="E273" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A274" s="9"/>
       <c r="B274" s="2"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
-      <c r="E274" s="21"/>
+      <c r="E274" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A275" s="9"/>
       <c r="B275" s="2"/>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
-      <c r="E275" s="21"/>
+      <c r="E275" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A276" s="9"/>
       <c r="B276" s="2"/>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
-      <c r="E276" s="21"/>
+      <c r="E276" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A277" s="9"/>
       <c r="B277" s="2"/>
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
-      <c r="E277" s="21"/>
+      <c r="E277" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A278" s="9"/>
       <c r="B278" s="2"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
-      <c r="E278" s="21"/>
+      <c r="E278" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A279" s="9"/>
       <c r="B279" s="2"/>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
-      <c r="E279" s="21"/>
+      <c r="E279" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A280" s="9"/>
       <c r="B280" s="2"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
-      <c r="E280" s="21"/>
+      <c r="E280" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A281" s="9"/>
       <c r="B281" s="2"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
-      <c r="E281" s="21"/>
+      <c r="E281" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A282" s="9"/>
       <c r="B282" s="2"/>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
-      <c r="E282" s="21"/>
+      <c r="E282" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A283" s="9"/>
       <c r="B283" s="2"/>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
-      <c r="E283" s="21"/>
+      <c r="E283" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A284" s="9"/>
       <c r="B284" s="2"/>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
-      <c r="E284" s="21"/>
+      <c r="E284" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A285" s="9"/>
       <c r="B285" s="2"/>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
-      <c r="E285" s="21"/>
+      <c r="E285" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A286" s="9"/>
       <c r="B286" s="2"/>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
-      <c r="E286" s="21"/>
+      <c r="E286" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A287" s="9"/>
       <c r="B287" s="2"/>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
-      <c r="E287" s="21"/>
+      <c r="E287" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A288" s="9"/>
       <c r="B288" s="2"/>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
-      <c r="E288" s="21"/>
+      <c r="E288" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A289" s="9"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
-      <c r="E289" s="21"/>
+      <c r="E289" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A290" s="9"/>
       <c r="B290" s="2"/>
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
-      <c r="E290" s="21"/>
+      <c r="E290" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A291" s="9"/>
       <c r="B291" s="2"/>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
-      <c r="E291" s="21"/>
+      <c r="E291" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A292" s="9"/>
       <c r="B292" s="2"/>
       <c r="C292" s="8"/>
       <c r="D292" s="8"/>
-      <c r="E292" s="21"/>
+      <c r="E292" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A293" s="9"/>
       <c r="B293" s="2"/>
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
-      <c r="E293" s="21"/>
+      <c r="E293" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A294" s="9"/>
       <c r="B294" s="2"/>
       <c r="C294" s="8"/>
       <c r="D294" s="8"/>
-      <c r="E294" s="21"/>
+      <c r="E294" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A295" s="9"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
-      <c r="E295" s="21"/>
+      <c r="E295" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A296" s="9"/>
       <c r="B296" s="2"/>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
-      <c r="E296" s="21"/>
+      <c r="E296" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A297" s="9"/>
       <c r="B297" s="2"/>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
-      <c r="E297" s="21"/>
+      <c r="E297" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A298" s="9"/>
       <c r="B298" s="2"/>
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
-      <c r="E298" s="21"/>
+      <c r="E298" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A299" s="9"/>
       <c r="B299" s="2"/>
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
-      <c r="E299" s="21"/>
+      <c r="E299" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A300" s="9"/>
       <c r="B300" s="2"/>
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
-      <c r="E300" s="21"/>
+      <c r="E300" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A301" s="9"/>
       <c r="B301" s="2"/>
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
-      <c r="E301" s="21"/>
+      <c r="E301" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A302" s="9"/>
       <c r="B302" s="2"/>
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
-      <c r="E302" s="21"/>
+      <c r="E302" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A303" s="9"/>
       <c r="B303" s="2"/>
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
-      <c r="E303" s="21"/>
+      <c r="E303" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A304" s="9"/>
       <c r="B304" s="2"/>
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
-      <c r="E304" s="21"/>
+      <c r="E304" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A305" s="9"/>
       <c r="B305" s="2"/>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
-      <c r="E305" s="21"/>
+      <c r="E305" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A306" s="9"/>
       <c r="B306" s="2"/>
       <c r="C306" s="8"/>
       <c r="D306" s="8"/>
-      <c r="E306" s="21"/>
+      <c r="E306" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A307" s="9"/>
       <c r="B307" s="2"/>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
-      <c r="E307" s="21"/>
+      <c r="E307" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A308" s="9"/>
       <c r="B308" s="2"/>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
-      <c r="E308" s="21"/>
+      <c r="E308" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A309" s="9"/>
       <c r="B309" s="2"/>
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
-      <c r="E309" s="21"/>
+      <c r="E309" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A310" s="9"/>
       <c r="B310" s="2"/>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
-      <c r="E310" s="21"/>
+      <c r="E310" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A311" s="9"/>
       <c r="B311" s="2"/>
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
-      <c r="E311" s="21"/>
+      <c r="E311" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A312" s="9"/>
       <c r="B312" s="2"/>
       <c r="C312" s="8"/>
       <c r="D312" s="8"/>
-      <c r="E312" s="21"/>
+      <c r="E312" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A313" s="9"/>
       <c r="B313" s="2"/>
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
-      <c r="E313" s="21"/>
+      <c r="E313" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A314" s="9"/>
       <c r="B314" s="2"/>
       <c r="C314" s="8"/>
       <c r="D314" s="8"/>
-      <c r="E314" s="21"/>
+      <c r="E314" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A315" s="9"/>
       <c r="B315" s="2"/>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
-      <c r="E315" s="21"/>
+      <c r="E315" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A316" s="9"/>
       <c r="B316" s="2"/>
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
-      <c r="E316" s="21"/>
+      <c r="E316" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A317" s="9"/>
       <c r="B317" s="2"/>
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
-      <c r="E317" s="21"/>
+      <c r="E317" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A318" s="9"/>
       <c r="B318" s="2"/>
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
-      <c r="E318" s="21"/>
+      <c r="E318" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A319" s="9"/>
       <c r="B319" s="2"/>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
-      <c r="E319" s="21"/>
+      <c r="E319" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A320" s="9"/>
       <c r="B320" s="2"/>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
-      <c r="E320" s="21"/>
+      <c r="E320" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A321" s="9"/>
       <c r="B321" s="2"/>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
-      <c r="E321" s="21"/>
+      <c r="E321" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A322" s="9"/>
       <c r="B322" s="2"/>
       <c r="C322" s="8"/>
       <c r="D322" s="8"/>
-      <c r="E322" s="21"/>
+      <c r="E322" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A323" s="9"/>
       <c r="B323" s="2"/>
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
-      <c r="E323" s="21"/>
+      <c r="E323" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A324" s="9"/>
       <c r="B324" s="2"/>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
-      <c r="E324" s="21"/>
+      <c r="E324" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A325" s="9"/>
       <c r="B325" s="2"/>
       <c r="C325" s="8"/>
       <c r="D325" s="8"/>
-      <c r="E325" s="21"/>
+      <c r="E325" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A326" s="9"/>
       <c r="B326" s="2"/>
       <c r="C326" s="8"/>
       <c r="D326" s="8"/>
-      <c r="E326" s="21"/>
+      <c r="E326" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A327" s="9"/>
       <c r="B327" s="2"/>
       <c r="C327" s="8"/>
       <c r="D327" s="8"/>
-      <c r="E327" s="21"/>
+      <c r="E327" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A328" s="9"/>
       <c r="B328" s="2"/>
       <c r="C328" s="8"/>
       <c r="D328" s="8"/>
-      <c r="E328" s="21"/>
+      <c r="E328" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A329" s="9"/>
       <c r="B329" s="2"/>
       <c r="C329" s="8"/>
       <c r="D329" s="8"/>
-      <c r="E329" s="21"/>
+      <c r="E329" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A330" s="9"/>
       <c r="B330" s="2"/>
       <c r="C330" s="8"/>
       <c r="D330" s="8"/>
-      <c r="E330" s="21"/>
+      <c r="E330" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A331" s="9"/>
       <c r="B331" s="2"/>
       <c r="C331" s="8"/>
       <c r="D331" s="8"/>
-      <c r="E331" s="21"/>
+      <c r="E331" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A332" s="9"/>
       <c r="B332" s="2"/>
       <c r="C332" s="8"/>
       <c r="D332" s="8"/>
-      <c r="E332" s="21"/>
+      <c r="E332" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A333" s="9"/>
       <c r="B333" s="2"/>
       <c r="C333" s="8"/>
       <c r="D333" s="8"/>
-      <c r="E333" s="21"/>
+      <c r="E333" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A334" s="9"/>
       <c r="B334" s="2"/>
       <c r="C334" s="8"/>
       <c r="D334" s="8"/>
-      <c r="E334" s="21"/>
+      <c r="E334" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A335" s="9"/>
       <c r="B335" s="2"/>
       <c r="C335" s="8"/>
       <c r="D335" s="8"/>
-      <c r="E335" s="21"/>
+      <c r="E335" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A336" s="9"/>
       <c r="B336" s="2"/>
       <c r="C336" s="8"/>
       <c r="D336" s="8"/>
-      <c r="E336" s="21"/>
+      <c r="E336" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A337" s="9"/>
       <c r="B337" s="2"/>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
-      <c r="E337" s="21"/>
+      <c r="E337" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A338" s="9"/>
       <c r="B338" s="2"/>
       <c r="C338" s="8"/>
       <c r="D338" s="8"/>
-      <c r="E338" s="21"/>
+      <c r="E338" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A339" s="9"/>
       <c r="B339" s="2"/>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
-      <c r="E339" s="21"/>
+      <c r="E339" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A340" s="9"/>
       <c r="B340" s="2"/>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
-      <c r="E340" s="21"/>
+      <c r="E340" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A341" s="9"/>
       <c r="B341" s="2"/>
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
-      <c r="E341" s="21"/>
+      <c r="E341" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A342" s="9"/>
       <c r="B342" s="2"/>
       <c r="C342" s="8"/>
       <c r="D342" s="8"/>
-      <c r="E342" s="21"/>
+      <c r="E342" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A343" s="9"/>
       <c r="B343" s="2"/>
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
-      <c r="E343" s="21"/>
+      <c r="E343" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A344" s="9"/>
       <c r="B344" s="2"/>
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
-      <c r="E344" s="21"/>
+      <c r="E344" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A345" s="9"/>
       <c r="B345" s="2"/>
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
-      <c r="E345" s="21"/>
+      <c r="E345" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A346" s="9"/>
       <c r="B346" s="2"/>
       <c r="C346" s="8"/>
       <c r="D346" s="8"/>
-      <c r="E346" s="21"/>
+      <c r="E346" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A347" s="9"/>
       <c r="B347" s="2"/>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
-      <c r="E347" s="21"/>
+      <c r="E347" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A348" s="9"/>
       <c r="B348" s="2"/>
       <c r="C348" s="8"/>
       <c r="D348" s="8"/>
-      <c r="E348" s="21"/>
+      <c r="E348" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A349" s="9"/>
       <c r="B349" s="2"/>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
-      <c r="E349" s="21"/>
+      <c r="E349" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A350" s="9"/>
       <c r="B350" s="2"/>
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
-      <c r="E350" s="21"/>
+      <c r="E350" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A351" s="9"/>
       <c r="B351" s="2"/>
       <c r="C351" s="8"/>
       <c r="D351" s="8"/>
-      <c r="E351" s="21"/>
+      <c r="E351" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A352" s="9"/>
       <c r="B352" s="2"/>
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
-      <c r="E352" s="21"/>
+      <c r="E352" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A353" s="9"/>
       <c r="B353" s="2"/>
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
-      <c r="E353" s="21"/>
+      <c r="E353" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A354" s="9"/>
       <c r="B354" s="2"/>
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
-      <c r="E354" s="21"/>
+      <c r="E354" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A355" s="9"/>
       <c r="B355" s="2"/>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
-      <c r="E355" s="21"/>
+      <c r="E355" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A356" s="9"/>
       <c r="B356" s="2"/>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
-      <c r="E356" s="21"/>
+      <c r="E356" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A357" s="9"/>
       <c r="B357" s="2"/>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
-      <c r="E357" s="21"/>
+      <c r="E357" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A358" s="9"/>
       <c r="B358" s="2"/>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
-      <c r="E358" s="21"/>
+      <c r="E358" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A359" s="9"/>
       <c r="B359" s="2"/>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
-      <c r="E359" s="21"/>
+      <c r="E359" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A360" s="9"/>
       <c r="B360" s="2"/>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
-      <c r="E360" s="21"/>
+      <c r="E360" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A361" s="9"/>
       <c r="B361" s="2"/>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
-      <c r="E361" s="21"/>
+      <c r="E361" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A362" s="9"/>
       <c r="B362" s="2"/>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
-      <c r="E362" s="21"/>
+      <c r="E362" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A363" s="9"/>
       <c r="B363" s="2"/>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
-      <c r="E363" s="21"/>
+      <c r="E363" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A364" s="9"/>
       <c r="B364" s="2"/>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
-      <c r="E364" s="21"/>
+      <c r="E364" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A365" s="9"/>
       <c r="B365" s="2"/>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
-      <c r="E365" s="21"/>
+      <c r="E365" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A366" s="9"/>
       <c r="B366" s="2"/>
       <c r="C366" s="8"/>
       <c r="D366" s="8"/>
-      <c r="E366" s="21"/>
+      <c r="E366" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A367" s="9"/>
       <c r="B367" s="2"/>
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
-      <c r="E367" s="21"/>
+      <c r="E367" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A368" s="9"/>
       <c r="B368" s="2"/>
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
-      <c r="E368" s="21"/>
+      <c r="E368" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A369" s="9"/>
       <c r="B369" s="2"/>
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
-      <c r="E369" s="21"/>
+      <c r="E369" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A370" s="9"/>
       <c r="B370" s="2"/>
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
-      <c r="E370" s="21"/>
+      <c r="E370" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A371" s="9"/>
       <c r="B371" s="2"/>
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
-      <c r="E371" s="21"/>
+      <c r="E371" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A372" s="9"/>
       <c r="B372" s="2"/>
       <c r="C372" s="8"/>
       <c r="D372" s="8"/>
-      <c r="E372" s="21"/>
+      <c r="E372" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A373" s="9"/>
       <c r="B373" s="2"/>
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
-      <c r="E373" s="21"/>
+      <c r="E373" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A374" s="9"/>
       <c r="B374" s="2"/>
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
-      <c r="E374" s="21"/>
+      <c r="E374" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A375" s="9"/>
       <c r="B375" s="2"/>
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
-      <c r="E375" s="21"/>
+      <c r="E375" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A376" s="9"/>
       <c r="B376" s="2"/>
       <c r="C376" s="8"/>
       <c r="D376" s="8"/>
-      <c r="E376" s="21"/>
+      <c r="E376" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A377" s="9"/>
       <c r="B377" s="2"/>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
-      <c r="E377" s="21"/>
+      <c r="E377" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A378" s="9"/>
       <c r="B378" s="2"/>
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
-      <c r="E378" s="21"/>
+      <c r="E378" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A379" s="9"/>
       <c r="B379" s="2"/>
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
-      <c r="E379" s="21"/>
+      <c r="E379" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A380" s="9"/>
       <c r="B380" s="2"/>
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
-      <c r="E380" s="21"/>
+      <c r="E380" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A381" s="9"/>
       <c r="B381" s="2"/>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
-      <c r="E381" s="21"/>
+      <c r="E381" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A382" s="9"/>
       <c r="B382" s="2"/>
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
-      <c r="E382" s="21"/>
+      <c r="E382" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A383" s="9"/>
       <c r="B383" s="2"/>
       <c r="C383" s="8"/>
       <c r="D383" s="8"/>
-      <c r="E383" s="21"/>
+      <c r="E383" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A384" s="9"/>
       <c r="B384" s="2"/>
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
-      <c r="E384" s="21"/>
+      <c r="E384" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A385" s="9"/>
       <c r="B385" s="2"/>
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
-      <c r="E385" s="21"/>
+      <c r="E385" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A386" s="9"/>
       <c r="B386" s="2"/>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
-      <c r="E386" s="21"/>
+      <c r="E386" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A387" s="9"/>
       <c r="B387" s="2"/>
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
-      <c r="E387" s="21"/>
+      <c r="E387" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A388" s="9"/>
       <c r="B388" s="2"/>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
-      <c r="E388" s="21"/>
+      <c r="E388" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A389" s="9"/>
       <c r="B389" s="2"/>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
-      <c r="E389" s="21"/>
+      <c r="E389" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A390" s="9"/>
       <c r="B390" s="2"/>
       <c r="C390" s="8"/>
       <c r="D390" s="8"/>
-      <c r="E390" s="21"/>
+      <c r="E390" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A391" s="9"/>
       <c r="B391" s="2"/>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
-      <c r="E391" s="21"/>
+      <c r="E391" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A392" s="9"/>
       <c r="B392" s="2"/>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
-      <c r="E392" s="21"/>
+      <c r="E392" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A393" s="9"/>
       <c r="B393" s="2"/>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
-      <c r="E393" s="21"/>
+      <c r="E393" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A394" s="9"/>
       <c r="B394" s="2"/>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
-      <c r="E394" s="21"/>
+      <c r="E394" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A395" s="9"/>
       <c r="B395" s="2"/>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
-      <c r="E395" s="21"/>
+      <c r="E395" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A396" s="9"/>
       <c r="B396" s="2"/>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
-      <c r="E396" s="21"/>
+      <c r="E396" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A397" s="9"/>
       <c r="B397" s="2"/>
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
-      <c r="E397" s="21"/>
+      <c r="E397" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A398" s="9"/>
       <c r="B398" s="2"/>
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
-      <c r="E398" s="21"/>
+      <c r="E398" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A399" s="9"/>
       <c r="B399" s="2"/>
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
-      <c r="E399" s="21"/>
+      <c r="E399" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A400" s="9"/>
       <c r="B400" s="2"/>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
-      <c r="E400" s="21"/>
+      <c r="E400" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A401" s="9"/>
       <c r="B401" s="2"/>
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
-      <c r="E401" s="21"/>
+      <c r="E401" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A402" s="9"/>
       <c r="B402" s="2"/>
       <c r="C402" s="8"/>
       <c r="D402" s="8"/>
-      <c r="E402" s="21"/>
+      <c r="E402" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A403" s="9"/>
       <c r="B403" s="2"/>
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
-      <c r="E403" s="21"/>
+      <c r="E403" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A404" s="9"/>
       <c r="B404" s="2"/>
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
-      <c r="E404" s="21"/>
+      <c r="E404" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A405" s="9"/>
       <c r="B405" s="2"/>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
-      <c r="E405" s="21"/>
+      <c r="E405" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A406" s="9"/>
       <c r="B406" s="2"/>
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
-      <c r="E406" s="21"/>
+      <c r="E406" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A407" s="9"/>
       <c r="B407" s="2"/>
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
-      <c r="E407" s="21"/>
+      <c r="E407" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A408" s="9"/>
       <c r="B408" s="2"/>
       <c r="C408" s="8"/>
       <c r="D408" s="8"/>
-      <c r="E408" s="21"/>
+      <c r="E408" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A409" s="9"/>
       <c r="B409" s="2"/>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
-      <c r="E409" s="21"/>
+      <c r="E409" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A410" s="9"/>
       <c r="B410" s="2"/>
       <c r="C410" s="8"/>
       <c r="D410" s="8"/>
-      <c r="E410" s="21"/>
+      <c r="E410" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A411" s="9"/>
       <c r="B411" s="2"/>
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
-      <c r="E411" s="21"/>
+      <c r="E411" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A412" s="9"/>
       <c r="B412" s="2"/>
       <c r="C412" s="8"/>
       <c r="D412" s="8"/>
-      <c r="E412" s="21"/>
+      <c r="E412" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A413" s="9"/>
       <c r="B413" s="2"/>
       <c r="C413" s="8"/>
       <c r="D413" s="8"/>
-      <c r="E413" s="21"/>
+      <c r="E413" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A414" s="9"/>
       <c r="B414" s="2"/>
       <c r="C414" s="8"/>
       <c r="D414" s="8"/>
-      <c r="E414" s="21"/>
+      <c r="E414" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A415" s="9"/>
       <c r="B415" s="2"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
-      <c r="E415" s="21"/>
+      <c r="E415" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A416" s="9"/>
       <c r="B416" s="2"/>
       <c r="C416" s="8"/>
       <c r="D416" s="8"/>
-      <c r="E416" s="21"/>
+      <c r="E416" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A417" s="9"/>
       <c r="B417" s="2"/>
       <c r="C417" s="8"/>
       <c r="D417" s="8"/>
-      <c r="E417" s="21"/>
+      <c r="E417" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A418" s="9"/>
       <c r="B418" s="2"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
-      <c r="E418" s="21"/>
+      <c r="E418" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A419" s="9"/>
       <c r="B419" s="2"/>
       <c r="C419" s="8"/>
       <c r="D419" s="8"/>
-      <c r="E419" s="21"/>
+      <c r="E419" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A420" s="9"/>
       <c r="B420" s="2"/>
       <c r="C420" s="8"/>
       <c r="D420" s="8"/>
-      <c r="E420" s="21"/>
+      <c r="E420" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A421" s="9"/>
       <c r="B421" s="2"/>
       <c r="C421" s="8"/>
       <c r="D421" s="8"/>
-      <c r="E421" s="21"/>
+      <c r="E421" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A422" s="9"/>
       <c r="B422" s="2"/>
       <c r="C422" s="8"/>
       <c r="D422" s="8"/>
-      <c r="E422" s="21"/>
+      <c r="E422" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A423" s="9"/>
       <c r="B423" s="2"/>
       <c r="C423" s="8"/>
       <c r="D423" s="8"/>
-      <c r="E423" s="21"/>
+      <c r="E423" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A424" s="9"/>
       <c r="B424" s="2"/>
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
-      <c r="E424" s="21"/>
+      <c r="E424" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A425" s="9"/>
       <c r="B425" s="2"/>
       <c r="C425" s="8"/>
       <c r="D425" s="8"/>
-      <c r="E425" s="21"/>
+      <c r="E425" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A426" s="9"/>
       <c r="B426" s="2"/>
       <c r="C426" s="8"/>
       <c r="D426" s="8"/>
-      <c r="E426" s="21"/>
+      <c r="E426" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A427" s="9"/>
       <c r="B427" s="2"/>
       <c r="C427" s="8"/>
       <c r="D427" s="8"/>
-      <c r="E427" s="21"/>
+      <c r="E427" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A428" s="9"/>
       <c r="B428" s="2"/>
       <c r="C428" s="8"/>
       <c r="D428" s="8"/>
-      <c r="E428" s="21"/>
+      <c r="E428" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A429" s="9"/>
       <c r="B429" s="2"/>
       <c r="C429" s="8"/>
       <c r="D429" s="8"/>
-      <c r="E429" s="21"/>
+      <c r="E429" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A430" s="9"/>
       <c r="B430" s="2"/>
       <c r="C430" s="8"/>
       <c r="D430" s="8"/>
-      <c r="E430" s="21"/>
+      <c r="E430" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A431" s="9"/>
       <c r="B431" s="2"/>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
-      <c r="E431" s="21"/>
+      <c r="E431" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A432" s="9"/>
       <c r="B432" s="2"/>
       <c r="C432" s="8"/>
       <c r="D432" s="8"/>
-      <c r="E432" s="21"/>
+      <c r="E432" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A433" s="9"/>
       <c r="B433" s="2"/>
       <c r="C433" s="8"/>
       <c r="D433" s="8"/>
-      <c r="E433" s="21"/>
+      <c r="E433" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A434" s="9"/>
       <c r="B434" s="2"/>
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
-      <c r="E434" s="21"/>
+      <c r="E434" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A435" s="9"/>
       <c r="B435" s="2"/>
       <c r="C435" s="8"/>
       <c r="D435" s="8"/>
-      <c r="E435" s="21"/>
+      <c r="E435" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A436" s="9"/>
       <c r="B436" s="2"/>
       <c r="C436" s="8"/>
       <c r="D436" s="8"/>
-      <c r="E436" s="21"/>
+      <c r="E436" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A437" s="9"/>
       <c r="B437" s="2"/>
       <c r="C437" s="8"/>
       <c r="D437" s="8"/>
-      <c r="E437" s="21"/>
+      <c r="E437" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A438" s="9"/>
       <c r="B438" s="2"/>
       <c r="C438" s="8"/>
       <c r="D438" s="8"/>
-      <c r="E438" s="21"/>
+      <c r="E438" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A439" s="9"/>
       <c r="B439" s="2"/>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
-      <c r="E439" s="21"/>
+      <c r="E439" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A440" s="9"/>
       <c r="B440" s="2"/>
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
-      <c r="E440" s="21"/>
+      <c r="E440" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A441" s="9"/>
       <c r="B441" s="2"/>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
-      <c r="E441" s="21"/>
+      <c r="E441" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A442" s="9"/>
       <c r="B442" s="2"/>
       <c r="C442" s="8"/>
       <c r="D442" s="8"/>
-      <c r="E442" s="21"/>
+      <c r="E442" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A443" s="9"/>
       <c r="B443" s="2"/>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
-      <c r="E443" s="21"/>
+      <c r="E443" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A444" s="9"/>
       <c r="B444" s="2"/>
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
-      <c r="E444" s="21"/>
+      <c r="E444" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A445" s="9"/>
       <c r="B445" s="2"/>
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
-      <c r="E445" s="21"/>
+      <c r="E445" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A446" s="9"/>
       <c r="B446" s="2"/>
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
-      <c r="E446" s="21"/>
+      <c r="E446" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A447" s="9"/>
       <c r="B447" s="2"/>
       <c r="C447" s="8"/>
       <c r="D447" s="8"/>
-      <c r="E447" s="21"/>
+      <c r="E447" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A448" s="9"/>
       <c r="B448" s="2"/>
       <c r="C448" s="8"/>
       <c r="D448" s="8"/>
-      <c r="E448" s="21"/>
+      <c r="E448" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A449" s="9"/>
       <c r="B449" s="2"/>
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
-      <c r="E449" s="21"/>
+      <c r="E449" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A450" s="9"/>
       <c r="B450" s="2"/>
       <c r="C450" s="8"/>
       <c r="D450" s="8"/>
-      <c r="E450" s="21"/>
+      <c r="E450" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A451" s="9"/>
       <c r="B451" s="2"/>
       <c r="C451" s="8"/>
       <c r="D451" s="8"/>
-      <c r="E451" s="21"/>
+      <c r="E451" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A452" s="9"/>
       <c r="B452" s="2"/>
       <c r="C452" s="8"/>
       <c r="D452" s="8"/>
-      <c r="E452" s="21"/>
+      <c r="E452" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A453" s="9"/>
       <c r="B453" s="2"/>
       <c r="C453" s="8"/>
       <c r="D453" s="8"/>
-      <c r="E453" s="21"/>
+      <c r="E453" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A454" s="9"/>
       <c r="B454" s="2"/>
       <c r="C454" s="8"/>
       <c r="D454" s="8"/>
-      <c r="E454" s="21"/>
+      <c r="E454" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A455" s="9"/>
       <c r="B455" s="2"/>
       <c r="C455" s="8"/>
       <c r="D455" s="8"/>
-      <c r="E455" s="21"/>
+      <c r="E455" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A456" s="9"/>
       <c r="B456" s="2"/>
       <c r="C456" s="8"/>
       <c r="D456" s="8"/>
-      <c r="E456" s="21"/>
+      <c r="E456" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A457" s="9"/>
       <c r="B457" s="2"/>
       <c r="C457" s="8"/>
       <c r="D457" s="8"/>
-      <c r="E457" s="21"/>
+      <c r="E457" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A458" s="9"/>
       <c r="B458" s="2"/>
       <c r="C458" s="8"/>
       <c r="D458" s="8"/>
-      <c r="E458" s="21"/>
+      <c r="E458" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A459" s="9"/>
       <c r="B459" s="2"/>
       <c r="C459" s="8"/>
       <c r="D459" s="8"/>
-      <c r="E459" s="21"/>
+      <c r="E459" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A460" s="9"/>
       <c r="B460" s="2"/>
       <c r="C460" s="8"/>
       <c r="D460" s="8"/>
-      <c r="E460" s="21"/>
+      <c r="E460" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A461" s="9"/>
       <c r="B461" s="2"/>
       <c r="C461" s="8"/>
       <c r="D461" s="8"/>
-      <c r="E461" s="21"/>
+      <c r="E461" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A462" s="9"/>
       <c r="B462" s="2"/>
       <c r="C462" s="8"/>
       <c r="D462" s="8"/>
-      <c r="E462" s="21"/>
+      <c r="E462" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A463" s="9"/>
       <c r="B463" s="2"/>
       <c r="C463" s="8"/>
       <c r="D463" s="8"/>
-      <c r="E463" s="21"/>
+      <c r="E463" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A464" s="9"/>
       <c r="B464" s="2"/>
       <c r="C464" s="8"/>
       <c r="D464" s="8"/>
-      <c r="E464" s="21"/>
+      <c r="E464" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A465" s="9"/>
       <c r="B465" s="2"/>
       <c r="C465" s="8"/>
       <c r="D465" s="8"/>
-      <c r="E465" s="21"/>
+      <c r="E465" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A466" s="9"/>
       <c r="B466" s="2"/>
       <c r="C466" s="8"/>
       <c r="D466" s="8"/>
-      <c r="E466" s="21"/>
+      <c r="E466" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A467" s="9"/>
       <c r="B467" s="2"/>
       <c r="C467" s="8"/>
       <c r="D467" s="8"/>
-      <c r="E467" s="21"/>
+      <c r="E467" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A468" s="9"/>
       <c r="B468" s="2"/>
       <c r="C468" s="8"/>
       <c r="D468" s="8"/>
-      <c r="E468" s="21"/>
+      <c r="E468" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A469" s="9"/>
       <c r="B469" s="2"/>
       <c r="C469" s="8"/>
       <c r="D469" s="8"/>
-      <c r="E469" s="21"/>
+      <c r="E469" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A470" s="9"/>
       <c r="B470" s="2"/>
       <c r="C470" s="8"/>
       <c r="D470" s="8"/>
-      <c r="E470" s="21"/>
+      <c r="E470" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A471" s="9"/>
       <c r="B471" s="2"/>
       <c r="C471" s="8"/>
       <c r="D471" s="8"/>
-      <c r="E471" s="21"/>
+      <c r="E471" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A472" s="9"/>
       <c r="B472" s="2"/>
       <c r="C472" s="8"/>
       <c r="D472" s="8"/>
-      <c r="E472" s="21"/>
+      <c r="E472" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A473" s="9"/>
       <c r="B473" s="2"/>
       <c r="C473" s="8"/>
       <c r="D473" s="8"/>
-      <c r="E473" s="21"/>
+      <c r="E473" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A474" s="9"/>
       <c r="B474" s="2"/>
       <c r="C474" s="8"/>
       <c r="D474" s="8"/>
-      <c r="E474" s="21"/>
+      <c r="E474" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A475" s="9"/>
       <c r="B475" s="2"/>
       <c r="C475" s="8"/>
       <c r="D475" s="8"/>
-      <c r="E475" s="21"/>
+      <c r="E475" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A476" s="9"/>
       <c r="B476" s="2"/>
       <c r="C476" s="8"/>
       <c r="D476" s="8"/>
-      <c r="E476" s="21"/>
+      <c r="E476" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A477" s="9"/>
       <c r="B477" s="2"/>
       <c r="C477" s="8"/>
       <c r="D477" s="8"/>
-      <c r="E477" s="21"/>
+      <c r="E477" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A478" s="9"/>
       <c r="B478" s="2"/>
       <c r="C478" s="8"/>
       <c r="D478" s="8"/>
-      <c r="E478" s="21"/>
+      <c r="E478" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A479" s="9"/>
       <c r="B479" s="2"/>
       <c r="C479" s="8"/>
       <c r="D479" s="8"/>
-      <c r="E479" s="21"/>
+      <c r="E479" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A480" s="9"/>
       <c r="B480" s="2"/>
       <c r="C480" s="8"/>
       <c r="D480" s="8"/>
-      <c r="E480" s="21"/>
+      <c r="E480" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A481" s="9"/>
       <c r="B481" s="2"/>
       <c r="C481" s="8"/>
       <c r="D481" s="8"/>
-      <c r="E481" s="21"/>
+      <c r="E481" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A482" s="9"/>
       <c r="B482" s="2"/>
       <c r="C482" s="8"/>
       <c r="D482" s="8"/>
-      <c r="E482" s="21"/>
+      <c r="E482" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A483" s="9"/>
       <c r="B483" s="2"/>
       <c r="C483" s="8"/>
       <c r="D483" s="8"/>
-      <c r="E483" s="21"/>
+      <c r="E483" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A484" s="9"/>
       <c r="B484" s="2"/>
       <c r="C484" s="8"/>
       <c r="D484" s="8"/>
-      <c r="E484" s="21"/>
+      <c r="E484" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A485" s="9"/>
       <c r="B485" s="2"/>
       <c r="C485" s="8"/>
       <c r="D485" s="8"/>
-      <c r="E485" s="21"/>
+      <c r="E485" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A486" s="9"/>
       <c r="B486" s="2"/>
       <c r="C486" s="8"/>
       <c r="D486" s="8"/>
-      <c r="E486" s="21"/>
+      <c r="E486" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A487" s="9"/>
       <c r="B487" s="2"/>
       <c r="C487" s="8"/>
       <c r="D487" s="8"/>
-      <c r="E487" s="21"/>
+      <c r="E487" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A488" s="9"/>
       <c r="B488" s="2"/>
       <c r="C488" s="8"/>
       <c r="D488" s="8"/>
-      <c r="E488" s="21"/>
+      <c r="E488" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A489" s="9"/>
       <c r="B489" s="2"/>
       <c r="C489" s="8"/>
       <c r="D489" s="8"/>
-      <c r="E489" s="21"/>
+      <c r="E489" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A490" s="9"/>
       <c r="B490" s="2"/>
       <c r="C490" s="8"/>
       <c r="D490" s="8"/>
-      <c r="E490" s="21"/>
+      <c r="E490" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A491" s="9"/>
       <c r="B491" s="2"/>
       <c r="C491" s="8"/>
       <c r="D491" s="8"/>
-      <c r="E491" s="21"/>
+      <c r="E491" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A492" s="9"/>
       <c r="B492" s="2"/>
       <c r="C492" s="8"/>
       <c r="D492" s="8"/>
-      <c r="E492" s="21"/>
+      <c r="E492" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A493" s="9"/>
       <c r="B493" s="2"/>
       <c r="C493" s="8"/>
       <c r="D493" s="8"/>
-      <c r="E493" s="21"/>
+      <c r="E493" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A494" s="9"/>
       <c r="B494" s="2"/>
       <c r="C494" s="8"/>
       <c r="D494" s="8"/>
-      <c r="E494" s="21"/>
+      <c r="E494" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A495" s="9"/>
       <c r="B495" s="2"/>
       <c r="C495" s="8"/>
       <c r="D495" s="8"/>
-      <c r="E495" s="21"/>
+      <c r="E495" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A496" s="9"/>
       <c r="B496" s="2"/>
       <c r="C496" s="8"/>
       <c r="D496" s="8"/>
-      <c r="E496" s="21"/>
+      <c r="E496" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A497" s="9"/>
       <c r="B497" s="2"/>
       <c r="C497" s="8"/>
       <c r="D497" s="8"/>
-      <c r="E497" s="21"/>
+      <c r="E497" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A498" s="9"/>
       <c r="B498" s="2"/>
       <c r="C498" s="8"/>
       <c r="D498" s="8"/>
-      <c r="E498" s="21"/>
+      <c r="E498" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A499" s="9"/>
       <c r="B499" s="2"/>
       <c r="C499" s="8"/>
       <c r="D499" s="8"/>
-      <c r="E499" s="21"/>
+      <c r="E499" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A500" s="9"/>
       <c r="B500" s="2"/>
       <c r="C500" s="8"/>
       <c r="D500" s="8"/>
-      <c r="E500" s="21"/>
+      <c r="E500" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A501" s="9"/>
       <c r="B501" s="2"/>
       <c r="C501" s="8"/>
       <c r="D501" s="8"/>
-      <c r="E501" s="21"/>
+      <c r="E501" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A502" s="9"/>
       <c r="B502" s="2"/>
       <c r="C502" s="8"/>
       <c r="D502" s="8"/>
-      <c r="E502" s="21"/>
+      <c r="E502" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A503" s="9"/>
       <c r="B503" s="2"/>
       <c r="C503" s="8"/>
       <c r="D503" s="8"/>
-      <c r="E503" s="21"/>
+      <c r="E503" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A504" s="9"/>
       <c r="B504" s="2"/>
       <c r="C504" s="8"/>
       <c r="D504" s="8"/>
-      <c r="E504" s="21"/>
+      <c r="E504" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A505" s="9"/>
       <c r="B505" s="2"/>
       <c r="C505" s="8"/>
       <c r="D505" s="8"/>
-      <c r="E505" s="21"/>
+      <c r="E505" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A506" s="9"/>
       <c r="B506" s="2"/>
       <c r="C506" s="8"/>
       <c r="D506" s="8"/>
-      <c r="E506" s="21"/>
+      <c r="E506" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A507" s="9"/>
       <c r="B507" s="2"/>
       <c r="C507" s="8"/>
       <c r="D507" s="8"/>
-      <c r="E507" s="21"/>
+      <c r="E507" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A508" s="9"/>
       <c r="B508" s="2"/>
       <c r="C508" s="8"/>
       <c r="D508" s="8"/>
-      <c r="E508" s="21"/>
+      <c r="E508" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A509" s="9"/>
       <c r="B509" s="2"/>
       <c r="C509" s="8"/>
       <c r="D509" s="8"/>
-      <c r="E509" s="21"/>
+      <c r="E509" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A510" s="9"/>
       <c r="B510" s="2"/>
       <c r="C510" s="8"/>
       <c r="D510" s="8"/>
-      <c r="E510" s="21"/>
+      <c r="E510" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A511" s="9"/>
       <c r="B511" s="2"/>
       <c r="C511" s="8"/>
       <c r="D511" s="8"/>
-      <c r="E511" s="21"/>
+      <c r="E511" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A512" s="9"/>
       <c r="B512" s="2"/>
       <c r="C512" s="8"/>
       <c r="D512" s="8"/>
-      <c r="E512" s="21"/>
+      <c r="E512" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A513" s="9"/>
       <c r="B513" s="2"/>
       <c r="C513" s="8"/>
       <c r="D513" s="8"/>
-      <c r="E513" s="21"/>
+      <c r="E513" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A514" s="9"/>
       <c r="B514" s="2"/>
       <c r="C514" s="8"/>
       <c r="D514" s="8"/>
-      <c r="E514" s="21"/>
+      <c r="E514" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A515" s="9"/>
       <c r="B515" s="2"/>
       <c r="C515" s="8"/>
       <c r="D515" s="8"/>
-      <c r="E515" s="21"/>
+      <c r="E515" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A516" s="9"/>
       <c r="B516" s="2"/>
       <c r="C516" s="8"/>
       <c r="D516" s="8"/>
-      <c r="E516" s="21"/>
+      <c r="E516" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A517" s="9"/>
       <c r="B517" s="2"/>
       <c r="C517" s="8"/>
       <c r="D517" s="8"/>
-      <c r="E517" s="21"/>
+      <c r="E517" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A518" s="9"/>
       <c r="B518" s="2"/>
       <c r="C518" s="8"/>
       <c r="D518" s="8"/>
-      <c r="E518" s="21"/>
+      <c r="E518" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A519" s="9"/>
       <c r="B519" s="2"/>
       <c r="C519" s="8"/>
       <c r="D519" s="8"/>
-      <c r="E519" s="21"/>
+      <c r="E519" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A520" s="9"/>
       <c r="B520" s="2"/>
       <c r="C520" s="8"/>
       <c r="D520" s="8"/>
-      <c r="E520" s="21"/>
+      <c r="E520" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A521" s="9"/>
       <c r="B521" s="2"/>
       <c r="C521" s="8"/>
       <c r="D521" s="8"/>
-      <c r="E521" s="21"/>
+      <c r="E521" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A522" s="9"/>
       <c r="B522" s="2"/>
       <c r="C522" s="8"/>
       <c r="D522" s="8"/>
-      <c r="E522" s="21"/>
+      <c r="E522" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A523" s="9"/>
       <c r="B523" s="2"/>
       <c r="C523" s="8"/>
       <c r="D523" s="8"/>
-      <c r="E523" s="21"/>
+      <c r="E523" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A524" s="9"/>
       <c r="B524" s="2"/>
       <c r="C524" s="8"/>
       <c r="D524" s="8"/>
-      <c r="E524" s="21"/>
+      <c r="E524" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A525" s="9"/>
       <c r="B525" s="2"/>
       <c r="C525" s="8"/>
       <c r="D525" s="8"/>
-      <c r="E525" s="21"/>
+      <c r="E525" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A526" s="9"/>
       <c r="B526" s="2"/>
       <c r="C526" s="8"/>
       <c r="D526" s="8"/>
-      <c r="E526" s="21"/>
+      <c r="E526" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A527" s="9"/>
       <c r="B527" s="2"/>
       <c r="C527" s="8"/>
       <c r="D527" s="8"/>
-      <c r="E527" s="21"/>
+      <c r="E527" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A528" s="9"/>
       <c r="B528" s="2"/>
       <c r="C528" s="8"/>
       <c r="D528" s="8"/>
-      <c r="E528" s="21"/>
+      <c r="E528" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A529" s="9"/>
       <c r="B529" s="2"/>
       <c r="C529" s="8"/>
       <c r="D529" s="8"/>
-      <c r="E529" s="21"/>
+      <c r="E529" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A530" s="9"/>
       <c r="B530" s="2"/>
       <c r="C530" s="8"/>
       <c r="D530" s="8"/>
-      <c r="E530" s="21"/>
+      <c r="E530" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A531" s="9"/>
       <c r="B531" s="2"/>
       <c r="C531" s="8"/>
       <c r="D531" s="8"/>
-      <c r="E531" s="21"/>
+      <c r="E531" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A532" s="9"/>
       <c r="B532" s="2"/>
       <c r="C532" s="8"/>
       <c r="D532" s="8"/>
-      <c r="E532" s="21"/>
+      <c r="E532" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A533" s="9"/>
       <c r="B533" s="2"/>
       <c r="C533" s="8"/>
       <c r="D533" s="8"/>
-      <c r="E533" s="21"/>
+      <c r="E533" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A534" s="9"/>
       <c r="B534" s="2"/>
       <c r="C534" s="8"/>
       <c r="D534" s="8"/>
-      <c r="E534" s="21"/>
+      <c r="E534" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A535" s="9"/>
       <c r="B535" s="2"/>
       <c r="C535" s="8"/>
       <c r="D535" s="8"/>
-      <c r="E535" s="21"/>
+      <c r="E535" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A536" s="9"/>
       <c r="B536" s="2"/>
       <c r="C536" s="8"/>
       <c r="D536" s="8"/>
-      <c r="E536" s="21"/>
+      <c r="E536" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A537" s="9"/>
       <c r="B537" s="2"/>
       <c r="C537" s="8"/>
       <c r="D537" s="8"/>
-      <c r="E537" s="21"/>
+      <c r="E537" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A538" s="9"/>
       <c r="B538" s="2"/>
       <c r="C538" s="8"/>
       <c r="D538" s="8"/>
-      <c r="E538" s="21"/>
+      <c r="E538" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A539" s="9"/>
       <c r="B539" s="2"/>
       <c r="C539" s="8"/>
       <c r="D539" s="8"/>
-      <c r="E539" s="21"/>
+      <c r="E539" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A540" s="9"/>
       <c r="B540" s="2"/>
       <c r="C540" s="8"/>
       <c r="D540" s="8"/>
-      <c r="E540" s="21"/>
+      <c r="E540" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A541" s="9"/>
       <c r="B541" s="2"/>
       <c r="C541" s="8"/>
       <c r="D541" s="8"/>
-      <c r="E541" s="21"/>
+      <c r="E541" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A542" s="9"/>
       <c r="B542" s="2"/>
       <c r="C542" s="8"/>
       <c r="D542" s="8"/>
-      <c r="E542" s="21"/>
+      <c r="E542" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A543" s="9"/>
       <c r="B543" s="2"/>
       <c r="C543" s="8"/>
       <c r="D543" s="8"/>
-      <c r="E543" s="21"/>
+      <c r="E543" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A544" s="9"/>
       <c r="B544" s="2"/>
       <c r="C544" s="8"/>
       <c r="D544" s="8"/>
-      <c r="E544" s="21"/>
+      <c r="E544" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A545" s="9"/>
       <c r="B545" s="2"/>
       <c r="C545" s="8"/>
       <c r="D545" s="8"/>
-      <c r="E545" s="21"/>
+      <c r="E545" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A546" s="9"/>
       <c r="B546" s="2"/>
       <c r="C546" s="8"/>
       <c r="D546" s="8"/>
-      <c r="E546" s="21"/>
+      <c r="E546" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A547" s="9"/>
       <c r="B547" s="2"/>
       <c r="C547" s="8"/>
       <c r="D547" s="8"/>
-      <c r="E547" s="21"/>
+      <c r="E547" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A548" s="9"/>
       <c r="B548" s="2"/>
       <c r="C548" s="8"/>
       <c r="D548" s="8"/>
-      <c r="E548" s="21"/>
+      <c r="E548" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A549" s="9"/>
       <c r="B549" s="2"/>
       <c r="C549" s="8"/>
       <c r="D549" s="8"/>
-      <c r="E549" s="21"/>
+      <c r="E549" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A550" s="9"/>
       <c r="B550" s="2"/>
       <c r="C550" s="8"/>
       <c r="D550" s="8"/>
-      <c r="E550" s="21"/>
+      <c r="E550" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A551" s="9"/>
       <c r="B551" s="2"/>
       <c r="C551" s="8"/>
       <c r="D551" s="8"/>
-      <c r="E551" s="21"/>
+      <c r="E551" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A552" s="9"/>
       <c r="B552" s="2"/>
       <c r="C552" s="8"/>
       <c r="D552" s="8"/>
-      <c r="E552" s="21"/>
+      <c r="E552" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A553" s="9"/>
       <c r="B553" s="2"/>
       <c r="C553" s="8"/>
       <c r="D553" s="8"/>
-      <c r="E553" s="21"/>
+      <c r="E553" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A554" s="9"/>
       <c r="B554" s="2"/>
       <c r="C554" s="8"/>
       <c r="D554" s="8"/>
-      <c r="E554" s="21"/>
+      <c r="E554" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A555" s="9"/>
       <c r="B555" s="2"/>
       <c r="C555" s="8"/>
       <c r="D555" s="8"/>
-      <c r="E555" s="21"/>
+      <c r="E555" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A556" s="9"/>
       <c r="B556" s="2"/>
       <c r="C556" s="8"/>
       <c r="D556" s="8"/>
-      <c r="E556" s="21"/>
+      <c r="E556" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A557" s="9"/>
       <c r="B557" s="2"/>
       <c r="C557" s="8"/>
       <c r="D557" s="8"/>
-      <c r="E557" s="21"/>
+      <c r="E557" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A558" s="9"/>
       <c r="B558" s="2"/>
       <c r="C558" s="8"/>
       <c r="D558" s="8"/>
-      <c r="E558" s="21"/>
+      <c r="E558" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A559" s="9"/>
       <c r="B559" s="2"/>
       <c r="C559" s="8"/>
       <c r="D559" s="8"/>
-      <c r="E559" s="21"/>
+      <c r="E559" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A560" s="9"/>
       <c r="B560" s="2"/>
       <c r="C560" s="8"/>
       <c r="D560" s="8"/>
-      <c r="E560" s="21"/>
+      <c r="E560" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A561" s="9"/>
       <c r="B561" s="2"/>
       <c r="C561" s="8"/>
       <c r="D561" s="8"/>
-      <c r="E561" s="21"/>
+      <c r="E561" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A562" s="9"/>
       <c r="B562" s="2"/>
       <c r="C562" s="8"/>
       <c r="D562" s="8"/>
-      <c r="E562" s="21"/>
+      <c r="E562" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A563" s="9"/>
       <c r="B563" s="2"/>
       <c r="C563" s="8"/>
       <c r="D563" s="8"/>
-      <c r="E563" s="21"/>
+      <c r="E563" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A564" s="9"/>
       <c r="B564" s="2"/>
       <c r="C564" s="8"/>
       <c r="D564" s="8"/>
-      <c r="E564" s="21"/>
+      <c r="E564" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A565" s="9"/>
       <c r="B565" s="2"/>
       <c r="C565" s="8"/>
       <c r="D565" s="8"/>
-      <c r="E565" s="21"/>
+      <c r="E565" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A566" s="9"/>
       <c r="B566" s="2"/>
       <c r="C566" s="8"/>
       <c r="D566" s="8"/>
-      <c r="E566" s="21"/>
+      <c r="E566" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A567" s="9"/>
       <c r="B567" s="2"/>
       <c r="C567" s="8"/>
       <c r="D567" s="8"/>
-      <c r="E567" s="21"/>
+      <c r="E567" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A568" s="9"/>
       <c r="B568" s="2"/>
       <c r="C568" s="8"/>
       <c r="D568" s="8"/>
-      <c r="E568" s="21"/>
+      <c r="E568" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A569" s="9"/>
       <c r="B569" s="2"/>
       <c r="C569" s="8"/>
       <c r="D569" s="8"/>
-      <c r="E569" s="21"/>
+      <c r="E569" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A570" s="9"/>
       <c r="B570" s="2"/>
       <c r="C570" s="8"/>
       <c r="D570" s="8"/>
-      <c r="E570" s="21"/>
+      <c r="E570" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A571" s="9"/>
       <c r="B571" s="2"/>
       <c r="C571" s="8"/>
       <c r="D571" s="8"/>
-      <c r="E571" s="21"/>
+      <c r="E571" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A572" s="9"/>
       <c r="B572" s="2"/>
       <c r="C572" s="8"/>
       <c r="D572" s="8"/>
-      <c r="E572" s="21"/>
+      <c r="E572" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A573" s="9"/>
       <c r="B573" s="2"/>
       <c r="C573" s="8"/>
       <c r="D573" s="8"/>
-      <c r="E573" s="21"/>
+      <c r="E573" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A574" s="9"/>
       <c r="B574" s="2"/>
       <c r="C574" s="8"/>
       <c r="D574" s="8"/>
-      <c r="E574" s="21"/>
+      <c r="E574" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A575" s="9"/>
       <c r="B575" s="2"/>
       <c r="C575" s="8"/>
       <c r="D575" s="8"/>
-      <c r="E575" s="21"/>
+      <c r="E575" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A576" s="9"/>
       <c r="B576" s="2"/>
       <c r="C576" s="8"/>
       <c r="D576" s="8"/>
-      <c r="E576" s="21"/>
+      <c r="E576" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A577" s="9"/>
       <c r="B577" s="2"/>
       <c r="C577" s="8"/>
       <c r="D577" s="8"/>
-      <c r="E577" s="21"/>
+      <c r="E577" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A578" s="9"/>
       <c r="B578" s="2"/>
       <c r="C578" s="8"/>
       <c r="D578" s="8"/>
-      <c r="E578" s="21"/>
+      <c r="E578" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A579" s="9"/>
       <c r="B579" s="2"/>
       <c r="C579" s="8"/>
       <c r="D579" s="8"/>
-      <c r="E579" s="21"/>
+      <c r="E579" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A580" s="9"/>
       <c r="B580" s="2"/>
       <c r="C580" s="8"/>
       <c r="D580" s="8"/>
-      <c r="E580" s="21"/>
+      <c r="E580" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A581" s="9"/>
       <c r="B581" s="2"/>
       <c r="C581" s="8"/>
       <c r="D581" s="8"/>
-      <c r="E581" s="21"/>
+      <c r="E581" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A582" s="9"/>
       <c r="B582" s="2"/>
       <c r="C582" s="8"/>
       <c r="D582" s="8"/>
-      <c r="E582" s="21"/>
+      <c r="E582" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A583" s="9"/>
       <c r="B583" s="2"/>
       <c r="C583" s="8"/>
       <c r="D583" s="8"/>
-      <c r="E583" s="21"/>
+      <c r="E583" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A584" s="9"/>
       <c r="B584" s="2"/>
       <c r="C584" s="8"/>
       <c r="D584" s="8"/>
-      <c r="E584" s="21"/>
+      <c r="E584" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A585" s="9"/>
       <c r="B585" s="2"/>
       <c r="C585" s="8"/>
       <c r="D585" s="8"/>
-      <c r="E585" s="21"/>
+      <c r="E585" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A586" s="9"/>
       <c r="B586" s="2"/>
       <c r="C586" s="8"/>
       <c r="D586" s="8"/>
-      <c r="E586" s="21"/>
+      <c r="E586" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A587" s="9"/>
       <c r="B587" s="2"/>
       <c r="C587" s="8"/>
       <c r="D587" s="8"/>
-      <c r="E587" s="21"/>
+      <c r="E587" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A588" s="9"/>
       <c r="B588" s="2"/>
       <c r="C588" s="8"/>
       <c r="D588" s="8"/>
-      <c r="E588" s="21"/>
+      <c r="E588" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A589" s="9"/>
       <c r="B589" s="2"/>
       <c r="C589" s="8"/>
       <c r="D589" s="8"/>
-      <c r="E589" s="21"/>
+      <c r="E589" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A590" s="9"/>
       <c r="B590" s="2"/>
       <c r="C590" s="8"/>
       <c r="D590" s="8"/>
-      <c r="E590" s="21"/>
+      <c r="E590" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A591" s="9"/>
       <c r="B591" s="2"/>
       <c r="C591" s="8"/>
       <c r="D591" s="8"/>
-      <c r="E591" s="21"/>
+      <c r="E591" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A592" s="9"/>
       <c r="B592" s="2"/>
       <c r="C592" s="8"/>
       <c r="D592" s="8"/>
-      <c r="E592" s="21"/>
+      <c r="E592" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A593" s="9"/>
       <c r="B593" s="2"/>
       <c r="C593" s="8"/>
       <c r="D593" s="8"/>
-      <c r="E593" s="21"/>
+      <c r="E593" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A594" s="9"/>
       <c r="B594" s="2"/>
       <c r="C594" s="8"/>
       <c r="D594" s="8"/>
-      <c r="E594" s="21"/>
+      <c r="E594" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A595" s="9"/>
       <c r="B595" s="2"/>
       <c r="C595" s="8"/>
       <c r="D595" s="8"/>
-      <c r="E595" s="21"/>
+      <c r="E595" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A596" s="9"/>
       <c r="B596" s="2"/>
       <c r="C596" s="8"/>
       <c r="D596" s="8"/>
-      <c r="E596" s="21"/>
+      <c r="E596" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A597" s="9"/>
       <c r="B597" s="2"/>
       <c r="C597" s="8"/>
       <c r="D597" s="8"/>
-      <c r="E597" s="21"/>
+      <c r="E597" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A598" s="9"/>
       <c r="B598" s="2"/>
       <c r="C598" s="8"/>
       <c r="D598" s="8"/>
-      <c r="E598" s="21"/>
+      <c r="E598" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A599" s="9"/>
       <c r="B599" s="2"/>
       <c r="C599" s="8"/>
       <c r="D599" s="8"/>
-      <c r="E599" s="21"/>
+      <c r="E599" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A600" s="9"/>
       <c r="B600" s="2"/>
       <c r="C600" s="8"/>
       <c r="D600" s="8"/>
-      <c r="E600" s="21"/>
+      <c r="E600" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A601" s="9"/>
       <c r="B601" s="2"/>
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
-      <c r="E601" s="21"/>
+      <c r="E601" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A602" s="9"/>
       <c r="B602" s="2"/>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
-      <c r="E602" s="21"/>
+      <c r="E602" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A603" s="9"/>
       <c r="B603" s="2"/>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
-      <c r="E603" s="21"/>
+      <c r="E603" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A604" s="9"/>
       <c r="B604" s="2"/>
       <c r="C604" s="8"/>
       <c r="D604" s="8"/>
-      <c r="E604" s="21"/>
+      <c r="E604" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A605" s="9"/>
       <c r="B605" s="2"/>
       <c r="C605" s="8"/>
       <c r="D605" s="8"/>
-      <c r="E605" s="21"/>
+      <c r="E605" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A606" s="9"/>
       <c r="B606" s="2"/>
       <c r="C606" s="8"/>
       <c r="D606" s="8"/>
-      <c r="E606" s="21"/>
+      <c r="E606" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A607" s="9"/>
       <c r="B607" s="2"/>
       <c r="C607" s="8"/>
       <c r="D607" s="8"/>
-      <c r="E607" s="21"/>
+      <c r="E607" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A608" s="9"/>
       <c r="B608" s="2"/>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
-      <c r="E608" s="21"/>
+      <c r="E608" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A609" s="9"/>
       <c r="B609" s="2"/>
       <c r="C609" s="8"/>
       <c r="D609" s="8"/>
-      <c r="E609" s="21"/>
+      <c r="E609" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A610" s="9"/>
       <c r="B610" s="2"/>
       <c r="C610" s="8"/>
       <c r="D610" s="8"/>
-      <c r="E610" s="21"/>
+      <c r="E610" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A611" s="9"/>
       <c r="B611" s="2"/>
       <c r="C611" s="8"/>
       <c r="D611" s="8"/>
-      <c r="E611" s="21"/>
+      <c r="E611" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A612" s="9"/>
       <c r="B612" s="2"/>
       <c r="C612" s="8"/>
       <c r="D612" s="8"/>
-      <c r="E612" s="21"/>
+      <c r="E612" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A613" s="9"/>
       <c r="B613" s="2"/>
       <c r="C613" s="8"/>
       <c r="D613" s="8"/>
-      <c r="E613" s="21"/>
+      <c r="E613" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A614" s="9"/>
       <c r="B614" s="2"/>
       <c r="C614" s="8"/>
       <c r="D614" s="8"/>
-      <c r="E614" s="21"/>
+      <c r="E614" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A615" s="9"/>
       <c r="B615" s="2"/>
       <c r="C615" s="8"/>
       <c r="D615" s="8"/>
-      <c r="E615" s="21"/>
+      <c r="E615" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A616" s="9"/>
       <c r="B616" s="2"/>
       <c r="C616" s="8"/>
       <c r="D616" s="8"/>
-      <c r="E616" s="21"/>
+      <c r="E616" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A617" s="9"/>
       <c r="B617" s="2"/>
       <c r="C617" s="8"/>
       <c r="D617" s="8"/>
-      <c r="E617" s="21"/>
+      <c r="E617" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A618" s="9"/>
       <c r="B618" s="2"/>
       <c r="C618" s="8"/>
       <c r="D618" s="8"/>
-      <c r="E618" s="21"/>
+      <c r="E618" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A619" s="9"/>
       <c r="B619" s="2"/>
       <c r="C619" s="8"/>
       <c r="D619" s="8"/>
-      <c r="E619" s="21"/>
+      <c r="E619" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A620" s="9"/>
       <c r="B620" s="2"/>
       <c r="C620" s="8"/>
       <c r="D620" s="8"/>
-      <c r="E620" s="21"/>
+      <c r="E620" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A621" s="9"/>
       <c r="B621" s="2"/>
       <c r="C621" s="8"/>
       <c r="D621" s="8"/>
-      <c r="E621" s="21"/>
+      <c r="E621" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A622" s="9"/>
       <c r="B622" s="2"/>
       <c r="C622" s="8"/>
       <c r="D622" s="8"/>
-      <c r="E622" s="21"/>
+      <c r="E622" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A623" s="9"/>
       <c r="B623" s="2"/>
       <c r="C623" s="8"/>
       <c r="D623" s="8"/>
-      <c r="E623" s="21"/>
+      <c r="E623" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A624" s="9"/>
       <c r="B624" s="2"/>
       <c r="C624" s="8"/>
       <c r="D624" s="8"/>
-      <c r="E624" s="21"/>
+      <c r="E624" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A625" s="9"/>
       <c r="B625" s="2"/>
       <c r="C625" s="8"/>
       <c r="D625" s="8"/>
-      <c r="E625" s="21"/>
+      <c r="E625" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A626" s="9"/>
       <c r="B626" s="2"/>
       <c r="C626" s="8"/>
       <c r="D626" s="8"/>
-      <c r="E626" s="21"/>
+      <c r="E626" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A627" s="9"/>
       <c r="B627" s="2"/>
       <c r="C627" s="8"/>
       <c r="D627" s="8"/>
-      <c r="E627" s="21"/>
+      <c r="E627" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A628" s="9"/>
       <c r="B628" s="2"/>
       <c r="C628" s="8"/>
       <c r="D628" s="8"/>
-      <c r="E628" s="21"/>
+      <c r="E628" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A629" s="9"/>
       <c r="B629" s="2"/>
       <c r="C629" s="8"/>
       <c r="D629" s="8"/>
-      <c r="E629" s="21"/>
+      <c r="E629" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A630" s="9"/>
       <c r="B630" s="2"/>
       <c r="C630" s="8"/>
       <c r="D630" s="8"/>
-      <c r="E630" s="21"/>
+      <c r="E630" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A631" s="9"/>
       <c r="B631" s="2"/>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
-      <c r="E631" s="21"/>
+      <c r="E631" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A632" s="9"/>
       <c r="B632" s="2"/>
       <c r="C632" s="8"/>
       <c r="D632" s="8"/>
-      <c r="E632" s="21"/>
+      <c r="E632" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A633" s="9"/>
       <c r="B633" s="2"/>
       <c r="C633" s="8"/>
       <c r="D633" s="8"/>
-      <c r="E633" s="21"/>
+      <c r="E633" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A634" s="9"/>
       <c r="B634" s="2"/>
       <c r="C634" s="8"/>
       <c r="D634" s="8"/>
-      <c r="E634" s="21"/>
+      <c r="E634" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A635" s="9"/>
       <c r="B635" s="2"/>
       <c r="C635" s="8"/>
       <c r="D635" s="8"/>
-      <c r="E635" s="21"/>
+      <c r="E635" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A636" s="9"/>
       <c r="B636" s="2"/>
       <c r="C636" s="8"/>
       <c r="D636" s="8"/>
-      <c r="E636" s="21"/>
+      <c r="E636" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A637" s="9"/>
       <c r="B637" s="2"/>
       <c r="C637" s="8"/>
       <c r="D637" s="8"/>
-      <c r="E637" s="21"/>
+      <c r="E637" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A638" s="9"/>
       <c r="B638" s="2"/>
       <c r="C638" s="8"/>
       <c r="D638" s="8"/>
-      <c r="E638" s="21"/>
+      <c r="E638" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A639" s="9"/>
       <c r="B639" s="2"/>
       <c r="C639" s="8"/>
       <c r="D639" s="8"/>
-      <c r="E639" s="21"/>
+      <c r="E639" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A640" s="9"/>
       <c r="B640" s="2"/>
       <c r="C640" s="8"/>
       <c r="D640" s="8"/>
-      <c r="E640" s="21"/>
+      <c r="E640" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A641" s="9"/>
       <c r="B641" s="2"/>
       <c r="C641" s="8"/>
       <c r="D641" s="8"/>
-      <c r="E641" s="21"/>
+      <c r="E641" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A642" s="9"/>
       <c r="B642" s="2"/>
       <c r="C642" s="8"/>
       <c r="D642" s="8"/>
-      <c r="E642" s="21"/>
+      <c r="E642" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A643" s="9"/>
       <c r="B643" s="2"/>
       <c r="C643" s="8"/>
       <c r="D643" s="8"/>
-      <c r="E643" s="21"/>
+      <c r="E643" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A644" s="9"/>
       <c r="B644" s="2"/>
       <c r="C644" s="8"/>
       <c r="D644" s="8"/>
-      <c r="E644" s="21"/>
+      <c r="E644" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A645" s="9"/>
       <c r="B645" s="2"/>
       <c r="C645" s="8"/>
       <c r="D645" s="8"/>
-      <c r="E645" s="21"/>
+      <c r="E645" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A646" s="9"/>
       <c r="B646" s="2"/>
       <c r="C646" s="8"/>
       <c r="D646" s="8"/>
-      <c r="E646" s="21"/>
+      <c r="E646" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A647" s="9"/>
       <c r="B647" s="2"/>
       <c r="C647" s="8"/>
       <c r="D647" s="8"/>
-      <c r="E647" s="21"/>
+      <c r="E647" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A648" s="9"/>
       <c r="B648" s="2"/>
       <c r="C648" s="8"/>
       <c r="D648" s="8"/>
-      <c r="E648" s="21"/>
+      <c r="E648" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A649" s="9"/>
       <c r="B649" s="2"/>
       <c r="C649" s="8"/>
       <c r="D649" s="8"/>
-      <c r="E649" s="21"/>
+      <c r="E649" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A650" s="9"/>
       <c r="B650" s="2"/>
       <c r="C650" s="8"/>
       <c r="D650" s="8"/>
-      <c r="E650" s="21"/>
+      <c r="E650" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A651" s="9"/>
       <c r="B651" s="2"/>
       <c r="C651" s="8"/>
       <c r="D651" s="8"/>
-      <c r="E651" s="21"/>
+      <c r="E651" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A652" s="9"/>
       <c r="B652" s="2"/>
       <c r="C652" s="8"/>
       <c r="D652" s="8"/>
-      <c r="E652" s="21"/>
+      <c r="E652" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A653" s="9"/>
       <c r="B653" s="2"/>
       <c r="C653" s="8"/>
       <c r="D653" s="8"/>
-      <c r="E653" s="21"/>
+      <c r="E653" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A654" s="9"/>
       <c r="B654" s="2"/>
       <c r="C654" s="8"/>
       <c r="D654" s="8"/>
-      <c r="E654" s="21"/>
+      <c r="E654" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A655" s="9"/>
       <c r="B655" s="2"/>
       <c r="C655" s="8"/>
       <c r="D655" s="8"/>
-      <c r="E655" s="21"/>
+      <c r="E655" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A656" s="9"/>
       <c r="B656" s="2"/>
       <c r="C656" s="8"/>
       <c r="D656" s="8"/>
-      <c r="E656" s="21"/>
+      <c r="E656" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A657" s="9"/>
       <c r="B657" s="2"/>
       <c r="C657" s="8"/>
       <c r="D657" s="8"/>
-      <c r="E657" s="21"/>
+      <c r="E657" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A658" s="9"/>
       <c r="B658" s="2"/>
       <c r="C658" s="8"/>
       <c r="D658" s="8"/>
-      <c r="E658" s="21"/>
+      <c r="E658" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A659" s="9"/>
       <c r="B659" s="2"/>
       <c r="C659" s="8"/>
       <c r="D659" s="8"/>
-      <c r="E659" s="21"/>
+      <c r="E659" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A660" s="9"/>
       <c r="B660" s="2"/>
       <c r="C660" s="8"/>
       <c r="D660" s="8"/>
-      <c r="E660" s="21"/>
+      <c r="E660" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A661" s="9"/>
       <c r="B661" s="2"/>
       <c r="C661" s="8"/>
       <c r="D661" s="8"/>
-      <c r="E661" s="21"/>
+      <c r="E661" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A662" s="9"/>
       <c r="B662" s="2"/>
       <c r="C662" s="8"/>
       <c r="D662" s="8"/>
-      <c r="E662" s="21"/>
+      <c r="E662" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A663" s="9"/>
       <c r="B663" s="2"/>
       <c r="C663" s="8"/>
       <c r="D663" s="8"/>
-      <c r="E663" s="21"/>
+      <c r="E663" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A664" s="9"/>
       <c r="B664" s="2"/>
       <c r="C664" s="8"/>
       <c r="D664" s="8"/>
-      <c r="E664" s="21"/>
+      <c r="E664" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A665" s="9"/>
       <c r="B665" s="2"/>
       <c r="C665" s="8"/>
       <c r="D665" s="8"/>
-      <c r="E665" s="21"/>
+      <c r="E665" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A666" s="9"/>
       <c r="B666" s="2"/>
       <c r="C666" s="8"/>
       <c r="D666" s="8"/>
-      <c r="E666" s="21"/>
+      <c r="E666" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A667" s="9"/>
       <c r="B667" s="2"/>
       <c r="C667" s="8"/>
       <c r="D667" s="8"/>
-      <c r="E667" s="21"/>
+      <c r="E667" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A668" s="9"/>
       <c r="B668" s="2"/>
       <c r="C668" s="8"/>
       <c r="D668" s="8"/>
-      <c r="E668" s="21"/>
+      <c r="E668" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A669" s="9"/>
       <c r="B669" s="2"/>
       <c r="C669" s="8"/>
       <c r="D669" s="8"/>
-      <c r="E669" s="21"/>
+      <c r="E669" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A670" s="9"/>
       <c r="B670" s="2"/>
       <c r="C670" s="8"/>
       <c r="D670" s="8"/>
-      <c r="E670" s="21"/>
+      <c r="E670" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A671" s="9"/>
       <c r="B671" s="2"/>
       <c r="C671" s="8"/>
       <c r="D671" s="8"/>
-      <c r="E671" s="21"/>
+      <c r="E671" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A672" s="9"/>
       <c r="B672" s="2"/>
       <c r="C672" s="8"/>
       <c r="D672" s="8"/>
-      <c r="E672" s="21"/>
+      <c r="E672" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A673" s="9"/>
       <c r="B673" s="2"/>
       <c r="C673" s="8"/>
       <c r="D673" s="8"/>
-      <c r="E673" s="21"/>
+      <c r="E673" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A674" s="9"/>
       <c r="B674" s="2"/>
       <c r="C674" s="8"/>
       <c r="D674" s="8"/>
-      <c r="E674" s="21"/>
+      <c r="E674" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A675" s="9"/>
       <c r="B675" s="2"/>
       <c r="C675" s="8"/>
       <c r="D675" s="8"/>
-      <c r="E675" s="21"/>
+      <c r="E675" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A676" s="9"/>
       <c r="B676" s="2"/>
       <c r="C676" s="8"/>
       <c r="D676" s="8"/>
-      <c r="E676" s="21"/>
+      <c r="E676" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A677" s="9"/>
       <c r="B677" s="2"/>
       <c r="C677" s="8"/>
       <c r="D677" s="8"/>
-      <c r="E677" s="21"/>
+      <c r="E677" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A678" s="9"/>
       <c r="B678" s="2"/>
       <c r="C678" s="8"/>
       <c r="D678" s="8"/>
-      <c r="E678" s="21"/>
+      <c r="E678" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A679" s="9"/>
       <c r="B679" s="2"/>
       <c r="C679" s="8"/>
       <c r="D679" s="8"/>
-      <c r="E679" s="21"/>
+      <c r="E679" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A680" s="9"/>
       <c r="B680" s="2"/>
       <c r="C680" s="8"/>
       <c r="D680" s="8"/>
-      <c r="E680" s="21"/>
+      <c r="E680" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A681" s="9"/>
       <c r="B681" s="2"/>
       <c r="C681" s="8"/>
       <c r="D681" s="8"/>
-      <c r="E681" s="21"/>
+      <c r="E681" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A682" s="9"/>
       <c r="B682" s="2"/>
       <c r="C682" s="8"/>
       <c r="D682" s="8"/>
-      <c r="E682" s="21"/>
+      <c r="E682" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A683" s="9"/>
       <c r="B683" s="2"/>
       <c r="C683" s="8"/>
       <c r="D683" s="8"/>
-      <c r="E683" s="21"/>
+      <c r="E683" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A684" s="9"/>
       <c r="B684" s="2"/>
       <c r="C684" s="8"/>
       <c r="D684" s="8"/>
-      <c r="E684" s="21"/>
+      <c r="E684" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A685" s="9"/>
       <c r="B685" s="2"/>
       <c r="C685" s="8"/>
       <c r="D685" s="8"/>
-      <c r="E685" s="21"/>
+      <c r="E685" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A686" s="9"/>
       <c r="B686" s="2"/>
       <c r="C686" s="8"/>
       <c r="D686" s="8"/>
-      <c r="E686" s="21"/>
+      <c r="E686" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A687" s="9"/>
       <c r="B687" s="2"/>
       <c r="C687" s="8"/>
       <c r="D687" s="8"/>
-      <c r="E687" s="21"/>
+      <c r="E687" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A688" s="9"/>
       <c r="B688" s="2"/>
       <c r="C688" s="8"/>
       <c r="D688" s="8"/>
-      <c r="E688" s="21"/>
+      <c r="E688" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A689" s="9"/>
       <c r="B689" s="2"/>
       <c r="C689" s="8"/>
       <c r="D689" s="8"/>
-      <c r="E689" s="21"/>
+      <c r="E689" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A690" s="9"/>
       <c r="B690" s="2"/>
       <c r="C690" s="8"/>
       <c r="D690" s="8"/>
-      <c r="E690" s="21"/>
+      <c r="E690" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A691" s="9"/>
       <c r="B691" s="2"/>
       <c r="C691" s="8"/>
       <c r="D691" s="8"/>
-      <c r="E691" s="21"/>
+      <c r="E691" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A692" s="9"/>
       <c r="B692" s="2"/>
       <c r="C692" s="8"/>
       <c r="D692" s="8"/>
-      <c r="E692" s="21"/>
+      <c r="E692" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A693" s="9"/>
       <c r="B693" s="2"/>
       <c r="C693" s="8"/>
       <c r="D693" s="8"/>
-      <c r="E693" s="21"/>
+      <c r="E693" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A694" s="9"/>
       <c r="B694" s="2"/>
       <c r="C694" s="8"/>
       <c r="D694" s="8"/>
-      <c r="E694" s="21"/>
+      <c r="E694" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A695" s="9"/>
       <c r="B695" s="2"/>
       <c r="C695" s="8"/>
       <c r="D695" s="8"/>
-      <c r="E695" s="21"/>
+      <c r="E695" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A696" s="9"/>
       <c r="B696" s="2"/>
       <c r="C696" s="8"/>
       <c r="D696" s="8"/>
-      <c r="E696" s="21"/>
+      <c r="E696" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A697" s="9"/>
       <c r="B697" s="2"/>
       <c r="C697" s="8"/>
       <c r="D697" s="8"/>
-      <c r="E697" s="21"/>
+      <c r="E697" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A698" s="9"/>
       <c r="B698" s="2"/>
       <c r="C698" s="8"/>
       <c r="D698" s="8"/>
-      <c r="E698" s="21"/>
+      <c r="E698" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A699" s="9"/>
       <c r="B699" s="2"/>
       <c r="C699" s="8"/>
       <c r="D699" s="8"/>
-      <c r="E699" s="21"/>
+      <c r="E699" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A700" s="9"/>
       <c r="B700" s="2"/>
       <c r="C700" s="8"/>
       <c r="D700" s="8"/>
-      <c r="E700" s="21"/>
+      <c r="E700" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A701" s="9"/>
       <c r="B701" s="2"/>
       <c r="C701" s="8"/>
       <c r="D701" s="8"/>
-      <c r="E701" s="21"/>
+      <c r="E701" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A702" s="9"/>
       <c r="B702" s="2"/>
       <c r="C702" s="8"/>
       <c r="D702" s="8"/>
-      <c r="E702" s="21"/>
+      <c r="E702" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A703" s="9"/>
       <c r="B703" s="2"/>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
-      <c r="E703" s="21"/>
+      <c r="E703" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A704" s="9"/>
       <c r="B704" s="2"/>
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
-      <c r="E704" s="21"/>
+      <c r="E704" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A705" s="9"/>
       <c r="B705" s="2"/>
       <c r="C705" s="8"/>
       <c r="D705" s="8"/>
-      <c r="E705" s="21"/>
+      <c r="E705" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A706" s="9"/>
       <c r="B706" s="2"/>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
-      <c r="E706" s="21"/>
+      <c r="E706" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A707" s="9"/>
       <c r="B707" s="2"/>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
-      <c r="E707" s="21"/>
+      <c r="E707" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A708" s="9"/>
       <c r="B708" s="2"/>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
-      <c r="E708" s="21"/>
+      <c r="E708" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A709" s="9"/>
       <c r="B709" s="2"/>
       <c r="C709" s="8"/>
       <c r="D709" s="8"/>
-      <c r="E709" s="21"/>
+      <c r="E709" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A710" s="9"/>
       <c r="B710" s="2"/>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
-      <c r="E710" s="21"/>
+      <c r="E710" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A711" s="9"/>
       <c r="B711" s="2"/>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
-      <c r="E711" s="21"/>
+      <c r="E711" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A712" s="9"/>
       <c r="B712" s="2"/>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
-      <c r="E712" s="21"/>
+      <c r="E712" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A713" s="9"/>
       <c r="B713" s="2"/>
       <c r="C713" s="8"/>
       <c r="D713" s="8"/>
-      <c r="E713" s="21"/>
+      <c r="E713" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A714" s="9"/>
       <c r="B714" s="2"/>
       <c r="C714" s="8"/>
       <c r="D714" s="8"/>
-      <c r="E714" s="21"/>
+      <c r="E714" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A715" s="9"/>
       <c r="B715" s="2"/>
       <c r="C715" s="8"/>
       <c r="D715" s="8"/>
-      <c r="E715" s="21"/>
+      <c r="E715" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A716" s="9"/>
       <c r="B716" s="2"/>
       <c r="C716" s="8"/>
       <c r="D716" s="8"/>
-      <c r="E716" s="21"/>
+      <c r="E716" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A717" s="9"/>
       <c r="B717" s="2"/>
       <c r="C717" s="8"/>
       <c r="D717" s="8"/>
-      <c r="E717" s="21"/>
+      <c r="E717" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A718" s="9"/>
       <c r="B718" s="2"/>
       <c r="C718" s="8"/>
       <c r="D718" s="8"/>
-      <c r="E718" s="21"/>
+      <c r="E718" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A719" s="9"/>
       <c r="B719" s="2"/>
       <c r="C719" s="8"/>
       <c r="D719" s="8"/>
-      <c r="E719" s="21"/>
+      <c r="E719" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A720" s="9"/>
       <c r="B720" s="2"/>
       <c r="C720" s="8"/>
       <c r="D720" s="8"/>
-      <c r="E720" s="21"/>
+      <c r="E720" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A721" s="9"/>
       <c r="B721" s="2"/>
       <c r="C721" s="8"/>
       <c r="D721" s="8"/>
-      <c r="E721" s="21"/>
+      <c r="E721" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A722" s="9"/>
       <c r="B722" s="2"/>
       <c r="C722" s="8"/>
       <c r="D722" s="8"/>
-      <c r="E722" s="21"/>
+      <c r="E722" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A723" s="9"/>
       <c r="B723" s="2"/>
       <c r="C723" s="8"/>
       <c r="D723" s="8"/>
-      <c r="E723" s="21"/>
+      <c r="E723" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A724" s="9"/>
       <c r="B724" s="2"/>
       <c r="C724" s="8"/>
       <c r="D724" s="8"/>
-      <c r="E724" s="21"/>
+      <c r="E724" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A725" s="9"/>
       <c r="B725" s="2"/>
       <c r="C725" s="8"/>
       <c r="D725" s="8"/>
-      <c r="E725" s="21"/>
+      <c r="E725" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A726" s="9"/>
       <c r="B726" s="2"/>
       <c r="C726" s="8"/>
       <c r="D726" s="8"/>
-      <c r="E726" s="21"/>
+      <c r="E726" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A727" s="9"/>
       <c r="B727" s="2"/>
       <c r="C727" s="8"/>
       <c r="D727" s="8"/>
-      <c r="E727" s="21"/>
+      <c r="E727" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A728" s="9"/>
       <c r="B728" s="2"/>
       <c r="C728" s="8"/>
       <c r="D728" s="8"/>
-      <c r="E728" s="21"/>
+      <c r="E728" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A729" s="9"/>
       <c r="B729" s="2"/>
       <c r="C729" s="8"/>
       <c r="D729" s="8"/>
-      <c r="E729" s="21"/>
+      <c r="E729" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A730" s="9"/>
       <c r="B730" s="2"/>
       <c r="C730" s="8"/>
       <c r="D730" s="8"/>
-      <c r="E730" s="21"/>
+      <c r="E730" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A731" s="9"/>
       <c r="B731" s="2"/>
       <c r="C731" s="8"/>
       <c r="D731" s="8"/>
-      <c r="E731" s="21"/>
+      <c r="E731" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A732" s="9"/>
       <c r="B732" s="2"/>
       <c r="C732" s="8"/>
       <c r="D732" s="8"/>
-      <c r="E732" s="21"/>
+      <c r="E732" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A733" s="9"/>
       <c r="B733" s="2"/>
       <c r="C733" s="8"/>
       <c r="D733" s="8"/>
-      <c r="E733" s="21"/>
+      <c r="E733" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A734" s="9"/>
       <c r="B734" s="2"/>
       <c r="C734" s="8"/>
       <c r="D734" s="8"/>
-      <c r="E734" s="21"/>
+      <c r="E734" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A735" s="9"/>
       <c r="B735" s="2"/>
       <c r="C735" s="8"/>
       <c r="D735" s="8"/>
-      <c r="E735" s="21"/>
+      <c r="E735" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A736" s="9"/>
       <c r="B736" s="2"/>
       <c r="C736" s="8"/>
       <c r="D736" s="8"/>
-      <c r="E736" s="21"/>
+      <c r="E736" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A737" s="9"/>
       <c r="B737" s="2"/>
       <c r="C737" s="8"/>
       <c r="D737" s="8"/>
-      <c r="E737" s="21"/>
+      <c r="E737" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A738" s="9"/>
       <c r="B738" s="2"/>
       <c r="C738" s="8"/>
       <c r="D738" s="8"/>
-      <c r="E738" s="21"/>
+      <c r="E738" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A739" s="9"/>
       <c r="B739" s="2"/>
       <c r="C739" s="8"/>
       <c r="D739" s="8"/>
-      <c r="E739" s="21"/>
+      <c r="E739" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A740" s="9"/>
       <c r="B740" s="2"/>
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
-      <c r="E740" s="21"/>
+      <c r="E740" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A741" s="9"/>
       <c r="B741" s="2"/>
       <c r="C741" s="8"/>
       <c r="D741" s="8"/>
-      <c r="E741" s="21"/>
+      <c r="E741" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A742" s="9"/>
       <c r="B742" s="2"/>
       <c r="C742" s="8"/>
       <c r="D742" s="8"/>
-      <c r="E742" s="21"/>
+      <c r="E742" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A743" s="9"/>
       <c r="B743" s="2"/>
       <c r="C743" s="8"/>
       <c r="D743" s="8"/>
-      <c r="E743" s="21"/>
+      <c r="E743" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A744" s="9"/>
       <c r="B744" s="2"/>
       <c r="C744" s="8"/>
       <c r="D744" s="8"/>
-      <c r="E744" s="21"/>
+      <c r="E744" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A745" s="9"/>
       <c r="B745" s="2"/>
       <c r="C745" s="8"/>
       <c r="D745" s="8"/>
-      <c r="E745" s="21"/>
+      <c r="E745" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A746" s="9"/>
       <c r="B746" s="2"/>
       <c r="C746" s="8"/>
       <c r="D746" s="8"/>
-      <c r="E746" s="21"/>
+      <c r="E746" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A747" s="9"/>
       <c r="B747" s="2"/>
       <c r="C747" s="8"/>
       <c r="D747" s="8"/>
-      <c r="E747" s="21"/>
+      <c r="E747" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A748" s="9"/>
       <c r="B748" s="2"/>
       <c r="C748" s="8"/>
       <c r="D748" s="8"/>
-      <c r="E748" s="21"/>
+      <c r="E748" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A749" s="9"/>
       <c r="B749" s="2"/>
       <c r="C749" s="8"/>
       <c r="D749" s="8"/>
-      <c r="E749" s="21"/>
+      <c r="E749" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A750" s="9"/>
       <c r="B750" s="2"/>
       <c r="C750" s="8"/>
       <c r="D750" s="8"/>
-      <c r="E750" s="21"/>
+      <c r="E750" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A751" s="9"/>
       <c r="B751" s="2"/>
       <c r="C751" s="8"/>
       <c r="D751" s="8"/>
-      <c r="E751" s="21"/>
+      <c r="E751" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A752" s="9"/>
       <c r="B752" s="2"/>
       <c r="C752" s="8"/>
       <c r="D752" s="8"/>
-      <c r="E752" s="21"/>
+      <c r="E752" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A753" s="9"/>
       <c r="B753" s="2"/>
       <c r="C753" s="8"/>
       <c r="D753" s="8"/>
-      <c r="E753" s="21"/>
+      <c r="E753" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A754" s="9"/>
       <c r="B754" s="2"/>
       <c r="C754" s="8"/>
       <c r="D754" s="8"/>
-      <c r="E754" s="21"/>
+      <c r="E754" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A755" s="9"/>
       <c r="B755" s="2"/>
       <c r="C755" s="8"/>
       <c r="D755" s="8"/>
-      <c r="E755" s="21"/>
+      <c r="E755" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A756" s="9"/>
       <c r="B756" s="2"/>
       <c r="C756" s="8"/>
       <c r="D756" s="8"/>
-      <c r="E756" s="21"/>
+      <c r="E756" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A757" s="9"/>
       <c r="B757" s="2"/>
       <c r="C757" s="8"/>
       <c r="D757" s="8"/>
-      <c r="E757" s="21"/>
+      <c r="E757" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A758" s="9"/>
       <c r="B758" s="2"/>
       <c r="C758" s="8"/>
       <c r="D758" s="8"/>
-      <c r="E758" s="21"/>
+      <c r="E758" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A759" s="9"/>
       <c r="B759" s="2"/>
       <c r="C759" s="8"/>
       <c r="D759" s="8"/>
-      <c r="E759" s="21"/>
+      <c r="E759" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A760" s="9"/>
       <c r="B760" s="2"/>
       <c r="C760" s="8"/>
       <c r="D760" s="8"/>
-      <c r="E760" s="21"/>
+      <c r="E760" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A761" s="9"/>
       <c r="B761" s="2"/>
       <c r="C761" s="8"/>
       <c r="D761" s="8"/>
-      <c r="E761" s="21"/>
+      <c r="E761" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A762" s="9"/>
       <c r="B762" s="2"/>
       <c r="C762" s="8"/>
       <c r="D762" s="8"/>
-      <c r="E762" s="21"/>
+      <c r="E762" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A763" s="9"/>
       <c r="B763" s="2"/>
       <c r="C763" s="8"/>
       <c r="D763" s="8"/>
-      <c r="E763" s="21"/>
+      <c r="E763" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A764" s="9"/>
       <c r="B764" s="2"/>
       <c r="C764" s="8"/>
       <c r="D764" s="8"/>
-      <c r="E764" s="21"/>
+      <c r="E764" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A765" s="9"/>
       <c r="B765" s="2"/>
       <c r="C765" s="8"/>
       <c r="D765" s="8"/>
-      <c r="E765" s="21"/>
+      <c r="E765" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A766" s="9"/>
       <c r="B766" s="2"/>
       <c r="C766" s="8"/>
       <c r="D766" s="8"/>
-      <c r="E766" s="21"/>
+      <c r="E766" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A767" s="9"/>
       <c r="B767" s="2"/>
       <c r="C767" s="8"/>
       <c r="D767" s="8"/>
-      <c r="E767" s="21"/>
+      <c r="E767" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A768" s="9"/>
       <c r="B768" s="2"/>
       <c r="C768" s="8"/>
       <c r="D768" s="8"/>
-      <c r="E768" s="21"/>
+      <c r="E768" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A769" s="9"/>
       <c r="B769" s="2"/>
       <c r="C769" s="8"/>
       <c r="D769" s="8"/>
-      <c r="E769" s="21"/>
+      <c r="E769" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A770" s="9"/>
       <c r="B770" s="2"/>
       <c r="C770" s="8"/>
       <c r="D770" s="8"/>
-      <c r="E770" s="21"/>
+      <c r="E770" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A771" s="9"/>
       <c r="B771" s="2"/>
       <c r="C771" s="8"/>
       <c r="D771" s="8"/>
-      <c r="E771" s="21"/>
+      <c r="E771" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A772" s="9"/>
       <c r="B772" s="2"/>
       <c r="C772" s="8"/>
       <c r="D772" s="8"/>
-      <c r="E772" s="21"/>
+      <c r="E772" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A773" s="9"/>
       <c r="B773" s="2"/>
       <c r="C773" s="8"/>
       <c r="D773" s="8"/>
-      <c r="E773" s="21"/>
+      <c r="E773" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A774" s="9"/>
       <c r="B774" s="2"/>
       <c r="C774" s="8"/>
       <c r="D774" s="8"/>
-      <c r="E774" s="21"/>
+      <c r="E774" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A775" s="9"/>
       <c r="B775" s="2"/>
       <c r="C775" s="8"/>
       <c r="D775" s="8"/>
-      <c r="E775" s="21"/>
+      <c r="E775" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A776" s="9"/>
       <c r="B776" s="2"/>
       <c r="C776" s="8"/>
       <c r="D776" s="8"/>
-      <c r="E776" s="21"/>
+      <c r="E776" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A777" s="9"/>
       <c r="B777" s="2"/>
       <c r="C777" s="8"/>
       <c r="D777" s="8"/>
-      <c r="E777" s="21"/>
+      <c r="E777" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A778" s="9"/>
       <c r="B778" s="2"/>
       <c r="C778" s="8"/>
       <c r="D778" s="8"/>
-      <c r="E778" s="21"/>
+      <c r="E778" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A779" s="9"/>
       <c r="B779" s="2"/>
       <c r="C779" s="8"/>
       <c r="D779" s="8"/>
-      <c r="E779" s="21"/>
+      <c r="E779" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A780" s="9"/>
       <c r="B780" s="2"/>
       <c r="C780" s="8"/>
       <c r="D780" s="8"/>
-      <c r="E780" s="21"/>
+      <c r="E780" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A781" s="9"/>
       <c r="B781" s="2"/>
       <c r="C781" s="8"/>
       <c r="D781" s="8"/>
-      <c r="E781" s="21"/>
+      <c r="E781" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A782" s="9"/>
       <c r="B782" s="2"/>
       <c r="C782" s="8"/>
       <c r="D782" s="8"/>
-      <c r="E782" s="21"/>
+      <c r="E782" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A783" s="9"/>
       <c r="B783" s="2"/>
       <c r="C783" s="8"/>
       <c r="D783" s="8"/>
-      <c r="E783" s="21"/>
+      <c r="E783" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A784" s="9"/>
       <c r="B784" s="2"/>
       <c r="C784" s="8"/>
       <c r="D784" s="8"/>
-      <c r="E784" s="21"/>
+      <c r="E784" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A785" s="9"/>
       <c r="B785" s="2"/>
       <c r="C785" s="8"/>
       <c r="D785" s="8"/>
-      <c r="E785" s="21"/>
+      <c r="E785" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A786" s="9"/>
       <c r="B786" s="2"/>
       <c r="C786" s="8"/>
       <c r="D786" s="8"/>
-      <c r="E786" s="21"/>
+      <c r="E786" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A787" s="9"/>
       <c r="B787" s="2"/>
       <c r="C787" s="8"/>
       <c r="D787" s="8"/>
-      <c r="E787" s="21"/>
+      <c r="E787" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A788" s="9"/>
       <c r="B788" s="2"/>
       <c r="C788" s="8"/>
       <c r="D788" s="8"/>
-      <c r="E788" s="21"/>
+      <c r="E788" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A789" s="9"/>
       <c r="B789" s="2"/>
       <c r="C789" s="8"/>
       <c r="D789" s="8"/>
-      <c r="E789" s="21"/>
+      <c r="E789" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A790" s="9"/>
       <c r="B790" s="2"/>
       <c r="C790" s="8"/>
       <c r="D790" s="8"/>
-      <c r="E790" s="21"/>
+      <c r="E790" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A791" s="9"/>
       <c r="B791" s="2"/>
       <c r="C791" s="8"/>
       <c r="D791" s="8"/>
-      <c r="E791" s="21"/>
+      <c r="E791" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A792" s="9"/>
       <c r="B792" s="2"/>
       <c r="C792" s="8"/>
       <c r="D792" s="8"/>
-      <c r="E792" s="21"/>
+      <c r="E792" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A793" s="9"/>
       <c r="B793" s="2"/>
       <c r="C793" s="8"/>
       <c r="D793" s="8"/>
-      <c r="E793" s="21"/>
+      <c r="E793" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A794" s="9"/>
       <c r="B794" s="2"/>
       <c r="C794" s="8"/>
       <c r="D794" s="8"/>
-      <c r="E794" s="21"/>
+      <c r="E794" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A795" s="9"/>
       <c r="B795" s="2"/>
       <c r="C795" s="8"/>
       <c r="D795" s="8"/>
-      <c r="E795" s="21"/>
+      <c r="E795" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A796" s="9"/>
       <c r="B796" s="2"/>
       <c r="C796" s="8"/>
       <c r="D796" s="8"/>
-      <c r="E796" s="21"/>
+      <c r="E796" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A797" s="9"/>
       <c r="B797" s="2"/>
       <c r="C797" s="8"/>
       <c r="D797" s="8"/>
-      <c r="E797" s="21"/>
+      <c r="E797" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A798" s="9"/>
       <c r="B798" s="2"/>
       <c r="C798" s="8"/>
       <c r="D798" s="8"/>
-      <c r="E798" s="21"/>
+      <c r="E798" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A799" s="9"/>
       <c r="B799" s="2"/>
       <c r="C799" s="8"/>
       <c r="D799" s="8"/>
-      <c r="E799" s="21"/>
+      <c r="E799" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A800" s="9"/>
       <c r="B800" s="2"/>
       <c r="C800" s="8"/>
       <c r="D800" s="8"/>
-      <c r="E800" s="21"/>
+      <c r="E800" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A801" s="9"/>
       <c r="B801" s="2"/>
       <c r="C801" s="8"/>
       <c r="D801" s="8"/>
-      <c r="E801" s="21"/>
+      <c r="E801" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A802" s="9"/>
       <c r="B802" s="2"/>
       <c r="C802" s="8"/>
       <c r="D802" s="8"/>
-      <c r="E802" s="21"/>
+      <c r="E802" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A803" s="9"/>
       <c r="B803" s="2"/>
       <c r="C803" s="8"/>
       <c r="D803" s="8"/>
-      <c r="E803" s="21"/>
+      <c r="E803" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A804" s="9"/>
       <c r="B804" s="2"/>
       <c r="C804" s="8"/>
       <c r="D804" s="8"/>
-      <c r="E804" s="21"/>
+      <c r="E804" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A805" s="9"/>
       <c r="B805" s="2"/>
       <c r="C805" s="8"/>
       <c r="D805" s="8"/>
-      <c r="E805" s="21"/>
+      <c r="E805" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A806" s="9"/>
       <c r="B806" s="2"/>
       <c r="C806" s="8"/>
       <c r="D806" s="8"/>
-      <c r="E806" s="21"/>
+      <c r="E806" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A807" s="9"/>
       <c r="B807" s="2"/>
       <c r="C807" s="8"/>
       <c r="D807" s="8"/>
-      <c r="E807" s="21"/>
+      <c r="E807" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A808" s="9"/>
       <c r="B808" s="2"/>
       <c r="C808" s="8"/>
       <c r="D808" s="8"/>
-      <c r="E808" s="21"/>
+      <c r="E808" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A809" s="9"/>
       <c r="B809" s="2"/>
       <c r="C809" s="8"/>
       <c r="D809" s="8"/>
-      <c r="E809" s="21"/>
+      <c r="E809" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A810" s="9"/>
       <c r="B810" s="2"/>
       <c r="C810" s="8"/>
       <c r="D810" s="8"/>
-      <c r="E810" s="21"/>
+      <c r="E810" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A811" s="9"/>
       <c r="B811" s="2"/>
       <c r="C811" s="8"/>
       <c r="D811" s="8"/>
-      <c r="E811" s="21"/>
+      <c r="E811" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A812" s="9"/>
       <c r="B812" s="2"/>
       <c r="C812" s="8"/>
       <c r="D812" s="8"/>
-      <c r="E812" s="21"/>
+      <c r="E812" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A813" s="9"/>
       <c r="B813" s="2"/>
       <c r="C813" s="8"/>
       <c r="D813" s="8"/>
-      <c r="E813" s="21"/>
+      <c r="E813" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A814" s="9"/>
       <c r="B814" s="2"/>
       <c r="C814" s="8"/>
       <c r="D814" s="8"/>
-      <c r="E814" s="21"/>
+      <c r="E814" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A815" s="9"/>
       <c r="B815" s="2"/>
       <c r="C815" s="8"/>
       <c r="D815" s="8"/>
-      <c r="E815" s="21"/>
+      <c r="E815" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A816" s="9"/>
       <c r="B816" s="2"/>
       <c r="C816" s="8"/>
       <c r="D816" s="8"/>
-      <c r="E816" s="21"/>
+      <c r="E816" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A817" s="9"/>
       <c r="B817" s="2"/>
       <c r="C817" s="8"/>
       <c r="D817" s="8"/>
-      <c r="E817" s="21"/>
+      <c r="E817" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A818" s="9"/>
       <c r="B818" s="2"/>
       <c r="C818" s="8"/>
       <c r="D818" s="8"/>
-      <c r="E818" s="21"/>
+      <c r="E818" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A819" s="9"/>
       <c r="B819" s="2"/>
       <c r="C819" s="8"/>
       <c r="D819" s="8"/>
-      <c r="E819" s="21"/>
+      <c r="E819" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A820" s="9"/>
       <c r="B820" s="2"/>
       <c r="C820" s="8"/>
       <c r="D820" s="8"/>
-      <c r="E820" s="21"/>
+      <c r="E820" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A821" s="9"/>
       <c r="B821" s="2"/>
       <c r="C821" s="8"/>
       <c r="D821" s="8"/>
-      <c r="E821" s="21"/>
+      <c r="E821" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A822" s="9"/>
       <c r="B822" s="2"/>
       <c r="C822" s="8"/>
       <c r="D822" s="8"/>
-      <c r="E822" s="21"/>
+      <c r="E822" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A823" s="9"/>
       <c r="B823" s="2"/>
       <c r="C823" s="8"/>
       <c r="D823" s="8"/>
-      <c r="E823" s="21"/>
+      <c r="E823" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A824" s="9"/>
       <c r="B824" s="2"/>
       <c r="C824" s="8"/>
       <c r="D824" s="8"/>
-      <c r="E824" s="21"/>
+      <c r="E824" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A825" s="9"/>
       <c r="B825" s="2"/>
       <c r="C825" s="8"/>
       <c r="D825" s="8"/>
-      <c r="E825" s="21"/>
+      <c r="E825" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A826" s="9"/>
       <c r="B826" s="2"/>
       <c r="C826" s="8"/>
       <c r="D826" s="8"/>
-      <c r="E826" s="21"/>
+      <c r="E826" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A827" s="9"/>
       <c r="B827" s="2"/>
       <c r="C827" s="8"/>
       <c r="D827" s="8"/>
-      <c r="E827" s="21"/>
+      <c r="E827" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A828" s="9"/>
       <c r="B828" s="2"/>
       <c r="C828" s="8"/>
       <c r="D828" s="8"/>
-      <c r="E828" s="21"/>
+      <c r="E828" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A829" s="9"/>
       <c r="B829" s="2"/>
       <c r="C829" s="8"/>
       <c r="D829" s="8"/>
-      <c r="E829" s="21"/>
+      <c r="E829" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A830" s="9"/>
       <c r="B830" s="2"/>
       <c r="C830" s="8"/>
       <c r="D830" s="8"/>
-      <c r="E830" s="21"/>
+      <c r="E830" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A831" s="9"/>
       <c r="B831" s="2"/>
       <c r="C831" s="8"/>
       <c r="D831" s="8"/>
-      <c r="E831" s="21"/>
+      <c r="E831" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A832" s="9"/>
       <c r="B832" s="2"/>
       <c r="C832" s="8"/>
       <c r="D832" s="8"/>
-      <c r="E832" s="21"/>
+      <c r="E832" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A833" s="9"/>
       <c r="B833" s="2"/>
       <c r="C833" s="8"/>
       <c r="D833" s="8"/>
-      <c r="E833" s="21"/>
+      <c r="E833" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A834" s="9"/>
       <c r="B834" s="2"/>
       <c r="C834" s="8"/>
       <c r="D834" s="8"/>
-      <c r="E834" s="21"/>
+      <c r="E834" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A835" s="9"/>
       <c r="B835" s="2"/>
       <c r="C835" s="8"/>
       <c r="D835" s="8"/>
-      <c r="E835" s="21"/>
+      <c r="E835" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A836" s="9"/>
       <c r="B836" s="2"/>
       <c r="C836" s="8"/>
       <c r="D836" s="8"/>
-      <c r="E836" s="21"/>
+      <c r="E836" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A837" s="9"/>
       <c r="B837" s="2"/>
       <c r="C837" s="8"/>
       <c r="D837" s="8"/>
-      <c r="E837" s="21"/>
+      <c r="E837" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A838" s="9"/>
       <c r="B838" s="2"/>
       <c r="C838" s="8"/>
       <c r="D838" s="8"/>
-      <c r="E838" s="21"/>
+      <c r="E838" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A839" s="9"/>
       <c r="B839" s="2"/>
       <c r="C839" s="8"/>
       <c r="D839" s="8"/>
-      <c r="E839" s="21"/>
+      <c r="E839" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A840" s="9"/>
       <c r="B840" s="2"/>
       <c r="C840" s="8"/>
       <c r="D840" s="8"/>
-      <c r="E840" s="21"/>
+      <c r="E840" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A841" s="9"/>
       <c r="B841" s="2"/>
       <c r="C841" s="8"/>
       <c r="D841" s="8"/>
-      <c r="E841" s="21"/>
+      <c r="E841" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A842" s="9"/>
       <c r="B842" s="2"/>
       <c r="C842" s="8"/>
       <c r="D842" s="8"/>
-      <c r="E842" s="21"/>
+      <c r="E842" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A843" s="9"/>
       <c r="B843" s="2"/>
       <c r="C843" s="8"/>
       <c r="D843" s="8"/>
-      <c r="E843" s="21"/>
+      <c r="E843" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A844" s="9"/>
       <c r="B844" s="2"/>
       <c r="C844" s="8"/>
       <c r="D844" s="8"/>
-      <c r="E844" s="21"/>
+      <c r="E844" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A845" s="9"/>
       <c r="B845" s="2"/>
       <c r="C845" s="8"/>
       <c r="D845" s="8"/>
-      <c r="E845" s="21"/>
+      <c r="E845" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A846" s="9"/>
       <c r="B846" s="2"/>
       <c r="C846" s="8"/>
       <c r="D846" s="8"/>
-      <c r="E846" s="21"/>
+      <c r="E846" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A847" s="9"/>
       <c r="B847" s="2"/>
       <c r="C847" s="8"/>
       <c r="D847" s="8"/>
-      <c r="E847" s="21"/>
+      <c r="E847" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A848" s="9"/>
       <c r="B848" s="2"/>
       <c r="C848" s="8"/>
       <c r="D848" s="8"/>
-      <c r="E848" s="21"/>
+      <c r="E848" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A849" s="9"/>
       <c r="B849" s="2"/>
       <c r="C849" s="8"/>
       <c r="D849" s="8"/>
-      <c r="E849" s="21"/>
+      <c r="E849" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A850" s="9"/>
       <c r="B850" s="2"/>
       <c r="C850" s="8"/>
       <c r="D850" s="8"/>
-      <c r="E850" s="21"/>
+      <c r="E850" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A851" s="9"/>
       <c r="B851" s="2"/>
       <c r="C851" s="8"/>
       <c r="D851" s="8"/>
-      <c r="E851" s="21"/>
+      <c r="E851" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A852" s="9"/>
       <c r="B852" s="2"/>
       <c r="C852" s="8"/>
       <c r="D852" s="8"/>
-      <c r="E852" s="21"/>
+      <c r="E852" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A853" s="9"/>
       <c r="B853" s="2"/>
       <c r="C853" s="8"/>
       <c r="D853" s="8"/>
-      <c r="E853" s="21"/>
+      <c r="E853" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A854" s="9"/>
       <c r="B854" s="2"/>
       <c r="C854" s="8"/>
       <c r="D854" s="8"/>
-      <c r="E854" s="21"/>
+      <c r="E854" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A855" s="9"/>
       <c r="B855" s="2"/>
       <c r="C855" s="8"/>
       <c r="D855" s="8"/>
-      <c r="E855" s="21"/>
+      <c r="E855" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A856" s="9"/>
       <c r="B856" s="2"/>
       <c r="C856" s="8"/>
       <c r="D856" s="8"/>
-      <c r="E856" s="21"/>
+      <c r="E856" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A857" s="9"/>
       <c r="B857" s="2"/>
       <c r="C857" s="8"/>
       <c r="D857" s="8"/>
-      <c r="E857" s="21"/>
+      <c r="E857" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A858" s="9"/>
       <c r="B858" s="2"/>
       <c r="C858" s="8"/>
       <c r="D858" s="8"/>
-      <c r="E858" s="21"/>
+      <c r="E858" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A859" s="9"/>
       <c r="B859" s="2"/>
       <c r="C859" s="8"/>
       <c r="D859" s="8"/>
-      <c r="E859" s="21"/>
+      <c r="E859" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A860" s="9"/>
       <c r="B860" s="2"/>
       <c r="C860" s="8"/>
       <c r="D860" s="8"/>
-      <c r="E860" s="21"/>
+      <c r="E860" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A861" s="9"/>
       <c r="B861" s="2"/>
       <c r="C861" s="8"/>
       <c r="D861" s="8"/>
-      <c r="E861" s="21"/>
+      <c r="E861" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A862" s="9"/>
       <c r="B862" s="2"/>
       <c r="C862" s="8"/>
       <c r="D862" s="8"/>
-      <c r="E862" s="21"/>
+      <c r="E862" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A863" s="9"/>
       <c r="B863" s="2"/>
       <c r="C863" s="8"/>
       <c r="D863" s="8"/>
-      <c r="E863" s="21"/>
+      <c r="E863" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A864" s="9"/>
       <c r="B864" s="2"/>
       <c r="C864" s="8"/>
       <c r="D864" s="8"/>
-      <c r="E864" s="21"/>
+      <c r="E864" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A865" s="9"/>
       <c r="B865" s="2"/>
       <c r="C865" s="8"/>
       <c r="D865" s="8"/>
-      <c r="E865" s="21"/>
+      <c r="E865" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A866" s="9"/>
       <c r="B866" s="2"/>
       <c r="C866" s="8"/>
       <c r="D866" s="8"/>
-      <c r="E866" s="21"/>
+      <c r="E866" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A867" s="9"/>
       <c r="B867" s="2"/>
       <c r="C867" s="8"/>
       <c r="D867" s="8"/>
-      <c r="E867" s="21"/>
+      <c r="E867" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A868" s="9"/>
       <c r="B868" s="2"/>
       <c r="C868" s="8"/>
       <c r="D868" s="8"/>
-      <c r="E868" s="21"/>
+      <c r="E868" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A869" s="9"/>
       <c r="B869" s="2"/>
       <c r="C869" s="8"/>
       <c r="D869" s="8"/>
-      <c r="E869" s="21"/>
+      <c r="E869" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A870" s="9"/>
       <c r="B870" s="2"/>
       <c r="C870" s="8"/>
       <c r="D870" s="8"/>
-      <c r="E870" s="21"/>
+      <c r="E870" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A871" s="9"/>
       <c r="B871" s="2"/>
       <c r="C871" s="8"/>
       <c r="D871" s="8"/>
-      <c r="E871" s="21"/>
+      <c r="E871" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A872" s="9"/>
       <c r="B872" s="2"/>
       <c r="C872" s="8"/>
       <c r="D872" s="8"/>
-      <c r="E872" s="21"/>
+      <c r="E872" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A873" s="9"/>
       <c r="B873" s="2"/>
       <c r="C873" s="8"/>
       <c r="D873" s="8"/>
-      <c r="E873" s="21"/>
+      <c r="E873" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A874" s="9"/>
       <c r="B874" s="2"/>
       <c r="C874" s="8"/>
       <c r="D874" s="8"/>
-      <c r="E874" s="21"/>
+      <c r="E874" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A875" s="9"/>
       <c r="B875" s="2"/>
       <c r="C875" s="8"/>
       <c r="D875" s="8"/>
-      <c r="E875" s="21"/>
+      <c r="E875" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A876" s="9"/>
       <c r="B876" s="2"/>
       <c r="C876" s="8"/>
       <c r="D876" s="8"/>
-      <c r="E876" s="21"/>
+      <c r="E876" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A877" s="9"/>
       <c r="B877" s="2"/>
       <c r="C877" s="8"/>
       <c r="D877" s="8"/>
-      <c r="E877" s="21"/>
+      <c r="E877" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A878" s="9"/>
       <c r="B878" s="2"/>
       <c r="C878" s="8"/>
       <c r="D878" s="8"/>
-      <c r="E878" s="21"/>
+      <c r="E878" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A879" s="9"/>
       <c r="B879" s="2"/>
       <c r="C879" s="8"/>
       <c r="D879" s="8"/>
-      <c r="E879" s="21"/>
+      <c r="E879" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A880" s="9"/>
       <c r="B880" s="2"/>
       <c r="C880" s="8"/>
       <c r="D880" s="8"/>
-      <c r="E880" s="21"/>
+      <c r="E880" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A881" s="9"/>
       <c r="B881" s="2"/>
       <c r="C881" s="8"/>
       <c r="D881" s="8"/>
-      <c r="E881" s="21"/>
+      <c r="E881" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A882" s="9"/>
       <c r="B882" s="2"/>
       <c r="C882" s="8"/>
       <c r="D882" s="8"/>
-      <c r="E882" s="21"/>
+      <c r="E882" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A883" s="9"/>
       <c r="B883" s="2"/>
       <c r="C883" s="8"/>
       <c r="D883" s="8"/>
-      <c r="E883" s="21"/>
+      <c r="E883" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A884" s="9"/>
       <c r="B884" s="2"/>
       <c r="C884" s="8"/>
       <c r="D884" s="8"/>
-      <c r="E884" s="21"/>
+      <c r="E884" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A885" s="9"/>
       <c r="B885" s="2"/>
       <c r="C885" s="8"/>
       <c r="D885" s="8"/>
-      <c r="E885" s="21"/>
+      <c r="E885" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A886" s="9"/>
       <c r="B886" s="2"/>
       <c r="C886" s="8"/>
       <c r="D886" s="8"/>
-      <c r="E886" s="21"/>
+      <c r="E886" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A887" s="9"/>
       <c r="B887" s="2"/>
       <c r="C887" s="8"/>
       <c r="D887" s="8"/>
-      <c r="E887" s="21"/>
+      <c r="E887" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A888" s="9"/>
       <c r="B888" s="2"/>
       <c r="C888" s="8"/>
       <c r="D888" s="8"/>
-      <c r="E888" s="21"/>
+      <c r="E888" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A889" s="9"/>
       <c r="B889" s="2"/>
       <c r="C889" s="8"/>
       <c r="D889" s="8"/>
-      <c r="E889" s="21"/>
+      <c r="E889" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A890" s="9"/>
       <c r="B890" s="2"/>
       <c r="C890" s="8"/>
       <c r="D890" s="8"/>
-      <c r="E890" s="21"/>
+      <c r="E890" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A891" s="9"/>
       <c r="B891" s="2"/>
       <c r="C891" s="8"/>
       <c r="D891" s="8"/>
-      <c r="E891" s="21"/>
+      <c r="E891" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A892" s="9"/>
       <c r="B892" s="2"/>
       <c r="C892" s="8"/>
       <c r="D892" s="8"/>
-      <c r="E892" s="21"/>
+      <c r="E892" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A893" s="9"/>
       <c r="B893" s="2"/>
       <c r="C893" s="8"/>
       <c r="D893" s="8"/>
-      <c r="E893" s="21"/>
+      <c r="E893" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A894" s="9"/>
       <c r="B894" s="2"/>
       <c r="C894" s="8"/>
       <c r="D894" s="8"/>
-      <c r="E894" s="21"/>
+      <c r="E894" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A895" s="9"/>
       <c r="B895" s="2"/>
       <c r="C895" s="8"/>
       <c r="D895" s="8"/>
-      <c r="E895" s="21"/>
+      <c r="E895" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A896" s="9"/>
       <c r="B896" s="2"/>
       <c r="C896" s="8"/>
       <c r="D896" s="8"/>
-      <c r="E896" s="21"/>
+      <c r="E896" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A897" s="9"/>
       <c r="B897" s="2"/>
       <c r="C897" s="8"/>
       <c r="D897" s="8"/>
-      <c r="E897" s="21"/>
+      <c r="E897" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A898" s="9"/>
       <c r="B898" s="2"/>
       <c r="C898" s="8"/>
       <c r="D898" s="8"/>
-      <c r="E898" s="21"/>
+      <c r="E898" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A899" s="9"/>
       <c r="B899" s="2"/>
       <c r="C899" s="8"/>
       <c r="D899" s="8"/>
-      <c r="E899" s="21"/>
+      <c r="E899" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A900" s="9"/>
       <c r="B900" s="2"/>
       <c r="C900" s="8"/>
       <c r="D900" s="8"/>
-      <c r="E900" s="21"/>
+      <c r="E900" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A901" s="9"/>
       <c r="B901" s="2"/>
       <c r="C901" s="8"/>
       <c r="D901" s="8"/>
-      <c r="E901" s="21"/>
+      <c r="E901" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A902" s="9"/>
       <c r="B902" s="2"/>
       <c r="C902" s="8"/>
       <c r="D902" s="8"/>
-      <c r="E902" s="21"/>
+      <c r="E902" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A903" s="9"/>
       <c r="B903" s="2"/>
       <c r="C903" s="8"/>
       <c r="D903" s="8"/>
-      <c r="E903" s="21"/>
+      <c r="E903" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A904" s="9"/>
       <c r="B904" s="2"/>
       <c r="C904" s="8"/>
       <c r="D904" s="8"/>
-      <c r="E904" s="21"/>
+      <c r="E904" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A905" s="9"/>
       <c r="B905" s="2"/>
       <c r="C905" s="8"/>
       <c r="D905" s="8"/>
-      <c r="E905" s="21"/>
+      <c r="E905" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A906" s="9"/>
       <c r="B906" s="2"/>
       <c r="C906" s="8"/>
       <c r="D906" s="8"/>
-      <c r="E906" s="21"/>
+      <c r="E906" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A907" s="9"/>
       <c r="B907" s="2"/>
       <c r="C907" s="8"/>
       <c r="D907" s="8"/>
-      <c r="E907" s="21"/>
+      <c r="E907" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A908" s="9"/>
       <c r="B908" s="2"/>
       <c r="C908" s="8"/>
       <c r="D908" s="8"/>
-      <c r="E908" s="21"/>
+      <c r="E908" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A909" s="9"/>
       <c r="B909" s="2"/>
       <c r="C909" s="8"/>
       <c r="D909" s="8"/>
-      <c r="E909" s="21"/>
+      <c r="E909" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A910" s="9"/>
       <c r="B910" s="2"/>
       <c r="C910" s="8"/>
       <c r="D910" s="8"/>
-      <c r="E910" s="21"/>
+      <c r="E910" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A911" s="9"/>
       <c r="B911" s="2"/>
       <c r="C911" s="8"/>
       <c r="D911" s="8"/>
-      <c r="E911" s="21"/>
+      <c r="E911" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A912" s="9"/>
       <c r="B912" s="2"/>
       <c r="C912" s="8"/>
       <c r="D912" s="8"/>
-      <c r="E912" s="21"/>
+      <c r="E912" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A913" s="9"/>
       <c r="B913" s="2"/>
       <c r="C913" s="8"/>
       <c r="D913" s="8"/>
-      <c r="E913" s="21"/>
+      <c r="E913" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A914" s="9"/>
       <c r="B914" s="2"/>
       <c r="C914" s="8"/>
       <c r="D914" s="8"/>
-      <c r="E914" s="21"/>
+      <c r="E914" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A915" s="9"/>
       <c r="B915" s="2"/>
       <c r="C915" s="8"/>
       <c r="D915" s="8"/>
-      <c r="E915" s="21"/>
+      <c r="E915" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A916" s="9"/>
       <c r="B916" s="2"/>
       <c r="C916" s="8"/>
       <c r="D916" s="8"/>
-      <c r="E916" s="21"/>
+      <c r="E916" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A917" s="9"/>
       <c r="B917" s="2"/>
       <c r="C917" s="8"/>
       <c r="D917" s="8"/>
-      <c r="E917" s="21"/>
+      <c r="E917" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A918" s="9"/>
       <c r="B918" s="2"/>
       <c r="C918" s="8"/>
       <c r="D918" s="8"/>
-      <c r="E918" s="21"/>
+      <c r="E918" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A919" s="9"/>
       <c r="B919" s="2"/>
       <c r="C919" s="8"/>
       <c r="D919" s="8"/>
-      <c r="E919" s="21"/>
+      <c r="E919" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A920" s="9"/>
       <c r="B920" s="2"/>
       <c r="C920" s="8"/>
       <c r="D920" s="8"/>
-      <c r="E920" s="21"/>
+      <c r="E920" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A921" s="9"/>
       <c r="B921" s="2"/>
       <c r="C921" s="8"/>
       <c r="D921" s="8"/>
-      <c r="E921" s="21"/>
+      <c r="E921" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A922" s="9"/>
       <c r="B922" s="2"/>
       <c r="C922" s="8"/>
       <c r="D922" s="8"/>
-      <c r="E922" s="21"/>
+      <c r="E922" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A923" s="9"/>
       <c r="B923" s="2"/>
       <c r="C923" s="8"/>
       <c r="D923" s="8"/>
-      <c r="E923" s="21"/>
+      <c r="E923" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A924" s="9"/>
       <c r="B924" s="2"/>
       <c r="C924" s="8"/>
       <c r="D924" s="8"/>
-      <c r="E924" s="21"/>
+      <c r="E924" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A925" s="9"/>
       <c r="B925" s="2"/>
       <c r="C925" s="8"/>
       <c r="D925" s="8"/>
-      <c r="E925" s="21"/>
+      <c r="E925" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A926" s="9"/>
       <c r="B926" s="2"/>
       <c r="C926" s="8"/>
       <c r="D926" s="8"/>
-      <c r="E926" s="21"/>
+      <c r="E926" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A927" s="9"/>
       <c r="B927" s="2"/>
       <c r="C927" s="8"/>
       <c r="D927" s="8"/>
-      <c r="E927" s="21"/>
+      <c r="E927" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A928" s="9"/>
       <c r="B928" s="2"/>
       <c r="C928" s="8"/>
       <c r="D928" s="8"/>
-      <c r="E928" s="21"/>
+      <c r="E928" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A929" s="9"/>
       <c r="B929" s="2"/>
       <c r="C929" s="8"/>
       <c r="D929" s="8"/>
-      <c r="E929" s="21"/>
+      <c r="E929" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A930" s="9"/>
       <c r="B930" s="2"/>
       <c r="C930" s="8"/>
       <c r="D930" s="8"/>
-      <c r="E930" s="21"/>
+      <c r="E930" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A931" s="9"/>
       <c r="B931" s="2"/>
       <c r="C931" s="8"/>
       <c r="D931" s="8"/>
-      <c r="E931" s="21"/>
+      <c r="E931" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A932" s="9"/>
       <c r="B932" s="2"/>
       <c r="C932" s="8"/>
       <c r="D932" s="8"/>
-      <c r="E932" s="21"/>
+      <c r="E932" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A933" s="9"/>
       <c r="B933" s="2"/>
       <c r="C933" s="8"/>
       <c r="D933" s="8"/>
-      <c r="E933" s="21"/>
+      <c r="E933" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A934" s="9"/>
       <c r="B934" s="2"/>
       <c r="C934" s="8"/>
       <c r="D934" s="8"/>
-      <c r="E934" s="21"/>
+      <c r="E934" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A935" s="9"/>
       <c r="B935" s="2"/>
       <c r="C935" s="8"/>
       <c r="D935" s="8"/>
-      <c r="E935" s="21"/>
+      <c r="E935" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A936" s="9"/>
       <c r="B936" s="2"/>
       <c r="C936" s="8"/>
       <c r="D936" s="8"/>
-      <c r="E936" s="21"/>
+      <c r="E936" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A937" s="9"/>
       <c r="B937" s="2"/>
       <c r="C937" s="8"/>
       <c r="D937" s="8"/>
-      <c r="E937" s="21"/>
+      <c r="E937" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A938" s="9"/>
       <c r="B938" s="2"/>
       <c r="C938" s="8"/>
       <c r="D938" s="8"/>
-      <c r="E938" s="21"/>
+      <c r="E938" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A939" s="9"/>
       <c r="B939" s="2"/>
       <c r="C939" s="8"/>
       <c r="D939" s="8"/>
-      <c r="E939" s="21"/>
+      <c r="E939" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A940" s="9"/>
       <c r="B940" s="2"/>
       <c r="C940" s="8"/>
       <c r="D940" s="8"/>
-      <c r="E940" s="21"/>
+      <c r="E940" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A941" s="9"/>
       <c r="B941" s="2"/>
       <c r="C941" s="8"/>
       <c r="D941" s="8"/>
-      <c r="E941" s="21"/>
+      <c r="E941" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A942" s="9"/>
       <c r="B942" s="2"/>
       <c r="C942" s="8"/>
       <c r="D942" s="8"/>
-      <c r="E942" s="21"/>
+      <c r="E942" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A943" s="9"/>
       <c r="B943" s="2"/>
       <c r="C943" s="8"/>
       <c r="D943" s="8"/>
-      <c r="E943" s="21"/>
+      <c r="E943" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A944" s="9"/>
       <c r="B944" s="2"/>
       <c r="C944" s="8"/>
       <c r="D944" s="8"/>
-      <c r="E944" s="21"/>
+      <c r="E944" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A945" s="9"/>
       <c r="B945" s="2"/>
       <c r="C945" s="8"/>
       <c r="D945" s="8"/>
-      <c r="E945" s="21"/>
+      <c r="E945" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A946" s="9"/>
       <c r="B946" s="2"/>
       <c r="C946" s="8"/>
       <c r="D946" s="8"/>
-      <c r="E946" s="21"/>
+      <c r="E946" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A947" s="9"/>
       <c r="B947" s="2"/>
       <c r="C947" s="8"/>
       <c r="D947" s="8"/>
-      <c r="E947" s="21"/>
+      <c r="E947" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A948" s="9"/>
       <c r="B948" s="2"/>
       <c r="C948" s="8"/>
       <c r="D948" s="8"/>
-      <c r="E948" s="21"/>
+      <c r="E948" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A949" s="9"/>
       <c r="B949" s="2"/>
       <c r="C949" s="8"/>
       <c r="D949" s="8"/>
-      <c r="E949" s="21"/>
+      <c r="E949" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A950" s="9"/>
       <c r="B950" s="2"/>
       <c r="C950" s="8"/>
       <c r="D950" s="8"/>
-      <c r="E950" s="21"/>
+      <c r="E950" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A951" s="9"/>
       <c r="B951" s="2"/>
       <c r="C951" s="8"/>
       <c r="D951" s="8"/>
-      <c r="E951" s="21"/>
+      <c r="E951" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A952" s="9"/>
       <c r="B952" s="2"/>
       <c r="C952" s="8"/>
       <c r="D952" s="8"/>
-      <c r="E952" s="21"/>
+      <c r="E952" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A953" s="9"/>
       <c r="B953" s="2"/>
       <c r="C953" s="8"/>
       <c r="D953" s="8"/>
-      <c r="E953" s="21"/>
+      <c r="E953" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A954" s="9"/>
       <c r="B954" s="2"/>
       <c r="C954" s="8"/>
       <c r="D954" s="8"/>
-      <c r="E954" s="21"/>
+      <c r="E954" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A955" s="9"/>
       <c r="B955" s="2"/>
       <c r="C955" s="8"/>
       <c r="D955" s="8"/>
-      <c r="E955" s="21"/>
+      <c r="E955" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A956" s="9"/>
       <c r="B956" s="2"/>
       <c r="C956" s="8"/>
       <c r="D956" s="8"/>
-      <c r="E956" s="21"/>
+      <c r="E956" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A957" s="9"/>
       <c r="B957" s="2"/>
       <c r="C957" s="8"/>
       <c r="D957" s="8"/>
-      <c r="E957" s="21"/>
+      <c r="E957" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A958" s="9"/>
       <c r="B958" s="2"/>
       <c r="C958" s="8"/>
       <c r="D958" s="8"/>
-      <c r="E958" s="21"/>
+      <c r="E958" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A959" s="9"/>
       <c r="B959" s="2"/>
       <c r="C959" s="8"/>
       <c r="D959" s="8"/>
-      <c r="E959" s="21"/>
+      <c r="E959" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A960" s="9"/>
       <c r="B960" s="2"/>
       <c r="C960" s="8"/>
       <c r="D960" s="8"/>
-      <c r="E960" s="21"/>
+      <c r="E960" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A961" s="9"/>
       <c r="B961" s="2"/>
       <c r="C961" s="8"/>
       <c r="D961" s="8"/>
-      <c r="E961" s="21"/>
+      <c r="E961" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A962" s="9"/>
       <c r="B962" s="2"/>
       <c r="C962" s="8"/>
       <c r="D962" s="8"/>
-      <c r="E962" s="21"/>
+      <c r="E962" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A963" s="9"/>
       <c r="B963" s="2"/>
       <c r="C963" s="8"/>
       <c r="D963" s="8"/>
-      <c r="E963" s="21"/>
+      <c r="E963" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A964" s="9"/>
       <c r="B964" s="2"/>
       <c r="C964" s="8"/>
       <c r="D964" s="8"/>
-      <c r="E964" s="21"/>
+      <c r="E964" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A965" s="9"/>
       <c r="B965" s="2"/>
       <c r="C965" s="8"/>
       <c r="D965" s="8"/>
-      <c r="E965" s="21"/>
+      <c r="E965" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A966" s="9"/>
       <c r="B966" s="2"/>
       <c r="C966" s="8"/>
       <c r="D966" s="8"/>
-      <c r="E966" s="21"/>
+      <c r="E966" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="45.75" customFormat="1" s="7">
       <c r="A967" s="9"/>
       <c r="B967" s="2"/>
       <c r="C967" s="8"/>
       <c r="D967" s="8"/>
-      <c r="E967" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A968" s="9"/>
-      <c r="B968" s="2"/>
-      <c r="C968" s="8"/>
-      <c r="D968" s="8"/>
-      <c r="E968" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="45.75" customFormat="1" s="7">
-      <c r="A969" s="9"/>
-      <c r="B969" s="2"/>
-      <c r="C969" s="8"/>
-      <c r="D969" s="8"/>
-      <c r="E969" s="21"/>
+      <c r="E967" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
